--- a/data/CMB.MI.xlsx
+++ b/data/CMB.MI.xlsx
@@ -44,16 +44,16 @@
     <t xml:space="preserve">CMB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91149139404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65968418121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75061416625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75760841369629</t>
+    <t xml:space="preserve">9.91149234771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6596851348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75061321258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75761032104492</t>
   </si>
   <si>
     <t xml:space="preserve">9.79258251190186</t>
@@ -68,97 +68,97 @@
     <t xml:space="preserve">9.66667747497559</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61071968078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68766212463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61771392822266</t>
+    <t xml:space="preserve">9.61072158813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68766117095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61771583557129</t>
   </si>
   <si>
     <t xml:space="preserve">9.53377819061279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54077339172363</t>
+    <t xml:space="preserve">9.540771484375</t>
   </si>
   <si>
     <t xml:space="preserve">9.44284725189209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17005348205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10010814666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17704772949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67342853546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63845539093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93922805786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76436042785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74337863922119</t>
+    <t xml:space="preserve">9.17005443572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10010719299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1770486831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67342948913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63845634460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93922996520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76436138153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74337673187256</t>
   </si>
   <si>
     <t xml:space="preserve">8.95321846008301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12808513641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56875133514404</t>
+    <t xml:space="preserve">9.12808609008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56875324249268</t>
   </si>
   <si>
     <t xml:space="preserve">9.60372543334961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40787315368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20502853393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30295372009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03715515136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98819255828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22601127624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14207363128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3309326171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34492111206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23300552368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30994701385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52678489685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51279449462891</t>
+    <t xml:space="preserve">9.40787410736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20502758026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30295467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03715419769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98819160461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2260103225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14207458496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33093166351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34492206573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23300647735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3099479675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52678394317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51279544830322</t>
   </si>
   <si>
     <t xml:space="preserve">9.47082710266113</t>
@@ -167,34 +167,34 @@
     <t xml:space="preserve">9.69465732574463</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59672927856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49880504608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42186260223389</t>
+    <t xml:space="preserve">9.5967321395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49880409240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42186450958252</t>
   </si>
   <si>
     <t xml:space="preserve">9.50580024719238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31694221496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11409568786621</t>
+    <t xml:space="preserve">9.31694412231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11409664154053</t>
   </si>
   <si>
     <t xml:space="preserve">9.107102394104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46383094787598</t>
+    <t xml:space="preserve">9.46383190155029</t>
   </si>
   <si>
     <t xml:space="preserve">9.37290000915527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.554762840271</t>
+    <t xml:space="preserve">9.55476188659668</t>
   </si>
   <si>
     <t xml:space="preserve">9.37989521026611</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">9.43585205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54776859283447</t>
+    <t xml:space="preserve">9.54776763916016</t>
   </si>
   <si>
     <t xml:space="preserve">9.72962951660156</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">9.63170528411865</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56346988677979</t>
+    <t xml:space="preserve">9.5634708404541</t>
   </si>
   <si>
     <t xml:space="preserve">9.57071113586426</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">9.53451347351074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70102310180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75893878936768</t>
+    <t xml:space="preserve">9.70102214813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75893974304199</t>
   </si>
   <si>
     <t xml:space="preserve">9.8747730255127</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">9.84581470489502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73722076416016</t>
+    <t xml:space="preserve">9.73722171783447</t>
   </si>
   <si>
     <t xml:space="preserve">10.3163871765137</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">10.1281576156616</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1353979110718</t>
+    <t xml:space="preserve">10.1353969573975</t>
   </si>
   <si>
     <t xml:space="preserve">10.0268039703369</t>
@@ -251,34 +251,34 @@
     <t xml:space="preserve">10.1933135986328</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1136798858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92544937133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93268775939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91096973419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83133602142334</t>
+    <t xml:space="preserve">10.1136779785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92545032501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93269062042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91097164154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83133411407471</t>
   </si>
   <si>
     <t xml:space="preserve">9.77341938018799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74446105957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76617908477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6937837600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93992900848389</t>
+    <t xml:space="preserve">9.744460105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76618003845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69378471374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93992805480957</t>
   </si>
   <si>
     <t xml:space="preserve">9.98336601257324</t>
@@ -287,22 +287,22 @@
     <t xml:space="preserve">9.9906063079834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81685543060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83857536315918</t>
+    <t xml:space="preserve">9.81685638427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83857440948486</t>
   </si>
   <si>
     <t xml:space="preserve">9.94716835021973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91821098327637</t>
+    <t xml:space="preserve">9.91821002960205</t>
   </si>
   <si>
     <t xml:space="preserve">9.88925266265869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46211624145508</t>
+    <t xml:space="preserve">9.46211719512939</t>
   </si>
   <si>
     <t xml:space="preserve">9.65034675598145</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">9.62862777709961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54899215698242</t>
+    <t xml:space="preserve">9.54899120330811</t>
   </si>
   <si>
     <t xml:space="preserve">9.62138843536377</t>
@@ -320,31 +320,31 @@
     <t xml:space="preserve">9.7082633972168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63586616516113</t>
+    <t xml:space="preserve">9.63586711883545</t>
   </si>
   <si>
     <t xml:space="preserve">9.64310646057129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66482639312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71550178527832</t>
+    <t xml:space="preserve">9.66482543945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71550273895264</t>
   </si>
   <si>
     <t xml:space="preserve">9.82409572601318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88201332092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86029529571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79513740539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85305500030518</t>
+    <t xml:space="preserve">9.88201236724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8602933883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79513835906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85305404663086</t>
   </si>
   <si>
     <t xml:space="preserve">9.6793041229248</t>
@@ -353,10 +353,10 @@
     <t xml:space="preserve">9.67206478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47659778594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48383712768555</t>
+    <t xml:space="preserve">9.47659683227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48383617401123</t>
   </si>
   <si>
     <t xml:space="preserve">9.49107551574707</t>
@@ -368,46 +368,46 @@
     <t xml:space="preserve">9.37524127960205</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25940990447998</t>
+    <t xml:space="preserve">9.2594108581543</t>
   </si>
   <si>
     <t xml:space="preserve">9.34628391265869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41144180297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31008529663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19425296783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17977523803711</t>
+    <t xml:space="preserve">9.4114408493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31008625030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19425201416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17977333068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.26664924621582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25216960906982</t>
+    <t xml:space="preserve">9.25217056274414</t>
   </si>
   <si>
     <t xml:space="preserve">9.28836727142334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30284786224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33904552459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2449312210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20873165130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13633728027344</t>
+    <t xml:space="preserve">9.30284690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33904457092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24493026733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20873260498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13633632659912</t>
   </si>
   <si>
     <t xml:space="preserve">8.91914939880371</t>
@@ -416,13 +416,13 @@
     <t xml:space="preserve">8.88295269012451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14357566833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16529560089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2304515838623</t>
+    <t xml:space="preserve">9.14357757568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16529655456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23045063018799</t>
   </si>
   <si>
     <t xml:space="preserve">9.33180522918701</t>
@@ -431,43 +431,43 @@
     <t xml:space="preserve">9.15805625915527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29560852050781</t>
+    <t xml:space="preserve">9.2956075668335</t>
   </si>
   <si>
     <t xml:space="preserve">9.4259204864502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38248157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43315887451172</t>
+    <t xml:space="preserve">9.38248252868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43315982818604</t>
   </si>
   <si>
     <t xml:space="preserve">10.0195646286011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0050849914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0630016326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1571168899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2946691513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3525848388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4249811172485</t>
+    <t xml:space="preserve">10.0050840377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0630025863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1571159362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2946681976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3525838851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4249801635742</t>
   </si>
   <si>
     <t xml:space="preserve">10.801438331604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5697727203369</t>
+    <t xml:space="preserve">10.5697717666626</t>
   </si>
   <si>
     <t xml:space="preserve">10.6276874542236</t>
@@ -479,10 +479,10 @@
     <t xml:space="preserve">10.5118551254272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6494064331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7797212600708</t>
+    <t xml:space="preserve">10.6494073867798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7797193527222</t>
   </si>
   <si>
     <t xml:space="preserve">10.9317502975464</t>
@@ -491,37 +491,37 @@
     <t xml:space="preserve">10.9824266433716</t>
   </si>
   <si>
-    <t xml:space="preserve">10.873833656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0258636474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7435207366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3598251342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3236265182495</t>
+    <t xml:space="preserve">10.8738346099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0258646011353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.743522644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.359824180603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3236274719238</t>
   </si>
   <si>
     <t xml:space="preserve">10.4756574630737</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8593549728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.772479057312</t>
+    <t xml:space="preserve">10.8593559265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7724800109863</t>
   </si>
   <si>
     <t xml:space="preserve">10.9389896392822</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7290420532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8665933609009</t>
+    <t xml:space="preserve">10.7290410995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8665943145752</t>
   </si>
   <si>
     <t xml:space="preserve">10.786958694458</t>
@@ -530,25 +530,25 @@
     <t xml:space="preserve">10.8231554031372</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7580003738403</t>
+    <t xml:space="preserve">10.7580013275146</t>
   </si>
   <si>
     <t xml:space="preserve">10.7507610321045</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7218036651611</t>
+    <t xml:space="preserve">10.7218027114868</t>
   </si>
   <si>
     <t xml:space="preserve">10.6638860702515</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7652397155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0041446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9462299346924</t>
+    <t xml:space="preserve">10.7652406692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0041456222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9462289810181</t>
   </si>
   <si>
     <t xml:space="preserve">11.0910205841064</t>
@@ -557,19 +557,19 @@
     <t xml:space="preserve">11.5036764144897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4529981613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4457588195801</t>
+    <t xml:space="preserve">11.4529991149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4457597732544</t>
   </si>
   <si>
     <t xml:space="preserve">11.4747180938721</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4964370727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7787809371948</t>
+    <t xml:space="preserve">11.4964361190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7787790298462</t>
   </si>
   <si>
     <t xml:space="preserve">11.9452905654907</t>
@@ -578,16 +578,16 @@
     <t xml:space="preserve">12.5389347076416</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4448204040527</t>
+    <t xml:space="preserve">12.4448213577271</t>
   </si>
   <si>
     <t xml:space="preserve">12.5172166824341</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5534133911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7416429519653</t>
+    <t xml:space="preserve">12.5534143447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7416439056396</t>
   </si>
   <si>
     <t xml:space="preserve">13.2990894317627</t>
@@ -596,61 +596,61 @@
     <t xml:space="preserve">13.4583606719971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4728393554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7407035827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5959138870239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.610390663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3714838027954</t>
+    <t xml:space="preserve">13.4728403091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.740704536438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.595911026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6103897094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">13.3932037353516</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3208084106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4438810348511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6827850341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8927364349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4139823913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5008592605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4501819610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5442953109741</t>
+    <t xml:space="preserve">13.3208055496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4438829421997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.682785987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8927335739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4139833450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5008563995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4501829147339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5442962646484</t>
   </si>
   <si>
     <t xml:space="preserve">14.55153465271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6601285934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5949726104736</t>
+    <t xml:space="preserve">14.6601295471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.594970703125</t>
   </si>
   <si>
     <t xml:space="preserve">14.522575378418</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7390546798706</t>
+    <t xml:space="preserve">14.7390556335449</t>
   </si>
   <si>
     <t xml:space="preserve">14.8515663146973</t>
@@ -659,70 +659,70 @@
     <t xml:space="preserve">14.6715469360352</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6040410995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.514030456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1764945983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8890724182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1914968490601</t>
+    <t xml:space="preserve">14.604040145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5140323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.176495552063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8890705108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1914978027344</t>
   </si>
   <si>
     <t xml:space="preserve">14.5215330123901</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5065298080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7990598678589</t>
+    <t xml:space="preserve">14.5065307617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7990589141846</t>
   </si>
   <si>
     <t xml:space="preserve">14.8815698623657</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8740692138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8065624237061</t>
+    <t xml:space="preserve">14.8740701675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8065605163574</t>
   </si>
   <si>
     <t xml:space="preserve">14.9640798568726</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1065940856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9016761779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4342346191406</t>
+    <t xml:space="preserve">15.1065921783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9016780853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.434232711792</t>
   </si>
   <si>
     <t xml:space="preserve">16.3442230224609</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9316806793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7516613006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4741325378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1741008758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1417026519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8791742324829</t>
+    <t xml:space="preserve">15.9316778182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7516593933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4741306304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1741018295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1417007446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8791761398315</t>
   </si>
   <si>
     <t xml:space="preserve">15.481632232666</t>
@@ -731,13 +731,13 @@
     <t xml:space="preserve">15.6316480636597</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1267013549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0291919708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8341693878174</t>
+    <t xml:space="preserve">16.1267032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0291900634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.834171295166</t>
   </si>
   <si>
     <t xml:space="preserve">15.7366600036621</t>
@@ -746,49 +746,49 @@
     <t xml:space="preserve">15.3841218948364</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6991567611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6766510009766</t>
+    <t xml:space="preserve">15.6991548538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6766548156738</t>
   </si>
   <si>
     <t xml:space="preserve">15.5416402816772</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7141580581665</t>
+    <t xml:space="preserve">15.7141561508179</t>
   </si>
   <si>
     <t xml:space="preserve">15.5866451263428</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7741632461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.246711730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2767181396484</t>
+    <t xml:space="preserve">15.7741651535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2467136383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2767162322998</t>
   </si>
   <si>
     <t xml:space="preserve">16.3517227172852</t>
   </si>
   <si>
-    <t xml:space="preserve">16.524242401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6367530822754</t>
+    <t xml:space="preserve">16.5242443084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6367568969727</t>
   </si>
   <si>
     <t xml:space="preserve">16.5392436981201</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2242107391357</t>
+    <t xml:space="preserve">16.2242126464844</t>
   </si>
   <si>
     <t xml:space="preserve">15.8491706848145</t>
   </si>
   <si>
-    <t xml:space="preserve">15.856671333313</t>
+    <t xml:space="preserve">15.8566732406616</t>
   </si>
   <si>
     <t xml:space="preserve">15.8266696929932</t>
@@ -800,40 +800,40 @@
     <t xml:space="preserve">15.8041658401489</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7216567993164</t>
+    <t xml:space="preserve">15.7216548919678</t>
   </si>
   <si>
     <t xml:space="preserve">15.6166467666626</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7441596984863</t>
+    <t xml:space="preserve">15.744161605835</t>
   </si>
   <si>
     <t xml:space="preserve">15.8116683959961</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4516286849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4216251373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3766202926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5191373825073</t>
+    <t xml:space="preserve">15.4516305923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4216270446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3766222000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5191354751587</t>
   </si>
   <si>
     <t xml:space="preserve">15.5266370773315</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2266063690186</t>
+    <t xml:space="preserve">15.2266044616699</t>
   </si>
   <si>
     <t xml:space="preserve">15.3016138076782</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2416067123413</t>
+    <t xml:space="preserve">15.2416086196899</t>
   </si>
   <si>
     <t xml:space="preserve">15.4441289901733</t>
@@ -845,13 +845,13 @@
     <t xml:space="preserve">15.4066257476807</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1966028213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1515979766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3991279602051</t>
+    <t xml:space="preserve">15.1966037750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1515998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3991260528564</t>
   </si>
   <si>
     <t xml:space="preserve">15.7591609954834</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">16.8692779541016</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6268577575684</t>
+    <t xml:space="preserve">17.626859664917</t>
   </si>
   <si>
     <t xml:space="preserve">18.2269229888916</t>
@@ -875,16 +875,16 @@
     <t xml:space="preserve">19.3820419311523</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0820121765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1270179748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.894495010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7519798278809</t>
+    <t xml:space="preserve">19.0820140838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1270160675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8944931030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7519760131836</t>
   </si>
   <si>
     <t xml:space="preserve">18.8644905090332</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">18.6769695281982</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5194511413574</t>
+    <t xml:space="preserve">18.5194530487061</t>
   </si>
   <si>
     <t xml:space="preserve">18.631965637207</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">18.2569255828857</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2419261932373</t>
+    <t xml:space="preserve">18.2419242858887</t>
   </si>
   <si>
     <t xml:space="preserve">18.1894187927246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1519145965576</t>
+    <t xml:space="preserve">18.1519165039062</t>
   </si>
   <si>
     <t xml:space="preserve">18.0319023132324</t>
@@ -926,25 +926,25 @@
     <t xml:space="preserve">17.9643955230713</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9268913269043</t>
+    <t xml:space="preserve">17.9268894195557</t>
   </si>
   <si>
     <t xml:space="preserve">17.6793651580811</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9043884277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7318725585938</t>
+    <t xml:space="preserve">17.904390335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7318706512451</t>
   </si>
   <si>
     <t xml:space="preserve">17.9718971252441</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0018997192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0469036102295</t>
+    <t xml:space="preserve">18.0018978118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0469017028809</t>
   </si>
   <si>
     <t xml:space="preserve">18.0244007110596</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">17.9343910217285</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9868984222412</t>
+    <t xml:space="preserve">17.9868946075439</t>
   </si>
   <si>
     <t xml:space="preserve">17.8068790435791</t>
@@ -977,10 +977,10 @@
     <t xml:space="preserve">16.711763381958</t>
   </si>
   <si>
-    <t xml:space="preserve">16.509241104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.23171043396</t>
+    <t xml:space="preserve">16.5092449188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2317123413086</t>
   </si>
   <si>
     <t xml:space="preserve">17.0868015289307</t>
@@ -992,64 +992,64 @@
     <t xml:space="preserve">17.1918144226074</t>
   </si>
   <si>
-    <t xml:space="preserve">17.124303817749</t>
+    <t xml:space="preserve">17.1243057250977</t>
   </si>
   <si>
     <t xml:space="preserve">17.1768112182617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6667575836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.139310836792</t>
+    <t xml:space="preserve">16.6667556762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1393089294434</t>
   </si>
   <si>
     <t xml:space="preserve">17.0192947387695</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8092746734619</t>
+    <t xml:space="preserve">16.8092727661133</t>
   </si>
   <si>
     <t xml:space="preserve">16.4642372131348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8467750549316</t>
+    <t xml:space="preserve">16.8467769622803</t>
   </si>
   <si>
     <t xml:space="preserve">17.0568008422852</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8017749786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4192333221436</t>
+    <t xml:space="preserve">16.8017730712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4192314147949</t>
   </si>
   <si>
     <t xml:space="preserve">16.4492340087891</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4417343139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2092094421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0441932678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0366916656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2017059326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5917472839355</t>
+    <t xml:space="preserve">16.4417324066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2092113494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0441913604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0366897583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2017078399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5917510986328</t>
   </si>
   <si>
     <t xml:space="preserve">16.8392753601074</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7642688751221</t>
+    <t xml:space="preserve">16.7642669677734</t>
   </si>
   <si>
     <t xml:space="preserve">16.8767795562744</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">17.476842880249</t>
   </si>
   <si>
-    <t xml:space="preserve">17.664363861084</t>
+    <t xml:space="preserve">17.6643619537354</t>
   </si>
   <si>
     <t xml:space="preserve">17.8518829345703</t>
@@ -1085,232 +1085,232 @@
     <t xml:space="preserve">18.0769062042236</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5893573760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9892902374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5767478942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5017395019531</t>
+    <t xml:space="preserve">17.58935546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9892921447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5767498016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5017433166504</t>
   </si>
   <si>
     <t xml:space="preserve">16.3142223358154</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9391813278198</t>
+    <t xml:space="preserve">15.9391794204712</t>
   </si>
   <si>
     <t xml:space="preserve">15.9766845703125</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0516948699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3892307281494</t>
+    <t xml:space="preserve">16.0516929626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3892288208008</t>
   </si>
   <si>
     <t xml:space="preserve">17.2893218994141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.776876449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7393703460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4393405914307</t>
+    <t xml:space="preserve">17.7768745422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.739372253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.439338684082</t>
   </si>
   <si>
     <t xml:space="preserve">17.7018661499023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.514347076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4894504547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3394374847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.039400100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8893871307373</t>
+    <t xml:space="preserve">17.5143451690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4894485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3394336700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0394020080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8893890380859</t>
   </si>
   <si>
     <t xml:space="preserve">18.4144420623779</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5644569396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2770347595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3520412445068</t>
+    <t xml:space="preserve">18.5644607543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2770328521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3520393371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7270812988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2686080932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9591617584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6554145812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1969413757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.384651184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1912479400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3459720611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.804443359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.572359085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6497192382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4949989318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5666637420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9477767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4506244659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5336780548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8818054199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1138877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2299270629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5393714904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.616735458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4233303070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0365238189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1081924438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8431224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0752048492432</t>
   </si>
   <si>
     <t xml:space="preserve">19.7270793914795</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2686100006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9591636657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6554164886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1969413757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3846492767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1912498474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.34596824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.804443359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.572359085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6497192382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4949989318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5666675567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9477767944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4506225585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5336780548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8818054199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1138877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2299289703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5393695831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6167335510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4233303070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0365257263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1081924438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8431224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0752048492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7270812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4620132446289</t>
+    <t xml:space="preserve">20.4620094299316</t>
   </si>
   <si>
     <t xml:space="preserve">19.4176349639893</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6110401153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3402767181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2629146575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2242336273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6440238952637</t>
+    <t xml:space="preserve">19.6110382080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.340274810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2629127502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2242374420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6440258026123</t>
   </si>
   <si>
     <t xml:space="preserve">18.7987461090088</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1468715667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4563179016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3015956878662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0308322906494</t>
+    <t xml:space="preserve">19.1468734741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.45631980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3015937805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0308303833008</t>
   </si>
   <si>
     <t xml:space="preserve">19.3789558410645</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9921493530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1855506896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9978466033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7657623291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8374271392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6827068328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0695133209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7930545806885</t>
+    <t xml:space="preserve">18.992151260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1855525970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9978446960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7657604217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8374290466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6827049255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0695114135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7930564880371</t>
   </si>
   <si>
     <t xml:space="preserve">16.7873611450195</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1684684753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7043037414551</t>
+    <t xml:space="preserve">16.1684703826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7043018341064</t>
   </si>
   <si>
     <t xml:space="preserve">15.5108985900879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6326370239258</t>
+    <t xml:space="preserve">16.6326389312744</t>
   </si>
   <si>
     <t xml:space="preserve">17.1354827880859</t>
@@ -1319,13 +1319,13 @@
     <t xml:space="preserve">16.2458305358887</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6656246185303</t>
+    <t xml:space="preserve">15.6656265258789</t>
   </si>
   <si>
     <t xml:space="preserve">15.54958152771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5882616043091</t>
+    <t xml:space="preserve">15.5882596969604</t>
   </si>
   <si>
     <t xml:space="preserve">15.3174982070923</t>
@@ -1334,25 +1334,25 @@
     <t xml:space="preserve">14.8997488021851</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0544710159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1627759933472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.441276550293</t>
+    <t xml:space="preserve">15.0544691085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1627769470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4412784576416</t>
   </si>
   <si>
     <t xml:space="preserve">15.8203449249268</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8647193908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5165958404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3618717193604</t>
+    <t xml:space="preserve">16.8647212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5165977478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3618755340576</t>
   </si>
   <si>
     <t xml:space="preserve">16.2845115661621</t>
@@ -1361,13 +1361,13 @@
     <t xml:space="preserve">16.1297912597656</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2071533203125</t>
+    <t xml:space="preserve">16.2071495056152</t>
   </si>
   <si>
     <t xml:space="preserve">16.0911102294922</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590259552002</t>
+    <t xml:space="preserve">15.8590278625488</t>
   </si>
   <si>
     <t xml:space="preserve">15.7816648483276</t>
@@ -1376,16 +1376,16 @@
     <t xml:space="preserve">15.7429838180542</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4392356872559</t>
+    <t xml:space="preserve">16.4392318725586</t>
   </si>
   <si>
     <t xml:space="preserve">16.4005546569824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6713180541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4779148101807</t>
+    <t xml:space="preserve">16.6713161468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.477912902832</t>
   </si>
   <si>
     <t xml:space="preserve">15.9750652313232</t>
@@ -1394,31 +1394,31 @@
     <t xml:space="preserve">15.456748008728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2556095123291</t>
+    <t xml:space="preserve">15.2556076049805</t>
   </si>
   <si>
     <t xml:space="preserve">16.0137481689453</t>
   </si>
   <si>
-    <t xml:space="preserve">16.709997177124</t>
+    <t xml:space="preserve">16.7099990844727</t>
   </si>
   <si>
     <t xml:space="preserve">16.5552768707275</t>
   </si>
   <si>
-    <t xml:space="preserve">17.174165725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9807643890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0968036651611</t>
+    <t xml:space="preserve">17.1741638183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9807624816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0968055725098</t>
   </si>
   <si>
     <t xml:space="preserve">17.4062461853027</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5222873687744</t>
+    <t xml:space="preserve">17.522289276123</t>
   </si>
   <si>
     <t xml:space="preserve">16.3231925964355</t>
@@ -1427,28 +1427,28 @@
     <t xml:space="preserve">15.9363870620728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3948593139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4103307723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6269426345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4258031845093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4722204208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0194435119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8260402679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9034004211426</t>
+    <t xml:space="preserve">15.3948612213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4103326797485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6269445419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4258060455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4722185134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0194454193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.826042175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9033985137939</t>
   </si>
   <si>
     <t xml:space="preserve">17.2902069091797</t>
@@ -1457,13 +1457,13 @@
     <t xml:space="preserve">17.3288879394531</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3675670623779</t>
+    <t xml:space="preserve">17.3675651550293</t>
   </si>
   <si>
     <t xml:space="preserve">17.2515258789062</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5609703063965</t>
+    <t xml:space="preserve">17.5609722137451</t>
   </si>
   <si>
     <t xml:space="preserve">17.4836101531982</t>
@@ -1490,10 +1490,10 @@
     <t xml:space="preserve">17.2950000762939</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3754386901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9732322692871</t>
+    <t xml:space="preserve">17.3754405975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9732303619385</t>
   </si>
   <si>
     <t xml:space="preserve">16.6916847229004</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">16.2090320587158</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6057186126709</t>
+    <t xml:space="preserve">15.6057205200195</t>
   </si>
   <si>
     <t xml:space="preserve">15.830958366394</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">16.3296947479248</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8631343841553</t>
+    <t xml:space="preserve">15.8631324768066</t>
   </si>
   <si>
     <t xml:space="preserve">15.5735445022583</t>
@@ -1535,13 +1535,13 @@
     <t xml:space="preserve">15.9918403625488</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0722827911377</t>
+    <t xml:space="preserve">16.0722846984863</t>
   </si>
   <si>
     <t xml:space="preserve">16.128589630127</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8953113555908</t>
+    <t xml:space="preserve">15.8953094482422</t>
   </si>
   <si>
     <t xml:space="preserve">15.8470458984375</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">16.6112422943115</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5308017730713</t>
+    <t xml:space="preserve">16.5307998657227</t>
   </si>
   <si>
     <t xml:space="preserve">16.4905815124512</t>
@@ -1571,22 +1571,22 @@
     <t xml:space="preserve">17.4156627655029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6569900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5363254547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0938949584961</t>
+    <t xml:space="preserve">17.6569881439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5363235473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0938930511475</t>
   </si>
   <si>
     <t xml:space="preserve">17.174337387085</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6514625549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0134525299072</t>
+    <t xml:space="preserve">16.6514644622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0134544372559</t>
   </si>
   <si>
     <t xml:space="preserve">16.7319068908691</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">17.053674697876</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2145595550537</t>
+    <t xml:space="preserve">17.2145576477051</t>
   </si>
   <si>
     <t xml:space="preserve">17.1341133117676</t>
@@ -1622,16 +1622,16 @@
     <t xml:space="preserve">17.2547798156738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8525695800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.455883026123</t>
+    <t xml:space="preserve">16.8525676727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4558849334717</t>
   </si>
   <si>
     <t xml:space="preserve">17.6167659759521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5016269683838</t>
+    <t xml:space="preserve">18.5016288757324</t>
   </si>
   <si>
     <t xml:space="preserve">18.2200794219971</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">18.6625118255615</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3060474395752</t>
+    <t xml:space="preserve">19.3060455322266</t>
   </si>
   <si>
     <t xml:space="preserve">18.9440574645996</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">18.7429504394531</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1451606750488</t>
+    <t xml:space="preserve">19.1451625823975</t>
   </si>
   <si>
     <t xml:space="preserve">19.4669284820557</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6278133392334</t>
+    <t xml:space="preserve">19.6278114318848</t>
   </si>
   <si>
     <t xml:space="preserve">19.8691387176514</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">19.7082557678223</t>
   </si>
   <si>
-    <t xml:space="preserve">19.748477935791</t>
+    <t xml:space="preserve">19.7484760284424</t>
   </si>
   <si>
     <t xml:space="preserve">18.9842777252197</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">13.5142316818237</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6751146316528</t>
+    <t xml:space="preserve">13.6751155853271</t>
   </si>
   <si>
     <t xml:space="preserve">13.6268501281738</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">14.0773239135742</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7555589675903</t>
+    <t xml:space="preserve">13.7555570602417</t>
   </si>
   <si>
     <t xml:space="preserve">13.6590270996094</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">13.0315818786621</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1949863433838</t>
+    <t xml:space="preserve">12.1949853897095</t>
   </si>
   <si>
     <t xml:space="preserve">11.9858360290527</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">11.2618589401245</t>
   </si>
   <si>
-    <t xml:space="preserve">11.18141746521</t>
+    <t xml:space="preserve">11.1814184188843</t>
   </si>
   <si>
     <t xml:space="preserve">10.6987676620483</t>
@@ -1793,25 +1793,25 @@
     <t xml:space="preserve">12.3478260040283</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0662784576416</t>
+    <t xml:space="preserve">12.0662794113159</t>
   </si>
   <si>
     <t xml:space="preserve">12.468487739563</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5087080001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2673826217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9053945541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1467218399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1064987182617</t>
+    <t xml:space="preserve">12.5087089538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2673835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9053955078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1467208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.106499671936</t>
   </si>
   <si>
     <t xml:space="preserve">12.0260572433472</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">11.8249530792236</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1869411468506</t>
+    <t xml:space="preserve">12.1869401931763</t>
   </si>
   <si>
     <t xml:space="preserve">11.3825216293335</t>
@@ -1832,10 +1832,10 @@
     <t xml:space="preserve">10.8998718261719</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9803133010864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.060754776001</t>
+    <t xml:space="preserve">10.9803123474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0607557296753</t>
   </si>
   <si>
     <t xml:space="preserve">11.6640691757202</t>

--- a/data/CMB.MI.xlsx
+++ b/data/CMB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="1000">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,91 +38,91 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58274173736572</t>
+    <t xml:space="preserve">9.58273983001709</t>
   </si>
   <si>
     <t xml:space="preserve">CMB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9114933013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65968227386475</t>
+    <t xml:space="preserve">9.91149234771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65968322753906</t>
   </si>
   <si>
     <t xml:space="preserve">9.75061416625977</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75760841369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79258346557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70864391326904</t>
+    <t xml:space="preserve">9.75760936737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79258251190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70864582061768</t>
   </si>
   <si>
     <t xml:space="preserve">9.47782039642334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66667652130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61071968078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68766021728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61771583557129</t>
+    <t xml:space="preserve">9.66667747497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61072158813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68766117095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61771488189697</t>
   </si>
   <si>
     <t xml:space="preserve">9.53377819061279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54077243804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44284820556641</t>
+    <t xml:space="preserve">9.54077339172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44284629821777</t>
   </si>
   <si>
     <t xml:space="preserve">9.17005348205566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10010719299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17704772949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67343044281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63845729827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93922901153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76436138153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74337673187256</t>
+    <t xml:space="preserve">9.10010814666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17704963684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67342948913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63845825195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93922805786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76436233520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74337768554688</t>
   </si>
   <si>
     <t xml:space="preserve">8.95321846008301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12808609008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56875228881836</t>
+    <t xml:space="preserve">9.12808513641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56875324249268</t>
   </si>
   <si>
     <t xml:space="preserve">9.60372543334961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40787410736084</t>
+    <t xml:space="preserve">9.40787315368652</t>
   </si>
   <si>
     <t xml:space="preserve">9.20502662658691</t>
@@ -134,58 +134,58 @@
     <t xml:space="preserve">9.03715419769287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98819255828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22601127624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14207553863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33093070983887</t>
+    <t xml:space="preserve">8.98819160461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2260103225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14207458496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3309326171875</t>
   </si>
   <si>
     <t xml:space="preserve">9.34492111206055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23300647735596</t>
+    <t xml:space="preserve">9.23300457000732</t>
   </si>
   <si>
     <t xml:space="preserve">9.3099479675293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52678203582764</t>
+    <t xml:space="preserve">9.52678298950195</t>
   </si>
   <si>
     <t xml:space="preserve">9.51279449462891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4708251953125</t>
+    <t xml:space="preserve">9.47082805633545</t>
   </si>
   <si>
     <t xml:space="preserve">9.694655418396</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5967321395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49880409240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42186450958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50579833984375</t>
+    <t xml:space="preserve">9.59673023223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49880504608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4218635559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50580024719238</t>
   </si>
   <si>
     <t xml:space="preserve">9.31694221496582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11409664154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10710334777832</t>
+    <t xml:space="preserve">9.11409568786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10710144042969</t>
   </si>
   <si>
     <t xml:space="preserve">9.46383094787598</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">9.37289905548096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.554762840271</t>
+    <t xml:space="preserve">9.55476188659668</t>
   </si>
   <si>
     <t xml:space="preserve">9.3798942565918</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">9.43585300445557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54776573181152</t>
+    <t xml:space="preserve">9.54776763916016</t>
   </si>
   <si>
     <t xml:space="preserve">9.72962951660156</t>
@@ -212,37 +212,37 @@
     <t xml:space="preserve">9.63170433044434</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56347179412842</t>
+    <t xml:space="preserve">9.5634708404541</t>
   </si>
   <si>
     <t xml:space="preserve">9.57071018218994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53451442718506</t>
+    <t xml:space="preserve">9.53451347351074</t>
   </si>
   <si>
     <t xml:space="preserve">9.70102310180664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75893974304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87477207183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84581565856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73722171783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3163862228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1281585693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1353979110718</t>
+    <t xml:space="preserve">9.75893878936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87477397918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8458137512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73722076416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3163871765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1281576156616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1353969573975</t>
   </si>
   <si>
     <t xml:space="preserve">10.0268039703369</t>
@@ -251,34 +251,34 @@
     <t xml:space="preserve">10.1933135986328</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1136798858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92545032501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93269157409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91097068786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83133411407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7734203338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74446105957031</t>
+    <t xml:space="preserve">10.1136789321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92544937133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93269062042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91097164154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83133602142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77341842651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.744460105896</t>
   </si>
   <si>
     <t xml:space="preserve">9.76618003845215</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69378471374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9399299621582</t>
+    <t xml:space="preserve">9.69378566741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93992900848389</t>
   </si>
   <si>
     <t xml:space="preserve">9.98336601257324</t>
@@ -287,28 +287,28 @@
     <t xml:space="preserve">9.99060535430908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81685543060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83857440948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94716930389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91821098327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88925170898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46211814880371</t>
+    <t xml:space="preserve">9.81685638427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83857536315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94717025756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91820812225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88925266265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46211624145508</t>
   </si>
   <si>
     <t xml:space="preserve">9.65034580230713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62862873077393</t>
+    <t xml:space="preserve">9.62862682342529</t>
   </si>
   <si>
     <t xml:space="preserve">9.54899215698242</t>
@@ -320,70 +320,70 @@
     <t xml:space="preserve">9.70826244354248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63586807250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64310646057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66482448577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71550273895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82409477233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8820104598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8602933883667</t>
+    <t xml:space="preserve">9.63586711883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64310550689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66482543945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71550178527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82409572601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88201141357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86029434204102</t>
   </si>
   <si>
     <t xml:space="preserve">9.79513740539551</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85305309295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67930507659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67206382751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47659683227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48383712768555</t>
+    <t xml:space="preserve">9.85305404663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6793041229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67206478118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47659778594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48383617401123</t>
   </si>
   <si>
     <t xml:space="preserve">9.49107456207275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44763946533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37524223327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25940895080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34628295898438</t>
+    <t xml:space="preserve">9.4476375579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37524127960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25940990447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34628391265869</t>
   </si>
   <si>
     <t xml:space="preserve">9.41143989562988</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31008625030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19425392150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17977428436279</t>
+    <t xml:space="preserve">9.31008529663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19425296783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17977333068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.26664924621582</t>
@@ -395,34 +395,34 @@
     <t xml:space="preserve">9.28836822509766</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30284786224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33904457092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24493026733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20873260498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13633728027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91914939880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8829517364502</t>
+    <t xml:space="preserve">9.30284690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33904552459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24493217468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20873355865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13633632659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91914844512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88295078277588</t>
   </si>
   <si>
     <t xml:space="preserve">9.14357757568359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16529560089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23045063018799</t>
+    <t xml:space="preserve">9.16529655456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2304515838623</t>
   </si>
   <si>
     <t xml:space="preserve">9.33180522918701</t>
@@ -431,13 +431,13 @@
     <t xml:space="preserve">9.15805530548096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29560852050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4259204864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38248348236084</t>
+    <t xml:space="preserve">9.29560661315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42591953277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38248157501221</t>
   </si>
   <si>
     <t xml:space="preserve">9.43315887451172</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">10.0195646286011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0050849914551</t>
+    <t xml:space="preserve">10.0050859451294</t>
   </si>
   <si>
     <t xml:space="preserve">10.0630016326904</t>
@@ -461,61 +461,61 @@
     <t xml:space="preserve">10.3525848388672</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4249801635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8014364242554</t>
+    <t xml:space="preserve">10.4249811172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8014373779297</t>
   </si>
   <si>
     <t xml:space="preserve">10.5697717666626</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6276874542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5263347625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5118551254272</t>
+    <t xml:space="preserve">10.6276884078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5263338088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5118560791016</t>
   </si>
   <si>
     <t xml:space="preserve">10.6494064331055</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7797203063965</t>
+    <t xml:space="preserve">10.7797193527222</t>
   </si>
   <si>
     <t xml:space="preserve">10.9317512512207</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9824275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.873833656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0258636474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.743522644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3598232269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3236265182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4756574630737</t>
+    <t xml:space="preserve">10.9824266433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8738346099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0258646011353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7435207366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3598251342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3236274719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.475658416748</t>
   </si>
   <si>
     <t xml:space="preserve">10.8593549728394</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7724800109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9389905929565</t>
+    <t xml:space="preserve">10.7724809646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9389896392822</t>
   </si>
   <si>
     <t xml:space="preserve">10.7290420532227</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">10.8665943145752</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7869596481323</t>
+    <t xml:space="preserve">10.786958694458</t>
   </si>
   <si>
     <t xml:space="preserve">10.8231554031372</t>
@@ -533,28 +533,28 @@
     <t xml:space="preserve">10.7580003738403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7507619857788</t>
+    <t xml:space="preserve">10.7507610321045</t>
   </si>
   <si>
     <t xml:space="preserve">10.7218027114868</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6638851165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7652416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0041456222534</t>
+    <t xml:space="preserve">10.6638860702515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7652397155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0041465759277</t>
   </si>
   <si>
     <t xml:space="preserve">10.9462289810181</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0910215377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5036745071411</t>
+    <t xml:space="preserve">11.0910205841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5036764144897</t>
   </si>
   <si>
     <t xml:space="preserve">11.4529981613159</t>
@@ -563,19 +563,19 @@
     <t xml:space="preserve">11.4457597732544</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4747180938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4964361190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7787799835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9452896118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5389356613159</t>
+    <t xml:space="preserve">11.4747190475464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4964380264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7787790298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9452905654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5389347076416</t>
   </si>
   <si>
     <t xml:space="preserve">12.4448213577271</t>
@@ -587,109 +587,109 @@
     <t xml:space="preserve">12.5534143447876</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7416429519653</t>
+    <t xml:space="preserve">12.7416439056396</t>
   </si>
   <si>
     <t xml:space="preserve">13.299090385437</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4583597183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4728412628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7407035827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5959129333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6103887557983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3714838027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3932037353516</t>
+    <t xml:space="preserve">13.4583616256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4728393554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.740701675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5959119796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.610390663147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3714847564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3932046890259</t>
   </si>
   <si>
     <t xml:space="preserve">13.3208074569702</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4438810348511</t>
+    <t xml:space="preserve">13.4438791275024</t>
   </si>
   <si>
     <t xml:space="preserve">13.682785987854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8927345275879</t>
+    <t xml:space="preserve">13.8927354812622</t>
   </si>
   <si>
     <t xml:space="preserve">14.4139814376831</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5008573532104</t>
+    <t xml:space="preserve">14.5008592605591</t>
   </si>
   <si>
     <t xml:space="preserve">14.4501800537109</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5442953109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.55153465271</t>
+    <t xml:space="preserve">14.5442962646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5515336990356</t>
   </si>
   <si>
     <t xml:space="preserve">14.6601295471191</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5949716567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5225744247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7390537261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8515663146973</t>
+    <t xml:space="preserve">14.5949726104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5225763320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7390546798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8515653610229</t>
   </si>
   <si>
     <t xml:space="preserve">14.6715469360352</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6040410995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5140314102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1764945983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8890705108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1914978027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5215330123901</t>
+    <t xml:space="preserve">14.604040145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5140323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.176495552063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8890714645386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1914958953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5215339660645</t>
   </si>
   <si>
     <t xml:space="preserve">14.5065317153931</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7990598678589</t>
+    <t xml:space="preserve">14.7990617752075</t>
   </si>
   <si>
     <t xml:space="preserve">14.88157081604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8740673065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8065595626831</t>
+    <t xml:space="preserve">14.8740682601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8065605163574</t>
   </si>
   <si>
     <t xml:space="preserve">14.9640779495239</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">15.1065912246704</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9016761779785</t>
+    <t xml:space="preserve">15.9016780853271</t>
   </si>
   <si>
     <t xml:space="preserve">16.4342308044434</t>
@@ -710,46 +710,46 @@
     <t xml:space="preserve">15.9316806793213</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7516613006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4741306304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1740999221802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1417064666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8791751861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4816303253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6316509246826</t>
+    <t xml:space="preserve">15.7516593933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4741325378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1740989685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1417045593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8791742324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.481632232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6316480636597</t>
   </si>
   <si>
     <t xml:space="preserve">16.1267013549805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0291881561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8341703414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7366619110107</t>
+    <t xml:space="preserve">16.0291900634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.834171295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7366600036621</t>
   </si>
   <si>
     <t xml:space="preserve">15.3841218948364</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6991548538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6766557693481</t>
+    <t xml:space="preserve">15.6991567611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6766529083252</t>
   </si>
   <si>
     <t xml:space="preserve">15.5416383743286</t>
@@ -761,58 +761,58 @@
     <t xml:space="preserve">15.5866470336914</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7741641998291</t>
+    <t xml:space="preserve">15.7741651535034</t>
   </si>
   <si>
     <t xml:space="preserve">16.246711730957</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2767181396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3517208099365</t>
+    <t xml:space="preserve">16.2767162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3517227172852</t>
   </si>
   <si>
     <t xml:space="preserve">16.524242401123</t>
   </si>
   <si>
-    <t xml:space="preserve">16.636754989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5392456054688</t>
+    <t xml:space="preserve">16.6367568969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5392436981201</t>
   </si>
   <si>
     <t xml:space="preserve">16.2242107391357</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8491716384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.856671333313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8266668319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8941783905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041658401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.721658706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6166477203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7441596984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116674423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4516296386719</t>
+    <t xml:space="preserve">15.8491706848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8566694259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8266677856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8941774368286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041677474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7216577529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6166467666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.744161605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116664886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4516286849976</t>
   </si>
   <si>
     <t xml:space="preserve">15.4216251373291</t>
@@ -827,64 +827,64 @@
     <t xml:space="preserve">15.5266389846802</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2266073226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3016128540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2416067123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.444128036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0315856933594</t>
+    <t xml:space="preserve">15.2266063690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3016119003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.241605758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.444130897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0315866470337</t>
   </si>
   <si>
     <t xml:space="preserve">15.4066257476807</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1966037750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1515989303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3991250991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7591609954834</t>
+    <t xml:space="preserve">15.1966028213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1515979766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3991279602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.759162902832</t>
   </si>
   <si>
     <t xml:space="preserve">15.9091796875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0066871643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8692798614502</t>
+    <t xml:space="preserve">16.006685256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8692779541016</t>
   </si>
   <si>
     <t xml:space="preserve">17.626859664917</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2269229888916</t>
+    <t xml:space="preserve">18.226921081543</t>
   </si>
   <si>
     <t xml:space="preserve">19.382043838501</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0820121765137</t>
+    <t xml:space="preserve">19.0820140838623</t>
   </si>
   <si>
     <t xml:space="preserve">19.1270160675049</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8944911956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7519760131836</t>
+    <t xml:space="preserve">18.8944931030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7519798278809</t>
   </si>
   <si>
     <t xml:space="preserve">18.8644886016846</t>
@@ -893,67 +893,67 @@
     <t xml:space="preserve">18.6394672393799</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6769695281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5194549560547</t>
+    <t xml:space="preserve">18.6769714355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5194530487061</t>
   </si>
   <si>
     <t xml:space="preserve">18.631965637207</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2944278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4219417572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2569236755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2419242858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1894187927246</t>
+    <t xml:space="preserve">18.2944259643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4219455718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2569255828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2419261932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.189416885376</t>
   </si>
   <si>
     <t xml:space="preserve">18.1519145965576</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0319023132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9643974304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9268894195557</t>
+    <t xml:space="preserve">18.0319042205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9643955230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9268913269043</t>
   </si>
   <si>
     <t xml:space="preserve">17.6793651580811</t>
   </si>
   <si>
-    <t xml:space="preserve">17.904390335083</t>
+    <t xml:space="preserve">17.9043884277344</t>
   </si>
   <si>
     <t xml:space="preserve">17.7318706512451</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9718933105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0018978118896</t>
+    <t xml:space="preserve">17.9718952178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0018997192383</t>
   </si>
   <si>
     <t xml:space="preserve">18.0469036102295</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0244045257568</t>
+    <t xml:space="preserve">18.0244026184082</t>
   </si>
   <si>
     <t xml:space="preserve">17.9343910217285</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9868965148926</t>
+    <t xml:space="preserve">17.9868984222412</t>
   </si>
   <si>
     <t xml:space="preserve">17.8068790435791</t>
@@ -965,19 +965,19 @@
     <t xml:space="preserve">17.2443180084229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.551851272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9517879486084</t>
+    <t xml:space="preserve">17.5518493652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9517860412598</t>
   </si>
   <si>
     <t xml:space="preserve">16.2917194366455</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7117614746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5092430114746</t>
+    <t xml:space="preserve">16.711763381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.509241104126</t>
   </si>
   <si>
     <t xml:space="preserve">16.2317123413086</t>
@@ -992,16 +992,16 @@
     <t xml:space="preserve">17.1918144226074</t>
   </si>
   <si>
-    <t xml:space="preserve">17.124303817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1768131256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6667556762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1393070220947</t>
+    <t xml:space="preserve">17.1243057250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1768112182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6667575836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1393089294434</t>
   </si>
   <si>
     <t xml:space="preserve">17.0192966461182</t>
@@ -1016,13 +1016,13 @@
     <t xml:space="preserve">16.8467769622803</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0567970275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8017692565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4192314147949</t>
+    <t xml:space="preserve">17.0567989349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8017730712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4192333221436</t>
   </si>
   <si>
     <t xml:space="preserve">16.4492359161377</t>
@@ -1034,10 +1034,10 @@
     <t xml:space="preserve">16.2092113494873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.044189453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0366916656494</t>
+    <t xml:space="preserve">16.0441913604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0366897583008</t>
   </si>
   <si>
     <t xml:space="preserve">16.2017078399658</t>
@@ -1046,10 +1046,10 @@
     <t xml:space="preserve">16.5917510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8392734527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7642707824707</t>
+    <t xml:space="preserve">16.8392772674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7642688751221</t>
   </si>
   <si>
     <t xml:space="preserve">16.8767795562744</t>
@@ -1064,25 +1064,25 @@
     <t xml:space="preserve">17.0643005371094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3643321990967</t>
+    <t xml:space="preserve">17.364330291748</t>
   </si>
   <si>
     <t xml:space="preserve">17.2143173217773</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3268280029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4768409729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6643619537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8518829345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.076904296875</t>
+    <t xml:space="preserve">17.3268299102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.476842880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.664363861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8518810272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0769081115723</t>
   </si>
   <si>
     <t xml:space="preserve">17.5893573760986</t>
@@ -1091,19 +1091,19 @@
     <t xml:space="preserve">16.9892921447754</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5767498016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5017414093018</t>
+    <t xml:space="preserve">16.5767478942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5017375946045</t>
   </si>
   <si>
     <t xml:space="preserve">16.3142223358154</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9391822814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9766836166382</t>
+    <t xml:space="preserve">15.9391832351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9766845703125</t>
   </si>
   <si>
     <t xml:space="preserve">16.0516929626465</t>
@@ -1118,43 +1118,43 @@
     <t xml:space="preserve">17.776876449585</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7393684387207</t>
+    <t xml:space="preserve">17.7393703460693</t>
   </si>
   <si>
     <t xml:space="preserve">17.4393367767334</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7018661499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5143489837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4894485473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3394355773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0394039154053</t>
+    <t xml:space="preserve">17.701868057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.514347076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4894504547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3394336700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.039400100708</t>
   </si>
   <si>
     <t xml:space="preserve">17.8893871307373</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4144420623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5644569396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2770347595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3520412445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7270793914795</t>
+    <t xml:space="preserve">18.4144401550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5644588470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2770328521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3520431518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7270812988281</t>
   </si>
   <si>
     <t xml:space="preserve">20.2686100006104</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">20.3459701538086</t>
   </si>
   <si>
-    <t xml:space="preserve">19.804443359375</t>
+    <t xml:space="preserve">19.8044414520264</t>
   </si>
   <si>
     <t xml:space="preserve">19.572359085083</t>
@@ -1187,52 +1187,52 @@
     <t xml:space="preserve">19.6497211456299</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4950008392334</t>
+    <t xml:space="preserve">19.4949989318848</t>
   </si>
   <si>
     <t xml:space="preserve">18.5666637420654</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9477767944336</t>
+    <t xml:space="preserve">17.947774887085</t>
   </si>
   <si>
     <t xml:space="preserve">18.4506225585938</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5336761474609</t>
+    <t xml:space="preserve">19.5336780548096</t>
   </si>
   <si>
     <t xml:space="preserve">19.8818035125732</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1138858795166</t>
+    <t xml:space="preserve">20.1138896942139</t>
   </si>
   <si>
     <t xml:space="preserve">20.2299270629883</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5393733978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6167335510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4233322143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0365238189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1081943511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8431224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0752048492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4620113372803</t>
+    <t xml:space="preserve">20.5393714904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6167316436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4233303070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0365257263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1081924438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8431205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0752067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4620132446289</t>
   </si>
   <si>
     <t xml:space="preserve">19.4176368713379</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">19.6110401153564</t>
   </si>
   <si>
-    <t xml:space="preserve">19.340274810791</t>
+    <t xml:space="preserve">19.3402767181396</t>
   </si>
   <si>
     <t xml:space="preserve">19.2629146575928</t>
@@ -1250,34 +1250,34 @@
     <t xml:space="preserve">19.224235534668</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6440238952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7987480163574</t>
+    <t xml:space="preserve">18.6440258026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7987461090088</t>
   </si>
   <si>
     <t xml:space="preserve">19.1468734741211</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4563179016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3015975952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0308303833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3789558410645</t>
+    <t xml:space="preserve">19.4563159942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3015956878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.030834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3789577484131</t>
   </si>
   <si>
     <t xml:space="preserve">18.9921493530273</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1855545043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9978427886963</t>
+    <t xml:space="preserve">19.1855525970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9978466033936</t>
   </si>
   <si>
     <t xml:space="preserve">19.7657623291016</t>
@@ -1286,25 +1286,25 @@
     <t xml:space="preserve">18.8374290466309</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6827049255371</t>
+    <t xml:space="preserve">18.6827068328857</t>
   </si>
   <si>
     <t xml:space="preserve">19.0695114135742</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7930526733398</t>
+    <t xml:space="preserve">17.7930545806885</t>
   </si>
   <si>
     <t xml:space="preserve">16.7873611450195</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1684722900391</t>
+    <t xml:space="preserve">16.1684703826904</t>
   </si>
   <si>
     <t xml:space="preserve">15.7043056488037</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5109014511108</t>
+    <t xml:space="preserve">15.5109004974365</t>
   </si>
   <si>
     <t xml:space="preserve">16.6326370239258</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">16.2458305358887</t>
   </si>
   <si>
-    <t xml:space="preserve">15.665623664856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5495805740356</t>
+    <t xml:space="preserve">15.6656246185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5495834350586</t>
   </si>
   <si>
     <t xml:space="preserve">15.5882616043091</t>
@@ -1328,16 +1328,16 @@
     <t xml:space="preserve">15.3174982070923</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8997478485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0544710159302</t>
+    <t xml:space="preserve">14.8997497558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0544691085815</t>
   </si>
   <si>
     <t xml:space="preserve">15.1627759933472</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4412755966187</t>
+    <t xml:space="preserve">15.441276550293</t>
   </si>
   <si>
     <t xml:space="preserve">15.8203468322754</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">16.8647174835205</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5165939331055</t>
+    <t xml:space="preserve">16.5165958404541</t>
   </si>
   <si>
     <t xml:space="preserve">16.3618755340576</t>
@@ -1355,10 +1355,10 @@
     <t xml:space="preserve">16.2845096588135</t>
   </si>
   <si>
-    <t xml:space="preserve">16.129789352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2071514129639</t>
+    <t xml:space="preserve">16.1297874450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2071533203125</t>
   </si>
   <si>
     <t xml:space="preserve">16.0911083221436</t>
@@ -1367,16 +1367,16 @@
     <t xml:space="preserve">15.8590259552002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7816638946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7429847717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4392337799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4005527496338</t>
+    <t xml:space="preserve">15.781662940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7429838180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4392356872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4005546569824</t>
   </si>
   <si>
     <t xml:space="preserve">16.6713180541992</t>
@@ -1388,28 +1388,28 @@
     <t xml:space="preserve">15.9750671386719</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4567470550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2556076049805</t>
+    <t xml:space="preserve">15.456748008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2556095123291</t>
   </si>
   <si>
     <t xml:space="preserve">16.0137500762939</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7099990844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5552749633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1741638183594</t>
+    <t xml:space="preserve">16.7100009918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5552768707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.174165725708</t>
   </si>
   <si>
     <t xml:space="preserve">16.9807624816895</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0968055725098</t>
+    <t xml:space="preserve">17.0968036651611</t>
   </si>
   <si>
     <t xml:space="preserve">17.4062480926514</t>
@@ -1418,61 +1418,61 @@
     <t xml:space="preserve">17.522289276123</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3231906890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9363861083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948602676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4103317260742</t>
+    <t xml:space="preserve">16.3231925964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9363870620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948574066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4103307723999</t>
   </si>
   <si>
     <t xml:space="preserve">15.6269426345825</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4258050918579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4722204208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0194435119629</t>
+    <t xml:space="preserve">15.4258031845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.472222328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0194416046143</t>
   </si>
   <si>
     <t xml:space="preserve">16.826042175293</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9034023284912</t>
+    <t xml:space="preserve">16.9034004211426</t>
   </si>
   <si>
     <t xml:space="preserve">17.2902088165283</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3288841247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3675651550293</t>
+    <t xml:space="preserve">17.3288879394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3675670623779</t>
   </si>
   <si>
     <t xml:space="preserve">17.2515258789062</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5609683990479</t>
+    <t xml:space="preserve">17.5609722137451</t>
   </si>
   <si>
     <t xml:space="preserve">17.4836101531982</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6383285522461</t>
+    <t xml:space="preserve">17.6383304595947</t>
   </si>
   <si>
     <t xml:space="preserve">18.0251350402832</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8704166412354</t>
+    <t xml:space="preserve">17.8704147338867</t>
   </si>
   <si>
     <t xml:space="preserve">18.1798610687256</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">17.3754405975342</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9732322692871</t>
+    <t xml:space="preserve">16.9732303619385</t>
   </si>
   <si>
     <t xml:space="preserve">16.691686630249</t>
@@ -1499,16 +1499,16 @@
     <t xml:space="preserve">16.2492561340332</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2090320587158</t>
+    <t xml:space="preserve">16.2090339660645</t>
   </si>
   <si>
     <t xml:space="preserve">15.6057205200195</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8309574127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.289478302002</t>
+    <t xml:space="preserve">15.8309564590454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2894763946533</t>
   </si>
   <si>
     <t xml:space="preserve">16.1688137054443</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">15.8631324768066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5735445022583</t>
+    <t xml:space="preserve">15.5735464096069</t>
   </si>
   <si>
     <t xml:space="preserve">15.7505149841309</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">16.1285915374756</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8953104019165</t>
+    <t xml:space="preserve">15.8953094482422</t>
   </si>
   <si>
     <t xml:space="preserve">15.8470478057861</t>
@@ -1547,16 +1547,16 @@
     <t xml:space="preserve">16.4503612518311</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6112403869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5308017730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4905796051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3699169158936</t>
+    <t xml:space="preserve">16.6112422943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5307998657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4905815124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3699188232422</t>
   </si>
   <si>
     <t xml:space="preserve">16.4101390838623</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">17.4156608581543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6569862365723</t>
+    <t xml:space="preserve">17.6569881439209</t>
   </si>
   <si>
     <t xml:space="preserve">17.5363235473633</t>
@@ -1607,13 +1607,13 @@
     <t xml:space="preserve">16.8123474121094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0536727905273</t>
+    <t xml:space="preserve">17.053674697876</t>
   </si>
   <si>
     <t xml:space="preserve">17.2145557403564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1341152191162</t>
+    <t xml:space="preserve">17.1341133117676</t>
   </si>
   <si>
     <t xml:space="preserve">17.2547779083252</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">17.455883026123</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6167659759521</t>
+    <t xml:space="preserve">17.6167678833008</t>
   </si>
   <si>
     <t xml:space="preserve">18.5016269683838</t>
@@ -1634,16 +1634,16 @@
     <t xml:space="preserve">18.2200794219971</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6625099182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3060436248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.944055557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5473709106445</t>
+    <t xml:space="preserve">18.6625118255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3060455322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9440574645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5473728179932</t>
   </si>
   <si>
     <t xml:space="preserve">19.2256031036377</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">19.1451625823975</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4669284820557</t>
+    <t xml:space="preserve">19.466926574707</t>
   </si>
   <si>
     <t xml:space="preserve">19.6278133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">19.869140625</t>
+    <t xml:space="preserve">19.8691387176514</t>
   </si>
   <si>
     <t xml:space="preserve">19.7082557678223</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">19.7484760284424</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9842796325684</t>
+    <t xml:space="preserve">18.9842777252197</t>
   </si>
   <si>
     <t xml:space="preserve">18.823392868042</t>
@@ -1694,10 +1694,10 @@
     <t xml:space="preserve">18.3407421112061</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5071506500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.06471824646</t>
+    <t xml:space="preserve">19.507152557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0647201538086</t>
   </si>
   <si>
     <t xml:space="preserve">18.8636169433594</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">18.5820693969727</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6222896575928</t>
+    <t xml:space="preserve">18.6222877502441</t>
   </si>
   <si>
     <t xml:space="preserve">18.2603015899658</t>
@@ -1727,19 +1727,19 @@
     <t xml:space="preserve">15.6861619949341</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3161296844482</t>
+    <t xml:space="preserve">15.3161287307739</t>
   </si>
   <si>
     <t xml:space="preserve">14.0612354278564</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4795341491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5142316818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6751155853271</t>
+    <t xml:space="preserve">14.4795331954956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.514232635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6751146316528</t>
   </si>
   <si>
     <t xml:space="preserve">13.6268510818481</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">13.4337902069092</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0315818786621</t>
+    <t xml:space="preserve">13.0315809249878</t>
   </si>
   <si>
     <t xml:space="preserve">12.1949853897095</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">11.18141746521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.698766708374</t>
+    <t xml:space="preserve">10.6987676620483</t>
   </si>
   <si>
     <t xml:space="preserve">11.2216396331787</t>
@@ -1781,16 +1781,16 @@
     <t xml:space="preserve">11.5434074401855</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2271614074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.709813117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3478240966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0662784576416</t>
+    <t xml:space="preserve">12.2271604537964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7098140716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.347825050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0662794113159</t>
   </si>
   <si>
     <t xml:space="preserve">12.468487739563</t>
@@ -1802,10 +1802,10 @@
     <t xml:space="preserve">12.2673835754395</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9053955078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1467199325562</t>
+    <t xml:space="preserve">11.9053945541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1467208862305</t>
   </si>
   <si>
     <t xml:space="preserve">12.106499671936</t>
@@ -1817,13 +1817,13 @@
     <t xml:space="preserve">11.7042894363403</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8249521255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1869411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3825225830078</t>
+    <t xml:space="preserve">11.8249530792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1869401931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3825216293335</t>
   </si>
   <si>
     <t xml:space="preserve">10.8998718261719</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">11.060754776001</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6640701293945</t>
+    <t xml:space="preserve">11.6640691757202</t>
   </si>
   <si>
     <t xml:space="preserve">12.6695938110352</t>
@@ -1868,22 +1868,22 @@
     <t xml:space="preserve">14.8117933273315</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9230861663818</t>
+    <t xml:space="preserve">13.9230871200562</t>
   </si>
   <si>
     <t xml:space="preserve">14.0500450134277</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0077247619629</t>
+    <t xml:space="preserve">14.0077257156372</t>
   </si>
   <si>
     <t xml:space="preserve">14.2616415023804</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4732398986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.065710067749</t>
+    <t xml:space="preserve">14.4732389450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0657110214233</t>
   </si>
   <si>
     <t xml:space="preserve">15.3196268081665</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">14.0923633575439</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9654054641724</t>
+    <t xml:space="preserve">13.9654064178467</t>
   </si>
   <si>
     <t xml:space="preserve">14.1346845626831</t>
@@ -1922,10 +1922,10 @@
     <t xml:space="preserve">14.3039598464966</t>
   </si>
   <si>
-    <t xml:space="preserve">13.880765914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7114906311035</t>
+    <t xml:space="preserve">13.8807668685913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7114896774292</t>
   </si>
   <si>
     <t xml:space="preserve">13.8384475708008</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">13.5422115325928</t>
   </si>
   <si>
-    <t xml:space="preserve">13.753809928894</t>
+    <t xml:space="preserve">13.7538089752197</t>
   </si>
   <si>
     <t xml:space="preserve">13.584529876709</t>
@@ -1949,10 +1949,10 @@
     <t xml:space="preserve">13.3306140899658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2036561965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1613368988037</t>
+    <t xml:space="preserve">13.2036571502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.161337852478</t>
   </si>
   <si>
     <t xml:space="preserve">13.4575719833374</t>
@@ -1961,13 +1961,13 @@
     <t xml:space="preserve">13.2459754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4042663574219</t>
+    <t xml:space="preserve">15.4042654037476</t>
   </si>
   <si>
     <t xml:space="preserve">15.8274602890015</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9967365264893</t>
+    <t xml:space="preserve">15.9967384338379</t>
   </si>
   <si>
     <t xml:space="preserve">16.673849105835</t>
@@ -1988,16 +1988,16 @@
     <t xml:space="preserve">15.8697786331177</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9544172286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9120960235596</t>
+    <t xml:space="preserve">15.954418182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9120979309082</t>
   </si>
   <si>
     <t xml:space="preserve">16.3352928161621</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7851390838623</t>
+    <t xml:space="preserve">15.7851400375366</t>
   </si>
   <si>
     <t xml:space="preserve">15.7428216934204</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">16.0390567779541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9277648925781</t>
+    <t xml:space="preserve">16.9277629852295</t>
   </si>
   <si>
     <t xml:space="preserve">16.758487701416</t>
@@ -2027,22 +2027,22 @@
     <t xml:space="preserve">17.5202369689941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8008079528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0970439910889</t>
+    <t xml:space="preserve">16.8008060455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0970420837402</t>
   </si>
   <si>
     <t xml:space="preserve">17.2663192749023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1816806793213</t>
+    <t xml:space="preserve">17.1816787719727</t>
   </si>
   <si>
     <t xml:space="preserve">16.8431262969971</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0124053955078</t>
+    <t xml:space="preserve">17.0124034881592</t>
   </si>
   <si>
     <t xml:space="preserve">17.3509578704834</t>
@@ -2063,10 +2063,10 @@
     <t xml:space="preserve">18.7051792144775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6048736572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5359039306641</t>
+    <t xml:space="preserve">17.6048755645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5359020233154</t>
   </si>
   <si>
     <t xml:space="preserve">18.7898197174072</t>
@@ -2081,10 +2081,10 @@
     <t xml:space="preserve">19.8901233673096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5515689849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3822898864746</t>
+    <t xml:space="preserve">19.5515670776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.382287979126</t>
   </si>
   <si>
     <t xml:space="preserve">19.8054847717285</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">19.2976512908936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.636209487915</t>
+    <t xml:space="preserve">19.6362075805664</t>
   </si>
   <si>
     <t xml:space="preserve">19.9747619628906</t>
@@ -2102,10 +2102,10 @@
     <t xml:space="preserve">20.0594024658203</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1440391540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7208442687988</t>
+    <t xml:space="preserve">20.1440410614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7208461761475</t>
   </si>
   <si>
     <t xml:space="preserve">20.6518726348877</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">20.2124710083008</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3882312774658</t>
+    <t xml:space="preserve">20.3882331848145</t>
   </si>
   <si>
     <t xml:space="preserve">20.3003520965576</t>
@@ -2147,19 +2147,19 @@
     <t xml:space="preserve">20.476110458374</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8276329040527</t>
+    <t xml:space="preserve">20.8276348114014</t>
   </si>
   <si>
     <t xml:space="preserve">21.1791553497314</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2670345306396</t>
+    <t xml:space="preserve">21.2670364379883</t>
   </si>
   <si>
     <t xml:space="preserve">21.4427967071533</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7064361572266</t>
+    <t xml:space="preserve">21.7064380645752</t>
   </si>
   <si>
     <t xml:space="preserve">21.9700775146484</t>
@@ -2174,22 +2174,22 @@
     <t xml:space="preserve">23.5519218444824</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8488807678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2882823944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0246410369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4640426635742</t>
+    <t xml:space="preserve">22.8488826751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2882843017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0246429443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4640445709229</t>
   </si>
   <si>
     <t xml:space="preserve">23.6398029327393</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9034442901611</t>
+    <t xml:space="preserve">23.9034461975098</t>
   </si>
   <si>
     <t xml:space="preserve">24.5186061859131</t>
@@ -2198,16 +2198,16 @@
     <t xml:space="preserve">24.4307250976562</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1670837402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.342845916748</t>
+    <t xml:space="preserve">24.167085647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3428478240967</t>
   </si>
   <si>
     <t xml:space="preserve">24.2549667358398</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6064853668213</t>
+    <t xml:space="preserve">24.6064872741699</t>
   </si>
   <si>
     <t xml:space="preserve">23.9913234710693</t>
@@ -2219,13 +2219,13 @@
     <t xml:space="preserve">22.7609996795654</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7276821136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0458869934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1004524230957</t>
+    <t xml:space="preserve">23.7276840209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0458889007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1004543304443</t>
   </si>
   <si>
     <t xml:space="preserve">25.8368110656738</t>
@@ -2234,16 +2234,16 @@
     <t xml:space="preserve">25.1337699890137</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1883316040039</t>
+    <t xml:space="preserve">26.1883335113525</t>
   </si>
   <si>
     <t xml:space="preserve">24.6943683624268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4852886199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3095283508301</t>
+    <t xml:space="preserve">25.4852905273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3095302581787</t>
   </si>
   <si>
     <t xml:space="preserve">25.3974094390869</t>
@@ -2258,70 +2258,70 @@
     <t xml:space="preserve">26.2762126922607</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3640918731689</t>
+    <t xml:space="preserve">26.3640937805176</t>
   </si>
   <si>
     <t xml:space="preserve">26.7156143188477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2428951263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4186553955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5065364837646</t>
+    <t xml:space="preserve">27.2428970336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4186573028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5065383911133</t>
   </si>
   <si>
     <t xml:space="preserve">28.9126243591309</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6702289581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4065856933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0550670623779</t>
+    <t xml:space="preserve">30.6702308654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.406587600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0550689697266</t>
   </si>
   <si>
     <t xml:space="preserve">30.2308292388916</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3187065124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0005016326904</t>
+    <t xml:space="preserve">30.3187084197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0005035400391</t>
   </si>
   <si>
     <t xml:space="preserve">28.0338191986084</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5277824401855</t>
+    <t xml:space="preserve">29.5277843475342</t>
   </si>
   <si>
     <t xml:space="preserve">28.4732227325439</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4399032592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7368602752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1762619018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2974586486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6277332305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9792556762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8034934997559</t>
+    <t xml:space="preserve">29.439905166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7368621826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1762638092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2974605560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6277351379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9792575836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8034954071045</t>
   </si>
   <si>
     <t xml:space="preserve">27.3307762145996</t>
@@ -2330,19 +2330,19 @@
     <t xml:space="preserve">27.5944175720215</t>
   </si>
   <si>
-    <t xml:space="preserve">25.748929977417</t>
+    <t xml:space="preserve">25.7489318847656</t>
   </si>
   <si>
     <t xml:space="preserve">27.1550159454346</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0671348571777</t>
+    <t xml:space="preserve">27.0671367645264</t>
   </si>
   <si>
     <t xml:space="preserve">26.8913745880127</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6822967529297</t>
+    <t xml:space="preserve">27.6822986602783</t>
   </si>
   <si>
     <t xml:space="preserve">23.376163482666</t>
@@ -2354,10 +2354,10 @@
     <t xml:space="preserve">23.8155651092529</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2216491699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.782247543335</t>
+    <t xml:space="preserve">25.2216510772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7822494506836</t>
   </si>
   <si>
     <t xml:space="preserve">24.8701267242432</t>
@@ -2366,7 +2366,7 @@
     <t xml:space="preserve">24.3999366760254</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5743751525879</t>
+    <t xml:space="preserve">23.5743732452393</t>
   </si>
   <si>
     <t xml:space="preserve">24.1247482299805</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">26.1427879333496</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5006847381592</t>
+    <t xml:space="preserve">25.5006828308105</t>
   </si>
   <si>
     <t xml:space="preserve">25.2254981994629</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">24.2164764404297</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1157283782959</t>
+    <t xml:space="preserve">23.1157302856445</t>
   </si>
   <si>
     <t xml:space="preserve">23.299186706543</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">22.6570835113525</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5653533935547</t>
+    <t xml:space="preserve">22.5653553009033</t>
   </si>
   <si>
     <t xml:space="preserve">22.1984386444092</t>
@@ -2441,28 +2441,28 @@
     <t xml:space="preserve">21.9232501983643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9322719573975</t>
+    <t xml:space="preserve">22.9322700500488</t>
   </si>
   <si>
     <t xml:space="preserve">24.6751232147217</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0510597229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5924129486084</t>
+    <t xml:space="preserve">26.0510578155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.592414855957</t>
   </si>
   <si>
     <t xml:space="preserve">23.8495616912842</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7578315734863</t>
+    <t xml:space="preserve">23.757833480835</t>
   </si>
   <si>
     <t xml:space="preserve">25.0420398712158</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3082065582275</t>
+    <t xml:space="preserve">24.3082084655762</t>
   </si>
   <si>
     <t xml:space="preserve">24.4916667938232</t>
@@ -2483,13 +2483,13 @@
     <t xml:space="preserve">23.0240001678467</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8405418395996</t>
+    <t xml:space="preserve">22.840539932251</t>
   </si>
   <si>
     <t xml:space="preserve">21.831521987915</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2901668548584</t>
+    <t xml:space="preserve">22.2901649475098</t>
   </si>
   <si>
     <t xml:space="preserve">21.4646053314209</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">26.5097045898438</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4179744720459</t>
+    <t xml:space="preserve">26.4179763793945</t>
   </si>
   <si>
     <t xml:space="preserve">26.6014347076416</t>
@@ -2525,13 +2525,13 @@
     <t xml:space="preserve">28.0690994262695</t>
   </si>
   <si>
-    <t xml:space="preserve">28.252555847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1608295440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5277462005615</t>
+    <t xml:space="preserve">28.2525577545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1608276367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5277442932129</t>
   </si>
   <si>
     <t xml:space="preserve">28.6194744110107</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">28.3442859649658</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7021827697754</t>
+    <t xml:space="preserve">27.702184677124</t>
   </si>
   <si>
     <t xml:space="preserve">27.7939109802246</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">27.8856410980225</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9773712158203</t>
+    <t xml:space="preserve">27.9773693084717</t>
   </si>
   <si>
     <t xml:space="preserve">28.4360160827637</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">27.060079574585</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4269962310791</t>
+    <t xml:space="preserve">27.4269943237305</t>
   </si>
   <si>
     <t xml:space="preserve">27.3352661132812</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">26.7848930358887</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9683494567871</t>
+    <t xml:space="preserve">26.9683513641357</t>
   </si>
   <si>
     <t xml:space="preserve">27.1518096923828</t>
@@ -3009,6 +3009,9 @@
   </si>
   <si>
     <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3499984741211</t>
   </si>
 </sst>
 </file>
@@ -59146,7 +59149,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6495023148</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>5812</v>
@@ -59167,6 +59170,32 @@
         <v>994</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6495717593</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>9830</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>39.3499984741211</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>38.5499992370605</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>38.8499984741211</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>39.3499984741211</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>999</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CMB.MI.xlsx
+++ b/data/CMB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="1001">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,37 +47,37 @@
     <t xml:space="preserve">9.91149234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65968322753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75061416625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75760936737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79258251190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70864582061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47782039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66667747497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61072158813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68766117095947</t>
+    <t xml:space="preserve">9.65968227386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75061321258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75760841369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79258155822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70864486694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47782135009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66667652130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61071968078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68766212463379</t>
   </si>
   <si>
     <t xml:space="preserve">9.61771488189697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53377819061279</t>
+    <t xml:space="preserve">9.53377914428711</t>
   </si>
   <si>
     <t xml:space="preserve">9.54077339172363</t>
@@ -86,28 +86,28 @@
     <t xml:space="preserve">9.44284629821777</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17005348205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10010814666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17704963684082</t>
+    <t xml:space="preserve">9.17005443572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10010623931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17704772949219</t>
   </si>
   <si>
     <t xml:space="preserve">8.67342948913574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63845825195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93922805786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76436233520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74337768554688</t>
+    <t xml:space="preserve">8.63845729827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93922901153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76436138153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74337673187256</t>
   </si>
   <si>
     <t xml:space="preserve">8.95321846008301</t>
@@ -116,22 +116,22 @@
     <t xml:space="preserve">9.12808513641357</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56875324249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60372543334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40787315368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20502662658691</t>
+    <t xml:space="preserve">9.56875228881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60372638702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40787410736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20502758026123</t>
   </si>
   <si>
     <t xml:space="preserve">9.30295372009277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03715419769287</t>
+    <t xml:space="preserve">9.03715515136719</t>
   </si>
   <si>
     <t xml:space="preserve">8.98819160461426</t>
@@ -143,13 +143,13 @@
     <t xml:space="preserve">9.14207458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3309326171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34492111206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23300457000732</t>
+    <t xml:space="preserve">9.33093166351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34492206573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23300552368164</t>
   </si>
   <si>
     <t xml:space="preserve">9.3099479675293</t>
@@ -158,13 +158,13 @@
     <t xml:space="preserve">9.52678298950195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51279449462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47082805633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.694655418396</t>
+    <t xml:space="preserve">9.51279544830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47082710266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69465637207031</t>
   </si>
   <si>
     <t xml:space="preserve">9.59673023223877</t>
@@ -173,49 +173,49 @@
     <t xml:space="preserve">9.49880504608154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4218635559082</t>
+    <t xml:space="preserve">9.42186450958252</t>
   </si>
   <si>
     <t xml:space="preserve">9.50580024719238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31694221496582</t>
+    <t xml:space="preserve">9.3169412612915</t>
   </si>
   <si>
     <t xml:space="preserve">9.11409568786621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10710144042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46383094787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37289905548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55476188659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3798942565918</t>
+    <t xml:space="preserve">9.107102394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46383380889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37290000915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.554762840271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37989521026611</t>
   </si>
   <si>
     <t xml:space="preserve">9.43585300445557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54776763916016</t>
+    <t xml:space="preserve">9.54776859283447</t>
   </si>
   <si>
     <t xml:space="preserve">9.72962951660156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63170433044434</t>
+    <t xml:space="preserve">9.63170337677002</t>
   </si>
   <si>
     <t xml:space="preserve">9.5634708404541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57071018218994</t>
+    <t xml:space="preserve">9.57071113586426</t>
   </si>
   <si>
     <t xml:space="preserve">9.53451347351074</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">9.70102310180664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75893878936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87477397918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8458137512207</t>
+    <t xml:space="preserve">9.75893974304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8747730255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84581470489502</t>
   </si>
   <si>
     <t xml:space="preserve">9.73722076416016</t>
@@ -242,40 +242,40 @@
     <t xml:space="preserve">10.1281576156616</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1353969573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0268039703369</t>
+    <t xml:space="preserve">10.1353979110718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0268049240112</t>
   </si>
   <si>
     <t xml:space="preserve">10.1933135986328</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1136789321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92544937133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93269062042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91097164154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83133602142334</t>
+    <t xml:space="preserve">10.1136779785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92545032501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93268966674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91096973419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83133411407471</t>
   </si>
   <si>
     <t xml:space="preserve">9.77341842651367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.744460105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76618003845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69378566741943</t>
+    <t xml:space="preserve">9.74446105957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76617908477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69378280639648</t>
   </si>
   <si>
     <t xml:space="preserve">9.93992900848389</t>
@@ -284,34 +284,34 @@
     <t xml:space="preserve">9.98336601257324</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99060535430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81685638427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83857536315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94717025756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91820812225342</t>
+    <t xml:space="preserve">9.9906063079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81685733795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83857440948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94716835021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91821002960205</t>
   </si>
   <si>
     <t xml:space="preserve">9.88925266265869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46211624145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65034580230713</t>
+    <t xml:space="preserve">9.46211719512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65034675598145</t>
   </si>
   <si>
     <t xml:space="preserve">9.62862682342529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54899215698242</t>
+    <t xml:space="preserve">9.54899120330811</t>
   </si>
   <si>
     <t xml:space="preserve">9.62138843536377</t>
@@ -326,28 +326,28 @@
     <t xml:space="preserve">9.64310550689697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66482543945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71550178527832</t>
+    <t xml:space="preserve">9.66482639312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71550273895264</t>
   </si>
   <si>
     <t xml:space="preserve">9.82409572601318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88201141357422</t>
+    <t xml:space="preserve">9.88201236724854</t>
   </si>
   <si>
     <t xml:space="preserve">9.86029434204102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79513740539551</t>
+    <t xml:space="preserve">9.79513835906982</t>
   </si>
   <si>
     <t xml:space="preserve">9.85305404663086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6793041229248</t>
+    <t xml:space="preserve">9.67930507659912</t>
   </si>
   <si>
     <t xml:space="preserve">9.67206478118896</t>
@@ -359,82 +359,82 @@
     <t xml:space="preserve">9.48383617401123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49107456207275</t>
+    <t xml:space="preserve">9.49107551574707</t>
   </si>
   <si>
     <t xml:space="preserve">9.4476375579834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37524127960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25940990447998</t>
+    <t xml:space="preserve">9.37524318695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2594108581543</t>
   </si>
   <si>
     <t xml:space="preserve">9.34628391265869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41143989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31008529663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19425296783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17977333068848</t>
+    <t xml:space="preserve">9.4114408493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31008625030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19425392150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17977428436279</t>
   </si>
   <si>
     <t xml:space="preserve">9.26664924621582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25217056274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28836822509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30284690856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33904552459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24493217468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20873355865479</t>
+    <t xml:space="preserve">9.25216960906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28836727142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30284595489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33904457092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2449312210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20873165130615</t>
   </si>
   <si>
     <t xml:space="preserve">9.13633632659912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91914844512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88295078277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14357757568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16529655456543</t>
+    <t xml:space="preserve">8.91914939880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88295269012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14357566833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16529560089111</t>
   </si>
   <si>
     <t xml:space="preserve">9.2304515838623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33180522918701</t>
+    <t xml:space="preserve">9.33180618286133</t>
   </si>
   <si>
     <t xml:space="preserve">9.15805530548096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29560661315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42591953277588</t>
+    <t xml:space="preserve">9.29560852050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4259204864502</t>
   </si>
   <si>
     <t xml:space="preserve">9.38248157501221</t>
@@ -455,19 +455,19 @@
     <t xml:space="preserve">10.1571159362793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2946681976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3525848388672</t>
+    <t xml:space="preserve">10.2946691513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3525838851929</t>
   </si>
   <si>
     <t xml:space="preserve">10.4249811172485</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8014373779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5697717666626</t>
+    <t xml:space="preserve">10.801438331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5697727203369</t>
   </si>
   <si>
     <t xml:space="preserve">10.6276884078979</t>
@@ -479,13 +479,13 @@
     <t xml:space="preserve">10.5118560791016</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6494064331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7797193527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9317512512207</t>
+    <t xml:space="preserve">10.6494054794312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7797212600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9317502975464</t>
   </si>
   <si>
     <t xml:space="preserve">10.9824266433716</t>
@@ -494,58 +494,58 @@
     <t xml:space="preserve">10.8738346099854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0258646011353</t>
+    <t xml:space="preserve">11.0258636474609</t>
   </si>
   <si>
     <t xml:space="preserve">10.7435207366943</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3598251342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3236274719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.475658416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8593549728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7724809646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9389896392822</t>
+    <t xml:space="preserve">10.3598232269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3236265182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4756574630737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.859354019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7724800109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9389886856079</t>
   </si>
   <si>
     <t xml:space="preserve">10.7290420532227</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8665943145752</t>
+    <t xml:space="preserve">10.8665952682495</t>
   </si>
   <si>
     <t xml:space="preserve">10.786958694458</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8231554031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7580003738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7507610321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7218027114868</t>
+    <t xml:space="preserve">10.8231563568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.757999420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7507600784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7218036651611</t>
   </si>
   <si>
     <t xml:space="preserve">10.6638860702515</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7652397155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0041465759277</t>
+    <t xml:space="preserve">10.7652406692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0041456222534</t>
   </si>
   <si>
     <t xml:space="preserve">10.9462289810181</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">11.5036764144897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4529981613159</t>
+    <t xml:space="preserve">11.4529991149902</t>
   </si>
   <si>
     <t xml:space="preserve">11.4457597732544</t>
@@ -566,25 +566,25 @@
     <t xml:space="preserve">11.4747190475464</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4964380264282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7787790298462</t>
+    <t xml:space="preserve">11.4964370727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7787799835205</t>
   </si>
   <si>
     <t xml:space="preserve">11.9452905654907</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5389347076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4448213577271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5172166824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5534143447876</t>
+    <t xml:space="preserve">12.5389356613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4448204040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5172147750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.553412437439</t>
   </si>
   <si>
     <t xml:space="preserve">12.7416439056396</t>
@@ -593,16 +593,16 @@
     <t xml:space="preserve">13.299090385437</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4583616256714</t>
+    <t xml:space="preserve">13.4583597183228</t>
   </si>
   <si>
     <t xml:space="preserve">13.4728393554688</t>
   </si>
   <si>
-    <t xml:space="preserve">13.740701675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5959119796753</t>
+    <t xml:space="preserve">13.7407035827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.595911026001</t>
   </si>
   <si>
     <t xml:space="preserve">13.610390663147</t>
@@ -611,73 +611,73 @@
     <t xml:space="preserve">13.3714847564697</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3932046890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3208074569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4438791275024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.682785987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8927354812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4139814376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5008592605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4501800537109</t>
+    <t xml:space="preserve">13.3932027816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3208084106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4438829421997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6827840805054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8927345275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4139823913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5008583068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4501791000366</t>
   </si>
   <si>
     <t xml:space="preserve">14.5442962646484</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5515336990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6601295471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5949726104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5225763320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7390546798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8515653610229</t>
+    <t xml:space="preserve">14.5515365600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6601276397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.594970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.522575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7390537261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8515682220459</t>
   </si>
   <si>
     <t xml:space="preserve">14.6715469360352</t>
   </si>
   <si>
-    <t xml:space="preserve">14.604040145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5140323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.176495552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8890714645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1914958953857</t>
+    <t xml:space="preserve">14.6040382385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.514030456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.17649269104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8890705108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1914987564087</t>
   </si>
   <si>
     <t xml:space="preserve">14.5215339660645</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5065317153931</t>
+    <t xml:space="preserve">14.5065288543701</t>
   </si>
   <si>
     <t xml:space="preserve">14.7990617752075</t>
@@ -686,31 +686,31 @@
     <t xml:space="preserve">14.88157081604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8740682601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8065605163574</t>
+    <t xml:space="preserve">14.8740663528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8065624237061</t>
   </si>
   <si>
     <t xml:space="preserve">14.9640779495239</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1065912246704</t>
+    <t xml:space="preserve">15.1065940856934</t>
   </si>
   <si>
     <t xml:space="preserve">15.9016780853271</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4342308044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3442230224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9316806793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7516593933105</t>
+    <t xml:space="preserve">16.434232711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3442249298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9316825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7516632080078</t>
   </si>
   <si>
     <t xml:space="preserve">15.4741325378418</t>
@@ -725,16 +725,16 @@
     <t xml:space="preserve">15.8791742324829</t>
   </si>
   <si>
-    <t xml:space="preserve">15.481632232666</t>
+    <t xml:space="preserve">15.4816303253174</t>
   </si>
   <si>
     <t xml:space="preserve">15.6316480636597</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1267013549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0291900634766</t>
+    <t xml:space="preserve">16.1267032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0291919708252</t>
   </si>
   <si>
     <t xml:space="preserve">15.834171295166</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">15.7366600036621</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3841218948364</t>
+    <t xml:space="preserve">15.3841199874878</t>
   </si>
   <si>
     <t xml:space="preserve">15.6991567611694</t>
@@ -755,28 +755,28 @@
     <t xml:space="preserve">15.5416383743286</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7141580581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5866470336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7741651535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.246711730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2767162322998</t>
+    <t xml:space="preserve">15.7141561508179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5866432189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7741632461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2467155456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2767181396484</t>
   </si>
   <si>
     <t xml:space="preserve">16.3517227172852</t>
   </si>
   <si>
-    <t xml:space="preserve">16.524242401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6367568969727</t>
+    <t xml:space="preserve">16.5242443084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.636754989624</t>
   </si>
   <si>
     <t xml:space="preserve">16.5392436981201</t>
@@ -788,82 +788,82 @@
     <t xml:space="preserve">15.8491706848145</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8566694259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8266677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8941774368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041677474976</t>
+    <t xml:space="preserve">15.8566732406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8266696929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8941764831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041658401489</t>
   </si>
   <si>
     <t xml:space="preserve">15.7216577529907</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6166467666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.744161605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116664886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4516286849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4216251373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3766222000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5191373825073</t>
+    <t xml:space="preserve">15.616644859314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7441577911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116693496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4516305923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4216270446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3766241073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5191383361816</t>
   </si>
   <si>
     <t xml:space="preserve">15.5266389846802</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2266063690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3016119003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.241605758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.444130897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0315866470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4066257476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1966028213501</t>
+    <t xml:space="preserve">15.2266054153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3016138076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2416095733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4441289901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0315856933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4066276550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1966018676758</t>
   </si>
   <si>
     <t xml:space="preserve">15.1515979766846</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3991279602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.759162902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9091796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.006685256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8692779541016</t>
+    <t xml:space="preserve">15.3991260528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7591609954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9091777801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0066871643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8692798614502</t>
   </si>
   <si>
     <t xml:space="preserve">17.626859664917</t>
@@ -875,70 +875,70 @@
     <t xml:space="preserve">19.382043838501</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0820140838623</t>
+    <t xml:space="preserve">19.0820121765137</t>
   </si>
   <si>
     <t xml:space="preserve">19.1270160675049</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8944931030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7519798278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8644886016846</t>
+    <t xml:space="preserve">18.894495010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7519779205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8644905090332</t>
   </si>
   <si>
     <t xml:space="preserve">18.6394672393799</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6769714355469</t>
+    <t xml:space="preserve">18.6769676208496</t>
   </si>
   <si>
     <t xml:space="preserve">18.5194530487061</t>
   </si>
   <si>
-    <t xml:space="preserve">18.631965637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2944259643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4219455718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2569255828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2419261932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.189416885376</t>
+    <t xml:space="preserve">18.6319637298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2944278717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4219417572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2569236755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.24192237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1894187927246</t>
   </si>
   <si>
     <t xml:space="preserve">18.1519145965576</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0319042205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9643955230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9268913269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6793651580811</t>
+    <t xml:space="preserve">18.0319023132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9643936157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9268894195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6793670654297</t>
   </si>
   <si>
     <t xml:space="preserve">17.9043884277344</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7318706512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9718952178955</t>
+    <t xml:space="preserve">17.7318687438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9718971252441</t>
   </si>
   <si>
     <t xml:space="preserve">18.0018997192383</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">18.0469036102295</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0244026184082</t>
+    <t xml:space="preserve">18.0244007110596</t>
   </si>
   <si>
     <t xml:space="preserve">17.9343910217285</t>
@@ -962,10 +962,10 @@
     <t xml:space="preserve">17.2068138122559</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2443180084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5518493652344</t>
+    <t xml:space="preserve">17.2443199157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5518531799316</t>
   </si>
   <si>
     <t xml:space="preserve">16.9517860412598</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">16.9067840576172</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1918144226074</t>
+    <t xml:space="preserve">17.1918125152588</t>
   </si>
   <si>
     <t xml:space="preserve">17.1243057250977</t>
@@ -1004,10 +1004,10 @@
     <t xml:space="preserve">17.1393089294434</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0192966461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8092727661133</t>
+    <t xml:space="preserve">17.0192947387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8092765808105</t>
   </si>
   <si>
     <t xml:space="preserve">16.4642372131348</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">17.0567989349365</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8017730712891</t>
+    <t xml:space="preserve">16.8017711639404</t>
   </si>
   <si>
     <t xml:space="preserve">16.4192333221436</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">16.4417343139648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2092113494873</t>
+    <t xml:space="preserve">16.2092094421387</t>
   </si>
   <si>
     <t xml:space="preserve">16.0441913604736</t>
@@ -1046,10 +1046,10 @@
     <t xml:space="preserve">16.5917510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8392772674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7642688751221</t>
+    <t xml:space="preserve">16.8392791748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7642669677734</t>
   </si>
   <si>
     <t xml:space="preserve">16.8767795562744</t>
@@ -1067,22 +1067,22 @@
     <t xml:space="preserve">17.364330291748</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2143173217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3268299102783</t>
+    <t xml:space="preserve">17.2143154144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3268280029297</t>
   </si>
   <si>
     <t xml:space="preserve">17.476842880249</t>
   </si>
   <si>
-    <t xml:space="preserve">17.664363861084</t>
+    <t xml:space="preserve">17.6643600463867</t>
   </si>
   <si>
     <t xml:space="preserve">17.8518810272217</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0769081115723</t>
+    <t xml:space="preserve">18.0769062042236</t>
   </si>
   <si>
     <t xml:space="preserve">17.5893573760986</t>
@@ -1091,55 +1091,55 @@
     <t xml:space="preserve">16.9892921447754</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5767478942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5017375946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3142223358154</t>
+    <t xml:space="preserve">16.5767498016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5017414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3142204284668</t>
   </si>
   <si>
     <t xml:space="preserve">15.9391832351685</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9766845703125</t>
+    <t xml:space="preserve">15.9766826629639</t>
   </si>
   <si>
     <t xml:space="preserve">16.0516929626465</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3892288208008</t>
+    <t xml:space="preserve">16.3892307281494</t>
   </si>
   <si>
     <t xml:space="preserve">17.2893218994141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.776876449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7393703460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4393367767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.701868057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.514347076416</t>
+    <t xml:space="preserve">17.7768745422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.739372253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.439338684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7018642425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5143451690674</t>
   </si>
   <si>
     <t xml:space="preserve">18.4894504547119</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3394336700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.039400100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8893871307373</t>
+    <t xml:space="preserve">18.3394355773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0394020080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8893890380859</t>
   </si>
   <si>
     <t xml:space="preserve">18.4144401550293</t>
@@ -1148,10 +1148,10 @@
     <t xml:space="preserve">18.5644588470459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2770328521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3520431518555</t>
+    <t xml:space="preserve">19.2770347595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3520412445068</t>
   </si>
   <si>
     <t xml:space="preserve">19.7270812988281</t>
@@ -1160,19 +1160,19 @@
     <t xml:space="preserve">20.2686100006104</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9591655731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6554145812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1969432830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.384651184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1912479400635</t>
+    <t xml:space="preserve">19.9591617584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6554164886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1969413757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3846492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1912517547607</t>
   </si>
   <si>
     <t xml:space="preserve">20.3459701538086</t>
@@ -1181,37 +1181,37 @@
     <t xml:space="preserve">19.8044414520264</t>
   </si>
   <si>
-    <t xml:space="preserve">19.572359085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6497211456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4949989318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5666637420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.947774887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4506225585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5336780548096</t>
+    <t xml:space="preserve">19.5723571777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6497192382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4949970245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5666656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9477767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.450626373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5336799621582</t>
   </si>
   <si>
     <t xml:space="preserve">19.8818035125732</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1138896942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2299270629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5393714904785</t>
+    <t xml:space="preserve">20.1138877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2299289703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5393695831299</t>
   </si>
   <si>
     <t xml:space="preserve">20.6167316436768</t>
@@ -1220,19 +1220,19 @@
     <t xml:space="preserve">20.4233303070068</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0365257263184</t>
+    <t xml:space="preserve">20.036527633667</t>
   </si>
   <si>
     <t xml:space="preserve">19.1081924438477</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8431205749512</t>
+    <t xml:space="preserve">19.8431243896484</t>
   </si>
   <si>
     <t xml:space="preserve">20.0752067565918</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4620132446289</t>
+    <t xml:space="preserve">20.4620094299316</t>
   </si>
   <si>
     <t xml:space="preserve">19.4176368713379</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">19.3402767181396</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2629146575928</t>
+    <t xml:space="preserve">19.2629127502441</t>
   </si>
   <si>
     <t xml:space="preserve">19.224235534668</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">19.3015956878662</t>
   </si>
   <si>
-    <t xml:space="preserve">19.030834197998</t>
+    <t xml:space="preserve">19.0308322906494</t>
   </si>
   <si>
     <t xml:space="preserve">19.3789577484131</t>
@@ -1280,19 +1280,19 @@
     <t xml:space="preserve">19.9978466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7657623291016</t>
+    <t xml:space="preserve">19.7657604217529</t>
   </si>
   <si>
     <t xml:space="preserve">18.8374290466309</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6827068328857</t>
+    <t xml:space="preserve">18.6827049255371</t>
   </si>
   <si>
     <t xml:space="preserve">19.0695114135742</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7930545806885</t>
+    <t xml:space="preserve">17.7930526733398</t>
   </si>
   <si>
     <t xml:space="preserve">16.7873611450195</t>
@@ -1310,28 +1310,28 @@
     <t xml:space="preserve">16.6326370239258</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1354846954346</t>
+    <t xml:space="preserve">17.1354827880859</t>
   </si>
   <si>
     <t xml:space="preserve">16.2458305358887</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6656246185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5495834350586</t>
+    <t xml:space="preserve">15.6656227111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.54958152771</t>
   </si>
   <si>
     <t xml:space="preserve">15.5882616043091</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3174982070923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8997497558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0544691085815</t>
+    <t xml:space="preserve">15.3174962997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8997478485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0544700622559</t>
   </si>
   <si>
     <t xml:space="preserve">15.1627759933472</t>
@@ -1340,34 +1340,34 @@
     <t xml:space="preserve">15.441276550293</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8203468322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8647174835205</t>
+    <t xml:space="preserve">15.8203449249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8647212982178</t>
   </si>
   <si>
     <t xml:space="preserve">16.5165958404541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3618755340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2845096588135</t>
+    <t xml:space="preserve">16.361873626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2845115661621</t>
   </si>
   <si>
     <t xml:space="preserve">16.1297874450684</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2071533203125</t>
+    <t xml:space="preserve">16.2071495056152</t>
   </si>
   <si>
     <t xml:space="preserve">16.0911083221436</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590259552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.781662940979</t>
+    <t xml:space="preserve">15.8590278625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7816667556763</t>
   </si>
   <si>
     <t xml:space="preserve">15.7429838180542</t>
@@ -1382,28 +1382,28 @@
     <t xml:space="preserve">16.6713180541992</t>
   </si>
   <si>
-    <t xml:space="preserve">16.477912902832</t>
+    <t xml:space="preserve">16.4779148101807</t>
   </si>
   <si>
     <t xml:space="preserve">15.9750671386719</t>
   </si>
   <si>
-    <t xml:space="preserve">15.456748008728</t>
+    <t xml:space="preserve">15.4567461013794</t>
   </si>
   <si>
     <t xml:space="preserve">15.2556095123291</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0137500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7100009918213</t>
+    <t xml:space="preserve">16.0137481689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7099990844727</t>
   </si>
   <si>
     <t xml:space="preserve">16.5552768707275</t>
   </si>
   <si>
-    <t xml:space="preserve">17.174165725708</t>
+    <t xml:space="preserve">17.1741676330566</t>
   </si>
   <si>
     <t xml:space="preserve">16.9807624816895</t>
@@ -1421,40 +1421,40 @@
     <t xml:space="preserve">16.3231925964355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9363870620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948574066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4103307723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6269426345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4258031845093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.472222328186</t>
+    <t xml:space="preserve">15.9363889694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948593139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4103326797485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6269445419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4258041381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4722204208374</t>
   </si>
   <si>
     <t xml:space="preserve">17.0194416046143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.826042175293</t>
+    <t xml:space="preserve">16.8260402679443</t>
   </si>
   <si>
     <t xml:space="preserve">16.9034004211426</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2902088165283</t>
+    <t xml:space="preserve">17.2902050018311</t>
   </si>
   <si>
     <t xml:space="preserve">17.3288879394531</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3675670623779</t>
+    <t xml:space="preserve">17.3675689697266</t>
   </si>
   <si>
     <t xml:space="preserve">17.2515258789062</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">17.4836101531982</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6383304595947</t>
+    <t xml:space="preserve">17.6383323669434</t>
   </si>
   <si>
     <t xml:space="preserve">18.0251350402832</t>
@@ -1475,7 +1475,7 @@
     <t xml:space="preserve">17.8704147338867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1798610687256</t>
+    <t xml:space="preserve">18.1798572540283</t>
   </si>
   <si>
     <t xml:space="preserve">19.0244979858398</t>
@@ -1490,10 +1490,10 @@
     <t xml:space="preserve">17.3754405975342</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9732303619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.691686630249</t>
+    <t xml:space="preserve">16.9732322692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6916847229004</t>
   </si>
   <si>
     <t xml:space="preserve">16.2492561340332</t>
@@ -1508,10 +1508,10 @@
     <t xml:space="preserve">15.8309564590454</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2894763946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1688137054443</t>
+    <t xml:space="preserve">16.2894744873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.168815612793</t>
   </si>
   <si>
     <t xml:space="preserve">16.0883712768555</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">16.3296966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8631324768066</t>
+    <t xml:space="preserve">15.8631343841553</t>
   </si>
   <si>
     <t xml:space="preserve">15.5735464096069</t>
@@ -1538,13 +1538,13 @@
     <t xml:space="preserve">16.1285915374756</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8953094482422</t>
+    <t xml:space="preserve">15.8953113555908</t>
   </si>
   <si>
     <t xml:space="preserve">15.8470478057861</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4503612518311</t>
+    <t xml:space="preserve">16.4503593444824</t>
   </si>
   <si>
     <t xml:space="preserve">16.6112422943115</t>
@@ -1556,25 +1556,25 @@
     <t xml:space="preserve">16.4905815124512</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3699188232422</t>
+    <t xml:space="preserve">16.3699169158936</t>
   </si>
   <si>
     <t xml:space="preserve">16.4101390838623</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9330081939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4156608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6569881439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5363235473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0938949584961</t>
+    <t xml:space="preserve">16.9330101013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4156627655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6569900512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5363216400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0938930511475</t>
   </si>
   <si>
     <t xml:space="preserve">17.1743354797363</t>
@@ -1595,39 +1595,42 @@
     <t xml:space="preserve">16.7721271514893</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5710220336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9596652984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0079288482666</t>
+    <t xml:space="preserve">16.57102394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9596633911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0079307556152</t>
   </si>
   <si>
     <t xml:space="preserve">16.8123474121094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.053674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2145557403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1341133117676</t>
+    <t xml:space="preserve">17.0536727905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2145576477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1341152191162</t>
   </si>
   <si>
     <t xml:space="preserve">17.2547779083252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8525695800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.455883026123</t>
+    <t xml:space="preserve">16.8525676727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4558849334717</t>
   </si>
   <si>
     <t xml:space="preserve">17.6167678833008</t>
   </si>
   <si>
+    <t xml:space="preserve">18.179859161377</t>
+  </si>
+  <si>
     <t xml:space="preserve">18.5016269683838</t>
   </si>
   <si>
@@ -1637,25 +1640,25 @@
     <t xml:space="preserve">18.6625118255615</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3060455322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9440574645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5473728179932</t>
+    <t xml:space="preserve">19.3060474395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.944055557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5473709106445</t>
   </si>
   <si>
     <t xml:space="preserve">19.2256031036377</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7429523468018</t>
+    <t xml:space="preserve">18.7429504394531</t>
   </si>
   <si>
     <t xml:space="preserve">19.1451625823975</t>
   </si>
   <si>
-    <t xml:space="preserve">19.466926574707</t>
+    <t xml:space="preserve">19.4669303894043</t>
   </si>
   <si>
     <t xml:space="preserve">19.6278133392334</t>
@@ -1667,34 +1670,34 @@
     <t xml:space="preserve">19.7082557678223</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7484760284424</t>
+    <t xml:space="preserve">19.7484741210938</t>
   </si>
   <si>
     <t xml:space="preserve">18.9842777252197</t>
   </si>
   <si>
-    <t xml:space="preserve">18.823392868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.702730178833</t>
+    <t xml:space="preserve">18.8233947753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7027320861816</t>
   </si>
   <si>
     <t xml:space="preserve">18.9038352966309</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1049385070801</t>
+    <t xml:space="preserve">19.1049404144287</t>
   </si>
   <si>
     <t xml:space="preserve">19.1853828430176</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7831745147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3407421112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.507152557373</t>
+    <t xml:space="preserve">18.7831726074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3407440185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5071506500244</t>
   </si>
   <si>
     <t xml:space="preserve">19.0647201538086</t>
@@ -1712,16 +1715,16 @@
     <t xml:space="preserve">18.2603015899658</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3005237579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7776508331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7374305725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.938533782959</t>
+    <t xml:space="preserve">18.3005218505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7776489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7374286651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9385318756104</t>
   </si>
   <si>
     <t xml:space="preserve">15.6861619949341</t>
@@ -1733,19 +1736,19 @@
     <t xml:space="preserve">14.0612354278564</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4795331954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.514232635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6751146316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6268510818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0773248672485</t>
+    <t xml:space="preserve">14.4795351028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5142316818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6751165390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6268501281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0773239135742</t>
   </si>
   <si>
     <t xml:space="preserve">13.7555570602417</t>
@@ -1754,43 +1757,43 @@
     <t xml:space="preserve">13.6590270996094</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4337902069092</t>
+    <t xml:space="preserve">13.4337911605835</t>
   </si>
   <si>
     <t xml:space="preserve">13.0315809249878</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1949853897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9858360290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2618598937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.18141746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6987676620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2216396331787</t>
+    <t xml:space="preserve">12.1949844360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9858369827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2618589401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1814165115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.698766708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2216386795044</t>
   </si>
   <si>
     <t xml:space="preserve">11.5434074401855</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2271604537964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7098140716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.347825050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0662794113159</t>
+    <t xml:space="preserve">12.227162361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.709813117981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3478260040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0662784576416</t>
   </si>
   <si>
     <t xml:space="preserve">12.468487739563</t>
@@ -1799,7 +1802,7 @@
     <t xml:space="preserve">12.5087080001831</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2673835754395</t>
+    <t xml:space="preserve">12.2673826217651</t>
   </si>
   <si>
     <t xml:space="preserve">11.9053945541382</t>
@@ -1814,58 +1817,58 @@
     <t xml:space="preserve">12.0260572433472</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7042894363403</t>
+    <t xml:space="preserve">11.7042903900146</t>
   </si>
   <si>
     <t xml:space="preserve">11.8249530792236</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1869401931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3825216293335</t>
+    <t xml:space="preserve">12.1869411468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3825225830078</t>
   </si>
   <si>
     <t xml:space="preserve">10.8998718261719</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9803123474121</t>
+    <t xml:space="preserve">10.9803133010864</t>
   </si>
   <si>
     <t xml:space="preserve">11.060754776001</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6640691757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6695938110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8304758071899</t>
+    <t xml:space="preserve">11.6640701293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6695919036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8304748535156</t>
   </si>
   <si>
     <t xml:space="preserve">14.6001968383789</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6425161361694</t>
+    <t xml:space="preserve">14.6425151824951</t>
   </si>
   <si>
     <t xml:space="preserve">14.5578784942627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3886013031006</t>
+    <t xml:space="preserve">14.3886003494263</t>
   </si>
   <si>
     <t xml:space="preserve">14.3462800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7271547317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1503486633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8117933273315</t>
+    <t xml:space="preserve">14.7271556854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1503496170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8117923736572</t>
   </si>
   <si>
     <t xml:space="preserve">13.9230871200562</t>
@@ -1874,28 +1877,28 @@
     <t xml:space="preserve">14.0500450134277</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0077257156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2616415023804</t>
+    <t xml:space="preserve">14.0077247619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2616424560547</t>
   </si>
   <si>
     <t xml:space="preserve">14.4732389450073</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0657110214233</t>
+    <t xml:space="preserve">15.065710067749</t>
   </si>
   <si>
     <t xml:space="preserve">15.3196268081665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2349891662598</t>
+    <t xml:space="preserve">15.2349882125854</t>
   </si>
   <si>
     <t xml:space="preserve">14.8541126251221</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9387512207031</t>
+    <t xml:space="preserve">14.9387521743774</t>
   </si>
   <si>
     <t xml:space="preserve">14.0923633575439</t>
@@ -1904,16 +1907,16 @@
     <t xml:space="preserve">13.9654064178467</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1346845626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4309196472168</t>
+    <t xml:space="preserve">14.1346836090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4309186935425</t>
   </si>
   <si>
     <t xml:space="preserve">14.769474029541</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5155582427979</t>
+    <t xml:space="preserve">14.5155563354492</t>
   </si>
   <si>
     <t xml:space="preserve">14.68483543396</t>
@@ -1931,7 +1934,7 @@
     <t xml:space="preserve">13.8384475708008</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2193212509155</t>
+    <t xml:space="preserve">14.2193222045898</t>
   </si>
   <si>
     <t xml:space="preserve">13.5422115325928</t>
@@ -1943,7 +1946,7 @@
     <t xml:space="preserve">13.584529876709</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9497404098511</t>
+    <t xml:space="preserve">12.9497413635254</t>
   </si>
   <si>
     <t xml:space="preserve">13.3306140899658</t>
@@ -1955,7 +1958,7 @@
     <t xml:space="preserve">13.161337852478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4575719833374</t>
+    <t xml:space="preserve">13.4575729370117</t>
   </si>
   <si>
     <t xml:space="preserve">13.2459754943848</t>
@@ -1964,7 +1967,7 @@
     <t xml:space="preserve">15.4042654037476</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8274602890015</t>
+    <t xml:space="preserve">15.8274583816528</t>
   </si>
   <si>
     <t xml:space="preserve">15.9967384338379</t>
@@ -1973,13 +1976,13 @@
     <t xml:space="preserve">16.673849105835</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5045700073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0813751220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2506561279297</t>
+    <t xml:space="preserve">16.5045719146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0813770294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2506542205811</t>
   </si>
   <si>
     <t xml:space="preserve">16.166015625</t>
@@ -2003,22 +2006,22 @@
     <t xml:space="preserve">15.7428216934204</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0390567779541</t>
+    <t xml:space="preserve">16.0390586853027</t>
   </si>
   <si>
     <t xml:space="preserve">16.9277629852295</t>
   </si>
   <si>
-    <t xml:space="preserve">16.758487701416</t>
+    <t xml:space="preserve">16.7584857940674</t>
   </si>
   <si>
     <t xml:space="preserve">17.4355964660645</t>
   </si>
   <si>
-    <t xml:space="preserve">18.366626739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7741546630859</t>
+    <t xml:space="preserve">18.3666248321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7741527557373</t>
   </si>
   <si>
     <t xml:space="preserve">18.0280704498291</t>
@@ -2033,28 +2036,28 @@
     <t xml:space="preserve">17.0970420837402</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2663192749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1816787719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8431262969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0124034881592</t>
+    <t xml:space="preserve">17.2663173675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1816806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8431243896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0124053955078</t>
   </si>
   <si>
     <t xml:space="preserve">17.3509578704834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.858793258667</t>
+    <t xml:space="preserve">17.8587913513184</t>
   </si>
   <si>
     <t xml:space="preserve">18.1127071380615</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1973457336426</t>
+    <t xml:space="preserve">18.1973476409912</t>
   </si>
   <si>
     <t xml:space="preserve">18.6205406188965</t>
@@ -2069,7 +2072,7 @@
     <t xml:space="preserve">18.5359020233154</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7898197174072</t>
+    <t xml:space="preserve">18.7898178100586</t>
   </si>
   <si>
     <t xml:space="preserve">18.8744564056396</t>
@@ -2096,16 +2099,16 @@
     <t xml:space="preserve">19.6362075805664</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9747619628906</t>
+    <t xml:space="preserve">19.9747638702393</t>
   </si>
   <si>
     <t xml:space="preserve">20.0594024658203</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1440410614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7208461761475</t>
+    <t xml:space="preserve">20.1440391540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7208442687988</t>
   </si>
   <si>
     <t xml:space="preserve">20.6518726348877</t>
@@ -2114,7 +2117,7 @@
     <t xml:space="preserve">20.5639934539795</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2124710083008</t>
+    <t xml:space="preserve">20.2124729156494</t>
   </si>
   <si>
     <t xml:space="preserve">20.3882331848145</t>
@@ -2123,7 +2126,7 @@
     <t xml:space="preserve">20.3003520965576</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1245918273926</t>
+    <t xml:space="preserve">20.1245899200439</t>
   </si>
   <si>
     <t xml:space="preserve">20.7397537231445</t>
@@ -2132,10 +2135,10 @@
     <t xml:space="preserve">21.0912742614746</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9155120849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0367088317871</t>
+    <t xml:space="preserve">20.9155139923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0367107391357</t>
   </si>
   <si>
     <t xml:space="preserve">19.7730693817139</t>
@@ -2159,7 +2162,7 @@
     <t xml:space="preserve">21.4427967071533</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7064380645752</t>
+    <t xml:space="preserve">21.7064361572266</t>
   </si>
   <si>
     <t xml:space="preserve">21.9700775146484</t>
@@ -2174,10 +2177,10 @@
     <t xml:space="preserve">23.5519218444824</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8488826751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2882843017578</t>
+    <t xml:space="preserve">22.8488807678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2882823944092</t>
   </si>
   <si>
     <t xml:space="preserve">23.0246429443359</t>
@@ -2186,10 +2189,10 @@
     <t xml:space="preserve">23.4640445709229</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6398029327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9034461975098</t>
+    <t xml:space="preserve">23.6398048400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9034442901611</t>
   </si>
   <si>
     <t xml:space="preserve">24.5186061859131</t>
@@ -2210,13 +2213,13 @@
     <t xml:space="preserve">24.6064872741699</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9913234710693</t>
+    <t xml:space="preserve">23.991325378418</t>
   </si>
   <si>
     <t xml:space="preserve">24.0792045593262</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7609996795654</t>
+    <t xml:space="preserve">22.7610015869141</t>
   </si>
   <si>
     <t xml:space="preserve">23.7276840209961</t>
@@ -2225,13 +2228,13 @@
     <t xml:space="preserve">25.0458889007568</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1004543304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8368110656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1337699890137</t>
+    <t xml:space="preserve">26.1004524230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8368129730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.133768081665</t>
   </si>
   <si>
     <t xml:space="preserve">26.1883335113525</t>
@@ -2249,10 +2252,10 @@
     <t xml:space="preserve">25.3974094390869</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0125713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4519729614258</t>
+    <t xml:space="preserve">26.0125732421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4519748687744</t>
   </si>
   <si>
     <t xml:space="preserve">26.2762126922607</t>
@@ -2267,10 +2270,10 @@
     <t xml:space="preserve">27.2428970336914</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4186573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5065383911133</t>
+    <t xml:space="preserve">27.4186592102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5065364837646</t>
   </si>
   <si>
     <t xml:space="preserve">28.9126243591309</t>
@@ -2279,10 +2282,10 @@
     <t xml:space="preserve">30.6702308654785</t>
   </si>
   <si>
-    <t xml:space="preserve">30.406587600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0550689697266</t>
+    <t xml:space="preserve">30.4065856933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0550670623779</t>
   </si>
   <si>
     <t xml:space="preserve">30.2308292388916</t>
@@ -2303,10 +2306,10 @@
     <t xml:space="preserve">28.4732227325439</t>
   </si>
   <si>
-    <t xml:space="preserve">29.439905166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7368621826172</t>
+    <t xml:space="preserve">29.4399032592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7368640899658</t>
   </si>
   <si>
     <t xml:space="preserve">29.1762638092041</t>
@@ -2315,10 +2318,10 @@
     <t xml:space="preserve">28.2974605560303</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6277351379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9792575836182</t>
+    <t xml:space="preserve">26.6277332305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9792556762695</t>
   </si>
   <si>
     <t xml:space="preserve">26.8034954071045</t>
@@ -2330,7 +2333,7 @@
     <t xml:space="preserve">27.5944175720215</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7489318847656</t>
+    <t xml:space="preserve">25.748929977417</t>
   </si>
   <si>
     <t xml:space="preserve">27.1550159454346</t>
@@ -2339,10 +2342,10 @@
     <t xml:space="preserve">27.0671367645264</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8913745880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6822986602783</t>
+    <t xml:space="preserve">26.8913764953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6822967529297</t>
   </si>
   <si>
     <t xml:space="preserve">23.376163482666</t>
@@ -2357,7 +2360,7 @@
     <t xml:space="preserve">25.2216510772705</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7822494506836</t>
+    <t xml:space="preserve">24.782247543335</t>
   </si>
   <si>
     <t xml:space="preserve">24.8701267242432</t>
@@ -2372,9 +2375,6 @@
     <t xml:space="preserve">24.1247482299805</t>
   </si>
   <si>
-    <t xml:space="preserve">25.133768081665</t>
-  </si>
-  <si>
     <t xml:space="preserve">24.8585815429688</t>
   </si>
   <si>
@@ -3012,6 +3012,9 @@
   </si>
   <si>
     <t xml:space="preserve">39.3499984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9000015258789</t>
   </si>
 </sst>
 </file>
@@ -28825,7 +28828,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G980" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28851,7 +28854,7 @@
         <v>23</v>
       </c>
       <c r="G981" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28877,7 +28880,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G982" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28903,7 +28906,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G983" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28929,7 +28932,7 @@
         <v>24</v>
       </c>
       <c r="G984" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -28981,7 +28984,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G986" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29007,7 +29010,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -29033,7 +29036,7 @@
         <v>24</v>
       </c>
       <c r="G988" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -29059,7 +29062,7 @@
         <v>24</v>
       </c>
       <c r="G989" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -29085,7 +29088,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G990" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -29111,7 +29114,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G991" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -29137,7 +29140,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -29163,7 +29166,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G993" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -29189,7 +29192,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -29215,7 +29218,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G995" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -29241,7 +29244,7 @@
         <v>24.5</v>
       </c>
       <c r="G996" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29267,7 +29270,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G997" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29293,7 +29296,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G998" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29319,7 +29322,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29345,7 +29348,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29371,7 +29374,7 @@
         <v>23.25</v>
       </c>
       <c r="G1001" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29397,7 +29400,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1002" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29423,7 +29426,7 @@
         <v>23.5</v>
       </c>
       <c r="G1003" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29475,7 +29478,7 @@
         <v>23.75</v>
       </c>
       <c r="G1005" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29501,7 +29504,7 @@
         <v>23.75</v>
       </c>
       <c r="G1006" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29527,7 +29530,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1007" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29553,7 +29556,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29579,7 +29582,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1009" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29605,7 +29608,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29631,7 +29634,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1011" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29683,7 +29686,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1013" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29709,7 +29712,7 @@
         <v>24.25</v>
       </c>
       <c r="G1014" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29735,7 +29738,7 @@
         <v>24</v>
       </c>
       <c r="G1015" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29761,7 +29764,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1016" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29787,7 +29790,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1017" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29813,7 +29816,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1018" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29839,7 +29842,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1019" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29865,7 +29868,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29891,7 +29894,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1021" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29917,7 +29920,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1022" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29943,7 +29946,7 @@
         <v>23.5</v>
       </c>
       <c r="G1023" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -29969,7 +29972,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1024" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -29995,7 +29998,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30021,7 +30024,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1026" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -30047,7 +30050,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1027" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -30073,7 +30076,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1028" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -30099,7 +30102,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1029" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -30125,7 +30128,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1030" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -30151,7 +30154,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1031" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -30177,7 +30180,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1032" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -30203,7 +30206,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1033" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -30229,7 +30232,7 @@
         <v>22.75</v>
       </c>
       <c r="G1034" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30255,7 +30258,7 @@
         <v>23.25</v>
       </c>
       <c r="G1035" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30281,7 +30284,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1036" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30307,7 +30310,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1037" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30333,7 +30336,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30359,7 +30362,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1039" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30385,7 +30388,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1040" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30411,7 +30414,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30437,7 +30440,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1042" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30463,7 +30466,7 @@
         <v>23.75</v>
       </c>
       <c r="G1043" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30489,7 +30492,7 @@
         <v>23.75</v>
       </c>
       <c r="G1044" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30515,7 +30518,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1045" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30541,7 +30544,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1046" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30567,7 +30570,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1047" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30593,7 +30596,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30619,7 +30622,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30645,7 +30648,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30671,7 +30674,7 @@
         <v>23.25</v>
       </c>
       <c r="G1051" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30697,7 +30700,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1052" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30749,7 +30752,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1054" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30775,7 +30778,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30801,7 +30804,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1056" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30827,7 +30830,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1057" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -31009,7 +31012,7 @@
         <v>19.5</v>
       </c>
       <c r="G1064" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31035,7 +31038,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1065" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -31061,7 +31064,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1066" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -31087,7 +31090,7 @@
         <v>18</v>
       </c>
       <c r="G1067" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -31113,7 +31116,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1068" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -31139,7 +31142,7 @@
         <v>17</v>
       </c>
       <c r="G1069" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -31165,7 +31168,7 @@
         <v>17</v>
       </c>
       <c r="G1070" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31191,7 +31194,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1071" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -31217,7 +31220,7 @@
         <v>17.5</v>
       </c>
       <c r="G1072" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31243,7 +31246,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1073" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31269,7 +31272,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1074" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31295,7 +31298,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1075" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31321,7 +31324,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31347,7 +31350,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1077" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31373,7 +31376,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1078" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31399,7 +31402,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1079" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31425,7 +31428,7 @@
         <v>14</v>
       </c>
       <c r="G1080" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31451,7 +31454,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1081" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31477,7 +31480,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1082" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31503,7 +31506,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1083" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31529,7 +31532,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1084" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31555,7 +31558,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1085" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31581,7 +31584,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1086" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31607,7 +31610,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1087" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31633,7 +31636,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1088" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31659,7 +31662,7 @@
         <v>15</v>
       </c>
       <c r="G1089" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31685,7 +31688,7 @@
         <v>15.5</v>
       </c>
       <c r="G1090" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31711,7 +31714,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1091" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31737,7 +31740,7 @@
         <v>15.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31763,7 +31766,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1093" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31789,7 +31792,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1094" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31815,7 +31818,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1095" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31841,7 +31844,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1096" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31867,7 +31870,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1097" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31893,7 +31896,7 @@
         <v>15</v>
       </c>
       <c r="G1098" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31919,7 +31922,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1099" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31945,7 +31948,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1100" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -31971,7 +31974,7 @@
         <v>15</v>
       </c>
       <c r="G1101" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31997,7 +32000,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1102" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -32023,7 +32026,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1103" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -32049,7 +32052,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1104" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32075,7 +32078,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1105" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -32101,7 +32104,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -32127,7 +32130,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1107" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -32153,7 +32156,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1108" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -32179,7 +32182,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1109" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -32205,7 +32208,7 @@
         <v>13.75</v>
       </c>
       <c r="G1110" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -32231,7 +32234,7 @@
         <v>14</v>
       </c>
       <c r="G1111" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32257,7 +32260,7 @@
         <v>14</v>
       </c>
       <c r="G1112" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32283,7 +32286,7 @@
         <v>14.5</v>
       </c>
       <c r="G1113" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32309,7 +32312,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1114" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32335,7 +32338,7 @@
         <v>15</v>
       </c>
       <c r="G1115" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32361,7 +32364,7 @@
         <v>15.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32387,7 +32390,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1117" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32413,7 +32416,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1118" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32439,7 +32442,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32465,7 +32468,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1120" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32491,7 +32494,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1121" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32517,7 +32520,7 @@
         <v>17</v>
       </c>
       <c r="G1122" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32543,7 +32546,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1123" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32569,7 +32572,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32595,7 +32598,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1125" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32621,7 +32624,7 @@
         <v>17.5</v>
       </c>
       <c r="G1126" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32647,7 +32650,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1127" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32673,7 +32676,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1128" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32699,7 +32702,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32725,7 +32728,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1130" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32751,7 +32754,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1131" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32777,7 +32780,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1132" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32803,7 +32806,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1133" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32829,7 +32832,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1134" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32855,7 +32858,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1135" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32881,7 +32884,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1136" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32907,7 +32910,7 @@
         <v>18</v>
       </c>
       <c r="G1137" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32933,7 +32936,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32959,7 +32962,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -32985,7 +32988,7 @@
         <v>17.5</v>
       </c>
       <c r="G1140" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -33011,7 +33014,7 @@
         <v>17</v>
       </c>
       <c r="G1141" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -33037,7 +33040,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1142" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -33063,7 +33066,7 @@
         <v>16.5</v>
       </c>
       <c r="G1143" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -33089,7 +33092,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1144" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -33115,7 +33118,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1145" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -33141,7 +33144,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G1146" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -33167,7 +33170,7 @@
         <v>17.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -33193,7 +33196,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -33219,7 +33222,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33245,7 +33248,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1150" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33271,7 +33274,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1151" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33297,7 +33300,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1152" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33323,7 +33326,7 @@
         <v>17.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33349,7 +33352,7 @@
         <v>17</v>
       </c>
       <c r="G1154" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33375,7 +33378,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1155" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33401,7 +33404,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1156" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33427,7 +33430,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1157" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33453,7 +33456,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33479,7 +33482,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1159" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33505,7 +33508,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1160" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33531,7 +33534,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1161" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33557,7 +33560,7 @@
         <v>16.5</v>
       </c>
       <c r="G1162" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33583,7 +33586,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1163" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33609,7 +33612,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1164" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33635,7 +33638,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1165" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33661,7 +33664,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1166" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33687,7 +33690,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1167" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33713,7 +33716,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1168" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33739,7 +33742,7 @@
         <v>17.25</v>
       </c>
       <c r="G1169" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33765,7 +33768,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1170" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33791,7 +33794,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1171" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33817,7 +33820,7 @@
         <v>17</v>
       </c>
       <c r="G1172" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33843,7 +33846,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1173" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33869,7 +33872,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1174" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33895,7 +33898,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1175" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33921,7 +33924,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33947,7 +33950,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1177" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -33973,7 +33976,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1178" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -33999,7 +34002,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1179" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -34025,7 +34028,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1180" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -34051,7 +34054,7 @@
         <v>17</v>
       </c>
       <c r="G1181" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -34077,7 +34080,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1182" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -34103,7 +34106,7 @@
         <v>17</v>
       </c>
       <c r="G1183" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -34129,7 +34132,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1184" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -34155,7 +34158,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1185" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -34181,7 +34184,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1186" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -34207,7 +34210,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1187" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34233,7 +34236,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1188" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34259,7 +34262,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34285,7 +34288,7 @@
         <v>17.25</v>
       </c>
       <c r="G1190" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34311,7 +34314,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1191" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34337,7 +34340,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1192" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34363,7 +34366,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1193" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34389,7 +34392,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1194" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34415,7 +34418,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1195" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34441,7 +34444,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1196" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34467,7 +34470,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1197" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34493,7 +34496,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1198" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34519,7 +34522,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1199" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34545,7 +34548,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1200" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34571,7 +34574,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34597,7 +34600,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1202" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34623,7 +34626,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1203" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34649,7 +34652,7 @@
         <v>16</v>
       </c>
       <c r="G1204" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34675,7 +34678,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1205" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34701,7 +34704,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1206" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34727,7 +34730,7 @@
         <v>16</v>
       </c>
       <c r="G1207" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34753,7 +34756,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1208" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34779,7 +34782,7 @@
         <v>16.25</v>
       </c>
       <c r="G1209" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34805,7 +34808,7 @@
         <v>16.5</v>
       </c>
       <c r="G1210" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34831,7 +34834,7 @@
         <v>16.5</v>
       </c>
       <c r="G1211" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34857,7 +34860,7 @@
         <v>17.25</v>
       </c>
       <c r="G1212" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34883,7 +34886,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1213" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34909,7 +34912,7 @@
         <v>17</v>
       </c>
       <c r="G1214" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34935,7 +34938,7 @@
         <v>17.25</v>
       </c>
       <c r="G1215" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -34961,7 +34964,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1216" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -34987,7 +34990,7 @@
         <v>17</v>
       </c>
       <c r="G1217" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -35013,7 +35016,7 @@
         <v>17</v>
       </c>
       <c r="G1218" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -35039,7 +35042,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1219" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -35065,7 +35068,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -35091,7 +35094,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1221" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -35117,7 +35120,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1222" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -35143,7 +35146,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1223" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -35169,7 +35172,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1224" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -35195,7 +35198,7 @@
         <v>16</v>
       </c>
       <c r="G1225" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -35221,7 +35224,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1226" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35247,7 +35250,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1227" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35273,7 +35276,7 @@
         <v>15.75</v>
       </c>
       <c r="G1228" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35299,7 +35302,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1229" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35325,7 +35328,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1230" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35351,7 +35354,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1231" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35377,7 +35380,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1232" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35403,7 +35406,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35429,7 +35432,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G1234" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35455,7 +35458,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1235" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35481,7 +35484,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35507,7 +35510,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1237" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35533,7 +35536,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1238" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35559,7 +35562,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1239" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35585,7 +35588,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1240" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35611,7 +35614,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1241" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35637,7 +35640,7 @@
         <v>19.5</v>
       </c>
       <c r="G1242" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35663,7 +35666,7 @@
         <v>19</v>
       </c>
       <c r="G1243" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35689,7 +35692,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1244" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35715,7 +35718,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1245" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35741,7 +35744,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1246" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35767,7 +35770,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1247" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35793,7 +35796,7 @@
         <v>18.75</v>
       </c>
       <c r="G1248" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35819,7 +35822,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1249" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35845,7 +35848,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1250" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35871,7 +35874,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1251" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35897,7 +35900,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35923,7 +35926,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1253" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35949,7 +35952,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35975,7 +35978,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1255" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -36001,7 +36004,7 @@
         <v>19</v>
       </c>
       <c r="G1256" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -36027,7 +36030,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1257" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -36053,7 +36056,7 @@
         <v>19</v>
       </c>
       <c r="G1258" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -36079,7 +36082,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1259" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -36105,7 +36108,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1260" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -36131,7 +36134,7 @@
         <v>19</v>
       </c>
       <c r="G1261" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -36157,7 +36160,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1262" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -36183,7 +36186,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -36209,7 +36212,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1264" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -36235,7 +36238,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1265" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36261,7 +36264,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1266" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36287,7 +36290,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1267" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36313,7 +36316,7 @@
         <v>18.75</v>
       </c>
       <c r="G1268" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36339,7 +36342,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1269" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36365,7 +36368,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1270" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36391,7 +36394,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G1271" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36417,7 +36420,7 @@
         <v>19</v>
       </c>
       <c r="G1272" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36443,7 +36446,7 @@
         <v>20</v>
       </c>
       <c r="G1273" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36469,7 +36472,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1274" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36495,7 +36498,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1275" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36521,7 +36524,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1276" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36547,7 +36550,7 @@
         <v>21</v>
       </c>
       <c r="G1277" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36573,7 +36576,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1278" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36599,7 +36602,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1279" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36625,7 +36628,7 @@
         <v>20</v>
       </c>
       <c r="G1280" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36651,7 +36654,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1281" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36677,7 +36680,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1282" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36703,7 +36706,7 @@
         <v>20</v>
       </c>
       <c r="G1283" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36729,7 +36732,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1284" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36755,7 +36758,7 @@
         <v>20</v>
       </c>
       <c r="G1285" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36781,7 +36784,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1286" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36807,7 +36810,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1287" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36833,7 +36836,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1288" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36859,7 +36862,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1289" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36885,7 +36888,7 @@
         <v>20</v>
       </c>
       <c r="G1290" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36911,7 +36914,7 @@
         <v>20</v>
       </c>
       <c r="G1291" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36937,7 +36940,7 @@
         <v>20.5</v>
       </c>
       <c r="G1292" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36963,7 +36966,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1293" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36989,7 +36992,7 @@
         <v>21</v>
       </c>
       <c r="G1294" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -37015,7 +37018,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1295" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -37041,7 +37044,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1296" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -37067,7 +37070,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1297" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -37093,7 +37096,7 @@
         <v>21.5</v>
       </c>
       <c r="G1298" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -37119,7 +37122,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1299" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -37145,7 +37148,7 @@
         <v>22</v>
       </c>
       <c r="G1300" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -37171,7 +37174,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1301" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -37197,7 +37200,7 @@
         <v>22</v>
       </c>
       <c r="G1302" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -37223,7 +37226,7 @@
         <v>21.5</v>
       </c>
       <c r="G1303" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37249,7 +37252,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1304" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37275,7 +37278,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1305" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37301,7 +37304,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1306" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37327,7 +37330,7 @@
         <v>21</v>
       </c>
       <c r="G1307" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37353,7 +37356,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1308" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37379,7 +37382,7 @@
         <v>21</v>
       </c>
       <c r="G1309" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37405,7 +37408,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1310" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37431,7 +37434,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1311" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37457,7 +37460,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1312" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37483,7 +37486,7 @@
         <v>21.5</v>
       </c>
       <c r="G1313" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37509,7 +37512,7 @@
         <v>21.5</v>
       </c>
       <c r="G1314" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37535,7 +37538,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1315" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37561,7 +37564,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1316" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37587,7 +37590,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1317" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37613,7 +37616,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1318" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37639,7 +37642,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1319" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37665,7 +37668,7 @@
         <v>22.5</v>
       </c>
       <c r="G1320" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37691,7 +37694,7 @@
         <v>23.5</v>
       </c>
       <c r="G1321" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37717,7 +37720,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1322" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37743,7 +37746,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1323" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37769,7 +37772,7 @@
         <v>23.5</v>
       </c>
       <c r="G1324" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37795,7 +37798,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1325" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37821,7 +37824,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1326" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37847,7 +37850,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1327" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37873,7 +37876,7 @@
         <v>23</v>
       </c>
       <c r="G1328" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37899,7 +37902,7 @@
         <v>23.5</v>
       </c>
       <c r="G1329" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37925,7 +37928,7 @@
         <v>23.5</v>
       </c>
       <c r="G1330" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37951,7 +37954,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1331" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37977,7 +37980,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1332" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -38003,7 +38006,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1333" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -38029,7 +38032,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1334" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -38055,7 +38058,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1335" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -38081,7 +38084,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1336" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -38107,7 +38110,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1337" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -38133,7 +38136,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1338" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -38159,7 +38162,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1339" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -38185,7 +38188,7 @@
         <v>23.5</v>
       </c>
       <c r="G1340" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -38211,7 +38214,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1341" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -38237,7 +38240,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1342" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -38263,7 +38266,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1343" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -38289,7 +38292,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1344" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -38315,7 +38318,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1345" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38341,7 +38344,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1346" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -38367,7 +38370,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1347" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -38393,7 +38396,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1348" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38419,7 +38422,7 @@
         <v>23.5</v>
       </c>
       <c r="G1349" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38445,7 +38448,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1350" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38471,7 +38474,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1351" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38497,7 +38500,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1352" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38523,7 +38526,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1353" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38549,7 +38552,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1354" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38575,7 +38578,7 @@
         <v>23</v>
       </c>
       <c r="G1355" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38601,7 +38604,7 @@
         <v>23</v>
       </c>
       <c r="G1356" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38627,7 +38630,7 @@
         <v>23</v>
       </c>
       <c r="G1357" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38653,7 +38656,7 @@
         <v>23</v>
       </c>
       <c r="G1358" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38679,7 +38682,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1359" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38705,7 +38708,7 @@
         <v>23</v>
       </c>
       <c r="G1360" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -38731,7 +38734,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1361" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38757,7 +38760,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1362" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38783,7 +38786,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1363" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38809,7 +38812,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1364" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38835,7 +38838,7 @@
         <v>23.5</v>
       </c>
       <c r="G1365" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38861,7 +38864,7 @@
         <v>23</v>
       </c>
       <c r="G1366" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38887,7 +38890,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1367" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38913,7 +38916,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1368" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38939,7 +38942,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1369" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38965,7 +38968,7 @@
         <v>23.5</v>
       </c>
       <c r="G1370" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38991,7 +38994,7 @@
         <v>23.5</v>
       </c>
       <c r="G1371" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -39017,7 +39020,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1372" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -39043,7 +39046,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1373" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -39069,7 +39072,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1374" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -39095,7 +39098,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1375" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -39121,7 +39124,7 @@
         <v>23.5</v>
       </c>
       <c r="G1376" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -39147,7 +39150,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1377" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -39173,7 +39176,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1378" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -39199,7 +39202,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1379" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -39225,7 +39228,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1380" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -39251,7 +39254,7 @@
         <v>23.5</v>
       </c>
       <c r="G1381" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39277,7 +39280,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1382" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -39303,7 +39306,7 @@
         <v>23.5</v>
       </c>
       <c r="G1383" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39329,7 +39332,7 @@
         <v>23.5</v>
       </c>
       <c r="G1384" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39355,7 +39358,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1385" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -39381,7 +39384,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1386" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39407,7 +39410,7 @@
         <v>24</v>
       </c>
       <c r="G1387" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39433,7 +39436,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1388" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39459,7 +39462,7 @@
         <v>23.5</v>
       </c>
       <c r="G1389" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39485,7 +39488,7 @@
         <v>23.5</v>
       </c>
       <c r="G1390" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39511,7 +39514,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1391" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39537,7 +39540,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1392" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39563,7 +39566,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1393" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39589,7 +39592,7 @@
         <v>23.5</v>
       </c>
       <c r="G1394" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39615,7 +39618,7 @@
         <v>23.5</v>
       </c>
       <c r="G1395" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39641,7 +39644,7 @@
         <v>23</v>
       </c>
       <c r="G1396" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39667,7 +39670,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1397" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39693,7 +39696,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1398" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39719,7 +39722,7 @@
         <v>23</v>
       </c>
       <c r="G1399" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39745,7 +39748,7 @@
         <v>23</v>
       </c>
       <c r="G1400" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39771,7 +39774,7 @@
         <v>23</v>
       </c>
       <c r="G1401" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39797,7 +39800,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1402" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39823,7 +39826,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1403" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39849,7 +39852,7 @@
         <v>23</v>
       </c>
       <c r="G1404" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39875,7 +39878,7 @@
         <v>23</v>
       </c>
       <c r="G1405" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39901,7 +39904,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1406" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39927,7 +39930,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1407" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39953,7 +39956,7 @@
         <v>22.5</v>
       </c>
       <c r="G1408" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39979,7 +39982,7 @@
         <v>22</v>
       </c>
       <c r="G1409" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -40005,7 +40008,7 @@
         <v>22.5</v>
       </c>
       <c r="G1410" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -40031,7 +40034,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1411" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -40057,7 +40060,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1412" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -40083,7 +40086,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1413" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -40109,7 +40112,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1414" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -40135,7 +40138,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1415" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -40161,7 +40164,7 @@
         <v>23.5</v>
       </c>
       <c r="G1416" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -40187,7 +40190,7 @@
         <v>23.5</v>
       </c>
       <c r="G1417" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -40213,7 +40216,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1418" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -40239,7 +40242,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -40265,7 +40268,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1420" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40291,7 +40294,7 @@
         <v>24</v>
       </c>
       <c r="G1421" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40317,7 +40320,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1422" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40343,7 +40346,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1423" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40369,7 +40372,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1424" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40395,7 +40398,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1425" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40421,7 +40424,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1426" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40447,7 +40450,7 @@
         <v>25</v>
       </c>
       <c r="G1427" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40473,7 +40476,7 @@
         <v>25</v>
       </c>
       <c r="G1428" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40499,7 +40502,7 @@
         <v>25</v>
       </c>
       <c r="G1429" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40525,7 +40528,7 @@
         <v>24.5</v>
       </c>
       <c r="G1430" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40551,7 +40554,7 @@
         <v>24.5</v>
       </c>
       <c r="G1431" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40577,7 +40580,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1432" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40603,7 +40606,7 @@
         <v>24.5</v>
       </c>
       <c r="G1433" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40629,7 +40632,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1434" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40655,7 +40658,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1435" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40681,7 +40684,7 @@
         <v>26</v>
       </c>
       <c r="G1436" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40707,7 +40710,7 @@
         <v>26.5</v>
       </c>
       <c r="G1437" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40733,7 +40736,7 @@
         <v>26</v>
       </c>
       <c r="G1438" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40759,7 +40762,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1439" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40785,7 +40788,7 @@
         <v>26</v>
       </c>
       <c r="G1440" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40811,7 +40814,7 @@
         <v>26.5</v>
       </c>
       <c r="G1441" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40837,7 +40840,7 @@
         <v>26.5</v>
       </c>
       <c r="G1442" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40863,7 +40866,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1443" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40889,7 +40892,7 @@
         <v>26.5</v>
       </c>
       <c r="G1444" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40915,7 +40918,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1445" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40941,7 +40944,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1446" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40967,7 +40970,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1447" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40993,7 +40996,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1448" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -41019,7 +41022,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1449" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -41045,7 +41048,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1450" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -41071,7 +41074,7 @@
         <v>27.5</v>
       </c>
       <c r="G1451" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -41097,7 +41100,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1452" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -41123,7 +41126,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -41149,7 +41152,7 @@
         <v>27.5</v>
       </c>
       <c r="G1454" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -41175,7 +41178,7 @@
         <v>27.5</v>
       </c>
       <c r="G1455" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -41201,7 +41204,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1456" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -41227,7 +41230,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1457" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -41253,7 +41256,7 @@
         <v>28</v>
       </c>
       <c r="G1458" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41279,7 +41282,7 @@
         <v>28</v>
       </c>
       <c r="G1459" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41305,7 +41308,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1460" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41331,7 +41334,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1461" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41357,7 +41360,7 @@
         <v>27.5</v>
       </c>
       <c r="G1462" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41383,7 +41386,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1463" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41409,7 +41412,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1464" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41435,7 +41438,7 @@
         <v>26.5</v>
       </c>
       <c r="G1465" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41461,7 +41464,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1466" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41487,7 +41490,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1467" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41513,7 +41516,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1468" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41539,7 +41542,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1469" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41565,7 +41568,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1470" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41591,7 +41594,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1471" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41617,7 +41620,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1472" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41643,7 +41646,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1473" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41669,7 +41672,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1474" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41695,7 +41698,7 @@
         <v>27.5</v>
       </c>
       <c r="G1475" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41721,7 +41724,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1476" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41747,7 +41750,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1477" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41773,7 +41776,7 @@
         <v>27.5</v>
       </c>
       <c r="G1478" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41799,7 +41802,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1479" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41825,7 +41828,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1480" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41851,7 +41854,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1481" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41877,7 +41880,7 @@
         <v>27</v>
       </c>
       <c r="G1482" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41903,7 +41906,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1483" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41929,7 +41932,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1484" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41955,7 +41958,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1485" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41981,7 +41984,7 @@
         <v>27.5</v>
       </c>
       <c r="G1486" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -42007,7 +42010,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1487" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -42033,7 +42036,7 @@
         <v>27.5</v>
       </c>
       <c r="G1488" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -42059,7 +42062,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1489" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -42085,7 +42088,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1490" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -42111,7 +42114,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1491" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -42137,7 +42140,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1492" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -42163,7 +42166,7 @@
         <v>28</v>
       </c>
       <c r="G1493" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -42189,7 +42192,7 @@
         <v>28</v>
       </c>
       <c r="G1494" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -42215,7 +42218,7 @@
         <v>28.5</v>
       </c>
       <c r="G1495" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -42241,7 +42244,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G1496" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -42267,7 +42270,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G1497" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42293,7 +42296,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1498" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42319,7 +42322,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1499" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42345,7 +42348,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G1500" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42371,7 +42374,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1501" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42397,7 +42400,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1502" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42423,7 +42426,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1503" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42449,7 +42452,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1504" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42475,7 +42478,7 @@
         <v>29</v>
       </c>
       <c r="G1505" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42501,7 +42504,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1506" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42527,7 +42530,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G1507" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42553,7 +42556,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1508" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42579,7 +42582,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1509" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42605,7 +42608,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1510" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42631,7 +42634,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1511" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42657,7 +42660,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1512" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42683,7 +42686,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1513" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42709,7 +42712,7 @@
         <v>30</v>
       </c>
       <c r="G1514" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42735,7 +42738,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G1515" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42761,7 +42764,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1516" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42787,7 +42790,7 @@
         <v>30</v>
       </c>
       <c r="G1517" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42813,7 +42816,7 @@
         <v>31</v>
       </c>
       <c r="G1518" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42839,7 +42842,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G1519" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42865,7 +42868,7 @@
         <v>31</v>
       </c>
       <c r="G1520" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42891,7 +42894,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G1521" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42917,7 +42920,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G1522" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42943,7 +42946,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G1523" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42969,7 +42972,7 @@
         <v>34.9000015258789</v>
       </c>
       <c r="G1524" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42995,7 +42998,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G1525" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -43021,7 +43024,7 @@
         <v>34.2000007629395</v>
       </c>
       <c r="G1526" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -43047,7 +43050,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G1527" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -43073,7 +43076,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G1528" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -43099,7 +43102,7 @@
         <v>34.2000007629395</v>
       </c>
       <c r="G1529" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -43125,7 +43128,7 @@
         <v>34.5</v>
       </c>
       <c r="G1530" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43151,7 +43154,7 @@
         <v>33</v>
       </c>
       <c r="G1531" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43177,7 +43180,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G1532" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -43203,7 +43206,7 @@
         <v>34.2000007629395</v>
       </c>
       <c r="G1533" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43229,7 +43232,7 @@
         <v>33.5999984741211</v>
       </c>
       <c r="G1534" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -43255,7 +43258,7 @@
         <v>33.5999984741211</v>
       </c>
       <c r="G1535" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43281,7 +43284,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1536" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43307,7 +43310,7 @@
         <v>33.5</v>
       </c>
       <c r="G1537" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43333,7 +43336,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1538" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43359,7 +43362,7 @@
         <v>33</v>
       </c>
       <c r="G1539" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43385,7 +43388,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G1540" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43411,7 +43414,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1541" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43437,7 +43440,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1542" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43463,7 +43466,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1543" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43489,7 +43492,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1544" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43515,7 +43518,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1545" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43541,7 +43544,7 @@
         <v>30.5</v>
       </c>
       <c r="G1546" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43567,7 +43570,7 @@
         <v>30.5</v>
       </c>
       <c r="G1547" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43593,7 +43596,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1548" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43619,7 +43622,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G1549" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43645,7 +43648,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1550" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43671,7 +43674,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1551" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43697,7 +43700,7 @@
         <v>30.5</v>
       </c>
       <c r="G1552" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43723,7 +43726,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1553" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43749,7 +43752,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1554" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43775,7 +43778,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1555" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43801,7 +43804,7 @@
         <v>30</v>
       </c>
       <c r="G1556" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43827,7 +43830,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1557" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43853,7 +43856,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1558" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43879,7 +43882,7 @@
         <v>31</v>
       </c>
       <c r="G1559" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43905,7 +43908,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1560" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43931,7 +43934,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1561" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43957,7 +43960,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G1562" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43983,7 +43986,7 @@
         <v>30.5</v>
       </c>
       <c r="G1563" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -44009,7 +44012,7 @@
         <v>31.5</v>
       </c>
       <c r="G1564" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -44035,7 +44038,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1565" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -44061,7 +44064,7 @@
         <v>30.5</v>
       </c>
       <c r="G1566" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -44087,7 +44090,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1567" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -44113,7 +44116,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1568" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -44139,7 +44142,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1569" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -44165,7 +44168,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1570" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -44191,7 +44194,7 @@
         <v>27</v>
       </c>
       <c r="G1571" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -44217,7 +44220,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1572" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -44243,7 +44246,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1573" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44269,7 +44272,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1574" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44295,7 +44298,7 @@
         <v>27</v>
       </c>
       <c r="G1575" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44321,7 +44324,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1576" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44347,7 +44350,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1577" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44373,7 +44376,7 @@
         <v>26</v>
       </c>
       <c r="G1578" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44399,7 +44402,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1579" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -44425,7 +44428,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1580" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44451,7 +44454,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1581" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44477,7 +44480,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1582" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -44503,7 +44506,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1583" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44529,7 +44532,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1584" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44555,7 +44558,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1585" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -44581,7 +44584,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1586" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -44607,7 +44610,7 @@
         <v>28.5</v>
       </c>
       <c r="G1587" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44633,7 +44636,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1588" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44659,7 +44662,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1589" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44685,7 +44688,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1590" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44711,7 +44714,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1591" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44737,7 +44740,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1592" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44763,7 +44766,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1593" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44789,7 +44792,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1594" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44815,7 +44818,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1595" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44841,7 +44844,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1596" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44867,7 +44870,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1597" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44893,7 +44896,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1598" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44919,7 +44922,7 @@
         <v>27.5</v>
       </c>
       <c r="G1599" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44945,7 +44948,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1600" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44971,7 +44974,7 @@
         <v>28</v>
       </c>
       <c r="G1601" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44997,7 +45000,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1602" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -45023,7 +45026,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1603" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -45049,7 +45052,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1604" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -45075,7 +45078,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1605" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -45101,7 +45104,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1606" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -45127,7 +45130,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1607" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -45153,7 +45156,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -45179,7 +45182,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1609" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -45205,7 +45208,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1610" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -45231,7 +45234,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1611" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -45257,7 +45260,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1612" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45283,7 +45286,7 @@
         <v>28</v>
       </c>
       <c r="G1613" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -45309,7 +45312,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1614" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -45335,7 +45338,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1615" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45361,7 +45364,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1616" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -45387,7 +45390,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1617" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45413,7 +45416,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1618" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45439,7 +45442,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1619" t="s">
-        <v>786</v>
+        <v>740</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45595,7 +45598,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1625" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45699,7 +45702,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1629" t="s">
-        <v>786</v>
+        <v>740</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46531,7 +46534,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1661" t="s">
-        <v>786</v>
+        <v>740</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46661,7 +46664,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1666" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46739,7 +46742,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1669" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46921,7 +46924,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>786</v>
+        <v>740</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47051,7 +47054,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>786</v>
+        <v>740</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47519,7 +47522,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1699" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47597,7 +47600,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1702" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47623,7 +47626,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1703" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47701,7 +47704,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1706" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48351,7 +48354,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1731" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48585,7 +48588,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>786</v>
+        <v>740</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -59175,7 +59178,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.6495717593</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>9830</v>
@@ -59196,6 +59199,32 @@
         <v>999</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.6493981481</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>29641</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>38.9500007629395</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>37.5499992370605</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>38.1500015258789</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>38.9000015258789</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CMB.MI.xlsx
+++ b/data/CMB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="1004">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">CMB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91149234771729</t>
+    <t xml:space="preserve">9.91149139404297</t>
   </si>
   <si>
     <t xml:space="preserve">9.65968418121338</t>
@@ -56,10 +56,10 @@
     <t xml:space="preserve">9.75760841369629</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79258155822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70864677429199</t>
+    <t xml:space="preserve">9.79258251190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70864582061768</t>
   </si>
   <si>
     <t xml:space="preserve">9.47782230377197</t>
@@ -68,19 +68,19 @@
     <t xml:space="preserve">9.66667747497559</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61071968078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68766212463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61771488189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53377914428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54077434539795</t>
+    <t xml:space="preserve">9.61072063446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68766307830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61771583557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53377819061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54077339172363</t>
   </si>
   <si>
     <t xml:space="preserve">9.44284820556641</t>
@@ -89,43 +89,43 @@
     <t xml:space="preserve">9.17005348205566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10010814666748</t>
+    <t xml:space="preserve">9.10010719299316</t>
   </si>
   <si>
     <t xml:space="preserve">9.17704963684082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67343044281006</t>
+    <t xml:space="preserve">8.67343139648438</t>
   </si>
   <si>
     <t xml:space="preserve">8.63845634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93922805786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76436138153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74337768554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95321750640869</t>
+    <t xml:space="preserve">8.93922996520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76436042785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74337673187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95321655273438</t>
   </si>
   <si>
     <t xml:space="preserve">9.12808609008789</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56875133514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60372447967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40787315368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20502662658691</t>
+    <t xml:space="preserve">9.56875228881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60372543334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40787410736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20502758026123</t>
   </si>
   <si>
     <t xml:space="preserve">9.30295276641846</t>
@@ -134,43 +134,43 @@
     <t xml:space="preserve">9.03715419769287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98819065093994</t>
+    <t xml:space="preserve">8.98819255828857</t>
   </si>
   <si>
     <t xml:space="preserve">9.22601127624512</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14207553863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3309326171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34492206573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23300647735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3099479675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52678298950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51279544830322</t>
+    <t xml:space="preserve">9.14207363128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33093166351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34492111206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23300552368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30994892120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52678394317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51279449462891</t>
   </si>
   <si>
     <t xml:space="preserve">9.47082614898682</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69465732574463</t>
+    <t xml:space="preserve">9.69465637207031</t>
   </si>
   <si>
     <t xml:space="preserve">9.59673118591309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49880599975586</t>
+    <t xml:space="preserve">9.49880504608154</t>
   </si>
   <si>
     <t xml:space="preserve">9.42186260223389</t>
@@ -179,19 +179,19 @@
     <t xml:space="preserve">9.50579929351807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31694412231445</t>
+    <t xml:space="preserve">9.31694221496582</t>
   </si>
   <si>
     <t xml:space="preserve">9.11409568786621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10710144042969</t>
+    <t xml:space="preserve">9.107102394104</t>
   </si>
   <si>
     <t xml:space="preserve">9.46383094787598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37289905548096</t>
+    <t xml:space="preserve">9.37290000915527</t>
   </si>
   <si>
     <t xml:space="preserve">9.554762840271</t>
@@ -203,49 +203,49 @@
     <t xml:space="preserve">9.43585109710693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54776668548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72962951660156</t>
+    <t xml:space="preserve">9.54776763916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72963047027588</t>
   </si>
   <si>
     <t xml:space="preserve">9.63170433044434</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56347179412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57071113586426</t>
+    <t xml:space="preserve">9.56347274780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57071208953857</t>
   </si>
   <si>
     <t xml:space="preserve">9.53451347351074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70102310180664</t>
+    <t xml:space="preserve">9.70102214813232</t>
   </si>
   <si>
     <t xml:space="preserve">9.75893974304199</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8747730255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84581661224365</t>
+    <t xml:space="preserve">9.87477207183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84581470489502</t>
   </si>
   <si>
     <t xml:space="preserve">9.73722076416016</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3163862228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1281576156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1353969573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0268049240112</t>
+    <t xml:space="preserve">10.3163871765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1281585693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1353979110718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0268039703369</t>
   </si>
   <si>
     <t xml:space="preserve">10.1933135986328</t>
@@ -257,19 +257,19 @@
     <t xml:space="preserve">9.92545032501221</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93269062042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91096878051758</t>
+    <t xml:space="preserve">9.93268966674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91096973419189</t>
   </si>
   <si>
     <t xml:space="preserve">9.83133506774902</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77341938018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74446105957031</t>
+    <t xml:space="preserve">9.77341842651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74446201324463</t>
   </si>
   <si>
     <t xml:space="preserve">9.76618003845215</t>
@@ -284,34 +284,34 @@
     <t xml:space="preserve">9.98336696624756</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99060535430908</t>
+    <t xml:space="preserve">9.9906063079834</t>
   </si>
   <si>
     <t xml:space="preserve">9.81685638427734</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83857536315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94716930389404</t>
+    <t xml:space="preserve">9.83857440948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94717025756836</t>
   </si>
   <si>
     <t xml:space="preserve">9.91820907592773</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88925170898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46211814880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65034770965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62862682342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54899120330811</t>
+    <t xml:space="preserve">9.88925361633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46211624145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65034675598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62862777709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54899215698242</t>
   </si>
   <si>
     <t xml:space="preserve">9.62138843536377</t>
@@ -323,58 +323,58 @@
     <t xml:space="preserve">9.63586807250977</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64310646057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66482543945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71550178527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82409572601318</t>
+    <t xml:space="preserve">9.64310550689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66482448577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71550273895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8240966796875</t>
   </si>
   <si>
     <t xml:space="preserve">9.88201236724854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86029529571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79513645172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85305500030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6793041229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67206478118896</t>
+    <t xml:space="preserve">9.86029434204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79513740539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85305309295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67930507659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67206573486328</t>
   </si>
   <si>
     <t xml:space="preserve">9.47659683227539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48383808135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49107551574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44763851165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37524318695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25940990447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34628391265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4114408493042</t>
+    <t xml:space="preserve">9.48383712768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49107646942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4476375579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37524223327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25940895080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34628486633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41143989562988</t>
   </si>
   <si>
     <t xml:space="preserve">9.31008625030518</t>
@@ -383,40 +383,40 @@
     <t xml:space="preserve">9.19425296783447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17977333068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26664733886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25216960906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28836822509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30284786224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33904457092285</t>
+    <t xml:space="preserve">9.17977523803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2666482925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25217151641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28836917877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30284690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33904361724854</t>
   </si>
   <si>
     <t xml:space="preserve">9.2449312210083</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20873355865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13633823394775</t>
+    <t xml:space="preserve">9.20873165130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13633632659912</t>
   </si>
   <si>
     <t xml:space="preserve">8.91914939880371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88295269012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14357662200928</t>
+    <t xml:space="preserve">8.8829517364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14357566833496</t>
   </si>
   <si>
     <t xml:space="preserve">9.16529560089111</t>
@@ -431,49 +431,49 @@
     <t xml:space="preserve">9.15805530548096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29560852050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42591953277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38248157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43315887451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0195655822754</t>
+    <t xml:space="preserve">9.2956075668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42592144012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38248252868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43315982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0195646286011</t>
   </si>
   <si>
     <t xml:space="preserve">10.0050849914551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0630006790161</t>
+    <t xml:space="preserve">10.0630016326904</t>
   </si>
   <si>
     <t xml:space="preserve">10.1571159362793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2946691513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3525848388672</t>
+    <t xml:space="preserve">10.2946672439575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3525829315186</t>
   </si>
   <si>
     <t xml:space="preserve">10.4249792098999</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8014364242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5697717666626</t>
+    <t xml:space="preserve">10.8014373779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5697727203369</t>
   </si>
   <si>
     <t xml:space="preserve">10.6276884078979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5263338088989</t>
+    <t xml:space="preserve">10.5263347625732</t>
   </si>
   <si>
     <t xml:space="preserve">10.5118551254272</t>
@@ -485,28 +485,28 @@
     <t xml:space="preserve">10.7797203063965</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9317502975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9824266433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.873833656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0258646011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.743522644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.359824180603</t>
+    <t xml:space="preserve">10.9317483901978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9824275970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8738346099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0258636474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7435207366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3598232269287</t>
   </si>
   <si>
     <t xml:space="preserve">10.3236265182495</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4756565093994</t>
+    <t xml:space="preserve">10.4756574630737</t>
   </si>
   <si>
     <t xml:space="preserve">10.8593549728394</t>
@@ -518,10 +518,10 @@
     <t xml:space="preserve">10.9389896392822</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7290420532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8665952682495</t>
+    <t xml:space="preserve">10.729043006897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8665943145752</t>
   </si>
   <si>
     <t xml:space="preserve">10.7869577407837</t>
@@ -530,28 +530,28 @@
     <t xml:space="preserve">10.8231573104858</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7580003738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7507619857788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7218017578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6638870239258</t>
+    <t xml:space="preserve">10.757999420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7507610321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7218027114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6638851165771</t>
   </si>
   <si>
     <t xml:space="preserve">10.7652406692505</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0041456222534</t>
+    <t xml:space="preserve">11.0041465759277</t>
   </si>
   <si>
     <t xml:space="preserve">10.9462299346924</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0910205841064</t>
+    <t xml:space="preserve">11.0910215377808</t>
   </si>
   <si>
     <t xml:space="preserve">11.5036764144897</t>
@@ -560,19 +560,19 @@
     <t xml:space="preserve">11.4529972076416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4457588195801</t>
+    <t xml:space="preserve">11.4457597732544</t>
   </si>
   <si>
     <t xml:space="preserve">11.4747190475464</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4964361190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7787790298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9452905654907</t>
+    <t xml:space="preserve">11.4964370727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7787799835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9452886581421</t>
   </si>
   <si>
     <t xml:space="preserve">12.5389356613159</t>
@@ -581,10 +581,10 @@
     <t xml:space="preserve">12.4448213577271</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5172176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5534143447876</t>
+    <t xml:space="preserve">12.5172166824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5534133911133</t>
   </si>
   <si>
     <t xml:space="preserve">12.7416410446167</t>
@@ -593,25 +593,25 @@
     <t xml:space="preserve">13.2990884780884</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4583587646484</t>
+    <t xml:space="preserve">13.4583597183228</t>
   </si>
   <si>
     <t xml:space="preserve">13.4728393554688</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7407026290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.595911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6103887557983</t>
+    <t xml:space="preserve">13.740701675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5959129333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6103897094727</t>
   </si>
   <si>
     <t xml:space="preserve">13.371485710144</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3932018280029</t>
+    <t xml:space="preserve">13.3932027816772</t>
   </si>
   <si>
     <t xml:space="preserve">13.3208074569702</t>
@@ -620,64 +620,64 @@
     <t xml:space="preserve">13.4438810348511</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6827869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8927354812622</t>
+    <t xml:space="preserve">13.6827878952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8927345275879</t>
   </si>
   <si>
     <t xml:space="preserve">14.4139833450317</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5008602142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4501791000366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5442953109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.55153465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6601305007935</t>
+    <t xml:space="preserve">14.5008573532104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4501800537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5442943572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5515365600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6601285934448</t>
   </si>
   <si>
     <t xml:space="preserve">14.5949726104736</t>
   </si>
   <si>
-    <t xml:space="preserve">14.522575378418</t>
+    <t xml:space="preserve">14.5225782394409</t>
   </si>
   <si>
     <t xml:space="preserve">14.7390537261963</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8515644073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6715469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.604040145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5140314102173</t>
+    <t xml:space="preserve">14.8515663146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6715450286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6040382385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5140295028687</t>
   </si>
   <si>
     <t xml:space="preserve">14.176495552063</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8890705108643</t>
+    <t xml:space="preserve">14.8890686035156</t>
   </si>
   <si>
     <t xml:space="preserve">14.1914968490601</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5215330123901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5065307617188</t>
+    <t xml:space="preserve">14.5215311050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5065298080444</t>
   </si>
   <si>
     <t xml:space="preserve">14.7990617752075</t>
@@ -686,97 +686,97 @@
     <t xml:space="preserve">14.8815689086914</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8740673065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8065624237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9640779495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1065940856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9016799926758</t>
+    <t xml:space="preserve">14.8740682601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8065614700317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9640798568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.106593132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9016780853271</t>
   </si>
   <si>
     <t xml:space="preserve">16.434232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442268371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9316787719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7516613006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4741325378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1740989685059</t>
+    <t xml:space="preserve">16.3442249298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.931679725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7516603469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4741344451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1740999221802</t>
   </si>
   <si>
     <t xml:space="preserve">16.1417026519775</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8791742324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4816341400146</t>
+    <t xml:space="preserve">15.8791770935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.481632232666</t>
   </si>
   <si>
     <t xml:space="preserve">15.6316480636597</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1267032623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0291900634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.834171295166</t>
+    <t xml:space="preserve">16.1267013549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0291919708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8341722488403</t>
   </si>
   <si>
     <t xml:space="preserve">15.7366600036621</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3841238021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6991548538208</t>
+    <t xml:space="preserve">15.3841218948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6991577148438</t>
   </si>
   <si>
     <t xml:space="preserve">15.6766529083252</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5416383743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7141561508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5866432189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7741670608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2467155456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2767162322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3517227172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5242443084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6367568969727</t>
+    <t xml:space="preserve">15.5416412353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7141580581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5866441726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7741632461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.246711730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2767181396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3517246246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.524242401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6367511749268</t>
   </si>
   <si>
     <t xml:space="preserve">16.5392436981201</t>
@@ -785,31 +785,31 @@
     <t xml:space="preserve">16.2242107391357</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8491706848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8566732406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8266696929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8941764831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041677474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7216596603394</t>
+    <t xml:space="preserve">15.8491716384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8566722869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8266687393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8941793441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041667938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.721658706665</t>
   </si>
   <si>
     <t xml:space="preserve">15.6166467666626</t>
   </si>
   <si>
-    <t xml:space="preserve">15.744161605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116683959961</t>
+    <t xml:space="preserve">15.7441596984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116693496704</t>
   </si>
   <si>
     <t xml:space="preserve">15.4516286849976</t>
@@ -818,10 +818,10 @@
     <t xml:space="preserve">15.4216251373291</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3766241073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5191373825073</t>
+    <t xml:space="preserve">15.3766212463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.519136428833</t>
   </si>
   <si>
     <t xml:space="preserve">15.5266389846802</t>
@@ -830,40 +830,40 @@
     <t xml:space="preserve">15.2266054153442</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3016119003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.241605758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4441289901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0315856933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4066276550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1966037750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1516008377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3991260528564</t>
+    <t xml:space="preserve">15.3016147613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2416067123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4441299438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0315866470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4066247940063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1966028213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1515998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3991250991821</t>
   </si>
   <si>
     <t xml:space="preserve">15.759162902832</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9091777801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.006685256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8692798614502</t>
+    <t xml:space="preserve">15.9091768264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0066890716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8692779541016</t>
   </si>
   <si>
     <t xml:space="preserve">17.626859664917</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">19.382043838501</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0820140838623</t>
+    <t xml:space="preserve">19.082010269165</t>
   </si>
   <si>
     <t xml:space="preserve">19.1270160675049</t>
@@ -887,22 +887,22 @@
     <t xml:space="preserve">18.7519779205322</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8644886016846</t>
+    <t xml:space="preserve">18.8644905090332</t>
   </si>
   <si>
     <t xml:space="preserve">18.6394672393799</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6769714355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5194511413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6319637298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2944278717041</t>
+    <t xml:space="preserve">18.6769695281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5194530487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6319675445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2944297790527</t>
   </si>
   <si>
     <t xml:space="preserve">18.4219417572021</t>
@@ -917,46 +917,46 @@
     <t xml:space="preserve">18.1894187927246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1519165039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0319042205811</t>
+    <t xml:space="preserve">18.1519145965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0319023132324</t>
   </si>
   <si>
     <t xml:space="preserve">17.9643955230713</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9268932342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6793651580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.904390335083</t>
+    <t xml:space="preserve">17.9268913269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6793632507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9043922424316</t>
   </si>
   <si>
     <t xml:space="preserve">17.7318706512451</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9718971252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0018997192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0469017028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0244045257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9343929290771</t>
+    <t xml:space="preserve">17.9718952178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0018978118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0469036102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0244026184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9343910217285</t>
   </si>
   <si>
     <t xml:space="preserve">17.9868984222412</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8068790435791</t>
+    <t xml:space="preserve">17.8068809509277</t>
   </si>
   <si>
     <t xml:space="preserve">17.2068157196045</t>
@@ -965,16 +965,16 @@
     <t xml:space="preserve">17.2443180084229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5518531799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9517860412598</t>
+    <t xml:space="preserve">17.551851272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9517879486084</t>
   </si>
   <si>
     <t xml:space="preserve">16.2917175292969</t>
   </si>
   <si>
-    <t xml:space="preserve">16.711763381958</t>
+    <t xml:space="preserve">16.7117614746094</t>
   </si>
   <si>
     <t xml:space="preserve">16.509241104126</t>
@@ -986,22 +986,22 @@
     <t xml:space="preserve">17.0868034362793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9067859649658</t>
+    <t xml:space="preserve">16.9067840576172</t>
   </si>
   <si>
     <t xml:space="preserve">17.1918125152588</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1243057250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1768112182617</t>
+    <t xml:space="preserve">17.1243076324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1768093109131</t>
   </si>
   <si>
     <t xml:space="preserve">16.6667575836182</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1393089294434</t>
+    <t xml:space="preserve">17.1393070220947</t>
   </si>
   <si>
     <t xml:space="preserve">17.0192947387695</t>
@@ -1016,19 +1016,19 @@
     <t xml:space="preserve">16.8467769622803</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0568008422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8017749786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4192295074463</t>
+    <t xml:space="preserve">17.0567989349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8017730712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4192314147949</t>
   </si>
   <si>
     <t xml:space="preserve">16.4492359161377</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4417362213135</t>
+    <t xml:space="preserve">16.4417343139648</t>
   </si>
   <si>
     <t xml:space="preserve">16.2092113494873</t>
@@ -1040,94 +1040,94 @@
     <t xml:space="preserve">16.0366897583008</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2017078399658</t>
+    <t xml:space="preserve">16.2017097473145</t>
   </si>
   <si>
     <t xml:space="preserve">16.5917510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8392772674561</t>
+    <t xml:space="preserve">16.8392753601074</t>
   </si>
   <si>
     <t xml:space="preserve">16.7642688751221</t>
   </si>
   <si>
-    <t xml:space="preserve">16.876781463623</t>
+    <t xml:space="preserve">16.8767795562744</t>
   </si>
   <si>
     <t xml:space="preserve">17.4018363952637</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2518215179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.064302444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.364330291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2143173217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3268260955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.476842880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6643619537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8518810272217</t>
+    <t xml:space="preserve">17.2518196105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0643005371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3643321990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2143154144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3268299102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4768409729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.664363861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8518829345703</t>
   </si>
   <si>
     <t xml:space="preserve">18.0769062042236</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5893573760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9892921447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5767478942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5017395019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3142223358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9391832351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9766826629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0516948699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3892288208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2893218994141</t>
+    <t xml:space="preserve">17.5893592834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9892902374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5767498016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5017414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3142204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9391822814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9766836166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0516929626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3892307281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2893238067627</t>
   </si>
   <si>
     <t xml:space="preserve">17.776876449585</t>
   </si>
   <si>
-    <t xml:space="preserve">17.739372253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.439338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7018661499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.514347076416</t>
+    <t xml:space="preserve">17.7393703460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4393405914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7018699645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5143451690674</t>
   </si>
   <si>
     <t xml:space="preserve">18.4894504547119</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">18.3394336700439</t>
   </si>
   <si>
-    <t xml:space="preserve">18.039400100708</t>
+    <t xml:space="preserve">18.0394020080566</t>
   </si>
   <si>
     <t xml:space="preserve">17.8893890380859</t>
@@ -1145,103 +1145,103 @@
     <t xml:space="preserve">18.4144420623779</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5644588470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2770347595215</t>
+    <t xml:space="preserve">18.5644607543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2770328521729</t>
   </si>
   <si>
     <t xml:space="preserve">19.3520412445068</t>
   </si>
   <si>
+    <t xml:space="preserve">19.7270812988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2686080932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9591636657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6554145812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1969413757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.384651184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1912460327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3459701538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8044414520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.572359085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6497211456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4949989318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5666637420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9477767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4506244659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5336780548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8818035125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1138858795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2299289703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5393714904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6167335510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4233322143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.036527633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1081943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8431224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0752067565918</t>
+  </si>
+  <si>
     <t xml:space="preserve">19.7270793914795</t>
   </si>
   <si>
-    <t xml:space="preserve">20.268611907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9591636657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6554164886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1969394683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.384651184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1912479400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3459701538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8044395446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.572359085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6497192382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4949989318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5666656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9477767944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.450626373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5336799621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8818054199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1138877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2299289703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5393695831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6167335510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4233303070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0365257263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1081924438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8431224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0752067565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7270812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4620113372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4176349639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6110401153564</t>
+    <t xml:space="preserve">20.4620132446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4176368713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6110382080078</t>
   </si>
   <si>
     <t xml:space="preserve">19.3402767181396</t>
@@ -1259,13 +1259,13 @@
     <t xml:space="preserve">18.7987480163574</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1468715667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4563159942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3015937805176</t>
+    <t xml:space="preserve">19.1468753814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4563179016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3015956878662</t>
   </si>
   <si>
     <t xml:space="preserve">19.0308322906494</t>
@@ -1274,19 +1274,19 @@
     <t xml:space="preserve">19.3789577484131</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9921493530273</t>
+    <t xml:space="preserve">18.992151260376</t>
   </si>
   <si>
     <t xml:space="preserve">19.1855545043945</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9978466033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7657604217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8374290466309</t>
+    <t xml:space="preserve">19.9978446960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7657623291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8374271392822</t>
   </si>
   <si>
     <t xml:space="preserve">18.6827049255371</t>
@@ -1295,10 +1295,10 @@
     <t xml:space="preserve">19.0695114135742</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7930545806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7873592376709</t>
+    <t xml:space="preserve">17.7930526733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7873611450195</t>
   </si>
   <si>
     <t xml:space="preserve">16.1684703826904</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">15.7043037414551</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5109024047852</t>
+    <t xml:space="preserve">15.5109014511108</t>
   </si>
   <si>
     <t xml:space="preserve">16.6326370239258</t>
@@ -1319,37 +1319,37 @@
     <t xml:space="preserve">16.2458305358887</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6656246185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.54958152771</t>
+    <t xml:space="preserve">15.665623664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5495824813843</t>
   </si>
   <si>
     <t xml:space="preserve">15.5882616043091</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3174962997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8997478485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0544691085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1627779006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4412746429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8203449249268</t>
+    <t xml:space="preserve">15.3174982070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8997497558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0544710159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1627759933472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4412755966187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8203468322754</t>
   </si>
   <si>
     <t xml:space="preserve">16.8647193908691</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5165977478027</t>
+    <t xml:space="preserve">16.5165939331055</t>
   </si>
   <si>
     <t xml:space="preserve">16.361873626709</t>
@@ -1361,19 +1361,19 @@
     <t xml:space="preserve">16.1297874450684</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2071495056152</t>
+    <t xml:space="preserve">16.2071514129639</t>
   </si>
   <si>
     <t xml:space="preserve">16.0911083221436</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590278625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7816648483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7429838180542</t>
+    <t xml:space="preserve">15.8590259552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.781665802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7429828643799</t>
   </si>
   <si>
     <t xml:space="preserve">16.4392356872559</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">16.4005546569824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6713180541992</t>
+    <t xml:space="preserve">16.6713199615479</t>
   </si>
   <si>
     <t xml:space="preserve">16.477912902832</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">15.9750671386719</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4567461013794</t>
+    <t xml:space="preserve">15.4567470550537</t>
   </si>
   <si>
     <t xml:space="preserve">15.2556095123291</t>
@@ -1406,16 +1406,16 @@
     <t xml:space="preserve">16.5552768707275</t>
   </si>
   <si>
-    <t xml:space="preserve">17.174165725708</t>
+    <t xml:space="preserve">17.1741638183594</t>
   </si>
   <si>
     <t xml:space="preserve">16.9807624816895</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0968036651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.40625</t>
+    <t xml:space="preserve">17.0968055725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4062480926514</t>
   </si>
   <si>
     <t xml:space="preserve">17.5222873687744</t>
@@ -1424,13 +1424,13 @@
     <t xml:space="preserve">16.3231925964355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9363870620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948574066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4103326797485</t>
+    <t xml:space="preserve">15.9363861083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948583602905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4103317260742</t>
   </si>
   <si>
     <t xml:space="preserve">15.6269445419312</t>
@@ -1442,19 +1442,19 @@
     <t xml:space="preserve">15.4722204208374</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0194416046143</t>
+    <t xml:space="preserve">17.0194435119629</t>
   </si>
   <si>
     <t xml:space="preserve">16.8260402679443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9034004211426</t>
+    <t xml:space="preserve">16.9034023284912</t>
   </si>
   <si>
     <t xml:space="preserve">17.2902069091797</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3288898468018</t>
+    <t xml:space="preserve">17.3288879394531</t>
   </si>
   <si>
     <t xml:space="preserve">17.3675670623779</t>
@@ -1469,13 +1469,13 @@
     <t xml:space="preserve">17.4836101531982</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6383304595947</t>
+    <t xml:space="preserve">17.6383285522461</t>
   </si>
   <si>
     <t xml:space="preserve">18.0251350402832</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8704128265381</t>
+    <t xml:space="preserve">17.8704166412354</t>
   </si>
   <si>
     <t xml:space="preserve">18.179859161377</t>
@@ -1490,28 +1490,28 @@
     <t xml:space="preserve">17.2949981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3754386901855</t>
+    <t xml:space="preserve">17.3754405975342</t>
   </si>
   <si>
     <t xml:space="preserve">16.9732322692871</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6916847229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2492561340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2090339660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6057205200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.830958366394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2894744873047</t>
+    <t xml:space="preserve">16.691686630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2492542266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2090320587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6057186126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8309593200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.289478302002</t>
   </si>
   <si>
     <t xml:space="preserve">16.1688137054443</t>
@@ -1520,10 +1520,10 @@
     <t xml:space="preserve">16.0883712768555</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3296947479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8631343841553</t>
+    <t xml:space="preserve">16.3296966552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8631324768066</t>
   </si>
   <si>
     <t xml:space="preserve">15.5735445022583</t>
@@ -1535,82 +1535,82 @@
     <t xml:space="preserve">15.9918403625488</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0722846984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.128589630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8953113555908</t>
+    <t xml:space="preserve">16.0722808837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1285915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8953123092651</t>
   </si>
   <si>
     <t xml:space="preserve">15.8470478057861</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4503612518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6112442016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5307998657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4905815124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3699188232422</t>
+    <t xml:space="preserve">16.4503593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6112422943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5308017730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4905796051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3699169158936</t>
   </si>
   <si>
     <t xml:space="preserve">16.4101409912109</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9330101013184</t>
+    <t xml:space="preserve">16.9330081939697</t>
   </si>
   <si>
     <t xml:space="preserve">17.4156608581543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6569900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5363235473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0938949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1743354797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6514663696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0134525299072</t>
+    <t xml:space="preserve">17.6569881439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5363254547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0938968658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.174337387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6514625549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0134506225586</t>
   </si>
   <si>
     <t xml:space="preserve">16.7319049835205</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8927917480469</t>
+    <t xml:space="preserve">16.8927898406982</t>
   </si>
   <si>
     <t xml:space="preserve">16.7721271514893</t>
   </si>
   <si>
-    <t xml:space="preserve">16.57102394104</t>
+    <t xml:space="preserve">16.5710220336914</t>
   </si>
   <si>
     <t xml:space="preserve">15.9596633911133</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0079307556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8123474121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0536766052246</t>
+    <t xml:space="preserve">16.0079288482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.812349319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0536727905273</t>
   </si>
   <si>
     <t xml:space="preserve">17.2145576477051</t>
@@ -1619,13 +1619,13 @@
     <t xml:space="preserve">17.1341152191162</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2547779083252</t>
+    <t xml:space="preserve">17.2547798156738</t>
   </si>
   <si>
     <t xml:space="preserve">16.8525695800781</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4558849334717</t>
+    <t xml:space="preserve">17.455883026123</t>
   </si>
   <si>
     <t xml:space="preserve">17.6167659759521</t>
@@ -1637,34 +1637,34 @@
     <t xml:space="preserve">18.2200794219971</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6625118255615</t>
+    <t xml:space="preserve">18.6625099182129</t>
   </si>
   <si>
     <t xml:space="preserve">19.3060455322266</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9440574645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5473709106445</t>
+    <t xml:space="preserve">18.944055557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5473690032959</t>
   </si>
   <si>
     <t xml:space="preserve">19.2256031036377</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7429523468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1451625823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4669284820557</t>
+    <t xml:space="preserve">18.7429504394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1451606750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4669303894043</t>
   </si>
   <si>
     <t xml:space="preserve">19.6278133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8691387176514</t>
+    <t xml:space="preserve">19.869140625</t>
   </si>
   <si>
     <t xml:space="preserve">19.7082557678223</t>
@@ -1673,16 +1673,16 @@
     <t xml:space="preserve">19.7484760284424</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9842777252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.823392868042</t>
+    <t xml:space="preserve">18.9842796325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8233947753906</t>
   </si>
   <si>
     <t xml:space="preserve">18.7027320861816</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9038352966309</t>
+    <t xml:space="preserve">18.9038372039795</t>
   </si>
   <si>
     <t xml:space="preserve">19.1049404144287</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">18.2603015899658</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3005237579346</t>
+    <t xml:space="preserve">18.3005218505859</t>
   </si>
   <si>
     <t xml:space="preserve">17.7776489257812</t>
@@ -1724,13 +1724,13 @@
     <t xml:space="preserve">17.7374286651611</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9385318756104</t>
+    <t xml:space="preserve">17.938533782959</t>
   </si>
   <si>
     <t xml:space="preserve">15.6861619949341</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3161306381226</t>
+    <t xml:space="preserve">15.3161296844482</t>
   </si>
   <si>
     <t xml:space="preserve">14.0612363815308</t>
@@ -1742,10 +1742,10 @@
     <t xml:space="preserve">13.5142307281494</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6751165390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6268501281738</t>
+    <t xml:space="preserve">13.6751155853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6268510818481</t>
   </si>
   <si>
     <t xml:space="preserve">14.0773239135742</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">13.7555589675903</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6590261459351</t>
+    <t xml:space="preserve">13.6590270996094</t>
   </si>
   <si>
     <t xml:space="preserve">13.4337911605835</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">12.1949853897095</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9858369827271</t>
+    <t xml:space="preserve">11.9858360290527</t>
   </si>
   <si>
     <t xml:space="preserve">11.2618598937988</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">10.698766708374</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2216386795044</t>
+    <t xml:space="preserve">11.2216396331787</t>
   </si>
   <si>
     <t xml:space="preserve">11.5434074401855</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">12.347825050354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0662784576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4684867858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5087089538574</t>
+    <t xml:space="preserve">12.0662775039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.468487739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5087080001831</t>
   </si>
   <si>
     <t xml:space="preserve">12.2673826217651</t>
@@ -1811,43 +1811,43 @@
     <t xml:space="preserve">12.1467208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">12.106499671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0260572433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7042903900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8249530792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1869411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3825216293335</t>
+    <t xml:space="preserve">12.1064987182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0260581970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7042894363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8249521255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1869421005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3825225830078</t>
   </si>
   <si>
     <t xml:space="preserve">10.8998718261719</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9803123474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.060754776001</t>
+    <t xml:space="preserve">10.9803133010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0607538223267</t>
   </si>
   <si>
     <t xml:space="preserve">11.6640701293945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6695919036865</t>
+    <t xml:space="preserve">12.6695938110352</t>
   </si>
   <si>
     <t xml:space="preserve">12.8304758071899</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6001958847046</t>
+    <t xml:space="preserve">14.6001968383789</t>
   </si>
   <si>
     <t xml:space="preserve">14.6425161361694</t>
@@ -1856,28 +1856,28 @@
     <t xml:space="preserve">14.5578784942627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3886003494263</t>
+    <t xml:space="preserve">14.388599395752</t>
   </si>
   <si>
     <t xml:space="preserve">14.3462800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7271537780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1503496170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8117923736572</t>
+    <t xml:space="preserve">14.7271547317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1503486633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8117933273315</t>
   </si>
   <si>
     <t xml:space="preserve">13.9230871200562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0500450134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077247619629</t>
+    <t xml:space="preserve">14.0500440597534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077238082886</t>
   </si>
   <si>
     <t xml:space="preserve">14.2616415023804</t>
@@ -1892,22 +1892,22 @@
     <t xml:space="preserve">15.3196268081665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2349882125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8541116714478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9387512207031</t>
+    <t xml:space="preserve">15.2349872589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8541126251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9387531280518</t>
   </si>
   <si>
     <t xml:space="preserve">14.0923633575439</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9654064178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346836090088</t>
+    <t xml:space="preserve">13.9654054641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346845626831</t>
   </si>
   <si>
     <t xml:space="preserve">14.4309196472168</t>
@@ -1925,19 +1925,16 @@
     <t xml:space="preserve">14.3039598464966</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8807668685913</t>
+    <t xml:space="preserve">13.880765914917</t>
   </si>
   <si>
     <t xml:space="preserve">13.7114906311035</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6001968383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8384466171265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2193212509155</t>
+    <t xml:space="preserve">13.8384475708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2193222045898</t>
   </si>
   <si>
     <t xml:space="preserve">13.5422115325928</t>
@@ -1952,28 +1949,28 @@
     <t xml:space="preserve">12.9497404098511</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3306140899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2036571502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.161337852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4575729370117</t>
+    <t xml:space="preserve">13.3306150436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2036561965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1613359451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4575719833374</t>
   </si>
   <si>
     <t xml:space="preserve">13.2459754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4042654037476</t>
+    <t xml:space="preserve">15.4042682647705</t>
   </si>
   <si>
     <t xml:space="preserve">15.8274602890015</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9967384338379</t>
+    <t xml:space="preserve">15.9967365264893</t>
   </si>
   <si>
     <t xml:space="preserve">16.673849105835</t>
@@ -1982,40 +1979,40 @@
     <t xml:space="preserve">16.5045700073242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0813770294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2506542205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1660175323486</t>
+    <t xml:space="preserve">16.0813751220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2506561279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.166015625</t>
   </si>
   <si>
     <t xml:space="preserve">15.8697786331177</t>
   </si>
   <si>
-    <t xml:space="preserve">15.954418182373</t>
+    <t xml:space="preserve">15.9544172286987</t>
   </si>
   <si>
     <t xml:space="preserve">15.9120979309082</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3352909088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7851400375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7428216934204</t>
+    <t xml:space="preserve">16.3352928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7851409912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7428197860718</t>
   </si>
   <si>
     <t xml:space="preserve">16.0390586853027</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9277629852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7584857940674</t>
+    <t xml:space="preserve">16.9277648925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.758487701416</t>
   </si>
   <si>
     <t xml:space="preserve">17.4355964660645</t>
@@ -2024,28 +2021,28 @@
     <t xml:space="preserve">18.3666248321533</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7741546630859</t>
+    <t xml:space="preserve">17.7741527557373</t>
   </si>
   <si>
     <t xml:space="preserve">18.0280704498291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5202369689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8008060455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0970420837402</t>
+    <t xml:space="preserve">17.5202350616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8008079528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0970439910889</t>
   </si>
   <si>
     <t xml:space="preserve">17.2663192749023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1816787719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8431243896484</t>
+    <t xml:space="preserve">17.1816806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8431262969971</t>
   </si>
   <si>
     <t xml:space="preserve">17.0124034881592</t>
@@ -2054,10 +2051,10 @@
     <t xml:space="preserve">17.3509578704834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.858793258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1127090454102</t>
+    <t xml:space="preserve">17.8587913513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1127071380615</t>
   </si>
   <si>
     <t xml:space="preserve">18.1973457336426</t>
@@ -2069,19 +2066,19 @@
     <t xml:space="preserve">18.7051792144775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6048755645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5359020233154</t>
+    <t xml:space="preserve">17.6048736572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5359039306641</t>
   </si>
   <si>
     <t xml:space="preserve">18.7898178100586</t>
   </si>
   <si>
-    <t xml:space="preserve">18.874454498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0437355041504</t>
+    <t xml:space="preserve">18.8744564056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0437335968018</t>
   </si>
   <si>
     <t xml:space="preserve">19.8901233673096</t>
@@ -2090,7 +2087,7 @@
     <t xml:space="preserve">19.5515689849854</t>
   </si>
   <si>
-    <t xml:space="preserve">19.382287979126</t>
+    <t xml:space="preserve">19.3822917938232</t>
   </si>
   <si>
     <t xml:space="preserve">19.8054847717285</t>
@@ -2111,7 +2108,7 @@
     <t xml:space="preserve">20.1440391540527</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7208461761475</t>
+    <t xml:space="preserve">19.7208442687988</t>
   </si>
   <si>
     <t xml:space="preserve">20.6518726348877</t>
@@ -2120,16 +2117,16 @@
     <t xml:space="preserve">20.5639934539795</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2124729156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3882331848145</t>
+    <t xml:space="preserve">20.2124710083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3882312774658</t>
   </si>
   <si>
     <t xml:space="preserve">20.3003520965576</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1245899200439</t>
+    <t xml:space="preserve">20.1245918273926</t>
   </si>
   <si>
     <t xml:space="preserve">20.7397537231445</t>
@@ -2138,10 +2135,10 @@
     <t xml:space="preserve">21.0912742614746</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9155139923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0367107391357</t>
+    <t xml:space="preserve">20.9155120849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0367088317871</t>
   </si>
   <si>
     <t xml:space="preserve">19.7730693817139</t>
@@ -2153,13 +2150,13 @@
     <t xml:space="preserve">20.476110458374</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8276348114014</t>
+    <t xml:space="preserve">20.8276329040527</t>
   </si>
   <si>
     <t xml:space="preserve">21.1791553497314</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2670364379883</t>
+    <t xml:space="preserve">21.2670345306396</t>
   </si>
   <si>
     <t xml:space="preserve">21.4427967071533</t>
@@ -2186,13 +2183,13 @@
     <t xml:space="preserve">23.2882823944092</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0246429443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4640445709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6398048400879</t>
+    <t xml:space="preserve">23.0246410369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4640426635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6398029327393</t>
   </si>
   <si>
     <t xml:space="preserve">23.9034442901611</t>
@@ -2204,180 +2201,183 @@
     <t xml:space="preserve">24.4307250976562</t>
   </si>
   <si>
-    <t xml:space="preserve">24.167085647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3428478240967</t>
+    <t xml:space="preserve">24.1670837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.342845916748</t>
   </si>
   <si>
     <t xml:space="preserve">24.2549667358398</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6064872741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.991325378418</t>
+    <t xml:space="preserve">24.6064853668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9913234710693</t>
   </si>
   <si>
     <t xml:space="preserve">24.0792045593262</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7610015869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7276840209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0458889007568</t>
+    <t xml:space="preserve">22.7609996795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7276821136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0458869934082</t>
   </si>
   <si>
     <t xml:space="preserve">26.1004524230957</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8368129730225</t>
+    <t xml:space="preserve">25.8368110656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1337699890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1883316040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6943683624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4852886199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3095283508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3974094390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0125713348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4519729614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2762126922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3640918731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7156143188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2428951263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4186553955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5065364837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9126243591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6702289581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4065856933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0550670623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2308292388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3187065124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0005016326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0338191986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5277824401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4732227325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4399032592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7368602752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1762619018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2974586486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6277332305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9792556762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8034934997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3307762145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5944175720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.748929977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1550159454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0671348571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8913745880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6822967529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.376163482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8155651092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2216491699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.782247543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8701267242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3999366760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5743751525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1247482299805</t>
   </si>
   <si>
     <t xml:space="preserve">25.133768081665</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1883335113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6943683624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4852905273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3095302581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3974094390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0125732421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4519748687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2762126922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3640937805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7156143188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2428970336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4186592102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5065364837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9126243591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6702308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4065856933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0550670623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2308292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3187084197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0005035400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0338191986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5277843475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4732227325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4399032592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7368640899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1762638092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2974605560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6277332305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9792556762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8034954071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3307762145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5944175720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.748929977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1550159454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0671367645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8913764953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6822967529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.376163482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9580078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8155651092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2216510772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.782247543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8701267242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3999366760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5743732452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1247482299805</t>
-  </si>
-  <si>
     <t xml:space="preserve">24.8585815429688</t>
   </si>
   <si>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">26.1427879333496</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5006828308105</t>
+    <t xml:space="preserve">25.5006847381592</t>
   </si>
   <si>
     <t xml:space="preserve">25.2254981994629</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">24.2164764404297</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1157302856445</t>
+    <t xml:space="preserve">23.1157283782959</t>
   </si>
   <si>
     <t xml:space="preserve">23.299186706543</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">22.6570835113525</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5653553009033</t>
+    <t xml:space="preserve">22.5653533935547</t>
   </si>
   <si>
     <t xml:space="preserve">22.1984386444092</t>
@@ -2444,28 +2444,28 @@
     <t xml:space="preserve">21.9232501983643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9322700500488</t>
+    <t xml:space="preserve">22.9322719573975</t>
   </si>
   <si>
     <t xml:space="preserve">24.6751232147217</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0510578155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.592414855957</t>
+    <t xml:space="preserve">26.0510597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5924129486084</t>
   </si>
   <si>
     <t xml:space="preserve">23.8495616912842</t>
   </si>
   <si>
-    <t xml:space="preserve">23.757833480835</t>
+    <t xml:space="preserve">23.7578315734863</t>
   </si>
   <si>
     <t xml:space="preserve">25.0420398712158</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3082084655762</t>
+    <t xml:space="preserve">24.3082065582275</t>
   </si>
   <si>
     <t xml:space="preserve">24.4916667938232</t>
@@ -2486,13 +2486,13 @@
     <t xml:space="preserve">23.0240001678467</t>
   </si>
   <si>
-    <t xml:space="preserve">22.840539932251</t>
+    <t xml:space="preserve">22.8405418395996</t>
   </si>
   <si>
     <t xml:space="preserve">21.831521987915</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2901649475098</t>
+    <t xml:space="preserve">22.2901668548584</t>
   </si>
   <si>
     <t xml:space="preserve">21.4646053314209</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">26.5097045898438</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4179763793945</t>
+    <t xml:space="preserve">26.4179744720459</t>
   </si>
   <si>
     <t xml:space="preserve">26.6014347076416</t>
@@ -2528,13 +2528,13 @@
     <t xml:space="preserve">28.0690994262695</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2525577545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1608276367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5277442932129</t>
+    <t xml:space="preserve">28.252555847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1608295440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5277462005615</t>
   </si>
   <si>
     <t xml:space="preserve">28.6194744110107</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">28.3442859649658</t>
   </si>
   <si>
-    <t xml:space="preserve">27.702184677124</t>
+    <t xml:space="preserve">27.7021827697754</t>
   </si>
   <si>
     <t xml:space="preserve">27.7939109802246</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">27.8856410980225</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9773693084717</t>
+    <t xml:space="preserve">27.9773712158203</t>
   </si>
   <si>
     <t xml:space="preserve">28.4360160827637</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">27.060079574585</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4269943237305</t>
+    <t xml:space="preserve">27.4269962310791</t>
   </si>
   <si>
     <t xml:space="preserve">27.3352661132812</t>
@@ -2573,7 +2573,7 @@
     <t xml:space="preserve">26.7848930358887</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9683513641357</t>
+    <t xml:space="preserve">26.9683494567871</t>
   </si>
   <si>
     <t xml:space="preserve">27.1518096923828</t>
@@ -3017,7 +3017,13 @@
     <t xml:space="preserve">39.3499984741211</t>
   </si>
   <si>
+    <t xml:space="preserve">38.3499984741211</t>
+  </si>
+  <si>
     <t xml:space="preserve">38.9000015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9500007629395</t>
   </si>
 </sst>
 </file>
@@ -33745,7 +33751,7 @@
         <v>17.25</v>
       </c>
       <c r="G1169" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33979,7 +33985,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1178" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -34187,7 +34193,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1186" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -34291,7 +34297,7 @@
         <v>17.25</v>
       </c>
       <c r="G1190" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34473,7 +34479,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1197" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34499,7 +34505,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1198" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34551,7 +34557,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1200" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34655,7 +34661,7 @@
         <v>16</v>
       </c>
       <c r="G1204" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34733,7 +34739,7 @@
         <v>16</v>
       </c>
       <c r="G1207" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34759,7 +34765,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1208" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34785,7 +34791,7 @@
         <v>16.25</v>
       </c>
       <c r="G1209" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34863,7 +34869,7 @@
         <v>17.25</v>
       </c>
       <c r="G1212" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34941,7 +34947,7 @@
         <v>17.25</v>
       </c>
       <c r="G1215" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -35149,7 +35155,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1223" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -35175,7 +35181,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1224" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -35201,7 +35207,7 @@
         <v>16</v>
       </c>
       <c r="G1225" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -35227,7 +35233,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1226" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35253,7 +35259,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1227" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35279,7 +35285,7 @@
         <v>15.75</v>
       </c>
       <c r="G1228" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35305,7 +35311,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1229" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35331,7 +35337,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1230" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35357,7 +35363,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1231" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35383,7 +35389,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1232" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35435,7 +35441,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G1234" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35461,7 +35467,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1235" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35539,7 +35545,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1238" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35565,7 +35571,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1239" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35591,7 +35597,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1240" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35617,7 +35623,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1241" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35643,7 +35649,7 @@
         <v>19.5</v>
       </c>
       <c r="G1242" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35669,7 +35675,7 @@
         <v>19</v>
       </c>
       <c r="G1243" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35695,7 +35701,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1244" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35721,7 +35727,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1245" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35747,7 +35753,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1246" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35773,7 +35779,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1247" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35799,7 +35805,7 @@
         <v>18.75</v>
       </c>
       <c r="G1248" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35825,7 +35831,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1249" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35851,7 +35857,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1250" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35877,7 +35883,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1251" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35903,7 +35909,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35929,7 +35935,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1253" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35955,7 +35961,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -35981,7 +35987,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1255" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -36007,7 +36013,7 @@
         <v>19</v>
       </c>
       <c r="G1256" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -36033,7 +36039,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1257" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -36059,7 +36065,7 @@
         <v>19</v>
       </c>
       <c r="G1258" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -36085,7 +36091,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1259" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -36111,7 +36117,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1260" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -36137,7 +36143,7 @@
         <v>19</v>
       </c>
       <c r="G1261" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -36163,7 +36169,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1262" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -36189,7 +36195,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -36215,7 +36221,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1264" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -36241,7 +36247,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1265" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36267,7 +36273,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1266" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36293,7 +36299,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1267" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36319,7 +36325,7 @@
         <v>18.75</v>
       </c>
       <c r="G1268" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36345,7 +36351,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1269" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36371,7 +36377,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1270" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36397,7 +36403,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G1271" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36423,7 +36429,7 @@
         <v>19</v>
       </c>
       <c r="G1272" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36449,7 +36455,7 @@
         <v>20</v>
       </c>
       <c r="G1273" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36475,7 +36481,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1274" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36501,7 +36507,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1275" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36527,7 +36533,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1276" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36553,7 +36559,7 @@
         <v>21</v>
       </c>
       <c r="G1277" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36579,7 +36585,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1278" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36605,7 +36611,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1279" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36631,7 +36637,7 @@
         <v>20</v>
       </c>
       <c r="G1280" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36657,7 +36663,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1281" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36683,7 +36689,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1282" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36709,7 +36715,7 @@
         <v>20</v>
       </c>
       <c r="G1283" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36735,7 +36741,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1284" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36761,7 +36767,7 @@
         <v>20</v>
       </c>
       <c r="G1285" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36787,7 +36793,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1286" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36813,7 +36819,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1287" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36839,7 +36845,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1288" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36865,7 +36871,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1289" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36891,7 +36897,7 @@
         <v>20</v>
       </c>
       <c r="G1290" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36917,7 +36923,7 @@
         <v>20</v>
       </c>
       <c r="G1291" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36943,7 +36949,7 @@
         <v>20.5</v>
       </c>
       <c r="G1292" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -36969,7 +36975,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1293" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -36995,7 +37001,7 @@
         <v>21</v>
       </c>
       <c r="G1294" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -37021,7 +37027,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1295" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -37047,7 +37053,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1296" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -37073,7 +37079,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1297" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -37099,7 +37105,7 @@
         <v>21.5</v>
       </c>
       <c r="G1298" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -37125,7 +37131,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1299" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -37151,7 +37157,7 @@
         <v>22</v>
       </c>
       <c r="G1300" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -37177,7 +37183,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1301" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -37203,7 +37209,7 @@
         <v>22</v>
       </c>
       <c r="G1302" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -37229,7 +37235,7 @@
         <v>21.5</v>
       </c>
       <c r="G1303" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37255,7 +37261,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1304" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37281,7 +37287,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1305" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37307,7 +37313,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1306" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37333,7 +37339,7 @@
         <v>21</v>
       </c>
       <c r="G1307" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37359,7 +37365,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1308" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37385,7 +37391,7 @@
         <v>21</v>
       </c>
       <c r="G1309" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37411,7 +37417,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1310" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37437,7 +37443,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1311" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37463,7 +37469,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1312" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37489,7 +37495,7 @@
         <v>21.5</v>
       </c>
       <c r="G1313" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37515,7 +37521,7 @@
         <v>21.5</v>
       </c>
       <c r="G1314" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37541,7 +37547,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1315" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37567,7 +37573,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1316" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37593,7 +37599,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1317" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37619,7 +37625,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1318" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37645,7 +37651,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1319" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37671,7 +37677,7 @@
         <v>22.5</v>
       </c>
       <c r="G1320" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37697,7 +37703,7 @@
         <v>23.5</v>
       </c>
       <c r="G1321" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37723,7 +37729,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1322" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37749,7 +37755,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1323" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37775,7 +37781,7 @@
         <v>23.5</v>
       </c>
       <c r="G1324" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37801,7 +37807,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1325" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37827,7 +37833,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1326" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37853,7 +37859,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1327" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37905,7 +37911,7 @@
         <v>23.5</v>
       </c>
       <c r="G1329" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37931,7 +37937,7 @@
         <v>23.5</v>
       </c>
       <c r="G1330" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37957,7 +37963,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1331" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -37983,7 +37989,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1332" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -38009,7 +38015,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1333" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -38035,7 +38041,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1334" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -38061,7 +38067,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1335" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -38087,7 +38093,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1336" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -38113,7 +38119,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1337" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -38139,7 +38145,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1338" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -38165,7 +38171,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1339" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -38191,7 +38197,7 @@
         <v>23.5</v>
       </c>
       <c r="G1340" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -38217,7 +38223,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1341" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -38243,7 +38249,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1342" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -38269,7 +38275,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1343" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -38295,7 +38301,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1344" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -38321,7 +38327,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1345" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38347,7 +38353,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1346" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -38373,7 +38379,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1347" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -38399,7 +38405,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1348" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38425,7 +38431,7 @@
         <v>23.5</v>
       </c>
       <c r="G1349" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38451,7 +38457,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1350" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38477,7 +38483,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1351" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38503,7 +38509,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1352" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38529,7 +38535,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1353" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38555,7 +38561,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1354" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38685,7 +38691,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1359" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38737,7 +38743,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1361" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38763,7 +38769,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1362" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38789,7 +38795,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1363" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38815,7 +38821,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1364" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38841,7 +38847,7 @@
         <v>23.5</v>
       </c>
       <c r="G1365" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -38867,7 +38873,7 @@
         <v>23</v>
       </c>
       <c r="G1366" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -38893,7 +38899,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1367" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -38919,7 +38925,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1368" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -38945,7 +38951,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1369" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -38971,7 +38977,7 @@
         <v>23.5</v>
       </c>
       <c r="G1370" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -38997,7 +39003,7 @@
         <v>23.5</v>
       </c>
       <c r="G1371" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -39023,7 +39029,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1372" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -39049,7 +39055,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1373" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -39075,7 +39081,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1374" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -39101,7 +39107,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1375" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -39127,7 +39133,7 @@
         <v>23.5</v>
       </c>
       <c r="G1376" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -39153,7 +39159,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1377" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -39179,7 +39185,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1378" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -39205,7 +39211,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1379" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -39231,7 +39237,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1380" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -39257,7 +39263,7 @@
         <v>23.5</v>
       </c>
       <c r="G1381" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39283,7 +39289,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1382" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -39309,7 +39315,7 @@
         <v>23.5</v>
       </c>
       <c r="G1383" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39335,7 +39341,7 @@
         <v>23.5</v>
       </c>
       <c r="G1384" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39361,7 +39367,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1385" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -39387,7 +39393,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1386" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39413,7 +39419,7 @@
         <v>24</v>
       </c>
       <c r="G1387" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39439,7 +39445,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1388" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39465,7 +39471,7 @@
         <v>23.5</v>
       </c>
       <c r="G1389" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39491,7 +39497,7 @@
         <v>23.5</v>
       </c>
       <c r="G1390" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39517,7 +39523,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1391" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -39543,7 +39549,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1392" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -39569,7 +39575,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1393" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39595,7 +39601,7 @@
         <v>23.5</v>
       </c>
       <c r="G1394" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39621,7 +39627,7 @@
         <v>23.5</v>
       </c>
       <c r="G1395" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -39647,7 +39653,7 @@
         <v>23</v>
       </c>
       <c r="G1396" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39673,7 +39679,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1397" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39699,7 +39705,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1398" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -39725,7 +39731,7 @@
         <v>23</v>
       </c>
       <c r="G1399" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -39751,7 +39757,7 @@
         <v>23</v>
       </c>
       <c r="G1400" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -39777,7 +39783,7 @@
         <v>23</v>
       </c>
       <c r="G1401" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39803,7 +39809,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1402" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39829,7 +39835,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1403" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39855,7 +39861,7 @@
         <v>23</v>
       </c>
       <c r="G1404" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39881,7 +39887,7 @@
         <v>23</v>
       </c>
       <c r="G1405" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39907,7 +39913,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1406" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39933,7 +39939,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1407" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39959,7 +39965,7 @@
         <v>22.5</v>
       </c>
       <c r="G1408" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39985,7 +39991,7 @@
         <v>22</v>
       </c>
       <c r="G1409" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -40011,7 +40017,7 @@
         <v>22.5</v>
       </c>
       <c r="G1410" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -40037,7 +40043,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1411" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -40063,7 +40069,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1412" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -40089,7 +40095,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1413" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -40115,7 +40121,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1414" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -40141,7 +40147,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1415" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -40167,7 +40173,7 @@
         <v>23.5</v>
       </c>
       <c r="G1416" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -40193,7 +40199,7 @@
         <v>23.5</v>
       </c>
       <c r="G1417" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -40219,7 +40225,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1418" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -40245,7 +40251,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1419" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -40271,7 +40277,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1420" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40297,7 +40303,7 @@
         <v>24</v>
       </c>
       <c r="G1421" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40323,7 +40329,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1422" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40349,7 +40355,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1423" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40375,7 +40381,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1424" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40401,7 +40407,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1425" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40427,7 +40433,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1426" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40453,7 +40459,7 @@
         <v>25</v>
       </c>
       <c r="G1427" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40479,7 +40485,7 @@
         <v>25</v>
       </c>
       <c r="G1428" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40505,7 +40511,7 @@
         <v>25</v>
       </c>
       <c r="G1429" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -40531,7 +40537,7 @@
         <v>24.5</v>
       </c>
       <c r="G1430" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -40557,7 +40563,7 @@
         <v>24.5</v>
       </c>
       <c r="G1431" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -40583,7 +40589,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1432" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40609,7 +40615,7 @@
         <v>24.5</v>
       </c>
       <c r="G1433" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -40635,7 +40641,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1434" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -40661,7 +40667,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1435" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40687,7 +40693,7 @@
         <v>26</v>
       </c>
       <c r="G1436" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40713,7 +40719,7 @@
         <v>26.5</v>
       </c>
       <c r="G1437" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -40739,7 +40745,7 @@
         <v>26</v>
       </c>
       <c r="G1438" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -40765,7 +40771,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1439" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40791,7 +40797,7 @@
         <v>26</v>
       </c>
       <c r="G1440" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -40817,7 +40823,7 @@
         <v>26.5</v>
       </c>
       <c r="G1441" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -40843,7 +40849,7 @@
         <v>26.5</v>
       </c>
       <c r="G1442" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -40869,7 +40875,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1443" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -40895,7 +40901,7 @@
         <v>26.5</v>
       </c>
       <c r="G1444" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -40921,7 +40927,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1445" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -40947,7 +40953,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1446" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -40973,7 +40979,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1447" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40999,7 +41005,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1448" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -41025,7 +41031,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1449" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -41051,7 +41057,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1450" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -41077,7 +41083,7 @@
         <v>27.5</v>
       </c>
       <c r="G1451" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -41103,7 +41109,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1452" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -41129,7 +41135,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -41155,7 +41161,7 @@
         <v>27.5</v>
       </c>
       <c r="G1454" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -41181,7 +41187,7 @@
         <v>27.5</v>
       </c>
       <c r="G1455" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -41207,7 +41213,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1456" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -41233,7 +41239,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1457" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -41259,7 +41265,7 @@
         <v>28</v>
       </c>
       <c r="G1458" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41285,7 +41291,7 @@
         <v>28</v>
       </c>
       <c r="G1459" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41311,7 +41317,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1460" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41337,7 +41343,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1461" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41363,7 +41369,7 @@
         <v>27.5</v>
       </c>
       <c r="G1462" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41389,7 +41395,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1463" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41415,7 +41421,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1464" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41441,7 +41447,7 @@
         <v>26.5</v>
       </c>
       <c r="G1465" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41467,7 +41473,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G1466" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41493,7 +41499,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1467" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -41519,7 +41525,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1468" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -41545,7 +41551,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1469" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -41571,7 +41577,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1470" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -41597,7 +41603,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1471" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41623,7 +41629,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1472" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -41649,7 +41655,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1473" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -41675,7 +41681,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1474" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41701,7 +41707,7 @@
         <v>27.5</v>
       </c>
       <c r="G1475" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -41727,7 +41733,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1476" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41753,7 +41759,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1477" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -41779,7 +41785,7 @@
         <v>27.5</v>
       </c>
       <c r="G1478" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41805,7 +41811,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1479" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -41831,7 +41837,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1480" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41857,7 +41863,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1481" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41883,7 +41889,7 @@
         <v>27</v>
       </c>
       <c r="G1482" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41909,7 +41915,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1483" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41935,7 +41941,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1484" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41961,7 +41967,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1485" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41987,7 +41993,7 @@
         <v>27.5</v>
       </c>
       <c r="G1486" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -42013,7 +42019,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1487" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -42039,7 +42045,7 @@
         <v>27.5</v>
       </c>
       <c r="G1488" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -42065,7 +42071,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1489" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -42091,7 +42097,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1490" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -42117,7 +42123,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1491" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -42143,7 +42149,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1492" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -42169,7 +42175,7 @@
         <v>28</v>
       </c>
       <c r="G1493" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -42195,7 +42201,7 @@
         <v>28</v>
       </c>
       <c r="G1494" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -42221,7 +42227,7 @@
         <v>28.5</v>
       </c>
       <c r="G1495" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -42247,7 +42253,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G1496" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -42273,7 +42279,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G1497" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42299,7 +42305,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1498" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42325,7 +42331,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1499" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42351,7 +42357,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G1500" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42377,7 +42383,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1501" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42403,7 +42409,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1502" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42429,7 +42435,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G1503" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42455,7 +42461,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1504" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42481,7 +42487,7 @@
         <v>29</v>
       </c>
       <c r="G1505" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42507,7 +42513,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1506" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -42533,7 +42539,7 @@
         <v>29.3999996185303</v>
       </c>
       <c r="G1507" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42559,7 +42565,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1508" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42585,7 +42591,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1509" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42611,7 +42617,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1510" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42637,7 +42643,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1511" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42663,7 +42669,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1512" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42689,7 +42695,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1513" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42715,7 +42721,7 @@
         <v>30</v>
       </c>
       <c r="G1514" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42741,7 +42747,7 @@
         <v>29.7000007629395</v>
       </c>
       <c r="G1515" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42767,7 +42773,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G1516" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42793,7 +42799,7 @@
         <v>30</v>
       </c>
       <c r="G1517" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42819,7 +42825,7 @@
         <v>31</v>
       </c>
       <c r="G1518" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42845,7 +42851,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G1519" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42871,7 +42877,7 @@
         <v>31</v>
       </c>
       <c r="G1520" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42897,7 +42903,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G1521" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42923,7 +42929,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G1522" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42949,7 +42955,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G1523" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42975,7 +42981,7 @@
         <v>34.9000015258789</v>
       </c>
       <c r="G1524" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -43001,7 +43007,7 @@
         <v>34.5999984741211</v>
       </c>
       <c r="G1525" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -43027,7 +43033,7 @@
         <v>34.2000007629395</v>
       </c>
       <c r="G1526" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -43053,7 +43059,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G1527" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -43079,7 +43085,7 @@
         <v>34.4000015258789</v>
       </c>
       <c r="G1528" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -43105,7 +43111,7 @@
         <v>34.2000007629395</v>
       </c>
       <c r="G1529" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -43131,7 +43137,7 @@
         <v>34.5</v>
       </c>
       <c r="G1530" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43157,7 +43163,7 @@
         <v>33</v>
       </c>
       <c r="G1531" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43183,7 +43189,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G1532" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -43209,7 +43215,7 @@
         <v>34.2000007629395</v>
       </c>
       <c r="G1533" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43235,7 +43241,7 @@
         <v>33.5999984741211</v>
       </c>
       <c r="G1534" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -43261,7 +43267,7 @@
         <v>33.5999984741211</v>
       </c>
       <c r="G1535" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43287,7 +43293,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1536" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43313,7 +43319,7 @@
         <v>33.5</v>
       </c>
       <c r="G1537" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43339,7 +43345,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1538" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43365,7 +43371,7 @@
         <v>33</v>
       </c>
       <c r="G1539" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43391,7 +43397,7 @@
         <v>33.2000007629395</v>
       </c>
       <c r="G1540" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43417,7 +43423,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1541" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43443,7 +43449,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1542" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43469,7 +43475,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1543" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43495,7 +43501,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1544" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43521,7 +43527,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1545" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43547,7 +43553,7 @@
         <v>30.5</v>
       </c>
       <c r="G1546" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43573,7 +43579,7 @@
         <v>30.5</v>
       </c>
       <c r="G1547" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43599,7 +43605,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1548" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43625,7 +43631,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G1549" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43651,7 +43657,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1550" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43677,7 +43683,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1551" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43703,7 +43709,7 @@
         <v>30.5</v>
       </c>
       <c r="G1552" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43729,7 +43735,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1553" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43755,7 +43761,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1554" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43781,7 +43787,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1555" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43807,7 +43813,7 @@
         <v>30</v>
       </c>
       <c r="G1556" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43833,7 +43839,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1557" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43859,7 +43865,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1558" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43885,7 +43891,7 @@
         <v>31</v>
       </c>
       <c r="G1559" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43911,7 +43917,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1560" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43937,7 +43943,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1561" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43963,7 +43969,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G1562" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -43989,7 +43995,7 @@
         <v>30.5</v>
       </c>
       <c r="G1563" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -44015,7 +44021,7 @@
         <v>31.5</v>
       </c>
       <c r="G1564" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -44041,7 +44047,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1565" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -44067,7 +44073,7 @@
         <v>30.5</v>
       </c>
       <c r="G1566" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -44093,7 +44099,7 @@
         <v>29.8999996185303</v>
       </c>
       <c r="G1567" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -44119,7 +44125,7 @@
         <v>29.7999992370605</v>
       </c>
       <c r="G1568" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -44145,7 +44151,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1569" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -44171,7 +44177,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1570" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -44197,7 +44203,7 @@
         <v>27</v>
       </c>
       <c r="G1571" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -44223,7 +44229,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1572" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -44249,7 +44255,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1573" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44275,7 +44281,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1574" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44301,7 +44307,7 @@
         <v>27</v>
       </c>
       <c r="G1575" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44327,7 +44333,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1576" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44353,7 +44359,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1577" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44379,7 +44385,7 @@
         <v>26</v>
       </c>
       <c r="G1578" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44405,7 +44411,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1579" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -44431,7 +44437,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1580" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44457,7 +44463,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G1581" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44483,7 +44489,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1582" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -44509,7 +44515,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1583" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44535,7 +44541,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1584" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44561,7 +44567,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1585" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -44587,7 +44593,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1586" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -44613,7 +44619,7 @@
         <v>28.5</v>
       </c>
       <c r="G1587" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44639,7 +44645,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1588" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44665,7 +44671,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1589" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44691,7 +44697,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1590" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44717,7 +44723,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1591" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44743,7 +44749,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1592" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44769,7 +44775,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1593" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44795,7 +44801,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1594" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44821,7 +44827,7 @@
         <v>28.2999992370605</v>
       </c>
       <c r="G1595" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44847,7 +44853,7 @@
         <v>28.2000007629395</v>
       </c>
       <c r="G1596" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44873,7 +44879,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1597" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44899,7 +44905,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1598" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44925,7 +44931,7 @@
         <v>27.5</v>
       </c>
       <c r="G1599" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44951,7 +44957,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1600" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44977,7 +44983,7 @@
         <v>28</v>
       </c>
       <c r="G1601" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -45003,7 +45009,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1602" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -45029,7 +45035,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1603" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -45055,7 +45061,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1604" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -45081,7 +45087,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1605" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -45107,7 +45113,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G1606" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -45133,7 +45139,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1607" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -45159,7 +45165,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1608" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -45185,7 +45191,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1609" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -45211,7 +45217,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1610" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -45237,7 +45243,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1611" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -45263,7 +45269,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1612" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45289,7 +45295,7 @@
         <v>28</v>
       </c>
       <c r="G1613" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -45315,7 +45321,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1614" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -45341,7 +45347,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1615" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45367,7 +45373,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1616" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -45393,7 +45399,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1617" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45419,7 +45425,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1618" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45445,7 +45451,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1619" t="s">
-        <v>741</v>
+        <v>787</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45601,7 +45607,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1625" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45705,7 +45711,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1629" t="s">
-        <v>741</v>
+        <v>787</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46537,7 +46543,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1661" t="s">
-        <v>741</v>
+        <v>787</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46667,7 +46673,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1666" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46745,7 +46751,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1669" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46927,7 +46933,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>741</v>
+        <v>787</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47057,7 +47063,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>741</v>
+        <v>787</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47525,7 +47531,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1699" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47603,7 +47609,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1702" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47629,7 +47635,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1703" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47707,7 +47713,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1706" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48357,7 +48363,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1731" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48591,7 +48597,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>741</v>
+        <v>787</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -59207,27 +59213,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6493981481</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
-        <v>29641</v>
+        <v>12971</v>
       </c>
       <c r="C2149" t="n">
-        <v>38.9500007629395</v>
+        <v>39.5</v>
       </c>
       <c r="D2149" t="n">
-        <v>37.5499992370605</v>
+        <v>38.2999992370605</v>
       </c>
       <c r="E2149" t="n">
-        <v>38.1500015258789</v>
+        <v>39.5</v>
       </c>
       <c r="F2149" t="n">
-        <v>38.9000015258789</v>
+        <v>38.3499984741211</v>
       </c>
       <c r="G2149" t="s">
         <v>1001</v>
       </c>
       <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>29641</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>38.9500007629395</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>37.5499992370605</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>38.1500015258789</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>38.9000015258789</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6494328704</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>53004</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>38.8499984741211</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>37.5499992370605</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>38.4000015258789</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>37.9500007629395</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CMB.MI.xlsx
+++ b/data/CMB.MI.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">CMB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91149234771729</t>
+    <t xml:space="preserve">9.91149139404297</t>
   </si>
   <si>
     <t xml:space="preserve">9.65968322753906</t>
@@ -59,52 +59,52 @@
     <t xml:space="preserve">9.79258251190186</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70864582061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47782039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66667747497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61072158813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68766212463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61771583557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53377819061279</t>
+    <t xml:space="preserve">9.70864486694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47782135009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66667556762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61071968078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68766307830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61771392822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53377723693848</t>
   </si>
   <si>
     <t xml:space="preserve">9.54077339172363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44284820556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17005443572998</t>
+    <t xml:space="preserve">9.44284629821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17005348205566</t>
   </si>
   <si>
     <t xml:space="preserve">9.10010719299316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17704772949219</t>
+    <t xml:space="preserve">9.1770486831665</t>
   </si>
   <si>
     <t xml:space="preserve">8.67342948913574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63845729827881</t>
+    <t xml:space="preserve">8.63845634460449</t>
   </si>
   <si>
     <t xml:space="preserve">8.93922901153564</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76436138153076</t>
+    <t xml:space="preserve">8.76436042785645</t>
   </si>
   <si>
     <t xml:space="preserve">8.74337673187256</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">8.95321846008301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12808513641357</t>
+    <t xml:space="preserve">9.12808609008789</t>
   </si>
   <si>
     <t xml:space="preserve">9.56875228881836</t>
@@ -125,94 +125,94 @@
     <t xml:space="preserve">9.40787410736084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20502662658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30295372009277</t>
+    <t xml:space="preserve">9.20502758026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30295276641846</t>
   </si>
   <si>
     <t xml:space="preserve">9.03715419769287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98819160461426</t>
+    <t xml:space="preserve">8.98819255828857</t>
   </si>
   <si>
     <t xml:space="preserve">9.22601127624512</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14207363128662</t>
+    <t xml:space="preserve">9.14207553863525</t>
   </si>
   <si>
     <t xml:space="preserve">9.3309326171875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34492111206055</t>
+    <t xml:space="preserve">9.34492206573486</t>
   </si>
   <si>
     <t xml:space="preserve">9.23300552368164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30994892120361</t>
+    <t xml:space="preserve">9.3099479675293</t>
   </si>
   <si>
     <t xml:space="preserve">9.52678298950195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51279544830322</t>
+    <t xml:space="preserve">9.51279449462891</t>
   </si>
   <si>
     <t xml:space="preserve">9.47082614898682</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69465637207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5967321395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49880409240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42186260223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50579929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31694221496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11409664154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10710144042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46383094787598</t>
+    <t xml:space="preserve">9.694655418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59673118591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49880504608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42186450958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50580024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31694316864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11409568786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.107102394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46382999420166</t>
   </si>
   <si>
     <t xml:space="preserve">9.37290000915527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55476093292236</t>
+    <t xml:space="preserve">9.554762840271</t>
   </si>
   <si>
     <t xml:space="preserve">9.3798942565918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43585300445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54776763916016</t>
+    <t xml:space="preserve">9.43585109710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54776859283447</t>
   </si>
   <si>
     <t xml:space="preserve">9.72962951660156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63170433044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56347274780273</t>
+    <t xml:space="preserve">9.63170528411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56347179412842</t>
   </si>
   <si>
     <t xml:space="preserve">9.57071113586426</t>
@@ -230,10 +230,10 @@
     <t xml:space="preserve">9.8747730255127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84581565856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73722076416016</t>
+    <t xml:space="preserve">9.84581470489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73722171783447</t>
   </si>
   <si>
     <t xml:space="preserve">10.3163871765137</t>
@@ -242,73 +242,73 @@
     <t xml:space="preserve">10.1281576156616</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1353969573975</t>
+    <t xml:space="preserve">10.1353979110718</t>
   </si>
   <si>
     <t xml:space="preserve">10.0268049240112</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1933145523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1136789321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92544937133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93269062042236</t>
+    <t xml:space="preserve">10.1933135986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1136779785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92545032501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93268966674805</t>
   </si>
   <si>
     <t xml:space="preserve">9.91097068786621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83133506774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77341938018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74446105957031</t>
+    <t xml:space="preserve">9.83133602142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77341842651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74446201324463</t>
   </si>
   <si>
     <t xml:space="preserve">9.76617813110352</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6937837600708</t>
+    <t xml:space="preserve">9.69378471374512</t>
   </si>
   <si>
     <t xml:space="preserve">9.93992900848389</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98336696624756</t>
+    <t xml:space="preserve">9.98336601257324</t>
   </si>
   <si>
     <t xml:space="preserve">9.9906063079834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81685733795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83857440948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94717025756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91821002960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88925075531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46211624145508</t>
+    <t xml:space="preserve">9.81685638427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83857536315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94716835021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91821098327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88925266265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46211814880371</t>
   </si>
   <si>
     <t xml:space="preserve">9.65034580230713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62862777709961</t>
+    <t xml:space="preserve">9.62862682342529</t>
   </si>
   <si>
     <t xml:space="preserve">9.54899215698242</t>
@@ -320,22 +320,22 @@
     <t xml:space="preserve">9.70826244354248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63586807250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64310646057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66482543945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71550273895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8240966796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88201236724854</t>
+    <t xml:space="preserve">9.63586711883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64310741424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66482639312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71550178527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82409572601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88201332092285</t>
   </si>
   <si>
     <t xml:space="preserve">9.8602933883667</t>
@@ -347,109 +347,109 @@
     <t xml:space="preserve">9.85305404663086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67930507659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67206382751465</t>
+    <t xml:space="preserve">9.67930316925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67206573486328</t>
   </si>
   <si>
     <t xml:space="preserve">9.47659683227539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48383712768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49107646942139</t>
+    <t xml:space="preserve">9.48383617401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49107551574707</t>
   </si>
   <si>
     <t xml:space="preserve">9.44763851165771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37524318695068</t>
+    <t xml:space="preserve">9.37524223327637</t>
   </si>
   <si>
     <t xml:space="preserve">9.25940895080566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34628486633301</t>
+    <t xml:space="preserve">9.34628391265869</t>
   </si>
   <si>
     <t xml:space="preserve">9.4114408493042</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31008529663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19425392150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17977523803711</t>
+    <t xml:space="preserve">9.31008625030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19425296783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17977428436279</t>
   </si>
   <si>
     <t xml:space="preserve">9.26664924621582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25216960906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28836822509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30284690856934</t>
+    <t xml:space="preserve">9.25217056274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28836917877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30284786224365</t>
   </si>
   <si>
     <t xml:space="preserve">9.33904361724854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24493217468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20873355865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13633632659912</t>
+    <t xml:space="preserve">9.2449312210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20873165130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13633728027344</t>
   </si>
   <si>
     <t xml:space="preserve">8.91915035247803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88295078277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14357662200928</t>
+    <t xml:space="preserve">8.8829517364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14357757568359</t>
   </si>
   <si>
     <t xml:space="preserve">9.1652946472168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23045063018799</t>
+    <t xml:space="preserve">9.2304515838623</t>
   </si>
   <si>
     <t xml:space="preserve">9.33180522918701</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15805625915527</t>
+    <t xml:space="preserve">9.15805530548096</t>
   </si>
   <si>
     <t xml:space="preserve">9.2956075668335</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42591953277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38248062133789</t>
+    <t xml:space="preserve">9.4259204864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38248252868652</t>
   </si>
   <si>
     <t xml:space="preserve">9.43315887451172</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0195636749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0050849914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0630006790161</t>
+    <t xml:space="preserve">10.0195646286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0050830841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0630016326904</t>
   </si>
   <si>
     <t xml:space="preserve">10.1571159362793</t>
@@ -458,16 +458,16 @@
     <t xml:space="preserve">10.2946681976318</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3525848388672</t>
+    <t xml:space="preserve">10.3525857925415</t>
   </si>
   <si>
     <t xml:space="preserve">10.4249792098999</t>
   </si>
   <si>
-    <t xml:space="preserve">10.801438331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5697727203369</t>
+    <t xml:space="preserve">10.8014373779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5697717666626</t>
   </si>
   <si>
     <t xml:space="preserve">10.6276893615723</t>
@@ -479,49 +479,49 @@
     <t xml:space="preserve">10.5118551254272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6494073867798</t>
+    <t xml:space="preserve">10.6494064331055</t>
   </si>
   <si>
     <t xml:space="preserve">10.7797193527222</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9317512512207</t>
+    <t xml:space="preserve">10.9317493438721</t>
   </si>
   <si>
     <t xml:space="preserve">10.9824275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.873833656311</t>
+    <t xml:space="preserve">10.8738346099854</t>
   </si>
   <si>
     <t xml:space="preserve">11.0258646011353</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7435216903687</t>
+    <t xml:space="preserve">10.7435207366943</t>
   </si>
   <si>
     <t xml:space="preserve">10.3598251342773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3236255645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4756565093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8593549728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.772479057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9389886856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7290439605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8665933609009</t>
+    <t xml:space="preserve">10.3236265182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4756574630737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.859354019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7724800109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9389896392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7290420532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8665943145752</t>
   </si>
   <si>
     <t xml:space="preserve">10.786958694458</t>
@@ -533,25 +533,25 @@
     <t xml:space="preserve">10.7580003738403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7507619857788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7218036651611</t>
+    <t xml:space="preserve">10.7507600784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7218027114868</t>
   </si>
   <si>
     <t xml:space="preserve">10.6638851165771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7652406692505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0041446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9462280273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0910215377808</t>
+    <t xml:space="preserve">10.7652416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0041465759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9462299346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0910205841064</t>
   </si>
   <si>
     <t xml:space="preserve">11.5036764144897</t>
@@ -560,19 +560,19 @@
     <t xml:space="preserve">11.4529991149902</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4457588195801</t>
+    <t xml:space="preserve">11.4457597732544</t>
   </si>
   <si>
     <t xml:space="preserve">11.4747171401978</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4964370727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7787809371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.945291519165</t>
+    <t xml:space="preserve">11.4964351654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7787799835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9452896118164</t>
   </si>
   <si>
     <t xml:space="preserve">12.5389347076416</t>
@@ -581,25 +581,25 @@
     <t xml:space="preserve">12.4448213577271</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5172176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5534143447876</t>
+    <t xml:space="preserve">12.5172166824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5534133911133</t>
   </si>
   <si>
     <t xml:space="preserve">12.7416410446167</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2990894317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4583606719971</t>
+    <t xml:space="preserve">13.299090385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4583616256714</t>
   </si>
   <si>
     <t xml:space="preserve">13.4728403091431</t>
   </si>
   <si>
-    <t xml:space="preserve">13.740701675415</t>
+    <t xml:space="preserve">13.7407026290894</t>
   </si>
   <si>
     <t xml:space="preserve">13.5959119796753</t>
@@ -608,40 +608,40 @@
     <t xml:space="preserve">13.6103897094727</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3714838027954</t>
+    <t xml:space="preserve">13.3714847564697</t>
   </si>
   <si>
     <t xml:space="preserve">13.3932046890259</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3208055496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4438791275024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6827869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8927345275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4139823913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5008602142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4501819610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5442972183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5515336990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6601295471191</t>
+    <t xml:space="preserve">13.3208084106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4438810348511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6827850341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8927335739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4139814376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5008554458618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4501800537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5442953109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.55153465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6601276397705</t>
   </si>
   <si>
     <t xml:space="preserve">14.5949726104736</t>
@@ -650,70 +650,70 @@
     <t xml:space="preserve">14.5225772857666</t>
   </si>
   <si>
-    <t xml:space="preserve">14.739052772522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8515653610229</t>
+    <t xml:space="preserve">14.7390537261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8515672683716</t>
   </si>
   <si>
     <t xml:space="preserve">14.6715459823608</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6040382385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5140314102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.176495552063</t>
+    <t xml:space="preserve">14.6040391921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.514030456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1764936447144</t>
   </si>
   <si>
     <t xml:space="preserve">14.8890705108643</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1914968490601</t>
+    <t xml:space="preserve">14.1914958953857</t>
   </si>
   <si>
     <t xml:space="preserve">14.5215320587158</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5065298080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7990617752075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8815679550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8740692138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8065614700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9640789031982</t>
+    <t xml:space="preserve">14.5065279006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7990598678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8815698623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8740682601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8065605163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9640779495239</t>
   </si>
   <si>
     <t xml:space="preserve">15.1065921783447</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9016780853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4342346191406</t>
+    <t xml:space="preserve">15.9016771316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.434232711792</t>
   </si>
   <si>
     <t xml:space="preserve">16.3442230224609</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9316835403442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7516613006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4741315841675</t>
+    <t xml:space="preserve">15.9316825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7516641616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4741306304932</t>
   </si>
   <si>
     <t xml:space="preserve">15.1740999221802</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">15.8791751861572</t>
   </si>
   <si>
-    <t xml:space="preserve">15.481632232666</t>
+    <t xml:space="preserve">15.4816312789917</t>
   </si>
   <si>
     <t xml:space="preserve">15.631649017334</t>
@@ -734,112 +734,112 @@
     <t xml:space="preserve">16.1267013549805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0291900634766</t>
+    <t xml:space="preserve">16.0291919708252</t>
   </si>
   <si>
     <t xml:space="preserve">15.8341703414917</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7366590499878</t>
+    <t xml:space="preserve">15.7366609573364</t>
   </si>
   <si>
     <t xml:space="preserve">15.3841228485107</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6991548538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6766538619995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5416393280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7141571044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5866460800171</t>
+    <t xml:space="preserve">15.6991567611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6766557693481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5416383743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7141580581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5866451263428</t>
   </si>
   <si>
     <t xml:space="preserve">15.7741632461548</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2467155456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2767200469971</t>
+    <t xml:space="preserve">16.2467136383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2767162322998</t>
   </si>
   <si>
     <t xml:space="preserve">16.3517246246338</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5242462158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6367530822754</t>
+    <t xml:space="preserve">16.5242443084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6367568969727</t>
   </si>
   <si>
     <t xml:space="preserve">16.5392436981201</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2242107391357</t>
+    <t xml:space="preserve">16.2242126464844</t>
   </si>
   <si>
     <t xml:space="preserve">15.8491716384888</t>
   </si>
   <si>
-    <t xml:space="preserve">15.856671333313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8266677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.89417552948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041667938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7216539382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6166439056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.744161605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116693496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4516286849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4216270446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3766222000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.519136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5266389846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2266054153442</t>
+    <t xml:space="preserve">15.8566722869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8266706466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8941764831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041648864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.721658706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6166467666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7441635131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4516315460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4216260910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3766212463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5191373825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5266370773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2266035079956</t>
   </si>
   <si>
     <t xml:space="preserve">15.3016138076782</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2416067123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.444128036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0315866470337</t>
+    <t xml:space="preserve">15.2416076660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4441289901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0315837860107</t>
   </si>
   <si>
     <t xml:space="preserve">15.406623840332</t>
@@ -848,22 +848,22 @@
     <t xml:space="preserve">15.1966028213501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1515989303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3991250991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7591638565063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9091749191284</t>
+    <t xml:space="preserve">15.1515998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3991222381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.759162902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9091787338257</t>
   </si>
   <si>
     <t xml:space="preserve">16.0066890716553</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8692798614502</t>
+    <t xml:space="preserve">16.8692779541016</t>
   </si>
   <si>
     <t xml:space="preserve">17.6268577575684</t>
@@ -875,34 +875,34 @@
     <t xml:space="preserve">19.382043838501</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0820140838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1270141601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8944931030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7519779205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8644905090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6394653320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6769676208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5194511413574</t>
+    <t xml:space="preserve">19.0820121765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1270179748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8944911956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7519798278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8644924163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6394672393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6769714355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5194530487061</t>
   </si>
   <si>
     <t xml:space="preserve">18.631965637207</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2944297790527</t>
+    <t xml:space="preserve">18.2944278717041</t>
   </si>
   <si>
     <t xml:space="preserve">18.4219436645508</t>
@@ -911,16 +911,16 @@
     <t xml:space="preserve">18.2569236755371</t>
   </si>
   <si>
-    <t xml:space="preserve">18.24192237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1894187927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1519145965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0319042205811</t>
+    <t xml:space="preserve">18.2419242858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1894149780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.151912689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0319004058838</t>
   </si>
   <si>
     <t xml:space="preserve">17.9643955230713</t>
@@ -932,16 +932,16 @@
     <t xml:space="preserve">17.6793651580811</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9043884277344</t>
+    <t xml:space="preserve">17.904390335083</t>
   </si>
   <si>
     <t xml:space="preserve">17.7318687438965</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9718971252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0018978118896</t>
+    <t xml:space="preserve">17.9718952178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0018997192383</t>
   </si>
   <si>
     <t xml:space="preserve">18.0469036102295</t>
@@ -950,52 +950,52 @@
     <t xml:space="preserve">18.0244007110596</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9343929290771</t>
+    <t xml:space="preserve">17.9343910217285</t>
   </si>
   <si>
     <t xml:space="preserve">17.9868965148926</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8068790435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2068157196045</t>
+    <t xml:space="preserve">17.8068771362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2068138122559</t>
   </si>
   <si>
     <t xml:space="preserve">17.2443180084229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.551851272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9517879486084</t>
+    <t xml:space="preserve">17.5518493652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.951789855957</t>
   </si>
   <si>
     <t xml:space="preserve">16.2917175292969</t>
   </si>
   <si>
-    <t xml:space="preserve">16.711763381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5092391967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2317123413086</t>
+    <t xml:space="preserve">16.7117614746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5092430114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.23171043396</t>
   </si>
   <si>
     <t xml:space="preserve">17.0868034362793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9067840576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1918144226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1243076324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1768112182617</t>
+    <t xml:space="preserve">16.9067859649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1918106079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.124303817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1768131256104</t>
   </si>
   <si>
     <t xml:space="preserve">16.6667575836182</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">17.1393070220947</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0192985534668</t>
+    <t xml:space="preserve">17.0192947387695</t>
   </si>
   <si>
     <t xml:space="preserve">16.8092746734619</t>
@@ -1022,37 +1022,37 @@
     <t xml:space="preserve">16.8017711639404</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4192333221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4492359161377</t>
+    <t xml:space="preserve">16.4192314147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4492378234863</t>
   </si>
   <si>
     <t xml:space="preserve">16.4417343139648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2092094421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0441932678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0366897583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2017078399658</t>
+    <t xml:space="preserve">16.2092113494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0441951751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0366916656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2017097473145</t>
   </si>
   <si>
     <t xml:space="preserve">16.5917510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8392753601074</t>
+    <t xml:space="preserve">16.8392772674561</t>
   </si>
   <si>
     <t xml:space="preserve">16.7642669677734</t>
   </si>
   <si>
-    <t xml:space="preserve">16.876781463623</t>
+    <t xml:space="preserve">16.8767795562744</t>
   </si>
   <si>
     <t xml:space="preserve">17.4018363952637</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">17.2518215179443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0642986297607</t>
+    <t xml:space="preserve">17.0643005371094</t>
   </si>
   <si>
     <t xml:space="preserve">17.3643321990967</t>
@@ -1070,16 +1070,16 @@
     <t xml:space="preserve">17.2143173217773</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3268280029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.476842880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6643600463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8518810272217</t>
+    <t xml:space="preserve">17.3268260955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4768447875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6643619537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8518829345703</t>
   </si>
   <si>
     <t xml:space="preserve">18.0769062042236</t>
@@ -1100,25 +1100,25 @@
     <t xml:space="preserve">16.3142223358154</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9391822814941</t>
+    <t xml:space="preserve">15.9391803741455</t>
   </si>
   <si>
     <t xml:space="preserve">15.9766845703125</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0516891479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3892288208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2893257141113</t>
+    <t xml:space="preserve">16.0516929626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3892269134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2893238067627</t>
   </si>
   <si>
     <t xml:space="preserve">17.7768745422363</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7393684387207</t>
+    <t xml:space="preserve">17.7393703460693</t>
   </si>
   <si>
     <t xml:space="preserve">17.439338684082</t>
@@ -1127,13 +1127,13 @@
     <t xml:space="preserve">17.701868057251</t>
   </si>
   <si>
-    <t xml:space="preserve">17.514347076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4894523620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3394336700439</t>
+    <t xml:space="preserve">17.5143489837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4894485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3394355773926</t>
   </si>
   <si>
     <t xml:space="preserve">18.0394020080566</t>
@@ -1142,19 +1142,19 @@
     <t xml:space="preserve">17.8893871307373</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4144420623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5644607543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2770328521729</t>
+    <t xml:space="preserve">18.4144401550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5644588470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2770347595215</t>
   </si>
   <si>
     <t xml:space="preserve">19.3520393371582</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7270793914795</t>
+    <t xml:space="preserve">19.7270812988281</t>
   </si>
   <si>
     <t xml:space="preserve">20.2686100006104</t>
@@ -1163,19 +1163,19 @@
     <t xml:space="preserve">19.9591636657715</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6554164886475</t>
+    <t xml:space="preserve">20.6554145812988</t>
   </si>
   <si>
     <t xml:space="preserve">21.1969432830811</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3846492767334</t>
+    <t xml:space="preserve">20.384651184082</t>
   </si>
   <si>
     <t xml:space="preserve">20.1912479400635</t>
   </si>
   <si>
-    <t xml:space="preserve">20.34596824646</t>
+    <t xml:space="preserve">20.3459701538086</t>
   </si>
   <si>
     <t xml:space="preserve">19.804443359375</t>
@@ -1184,13 +1184,13 @@
     <t xml:space="preserve">19.5723571777344</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6497211456299</t>
+    <t xml:space="preserve">19.6497192382812</t>
   </si>
   <si>
     <t xml:space="preserve">19.4949989318848</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5666637420654</t>
+    <t xml:space="preserve">18.5666675567627</t>
   </si>
   <si>
     <t xml:space="preserve">17.9477767944336</t>
@@ -1202,43 +1202,43 @@
     <t xml:space="preserve">19.5336780548096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8818035125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1138858795166</t>
+    <t xml:space="preserve">19.8818054199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1138877868652</t>
   </si>
   <si>
     <t xml:space="preserve">20.2299289703369</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5393714904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.616735458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4233322143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.036527633667</t>
+    <t xml:space="preserve">20.5393695831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6167316436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4233283996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0365257263184</t>
   </si>
   <si>
     <t xml:space="preserve">19.1081924438477</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8431224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0752067565918</t>
+    <t xml:space="preserve">19.8431243896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0752048492432</t>
   </si>
   <si>
     <t xml:space="preserve">20.4620132446289</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4176349639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6110420227051</t>
+    <t xml:space="preserve">19.4176387786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6110401153564</t>
   </si>
   <si>
     <t xml:space="preserve">19.340274810791</t>
@@ -1247,19 +1247,19 @@
     <t xml:space="preserve">19.2629146575928</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2242336273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6440258026123</t>
+    <t xml:space="preserve">19.2242317199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6440238952637</t>
   </si>
   <si>
     <t xml:space="preserve">18.7987480163574</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1468734741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.45631980896</t>
+    <t xml:space="preserve">19.1468715667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4563179016113</t>
   </si>
   <si>
     <t xml:space="preserve">19.3015975952148</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">19.0308322906494</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3789539337158</t>
+    <t xml:space="preserve">19.3789577484131</t>
   </si>
   <si>
     <t xml:space="preserve">18.992151260376</t>
@@ -1277,106 +1277,106 @@
     <t xml:space="preserve">19.1855525970459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9978446960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7657604217529</t>
+    <t xml:space="preserve">19.9978466033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7657623291016</t>
   </si>
   <si>
     <t xml:space="preserve">18.8374290466309</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6827068328857</t>
+    <t xml:space="preserve">18.6827049255371</t>
   </si>
   <si>
     <t xml:space="preserve">19.0695114135742</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7930545806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7873592376709</t>
+    <t xml:space="preserve">17.7930526733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7873611450195</t>
   </si>
   <si>
     <t xml:space="preserve">16.1684703826904</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7043037414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5108985900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6326389312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1354827880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2458324432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6656217575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5495843887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5882625579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.317497253418</t>
+    <t xml:space="preserve">15.7043046951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5108995437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6326370239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1354846954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2458343505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6656227111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.54958152771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5882616043091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3174982070923</t>
   </si>
   <si>
     <t xml:space="preserve">14.8997478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0544710159302</t>
+    <t xml:space="preserve">15.0544681549072</t>
   </si>
   <si>
     <t xml:space="preserve">15.1627759933472</t>
   </si>
   <si>
-    <t xml:space="preserve">15.44127368927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8203449249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8647193908691</t>
+    <t xml:space="preserve">15.4412755966187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8203477859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8647174835205</t>
   </si>
   <si>
     <t xml:space="preserve">16.5165939331055</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3618717193604</t>
+    <t xml:space="preserve">16.361873626709</t>
   </si>
   <si>
     <t xml:space="preserve">16.2845115661621</t>
   </si>
   <si>
-    <t xml:space="preserve">16.129789352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2071514129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0911083221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590269088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7816638946533</t>
+    <t xml:space="preserve">16.1297912597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2071533203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0911102294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590250015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.781665802002</t>
   </si>
   <si>
     <t xml:space="preserve">15.7429857254028</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4392356872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4005546569824</t>
+    <t xml:space="preserve">16.4392337799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4005508422852</t>
   </si>
   <si>
     <t xml:space="preserve">16.6713180541992</t>
@@ -1385,10 +1385,10 @@
     <t xml:space="preserve">16.4779148101807</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9750671386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.456748008728</t>
+    <t xml:space="preserve">15.9750661849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4567451477051</t>
   </si>
   <si>
     <t xml:space="preserve">15.2556085586548</t>
@@ -1397,43 +1397,43 @@
     <t xml:space="preserve">16.0137500762939</t>
   </si>
   <si>
-    <t xml:space="preserve">16.709997177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5552749633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1741638183594</t>
+    <t xml:space="preserve">16.7099990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5552768707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1741676330566</t>
   </si>
   <si>
     <t xml:space="preserve">16.9807624816895</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0968017578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.40625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.522289276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3231906890869</t>
+    <t xml:space="preserve">17.0968055725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4062480926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5222911834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3231925964355</t>
   </si>
   <si>
     <t xml:space="preserve">15.9363870620728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3948612213135</t>
+    <t xml:space="preserve">15.3948583602905</t>
   </si>
   <si>
     <t xml:space="preserve">15.4103317260742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6269435882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4258050918579</t>
+    <t xml:space="preserve">15.6269445419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4258031845093</t>
   </si>
   <si>
     <t xml:space="preserve">15.4722204208374</t>
@@ -1442,208 +1442,208 @@
     <t xml:space="preserve">17.0194435119629</t>
   </si>
   <si>
-    <t xml:space="preserve">16.826042175293</t>
+    <t xml:space="preserve">16.8260383605957</t>
   </si>
   <si>
     <t xml:space="preserve">16.9034004211426</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2902050018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3288879394531</t>
+    <t xml:space="preserve">17.2902069091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3288841247559</t>
   </si>
   <si>
     <t xml:space="preserve">17.3675670623779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2515258789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5609703063965</t>
+    <t xml:space="preserve">17.2515239715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5609722137451</t>
   </si>
   <si>
     <t xml:space="preserve">17.4836101531982</t>
   </si>
   <si>
-    <t xml:space="preserve">17.638334274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0251350402832</t>
+    <t xml:space="preserve">17.6383323669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0251388549805</t>
   </si>
   <si>
     <t xml:space="preserve">17.8704147338867</t>
   </si>
   <si>
+    <t xml:space="preserve">18.1798572540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0244998931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3809642791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2950000762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3754405975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9732322692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.691686630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2492561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2090339660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6057205200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8309574127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.289478302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1688137054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0883712768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3296966552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8631343841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.573543548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7505159378052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9918384552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0722827911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1285915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8953113555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8470458984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4503593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6112442016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5308017730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4905815124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3699188232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4101409912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9330101013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4156608581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6569881439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5363235473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0938949584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1743354797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6514644622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0134525299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7319068908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8927917480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7721271514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5710220336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9596652984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0079288482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.812349319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0536727905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2145576477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1341133117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2547779083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8525714874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.455883026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6167659759521</t>
+  </si>
+  <si>
     <t xml:space="preserve">18.179859161377</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0244998931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3809642791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2950000762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3754405975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9732303619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.691686630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2492561340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2090339660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6057186126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8309574127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2894744873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.168815612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0883712768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3296966552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.863133430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.573543548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7505159378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9918403625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0722827911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.128589630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8953104019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8470478057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4503593444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6112422943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5308017730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4905815124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3699188232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4101371765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9330101013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4156608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6569881439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5363235473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0938949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1743354797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6514663696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0134506225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7319049835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8927898406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7721271514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5710220336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9596633911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0079307556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8123474121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.053674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2145557403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1341152191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2547798156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8525695800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.455883026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6167640686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1798610687256</t>
-  </si>
-  <si>
     <t xml:space="preserve">18.5016288757324</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2200794219971</t>
+    <t xml:space="preserve">18.2200813293457</t>
   </si>
   <si>
     <t xml:space="preserve">18.6625118255615</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3060455322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.944055557251</t>
+    <t xml:space="preserve">19.3060474395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9440574645996</t>
   </si>
   <si>
     <t xml:space="preserve">19.5473709106445</t>
@@ -1652,13 +1652,13 @@
     <t xml:space="preserve">19.2256031036377</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7429504394531</t>
+    <t xml:space="preserve">18.7429523468018</t>
   </si>
   <si>
     <t xml:space="preserve">19.1451606750488</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4669303894043</t>
+    <t xml:space="preserve">19.4669284820557</t>
   </si>
   <si>
     <t xml:space="preserve">19.6278133392334</t>
@@ -1676,64 +1676,64 @@
     <t xml:space="preserve">18.9842777252197</t>
   </si>
   <si>
-    <t xml:space="preserve">18.823392868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7027320861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9038352966309</t>
+    <t xml:space="preserve">18.8233966827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7027339935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9038372039795</t>
   </si>
   <si>
     <t xml:space="preserve">19.1049404144287</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1853847503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7831726074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3407459259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5071487426758</t>
+    <t xml:space="preserve">19.1853828430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7831745147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3407440185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5071506500244</t>
   </si>
   <si>
     <t xml:space="preserve">19.0647201538086</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8636169433594</t>
+    <t xml:space="preserve">18.8636150360107</t>
   </si>
   <si>
     <t xml:space="preserve">18.5820693969727</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6222877502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2603015899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3005218505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7776489257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7374305725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.938533782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6861629486084</t>
+    <t xml:space="preserve">18.6222915649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2603034973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3005237579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7776508331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7374286651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9385318756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6861619949341</t>
   </si>
   <si>
     <t xml:space="preserve">15.3161315917969</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0612363815308</t>
+    <t xml:space="preserve">14.0612354278564</t>
   </si>
   <si>
     <t xml:space="preserve">14.4795341491699</t>
@@ -1742,19 +1742,19 @@
     <t xml:space="preserve">13.5142316818237</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6751165390015</t>
+    <t xml:space="preserve">13.6751136779785</t>
   </si>
   <si>
     <t xml:space="preserve">13.6268501281738</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0773248672485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.755558013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6590270996094</t>
+    <t xml:space="preserve">14.0773229598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7555570602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6590251922607</t>
   </si>
   <si>
     <t xml:space="preserve">13.4337911605835</t>
@@ -1766,22 +1766,22 @@
     <t xml:space="preserve">12.1949853897095</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9858369827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2618589401245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1814165115356</t>
+    <t xml:space="preserve">11.9858360290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2618598937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.18141746521</t>
   </si>
   <si>
     <t xml:space="preserve">10.698766708374</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2216386795044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5434074401855</t>
+    <t xml:space="preserve">11.2216396331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5434064865112</t>
   </si>
   <si>
     <t xml:space="preserve">12.227162361145</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">12.347825050354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0662784576416</t>
+    <t xml:space="preserve">12.0662775039673</t>
   </si>
   <si>
     <t xml:space="preserve">12.468487739563</t>
@@ -1802,22 +1802,22 @@
     <t xml:space="preserve">12.5087089538574</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2673826217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9053955078125</t>
+    <t xml:space="preserve">12.2673835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9053945541382</t>
   </si>
   <si>
     <t xml:space="preserve">12.1467208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">12.106499671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0260562896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.704291343689</t>
+    <t xml:space="preserve">12.1064987182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0260581970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7042894363403</t>
   </si>
   <si>
     <t xml:space="preserve">11.8249521255493</t>
@@ -1829,16 +1829,16 @@
     <t xml:space="preserve">11.3825225830078</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8998718261719</t>
+    <t xml:space="preserve">10.8998708724976</t>
   </si>
   <si>
     <t xml:space="preserve">10.9803133010864</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0607557296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6640701293945</t>
+    <t xml:space="preserve">11.060754776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6640682220459</t>
   </si>
   <si>
     <t xml:space="preserve">12.6695919036865</t>
@@ -1847,43 +1847,43 @@
     <t xml:space="preserve">12.8304758071899</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6001987457275</t>
+    <t xml:space="preserve">14.6001958847046</t>
   </si>
   <si>
     <t xml:space="preserve">14.6425151824951</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5578784942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3886013031006</t>
+    <t xml:space="preserve">14.5578775405884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3885984420776</t>
   </si>
   <si>
     <t xml:space="preserve">14.3462800979614</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7271556854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1503486633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8117933273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9230871200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0500440597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077247619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2616424560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4732389450073</t>
+    <t xml:space="preserve">14.7271547317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1503496170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8117923736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9230861663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0500450134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077238082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2616415023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.473237991333</t>
   </si>
   <si>
     <t xml:space="preserve">15.065710067749</t>
@@ -1892,13 +1892,13 @@
     <t xml:space="preserve">15.3196268081665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2349882125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8541135787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9387521743774</t>
+    <t xml:space="preserve">15.2349891662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8541116714478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9387512207031</t>
   </si>
   <si>
     <t xml:space="preserve">14.0923633575439</t>
@@ -1910,16 +1910,16 @@
     <t xml:space="preserve">14.1346845626831</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4309186935425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.769474029541</t>
+    <t xml:space="preserve">14.4309177398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7694759368896</t>
   </si>
   <si>
     <t xml:space="preserve">14.5155572891235</t>
   </si>
   <si>
-    <t xml:space="preserve">14.68483543396</t>
+    <t xml:space="preserve">14.6848363876343</t>
   </si>
   <si>
     <t xml:space="preserve">14.3039598464966</t>
@@ -1931,52 +1931,52 @@
     <t xml:space="preserve">13.7114896774292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6001977920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8384485244751</t>
+    <t xml:space="preserve">14.6001968383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8384475708008</t>
   </si>
   <si>
     <t xml:space="preserve">14.2193222045898</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5422124862671</t>
+    <t xml:space="preserve">13.5422115325928</t>
   </si>
   <si>
     <t xml:space="preserve">13.6268510818481</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7538089752197</t>
+    <t xml:space="preserve">13.7538080215454</t>
   </si>
   <si>
     <t xml:space="preserve">13.584529876709</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9497404098511</t>
+    <t xml:space="preserve">12.9497394561768</t>
   </si>
   <si>
     <t xml:space="preserve">13.3306140899658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2036561965942</t>
+    <t xml:space="preserve">13.2036552429199</t>
   </si>
   <si>
     <t xml:space="preserve">13.161337852478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4575729370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2459754943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4042654037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8274583816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9967374801636</t>
+    <t xml:space="preserve">13.4575719833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2459745407104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4042663574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8274602890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9967355728149</t>
   </si>
   <si>
     <t xml:space="preserve">16.673849105835</t>
@@ -1994,19 +1994,19 @@
     <t xml:space="preserve">16.166015625</t>
   </si>
   <si>
-    <t xml:space="preserve">15.869779586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9544191360474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9120979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3352928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7851400375366</t>
+    <t xml:space="preserve">15.8697786331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9544172286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9120960235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3352909088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7851409912109</t>
   </si>
   <si>
     <t xml:space="preserve">15.7428226470947</t>
@@ -2015,22 +2015,22 @@
     <t xml:space="preserve">16.0390567779541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9277648925781</t>
+    <t xml:space="preserve">16.9277629852295</t>
   </si>
   <si>
     <t xml:space="preserve">16.7584857940674</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4355983734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3666248321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7741527557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0280685424805</t>
+    <t xml:space="preserve">17.4355964660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3666229248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7741546630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0280666351318</t>
   </si>
   <si>
     <t xml:space="preserve">17.5202369689941</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">17.0970420837402</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2663173675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1816825866699</t>
+    <t xml:space="preserve">17.2663192749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1816806793213</t>
   </si>
   <si>
     <t xml:space="preserve">16.8431243896484</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">17.0124034881592</t>
   </si>
   <si>
-    <t xml:space="preserve">17.350959777832</t>
+    <t xml:space="preserve">17.3509578704834</t>
   </si>
   <si>
     <t xml:space="preserve">17.8587913513184</t>
@@ -2072,25 +2072,25 @@
     <t xml:space="preserve">18.7051792144775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6048736572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5359020233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7898178100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8744583129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0437355041504</t>
+    <t xml:space="preserve">17.6048755645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5359001159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7898197174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.874454498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0437335968018</t>
   </si>
   <si>
     <t xml:space="preserve">19.8901233673096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5515670776367</t>
+    <t xml:space="preserve">19.5515689849854</t>
   </si>
   <si>
     <t xml:space="preserve">19.3822898864746</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">19.8054847717285</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2976531982422</t>
+    <t xml:space="preserve">19.2976512908936</t>
   </si>
   <si>
     <t xml:space="preserve">19.6362075805664</t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">19.9747619628906</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0594024658203</t>
+    <t xml:space="preserve">20.0594005584717</t>
   </si>
   <si>
     <t xml:space="preserve">20.1440372467041</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7208442687988</t>
+    <t xml:space="preserve">19.7208461761475</t>
   </si>
   <si>
     <t xml:space="preserve">20.6518726348877</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">20.5639934539795</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2124729156494</t>
+    <t xml:space="preserve">20.2124710083008</t>
   </si>
   <si>
     <t xml:space="preserve">20.3882331848145</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">21.0912742614746</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9155139923096</t>
+    <t xml:space="preserve">20.9155120849609</t>
   </si>
   <si>
     <t xml:space="preserve">20.0367107391357</t>
@@ -2153,19 +2153,19 @@
     <t xml:space="preserve">19.333667755127</t>
   </si>
   <si>
-    <t xml:space="preserve">20.476110458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8276348114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1791553497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2670364379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4427967071533</t>
+    <t xml:space="preserve">20.4761123657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8276329040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1791534423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2670345306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4427947998047</t>
   </si>
   <si>
     <t xml:space="preserve">21.7064361572266</t>
@@ -2186,22 +2186,22 @@
     <t xml:space="preserve">22.8488807678223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2882843017578</t>
+    <t xml:space="preserve">23.2882804870605</t>
   </si>
   <si>
     <t xml:space="preserve">23.0246410369873</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4640445709229</t>
+    <t xml:space="preserve">23.4640426635742</t>
   </si>
   <si>
     <t xml:space="preserve">23.6398029327393</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9034461975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5186080932617</t>
+    <t xml:space="preserve">23.9034442901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5186061859131</t>
   </si>
   <si>
     <t xml:space="preserve">24.4307250976562</t>
@@ -2219,13 +2219,13 @@
     <t xml:space="preserve">24.6064872741699</t>
   </si>
   <si>
-    <t xml:space="preserve">23.991325378418</t>
+    <t xml:space="preserve">23.9913234710693</t>
   </si>
   <si>
     <t xml:space="preserve">24.0792045593262</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7610015869141</t>
+    <t xml:space="preserve">22.7609996795654</t>
   </si>
   <si>
     <t xml:space="preserve">23.7276821136475</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">26.1004524230957</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8368129730225</t>
+    <t xml:space="preserve">25.8368091583252</t>
   </si>
   <si>
     <t xml:space="preserve">25.1337699890137</t>
@@ -2249,25 +2249,25 @@
     <t xml:space="preserve">24.6943683624268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4852905273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3095302581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3974094390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0125732421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4519748687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2762107849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3640937805176</t>
+    <t xml:space="preserve">25.4852886199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3095264434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3974075317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0125713348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4519729614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2762126922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3640918731689</t>
   </si>
   <si>
     <t xml:space="preserve">26.7156143188477</t>
@@ -2276,16 +2276,16 @@
     <t xml:space="preserve">27.2428970336914</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4186573028564</t>
+    <t xml:space="preserve">27.4186553955078</t>
   </si>
   <si>
     <t xml:space="preserve">27.506534576416</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9126243591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6702289581299</t>
+    <t xml:space="preserve">28.9126224517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6702308654785</t>
   </si>
   <si>
     <t xml:space="preserve">30.4065856933594</t>
@@ -2294,13 +2294,13 @@
     <t xml:space="preserve">30.0550651550293</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2308292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3187084197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0005035400391</t>
+    <t xml:space="preserve">30.230827331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3187065124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0005016326904</t>
   </si>
   <si>
     <t xml:space="preserve">28.0338172912598</t>
@@ -2309,10 +2309,10 @@
     <t xml:space="preserve">29.5277843475342</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4732227325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4399013519287</t>
+    <t xml:space="preserve">28.4732208251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.439905166626</t>
   </si>
   <si>
     <t xml:space="preserve">28.7368621826172</t>
@@ -2327,43 +2327,43 @@
     <t xml:space="preserve">26.6277332305908</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9792537689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8034934997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3307762145996</t>
+    <t xml:space="preserve">26.9792556762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8034954071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3307781219482</t>
   </si>
   <si>
     <t xml:space="preserve">27.5944156646729</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7489318847656</t>
+    <t xml:space="preserve">25.748929977417</t>
   </si>
   <si>
     <t xml:space="preserve">27.1550159454346</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0671367645264</t>
+    <t xml:space="preserve">27.0671348571777</t>
   </si>
   <si>
     <t xml:space="preserve">26.8913745880127</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6822986602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.376163482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9580059051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8155651092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2216510772705</t>
+    <t xml:space="preserve">27.6822967529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3761615753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9580078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8155632019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2216491699219</t>
   </si>
   <si>
     <t xml:space="preserve">24.782247543335</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">24.3999366760254</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5743732452393</t>
+    <t xml:space="preserve">23.5743751525879</t>
   </si>
   <si>
     <t xml:space="preserve">24.1247482299805</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">26.1427879333496</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5006828308105</t>
+    <t xml:space="preserve">25.5006847381592</t>
   </si>
   <si>
     <t xml:space="preserve">25.2254981994629</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">24.2164764404297</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1157302856445</t>
+    <t xml:space="preserve">23.1157283782959</t>
   </si>
   <si>
     <t xml:space="preserve">23.299186706543</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">22.6570835113525</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5653553009033</t>
+    <t xml:space="preserve">22.5653533935547</t>
   </si>
   <si>
     <t xml:space="preserve">22.1984386444092</t>
@@ -2450,28 +2450,28 @@
     <t xml:space="preserve">21.9232501983643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9322700500488</t>
+    <t xml:space="preserve">22.9322719573975</t>
   </si>
   <si>
     <t xml:space="preserve">24.6751232147217</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0510578155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.592414855957</t>
+    <t xml:space="preserve">26.0510597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5924129486084</t>
   </si>
   <si>
     <t xml:space="preserve">23.8495616912842</t>
   </si>
   <si>
-    <t xml:space="preserve">23.757833480835</t>
+    <t xml:space="preserve">23.7578315734863</t>
   </si>
   <si>
     <t xml:space="preserve">25.0420398712158</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3082084655762</t>
+    <t xml:space="preserve">24.3082065582275</t>
   </si>
   <si>
     <t xml:space="preserve">24.4916667938232</t>
@@ -2492,13 +2492,13 @@
     <t xml:space="preserve">23.0240001678467</t>
   </si>
   <si>
-    <t xml:space="preserve">22.840539932251</t>
+    <t xml:space="preserve">22.8405418395996</t>
   </si>
   <si>
     <t xml:space="preserve">21.831521987915</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2901649475098</t>
+    <t xml:space="preserve">22.2901668548584</t>
   </si>
   <si>
     <t xml:space="preserve">21.4646053314209</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">26.5097045898438</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4179763793945</t>
+    <t xml:space="preserve">26.4179744720459</t>
   </si>
   <si>
     <t xml:space="preserve">26.6014347076416</t>
@@ -2534,13 +2534,13 @@
     <t xml:space="preserve">28.0690994262695</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2525577545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1608276367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5277442932129</t>
+    <t xml:space="preserve">28.252555847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1608295440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5277462005615</t>
   </si>
   <si>
     <t xml:space="preserve">28.6194744110107</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">28.3442859649658</t>
   </si>
   <si>
-    <t xml:space="preserve">27.702184677124</t>
+    <t xml:space="preserve">27.7021827697754</t>
   </si>
   <si>
     <t xml:space="preserve">27.7939109802246</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">27.8856410980225</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9773693084717</t>
+    <t xml:space="preserve">27.9773712158203</t>
   </si>
   <si>
     <t xml:space="preserve">28.4360160827637</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">27.060079574585</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4269943237305</t>
+    <t xml:space="preserve">27.4269962310791</t>
   </si>
   <si>
     <t xml:space="preserve">27.3352661132812</t>
@@ -2579,7 +2579,7 @@
     <t xml:space="preserve">26.7848930358887</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9683513641357</t>
+    <t xml:space="preserve">26.9683494567871</t>
   </si>
   <si>
     <t xml:space="preserve">27.1518096923828</t>
@@ -59526,7 +59526,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6495138889</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>7849</v>
@@ -59547,6 +59547,32 @@
         <v>1012</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.649375</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>4990</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>39.0499992370605</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>38.2999992370605</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>38.2999992370605</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>38.5499992370605</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CMB.MI.xlsx
+++ b/data/CMB.MI.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">CMB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91149139404297</t>
+    <t xml:space="preserve">9.91149234771729</t>
   </si>
   <si>
     <t xml:space="preserve">9.65968322753906</t>
@@ -59,31 +59,31 @@
     <t xml:space="preserve">9.79258251190186</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70864486694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47782135009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66667556762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61071968078613</t>
+    <t xml:space="preserve">9.70864582061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47782039642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66667747497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61072158813477</t>
   </si>
   <si>
     <t xml:space="preserve">9.68766307830811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61771392822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53377723693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54077339172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44284629821777</t>
+    <t xml:space="preserve">9.61771488189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53377819061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.540771484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44284820556641</t>
   </si>
   <si>
     <t xml:space="preserve">9.17005348205566</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">9.10010719299316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1770486831665</t>
+    <t xml:space="preserve">9.17704963684082</t>
   </si>
   <si>
     <t xml:space="preserve">8.67342948913574</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">8.63845634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93922901153564</t>
+    <t xml:space="preserve">8.93922805786133</t>
   </si>
   <si>
     <t xml:space="preserve">8.76436042785645</t>
@@ -110,13 +110,13 @@
     <t xml:space="preserve">8.74337673187256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95321846008301</t>
+    <t xml:space="preserve">8.95321750640869</t>
   </si>
   <si>
     <t xml:space="preserve">9.12808609008789</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56875228881836</t>
+    <t xml:space="preserve">9.56875133514404</t>
   </si>
   <si>
     <t xml:space="preserve">9.60372543334961</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">9.40787410736084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20502758026123</t>
+    <t xml:space="preserve">9.20502662658691</t>
   </si>
   <si>
     <t xml:space="preserve">9.30295276641846</t>
@@ -134,13 +134,13 @@
     <t xml:space="preserve">9.03715419769287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98819255828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22601127624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14207553863525</t>
+    <t xml:space="preserve">8.98819160461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2260103225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14207458496094</t>
   </si>
   <si>
     <t xml:space="preserve">9.3309326171875</t>
@@ -152,34 +152,34 @@
     <t xml:space="preserve">9.23300552368164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3099479675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52678298950195</t>
+    <t xml:space="preserve">9.30994701385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52678394317627</t>
   </si>
   <si>
     <t xml:space="preserve">9.51279449462891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47082614898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.694655418396</t>
+    <t xml:space="preserve">9.47082424163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69465827941895</t>
   </si>
   <si>
     <t xml:space="preserve">9.59673118591309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49880504608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42186450958252</t>
+    <t xml:space="preserve">9.49880599975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4218635559082</t>
   </si>
   <si>
     <t xml:space="preserve">9.50580024719238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31694316864014</t>
+    <t xml:space="preserve">9.31694221496582</t>
   </si>
   <si>
     <t xml:space="preserve">9.11409568786621</t>
@@ -194,55 +194,55 @@
     <t xml:space="preserve">9.37290000915527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.554762840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3798942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43585109710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54776859283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72962951660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63170528411865</t>
+    <t xml:space="preserve">9.55476093292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37989330291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43585300445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54776668548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72963047027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63170337677002</t>
   </si>
   <si>
     <t xml:space="preserve">9.56347179412842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57071113586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53451442718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70102310180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75893878936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8747730255127</t>
+    <t xml:space="preserve">9.57071018218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53451347351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70102500915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75893974304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87477207183838</t>
   </si>
   <si>
     <t xml:space="preserve">9.84581470489502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73722171783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3163871765137</t>
+    <t xml:space="preserve">9.73722076416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.316388130188</t>
   </si>
   <si>
     <t xml:space="preserve">10.1281576156616</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1353979110718</t>
+    <t xml:space="preserve">10.1353960037231</t>
   </si>
   <si>
     <t xml:space="preserve">10.0268049240112</t>
@@ -260,19 +260,19 @@
     <t xml:space="preserve">9.93268966674805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91097068786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83133602142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77341842651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74446201324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76617813110352</t>
+    <t xml:space="preserve">9.91097164154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83133506774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77341938018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74446105957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76617908477783</t>
   </si>
   <si>
     <t xml:space="preserve">9.69378471374512</t>
@@ -281,10 +281,10 @@
     <t xml:space="preserve">9.93992900848389</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98336601257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9906063079834</t>
+    <t xml:space="preserve">9.98336696624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99060726165771</t>
   </si>
   <si>
     <t xml:space="preserve">9.81685638427734</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">9.91821098327637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88925266265869</t>
+    <t xml:space="preserve">9.88925170898438</t>
   </si>
   <si>
     <t xml:space="preserve">9.46211814880371</t>
@@ -308,25 +308,25 @@
     <t xml:space="preserve">9.65034580230713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62862682342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54899215698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62138748168945</t>
+    <t xml:space="preserve">9.62862777709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54899120330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62138843536377</t>
   </si>
   <si>
     <t xml:space="preserve">9.70826244354248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63586711883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64310741424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66482639312744</t>
+    <t xml:space="preserve">9.63586807250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64310646057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66482543945312</t>
   </si>
   <si>
     <t xml:space="preserve">9.71550178527832</t>
@@ -335,25 +335,25 @@
     <t xml:space="preserve">9.82409572601318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88201332092285</t>
+    <t xml:space="preserve">9.88201141357422</t>
   </si>
   <si>
     <t xml:space="preserve">9.8602933883667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79513645172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85305404663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67930316925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67206573486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47659683227539</t>
+    <t xml:space="preserve">9.79513740539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85305309295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6793041229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67206478118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47659587860107</t>
   </si>
   <si>
     <t xml:space="preserve">9.48383617401123</t>
@@ -365,46 +365,46 @@
     <t xml:space="preserve">9.44763851165771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37524223327637</t>
+    <t xml:space="preserve">9.37524318695068</t>
   </si>
   <si>
     <t xml:space="preserve">9.25940895080566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34628391265869</t>
+    <t xml:space="preserve">9.34628486633301</t>
   </si>
   <si>
     <t xml:space="preserve">9.4114408493042</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31008625030518</t>
+    <t xml:space="preserve">9.31008529663086</t>
   </si>
   <si>
     <t xml:space="preserve">9.19425296783447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17977428436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26664924621582</t>
+    <t xml:space="preserve">9.17977523803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2666482925415</t>
   </si>
   <si>
     <t xml:space="preserve">9.25217056274414</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28836917877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30284786224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33904361724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2449312210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20873165130615</t>
+    <t xml:space="preserve">9.28836822509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30284690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33904457092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24493026733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20873355865479</t>
   </si>
   <si>
     <t xml:space="preserve">9.13633728027344</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">8.8829517364502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14357757568359</t>
+    <t xml:space="preserve">9.14357566833496</t>
   </si>
   <si>
     <t xml:space="preserve">9.1652946472168</t>
@@ -434,10 +434,10 @@
     <t xml:space="preserve">9.2956075668335</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4259204864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38248252868652</t>
+    <t xml:space="preserve">9.42591953277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38248062133789</t>
   </si>
   <si>
     <t xml:space="preserve">9.43315887451172</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">10.0195646286011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0050830841064</t>
+    <t xml:space="preserve">10.0050849914551</t>
   </si>
   <si>
     <t xml:space="preserve">10.0630016326904</t>
@@ -458,16 +458,16 @@
     <t xml:space="preserve">10.2946681976318</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3525857925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4249792098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8014373779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5697717666626</t>
+    <t xml:space="preserve">10.3525838851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4249801635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.801438331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5697727203369</t>
   </si>
   <si>
     <t xml:space="preserve">10.6276893615723</t>
@@ -479,28 +479,28 @@
     <t xml:space="preserve">10.5118551254272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6494064331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7797193527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9317493438721</t>
+    <t xml:space="preserve">10.6494073867798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7797183990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9317502975464</t>
   </si>
   <si>
     <t xml:space="preserve">10.9824275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8738346099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0258646011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7435207366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3598251342773</t>
+    <t xml:space="preserve">10.873833656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0258655548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7435216903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.359824180603</t>
   </si>
   <si>
     <t xml:space="preserve">10.3236265182495</t>
@@ -509,13 +509,13 @@
     <t xml:space="preserve">10.4756574630737</t>
   </si>
   <si>
-    <t xml:space="preserve">10.859354019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7724800109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9389896392822</t>
+    <t xml:space="preserve">10.8593559265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.772479057312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9389886856079</t>
   </si>
   <si>
     <t xml:space="preserve">10.7290420532227</t>
@@ -524,37 +524,37 @@
     <t xml:space="preserve">10.8665943145752</t>
   </si>
   <si>
-    <t xml:space="preserve">10.786958694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8231563568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7580003738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7507600784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7218027114868</t>
+    <t xml:space="preserve">10.7869577407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8231544494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.757999420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7507591247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7218036651611</t>
   </si>
   <si>
     <t xml:space="preserve">10.6638851165771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7652416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0041465759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9462299346924</t>
+    <t xml:space="preserve">10.7652397155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0041456222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9462289810181</t>
   </si>
   <si>
     <t xml:space="preserve">11.0910205841064</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5036764144897</t>
+    <t xml:space="preserve">11.5036773681641</t>
   </si>
   <si>
     <t xml:space="preserve">11.4529991149902</t>
@@ -563,16 +563,16 @@
     <t xml:space="preserve">11.4457597732544</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4747171401978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4964351654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7787799835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9452896118164</t>
+    <t xml:space="preserve">11.4747200012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4964380264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7787809371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9452905654907</t>
   </si>
   <si>
     <t xml:space="preserve">12.5389347076416</t>
@@ -581,40 +581,40 @@
     <t xml:space="preserve">12.4448213577271</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5172166824341</t>
+    <t xml:space="preserve">12.5172176361084</t>
   </si>
   <si>
     <t xml:space="preserve">12.5534133911133</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7416410446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.299090385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4583616256714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4728403091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7407026290894</t>
+    <t xml:space="preserve">12.741641998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2990884780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4583606719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4728393554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.740701675415</t>
   </si>
   <si>
     <t xml:space="preserve">13.5959119796753</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6103897094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3714847564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3932046890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3208084106445</t>
+    <t xml:space="preserve">13.610390663147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3714838027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3932056427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3208074569702</t>
   </si>
   <si>
     <t xml:space="preserve">13.4438810348511</t>
@@ -623,82 +623,82 @@
     <t xml:space="preserve">13.6827850341797</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8927335739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4139814376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5008554458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4501800537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5442953109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.55153465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6601276397705</t>
+    <t xml:space="preserve">13.8927345275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4139833450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5008611679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4501810073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5442962646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5515336990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6601295471191</t>
   </si>
   <si>
     <t xml:space="preserve">14.5949726104736</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5225772857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7390537261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8515672683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6715459823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6040391921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.514030456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1764936447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8890705108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1914958953857</t>
+    <t xml:space="preserve">14.5225763320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7390546798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8515663146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6715469360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.604040145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5140295028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1764945983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8890686035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1914968490601</t>
   </si>
   <si>
     <t xml:space="preserve">14.5215320587158</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5065279006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7990598678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8815698623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8740682601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8065605163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9640779495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1065921783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9016771316528</t>
+    <t xml:space="preserve">14.5065298080444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7990627288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.88157081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8740692138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8065595626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9640769958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1065940856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9016780853271</t>
   </si>
   <si>
     <t xml:space="preserve">16.434232711792</t>
@@ -707,16 +707,16 @@
     <t xml:space="preserve">16.3442230224609</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9316825866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7516641616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4741306304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1740999221802</t>
+    <t xml:space="preserve">15.931679725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7516593933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4741296768188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1741008758545</t>
   </si>
   <si>
     <t xml:space="preserve">16.1417045593262</t>
@@ -725,19 +725,19 @@
     <t xml:space="preserve">15.8791751861572</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4816312789917</t>
+    <t xml:space="preserve">15.481632232666</t>
   </si>
   <si>
     <t xml:space="preserve">15.631649017334</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1267013549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0291919708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8341703414917</t>
+    <t xml:space="preserve">16.1267032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0291938781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8341722488403</t>
   </si>
   <si>
     <t xml:space="preserve">15.7366609573364</t>
@@ -749,22 +749,22 @@
     <t xml:space="preserve">15.6991567611694</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6766557693481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5416383743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7141580581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5866451263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7741632461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2467136383057</t>
+    <t xml:space="preserve">15.6766538619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5416374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7141571044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5866460800171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7741651535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.246711730957</t>
   </si>
   <si>
     <t xml:space="preserve">16.2767162322998</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">16.5242443084717</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6367568969727</t>
+    <t xml:space="preserve">16.6367588043213</t>
   </si>
   <si>
     <t xml:space="preserve">16.5392436981201</t>
@@ -785,79 +785,79 @@
     <t xml:space="preserve">16.2242126464844</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8491716384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8566722869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8266706466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8941764831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041648864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.721658706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6166467666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7441635131836</t>
+    <t xml:space="preserve">15.8491697311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.856671333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8266677856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.89417552948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041667938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7216596603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6166458129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7441596984863</t>
   </si>
   <si>
     <t xml:space="preserve">15.8116674423218</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4516315460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4216260910034</t>
+    <t xml:space="preserve">15.4516305923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4216270446777</t>
   </si>
   <si>
     <t xml:space="preserve">15.3766212463379</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5191373825073</t>
+    <t xml:space="preserve">15.5191383361816</t>
   </si>
   <si>
     <t xml:space="preserve">15.5266370773315</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2266035079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3016138076782</t>
+    <t xml:space="preserve">15.2266044616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3016147613525</t>
   </si>
   <si>
     <t xml:space="preserve">15.2416076660156</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4441289901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0315837860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.406623840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1966028213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1515998840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3991222381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.759162902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9091787338257</t>
+    <t xml:space="preserve">15.444128036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.031587600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4066257476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1966037750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1515989303589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3991241455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.759165763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9091768264771</t>
   </si>
   <si>
     <t xml:space="preserve">16.0066890716553</t>
@@ -869,37 +869,37 @@
     <t xml:space="preserve">17.6268577575684</t>
   </si>
   <si>
-    <t xml:space="preserve">18.226921081543</t>
+    <t xml:space="preserve">18.2269229888916</t>
   </si>
   <si>
     <t xml:space="preserve">19.382043838501</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0820121765137</t>
+    <t xml:space="preserve">19.0820140838623</t>
   </si>
   <si>
     <t xml:space="preserve">19.1270179748535</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8944911956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7519798278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8644924163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6394672393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6769714355469</t>
+    <t xml:space="preserve">18.8944931030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7519779205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8644886016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6394653320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6769695281982</t>
   </si>
   <si>
     <t xml:space="preserve">18.5194530487061</t>
   </si>
   <si>
-    <t xml:space="preserve">18.631965637207</t>
+    <t xml:space="preserve">18.6319637298584</t>
   </si>
   <si>
     <t xml:space="preserve">18.2944278717041</t>
@@ -911,16 +911,16 @@
     <t xml:space="preserve">18.2569236755371</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2419242858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1894149780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.151912689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0319004058838</t>
+    <t xml:space="preserve">18.24192237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1894207000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1519165039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0319023132324</t>
   </si>
   <si>
     <t xml:space="preserve">17.9643955230713</t>
@@ -929,34 +929,34 @@
     <t xml:space="preserve">17.9268894195557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6793651580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.904390335083</t>
+    <t xml:space="preserve">17.6793632507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9043884277344</t>
   </si>
   <si>
     <t xml:space="preserve">17.7318687438965</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9718952178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0018997192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0469036102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0244007110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9343910217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9868965148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8068771362305</t>
+    <t xml:space="preserve">17.9718971252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0018978118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0469017028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0243988037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9343948364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9868946075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8068790435791</t>
   </si>
   <si>
     <t xml:space="preserve">17.2068138122559</t>
@@ -965,37 +965,37 @@
     <t xml:space="preserve">17.2443180084229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5518493652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.951789855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2917175292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7117614746094</t>
+    <t xml:space="preserve">17.5518531799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9517879486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2917194366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.711763381958</t>
   </si>
   <si>
     <t xml:space="preserve">16.5092430114746</t>
   </si>
   <si>
-    <t xml:space="preserve">16.23171043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0868034362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9067859649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1918106079102</t>
+    <t xml:space="preserve">16.2317085266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0868015289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9067840576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1918144226074</t>
   </si>
   <si>
     <t xml:space="preserve">17.124303817749</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1768131256104</t>
+    <t xml:space="preserve">17.1768112182617</t>
   </si>
   <si>
     <t xml:space="preserve">16.6667575836182</t>
@@ -1004,49 +1004,49 @@
     <t xml:space="preserve">17.1393070220947</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0192947387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8092746734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4642372131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8467769622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0567970275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8017711639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4192314147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4492378234863</t>
+    <t xml:space="preserve">17.0192966461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8092727661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4642391204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8467788696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0567989349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8017692565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4192295074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4492340087891</t>
   </si>
   <si>
     <t xml:space="preserve">16.4417343139648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2092113494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0441951751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0366916656494</t>
+    <t xml:space="preserve">16.2092094421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0441932678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0366897583008</t>
   </si>
   <si>
     <t xml:space="preserve">16.2017097473145</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5917510986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8392772674561</t>
+    <t xml:space="preserve">16.5917491912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8392753601074</t>
   </si>
   <si>
     <t xml:space="preserve">16.7642669677734</t>
@@ -1055,10 +1055,10 @@
     <t xml:space="preserve">16.8767795562744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4018363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2518215179443</t>
+    <t xml:space="preserve">17.4018383026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2518196105957</t>
   </si>
   <si>
     <t xml:space="preserve">17.0643005371094</t>
@@ -1070,25 +1070,25 @@
     <t xml:space="preserve">17.2143173217773</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3268260955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4768447875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6643619537354</t>
+    <t xml:space="preserve">17.3268299102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.476842880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6643600463867</t>
   </si>
   <si>
     <t xml:space="preserve">17.8518829345703</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0769062042236</t>
+    <t xml:space="preserve">18.0769081115723</t>
   </si>
   <si>
     <t xml:space="preserve">17.58935546875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9892921447754</t>
+    <t xml:space="preserve">16.989294052124</t>
   </si>
   <si>
     <t xml:space="preserve">16.5767478942871</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">16.5017414093018</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3142223358154</t>
+    <t xml:space="preserve">16.3142204284668</t>
   </si>
   <si>
     <t xml:space="preserve">15.9391803741455</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">16.0516929626465</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3892269134521</t>
+    <t xml:space="preserve">16.3892307281494</t>
   </si>
   <si>
     <t xml:space="preserve">17.2893238067627</t>
@@ -1121,16 +1121,16 @@
     <t xml:space="preserve">17.7393703460693</t>
   </si>
   <si>
-    <t xml:space="preserve">17.439338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.701868057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5143489837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4894485473633</t>
+    <t xml:space="preserve">17.4393405914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7018661499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5143508911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4894504547119</t>
   </si>
   <si>
     <t xml:space="preserve">18.3394355773926</t>
@@ -1139,31 +1139,31 @@
     <t xml:space="preserve">18.0394020080566</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8893871307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4144401550293</t>
+    <t xml:space="preserve">17.8893852233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4144439697266</t>
   </si>
   <si>
     <t xml:space="preserve">18.5644588470459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2770347595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3520393371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7270812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2686100006104</t>
+    <t xml:space="preserve">19.2770366668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3520412445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7270793914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2686080932617</t>
   </si>
   <si>
     <t xml:space="preserve">19.9591636657715</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6554145812988</t>
+    <t xml:space="preserve">20.6554164886475</t>
   </si>
   <si>
     <t xml:space="preserve">21.1969432830811</t>
@@ -1178,25 +1178,25 @@
     <t xml:space="preserve">20.3459701538086</t>
   </si>
   <si>
-    <t xml:space="preserve">19.804443359375</t>
+    <t xml:space="preserve">19.8044414520264</t>
   </si>
   <si>
     <t xml:space="preserve">19.5723571777344</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6497192382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4949989318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5666675567627</t>
+    <t xml:space="preserve">19.6497211456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4949970245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5666637420654</t>
   </si>
   <si>
     <t xml:space="preserve">17.9477767944336</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4506244659424</t>
+    <t xml:space="preserve">18.4506206512451</t>
   </si>
   <si>
     <t xml:space="preserve">19.5336780548096</t>
@@ -1205,52 +1205,52 @@
     <t xml:space="preserve">19.8818054199219</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1138877868652</t>
+    <t xml:space="preserve">20.1138858795166</t>
   </si>
   <si>
     <t xml:space="preserve">20.2299289703369</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5393695831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6167316436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4233283996582</t>
+    <t xml:space="preserve">20.5393733978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.616735458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4233322143555</t>
   </si>
   <si>
     <t xml:space="preserve">20.0365257263184</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1081924438477</t>
+    <t xml:space="preserve">19.108190536499</t>
   </si>
   <si>
     <t xml:space="preserve">19.8431243896484</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0752048492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4620132446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4176387786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6110401153564</t>
+    <t xml:space="preserve">20.0752067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4620113372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4176368713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6110382080078</t>
   </si>
   <si>
     <t xml:space="preserve">19.340274810791</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2629146575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2242317199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6440238952637</t>
+    <t xml:space="preserve">19.2629165649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2242336273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6440258026123</t>
   </si>
   <si>
     <t xml:space="preserve">18.7987480163574</t>
@@ -1265,19 +1265,19 @@
     <t xml:space="preserve">19.3015975952148</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0308322906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3789577484131</t>
+    <t xml:space="preserve">19.0308284759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3789558410645</t>
   </si>
   <si>
     <t xml:space="preserve">18.992151260376</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1855525970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9978466033936</t>
+    <t xml:space="preserve">19.1855545043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9978446960449</t>
   </si>
   <si>
     <t xml:space="preserve">19.7657623291016</t>
@@ -1286,46 +1286,46 @@
     <t xml:space="preserve">18.8374290466309</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6827049255371</t>
+    <t xml:space="preserve">18.6827068328857</t>
   </si>
   <si>
     <t xml:space="preserve">19.0695114135742</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7930526733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7873611450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1684703826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7043046951294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5108995437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6326370239258</t>
+    <t xml:space="preserve">17.7930545806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7873573303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1684722900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7043037414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5109004974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6326389312744</t>
   </si>
   <si>
     <t xml:space="preserve">17.1354846954346</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2458343505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6656227111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.54958152771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5882616043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3174982070923</t>
+    <t xml:space="preserve">16.2458324432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.665623664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5495805740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5882625579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3174991607666</t>
   </si>
   <si>
     <t xml:space="preserve">14.8997478485107</t>
@@ -1334,49 +1334,49 @@
     <t xml:space="preserve">15.0544681549072</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1627759933472</t>
+    <t xml:space="preserve">15.1627769470215</t>
   </si>
   <si>
     <t xml:space="preserve">15.4412755966187</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8203477859497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8647174835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5165939331055</t>
+    <t xml:space="preserve">15.8203449249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8647193908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5165958404541</t>
   </si>
   <si>
     <t xml:space="preserve">16.361873626709</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2845115661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1297912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2071533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0911102294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590250015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.781665802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7429857254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4392337799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4005508422852</t>
+    <t xml:space="preserve">16.2845096588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.129789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2071514129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0911083221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590269088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7816667556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7429838180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4392356872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4005546569824</t>
   </si>
   <si>
     <t xml:space="preserve">16.6713180541992</t>
@@ -1385,73 +1385,73 @@
     <t xml:space="preserve">16.4779148101807</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9750661849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4567451477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2556085586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0137500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7099990844727</t>
+    <t xml:space="preserve">15.9750671386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.456748008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2556076049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0137481689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.709997177124</t>
   </si>
   <si>
     <t xml:space="preserve">16.5552768707275</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1741676330566</t>
+    <t xml:space="preserve">17.174165725708</t>
   </si>
   <si>
     <t xml:space="preserve">16.9807624816895</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0968055725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4062480926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5222911834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3231925964355</t>
+    <t xml:space="preserve">17.0968036651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.40625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5222930908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3231906890869</t>
   </si>
   <si>
     <t xml:space="preserve">15.9363870620728</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3948583602905</t>
+    <t xml:space="preserve">15.3948593139648</t>
   </si>
   <si>
     <t xml:space="preserve">15.4103317260742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6269445419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4258031845093</t>
+    <t xml:space="preserve">15.6269435882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4258050918579</t>
   </si>
   <si>
     <t xml:space="preserve">15.4722204208374</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0194435119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8260383605957</t>
+    <t xml:space="preserve">17.0194454193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8260402679443</t>
   </si>
   <si>
     <t xml:space="preserve">16.9034004211426</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2902069091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3288841247559</t>
+    <t xml:space="preserve">17.2902050018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3288860321045</t>
   </si>
   <si>
     <t xml:space="preserve">17.3675670623779</t>
@@ -1460,37 +1460,37 @@
     <t xml:space="preserve">17.2515239715576</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5609722137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4836101531982</t>
+    <t xml:space="preserve">17.5609703063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4836082458496</t>
   </si>
   <si>
     <t xml:space="preserve">17.6383323669434</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0251388549805</t>
+    <t xml:space="preserve">18.0251350402832</t>
   </si>
   <si>
     <t xml:space="preserve">17.8704147338867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1798572540283</t>
+    <t xml:space="preserve">18.179859161377</t>
   </si>
   <si>
     <t xml:space="preserve">19.0244998931885</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3809642791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2950000762939</t>
+    <t xml:space="preserve">18.3809623718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2950019836426</t>
   </si>
   <si>
     <t xml:space="preserve">17.3754405975342</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9732322692871</t>
+    <t xml:space="preserve">16.9732303619385</t>
   </si>
   <si>
     <t xml:space="preserve">16.691686630249</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">16.2090339660645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6057205200195</t>
+    <t xml:space="preserve">15.6057186126709</t>
   </si>
   <si>
     <t xml:space="preserve">15.8309574127197</t>
   </si>
   <si>
-    <t xml:space="preserve">16.289478302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1688137054443</t>
+    <t xml:space="preserve">16.2894763946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1688117980957</t>
   </si>
   <si>
     <t xml:space="preserve">16.0883712768555</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">16.3296966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8631343841553</t>
+    <t xml:space="preserve">15.8631324768066</t>
   </si>
   <si>
     <t xml:space="preserve">15.573543548584</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">15.7505159378052</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9918384552002</t>
+    <t xml:space="preserve">15.9918403625488</t>
   </si>
   <si>
     <t xml:space="preserve">16.0722827911377</t>
@@ -1541,28 +1541,28 @@
     <t xml:space="preserve">15.8953113555908</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8470458984375</t>
+    <t xml:space="preserve">15.8470478057861</t>
   </si>
   <si>
     <t xml:space="preserve">16.4503593444824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6112442016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5308017730713</t>
+    <t xml:space="preserve">16.6112422943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5307998657227</t>
   </si>
   <si>
     <t xml:space="preserve">16.4905815124512</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3699188232422</t>
+    <t xml:space="preserve">16.3699169158936</t>
   </si>
   <si>
     <t xml:space="preserve">16.4101409912109</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9330101013184</t>
+    <t xml:space="preserve">16.9330081939697</t>
   </si>
   <si>
     <t xml:space="preserve">17.4156608581543</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">17.0938949584961</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1743354797363</t>
+    <t xml:space="preserve">17.174337387085</t>
   </si>
   <si>
     <t xml:space="preserve">16.6514644622803</t>
@@ -1586,10 +1586,10 @@
     <t xml:space="preserve">17.0134525299072</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7319068908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8927917480469</t>
+    <t xml:space="preserve">16.7319049835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8927898406982</t>
   </si>
   <si>
     <t xml:space="preserve">16.7721271514893</t>
@@ -1607,43 +1607,40 @@
     <t xml:space="preserve">16.812349319458</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0536727905273</t>
+    <t xml:space="preserve">17.053674697876</t>
   </si>
   <si>
     <t xml:space="preserve">17.2145576477051</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1341133117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2547779083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8525714874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.455883026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6167659759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.179859161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5016288757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2200813293457</t>
+    <t xml:space="preserve">17.1341152191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2547798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8525695800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4558811187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6167678833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5016269683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2200832366943</t>
   </si>
   <si>
     <t xml:space="preserve">18.6625118255615</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3060474395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9440574645996</t>
+    <t xml:space="preserve">19.3060455322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.944055557251</t>
   </si>
   <si>
     <t xml:space="preserve">19.5473709106445</t>
@@ -1652,469 +1649,472 @@
     <t xml:space="preserve">19.2256031036377</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7429523468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1451606750488</t>
+    <t xml:space="preserve">18.7429504394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1451625823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4669303894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.627815246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8691368103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7082557678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7484760284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9842777252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8233947753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7027320861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9038372039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1049423217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1853809356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7831745147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3407440185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5071506500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0647201538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8636150360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5820693969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6222896575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2603015899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3005237579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7776508331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7374305725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9385318756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6861600875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3161306381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0612363815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4795351028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5142316818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6751146316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6268501281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0773239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7555570602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6590251922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4337911605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0315818786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1949853897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9858360290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2618598937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1814184188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.698766708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2216386795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5434074401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.227162361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7098140716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.347825050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0662784576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.468487739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5087089538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2673826217651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9053955078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1467208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.106499671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0260581970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7042894363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8249530792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1869411468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3825225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8998718261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9803142547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.060754776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6640691757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6695928573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8304767608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6001958847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6425161361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5578775405884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.388599395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3462810516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7271547317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1503496170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8117933273315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9230861663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0500450134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077238082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2616415023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.473237991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.065710067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3196277618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2349901199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8541126251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9387512207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0923633575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9654064178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346845626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4309186935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.769476890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5155572891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6848373413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3039598464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8807668685913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7114906311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6001977920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8384475708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2193222045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5422115325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6268510818481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7538080215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.584529876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9497394561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3306150436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2036561965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.161337852478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4575719833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2459754943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4042654037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8274583816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9967374801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6738510131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5045700073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0813770294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2506561279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1660175323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8697776794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9544172286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9120960235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3352909088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7851409912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7428226470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0390586853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9277629852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.758487701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4355964660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3666229248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7741527557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0280685424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5202369689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8008060455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0970420837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.266321182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1816806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8431243896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0124034881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3509578704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8587913513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1127090454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1973476409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6205425262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7051811218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6048755645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5359020233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7898197174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.874454498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0437335968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8901233673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5515689849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3822898864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8054847717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2976512908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6362075805664</t>
   </si>
   <si>
     <t xml:space="preserve">19.4669284820557</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6278133392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8691387176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7082557678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7484760284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9842777252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8233966827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7027339935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9038372039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1049404144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1853828430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7831745147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3407440185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5071506500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0647201538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8636150360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5820693969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6222915649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2603034973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3005237579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7776508331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7374286651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9385318756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6861619949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3161315917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0612354278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4795341491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5142316818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6751136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6268501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0773229598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7555570602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6590251922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4337911605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0315809249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1949853897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9858360290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2618598937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.18141746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.698766708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2216396331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5434064865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.227162361145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.709813117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.347825050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0662775039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.468487739563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5087089538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2673835754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9053945541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1467208862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1064987182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0260581970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7042894363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8249521255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1869411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3825225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8998708724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9803133010864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.060754776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6640682220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6695919036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8304758071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6001958847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6425151824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5578775405884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3885984420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3462800979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7271547317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1503496170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8117923736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9230861663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0500450134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077238082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2616415023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.473237991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.065710067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3196268081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2349891662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8541116714478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9387512207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0923633575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9654054641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346845626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4309177398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7694759368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5155572891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6848363876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3039598464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8807668685913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7114896774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6001968383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8384475708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2193222045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5422115325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6268510818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7538080215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.584529876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9497394561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3306140899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2036552429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.161337852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4575719833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2459745407104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4042663574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8274602890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9967355728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.673849105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5045700073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0813751220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2506542205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.166015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8697786331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9544172286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9120960235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3352909088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7851409912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7428226470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0390567779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9277629852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7584857940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4355964660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3666229248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7741546630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0280666351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5202369689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8008060455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0970420837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2663192749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1816806793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8431243896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0124034881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3509578704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8587913513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1127071380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1973457336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6205406188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7051792144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6048755645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5359001159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7898197174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.874454498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0437335968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8901233673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5515689849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3822898864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8054847717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2976512908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6362075805664</t>
-  </si>
-  <si>
     <t xml:space="preserve">19.9747619628906</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0594005584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1440372467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7208461761475</t>
+    <t xml:space="preserve">20.0594024658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1440391540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7208442687988</t>
   </si>
   <si>
     <t xml:space="preserve">20.6518726348877</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">21.0912742614746</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9155120849609</t>
+    <t xml:space="preserve">20.9155139923096</t>
   </si>
   <si>
     <t xml:space="preserve">20.0367107391357</t>
@@ -2150,28 +2150,28 @@
     <t xml:space="preserve">19.7730693817139</t>
   </si>
   <si>
-    <t xml:space="preserve">19.333667755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4761123657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8276329040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1791534423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2670345306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4427947998047</t>
+    <t xml:space="preserve">19.3336696624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.476110458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8276348114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1791553497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2670364379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4427967071533</t>
   </si>
   <si>
     <t xml:space="preserve">21.7064361572266</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9700775146484</t>
+    <t xml:space="preserve">21.9700794219971</t>
   </si>
   <si>
     <t xml:space="preserve">21.5306758880615</t>
@@ -2186,25 +2186,25 @@
     <t xml:space="preserve">22.8488807678223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2882804870605</t>
+    <t xml:space="preserve">23.2882823944092</t>
   </si>
   <si>
     <t xml:space="preserve">23.0246410369873</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4640426635742</t>
+    <t xml:space="preserve">23.4640445709229</t>
   </si>
   <si>
     <t xml:space="preserve">23.6398029327393</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9034442901611</t>
+    <t xml:space="preserve">23.9034461975098</t>
   </si>
   <si>
     <t xml:space="preserve">24.5186061859131</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4307250976562</t>
+    <t xml:space="preserve">24.4307270050049</t>
   </si>
   <si>
     <t xml:space="preserve">24.167085647583</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">24.6064872741699</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9913234710693</t>
+    <t xml:space="preserve">23.991325378418</t>
   </si>
   <si>
     <t xml:space="preserve">24.0792045593262</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">26.1004524230957</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8368091583252</t>
+    <t xml:space="preserve">25.8368110656738</t>
   </si>
   <si>
     <t xml:space="preserve">25.1337699890137</t>
@@ -2249,25 +2249,25 @@
     <t xml:space="preserve">24.6943683624268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4852886199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3095264434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3974075317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0125713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4519729614258</t>
+    <t xml:space="preserve">25.4852905273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3095283508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3974094390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0125732421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4519748687744</t>
   </si>
   <si>
     <t xml:space="preserve">26.2762126922607</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3640918731689</t>
+    <t xml:space="preserve">26.3640937805176</t>
   </si>
   <si>
     <t xml:space="preserve">26.7156143188477</t>
@@ -2276,19 +2276,19 @@
     <t xml:space="preserve">27.2428970336914</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4186553955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.506534576416</t>
+    <t xml:space="preserve">27.4186573028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5065364837646</t>
   </si>
   <si>
     <t xml:space="preserve">28.9126224517822</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6702308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4065856933594</t>
+    <t xml:space="preserve">30.6702327728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.406587600708</t>
   </si>
   <si>
     <t xml:space="preserve">30.0550651550293</t>
@@ -2297,19 +2297,19 @@
     <t xml:space="preserve">30.230827331543</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3187065124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0005016326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0338172912598</t>
+    <t xml:space="preserve">30.3187084197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0005035400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0338191986084</t>
   </si>
   <si>
     <t xml:space="preserve">29.5277843475342</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4732208251953</t>
+    <t xml:space="preserve">28.4732227325439</t>
   </si>
   <si>
     <t xml:space="preserve">29.439905166626</t>
@@ -2339,7 +2339,7 @@
     <t xml:space="preserve">27.5944156646729</t>
   </si>
   <si>
-    <t xml:space="preserve">25.748929977417</t>
+    <t xml:space="preserve">25.7489318847656</t>
   </si>
   <si>
     <t xml:space="preserve">27.1550159454346</t>
@@ -2351,19 +2351,19 @@
     <t xml:space="preserve">26.8913745880127</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6822967529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3761615753174</t>
+    <t xml:space="preserve">27.6822986602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.376163482666</t>
   </si>
   <si>
     <t xml:space="preserve">24.9580078125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8155632019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2216491699219</t>
+    <t xml:space="preserve">23.8155651092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2216510772705</t>
   </si>
   <si>
     <t xml:space="preserve">24.782247543335</t>
@@ -28864,7 +28864,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G980" t="s">
-        <v>538</v>
+        <v>487</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28890,7 +28890,7 @@
         <v>23</v>
       </c>
       <c r="G981" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28916,7 +28916,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G982" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28942,7 +28942,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G983" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28968,7 +28968,7 @@
         <v>24</v>
       </c>
       <c r="G984" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -29020,7 +29020,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G986" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29046,7 +29046,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -29072,7 +29072,7 @@
         <v>24</v>
       </c>
       <c r="G988" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -29098,7 +29098,7 @@
         <v>24</v>
       </c>
       <c r="G989" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -29124,7 +29124,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G990" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -29150,7 +29150,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G991" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -29176,7 +29176,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -29202,7 +29202,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G993" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -29228,7 +29228,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -29254,7 +29254,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G995" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -29280,7 +29280,7 @@
         <v>24.5</v>
       </c>
       <c r="G996" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29306,7 +29306,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G997" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29332,7 +29332,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G998" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29358,7 +29358,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29384,7 +29384,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29410,7 +29410,7 @@
         <v>23.25</v>
       </c>
       <c r="G1001" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29436,7 +29436,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1002" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29462,7 +29462,7 @@
         <v>23.5</v>
       </c>
       <c r="G1003" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29514,7 +29514,7 @@
         <v>23.75</v>
       </c>
       <c r="G1005" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29540,7 +29540,7 @@
         <v>23.75</v>
       </c>
       <c r="G1006" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29566,7 +29566,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1007" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29592,7 +29592,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29618,7 +29618,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1009" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29644,7 +29644,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29670,7 +29670,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1011" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29722,7 +29722,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1013" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29748,7 +29748,7 @@
         <v>24.25</v>
       </c>
       <c r="G1014" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29774,7 +29774,7 @@
         <v>24</v>
       </c>
       <c r="G1015" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29800,7 +29800,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1016" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29826,7 +29826,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1017" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29852,7 +29852,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1018" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29878,7 +29878,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1019" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29904,7 +29904,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29930,7 +29930,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1021" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29956,7 +29956,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1022" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29982,7 +29982,7 @@
         <v>23.5</v>
       </c>
       <c r="G1023" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30008,7 +30008,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1024" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -30034,7 +30034,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30060,7 +30060,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1026" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -30086,7 +30086,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1027" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -30112,7 +30112,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1028" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -30138,7 +30138,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1029" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -30164,7 +30164,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1030" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -30190,7 +30190,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1031" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -30216,7 +30216,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1032" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -30242,7 +30242,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1033" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -30268,7 +30268,7 @@
         <v>22.75</v>
       </c>
       <c r="G1034" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30294,7 +30294,7 @@
         <v>23.25</v>
       </c>
       <c r="G1035" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30320,7 +30320,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1036" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30346,7 +30346,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1037" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30372,7 +30372,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30398,7 +30398,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1039" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30424,7 +30424,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1040" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30450,7 +30450,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30476,7 +30476,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1042" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30502,7 +30502,7 @@
         <v>23.75</v>
       </c>
       <c r="G1043" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30528,7 +30528,7 @@
         <v>23.75</v>
       </c>
       <c r="G1044" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30554,7 +30554,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1045" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30580,7 +30580,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1046" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30606,7 +30606,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1047" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30632,7 +30632,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30658,7 +30658,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30684,7 +30684,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30710,7 +30710,7 @@
         <v>23.25</v>
       </c>
       <c r="G1051" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30736,7 +30736,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1052" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30788,7 +30788,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1054" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30814,7 +30814,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30840,7 +30840,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1056" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30866,7 +30866,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1057" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -31048,7 +31048,7 @@
         <v>19.5</v>
       </c>
       <c r="G1064" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31074,7 +31074,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1065" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -31100,7 +31100,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1066" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -31126,7 +31126,7 @@
         <v>18</v>
       </c>
       <c r="G1067" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -31152,7 +31152,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1068" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -31178,7 +31178,7 @@
         <v>17</v>
       </c>
       <c r="G1069" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -31204,7 +31204,7 @@
         <v>17</v>
       </c>
       <c r="G1070" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31230,7 +31230,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1071" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -31256,7 +31256,7 @@
         <v>17.5</v>
       </c>
       <c r="G1072" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31282,7 +31282,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1073" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31308,7 +31308,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1074" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31334,7 +31334,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1075" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31360,7 +31360,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31386,7 +31386,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1077" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31412,7 +31412,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1078" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31438,7 +31438,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1079" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31464,7 +31464,7 @@
         <v>14</v>
       </c>
       <c r="G1080" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31490,7 +31490,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1081" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31516,7 +31516,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1082" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31542,7 +31542,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1083" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31568,7 +31568,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1084" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31594,7 +31594,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1085" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31620,7 +31620,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1086" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31646,7 +31646,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1087" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31672,7 +31672,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1088" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31698,7 +31698,7 @@
         <v>15</v>
       </c>
       <c r="G1089" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31724,7 +31724,7 @@
         <v>15.5</v>
       </c>
       <c r="G1090" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31750,7 +31750,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1091" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31776,7 +31776,7 @@
         <v>15.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31802,7 +31802,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1093" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31828,7 +31828,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1094" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31854,7 +31854,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1095" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31880,7 +31880,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1096" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31906,7 +31906,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1097" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31932,7 +31932,7 @@
         <v>15</v>
       </c>
       <c r="G1098" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31958,7 +31958,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1099" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31984,7 +31984,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1100" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -32010,7 +32010,7 @@
         <v>15</v>
       </c>
       <c r="G1101" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -32036,7 +32036,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1102" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -32062,7 +32062,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1103" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -32088,7 +32088,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1104" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32114,7 +32114,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1105" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -32140,7 +32140,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -32166,7 +32166,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1107" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -32192,7 +32192,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1108" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -32218,7 +32218,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1109" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -32244,7 +32244,7 @@
         <v>13.75</v>
       </c>
       <c r="G1110" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -32270,7 +32270,7 @@
         <v>14</v>
       </c>
       <c r="G1111" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32296,7 +32296,7 @@
         <v>14</v>
       </c>
       <c r="G1112" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32322,7 +32322,7 @@
         <v>14.5</v>
       </c>
       <c r="G1113" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32348,7 +32348,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1114" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32374,7 +32374,7 @@
         <v>15</v>
       </c>
       <c r="G1115" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32400,7 +32400,7 @@
         <v>15.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32426,7 +32426,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1117" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32452,7 +32452,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1118" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32478,7 +32478,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32504,7 +32504,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1120" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32530,7 +32530,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1121" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32556,7 +32556,7 @@
         <v>17</v>
       </c>
       <c r="G1122" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32582,7 +32582,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1123" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32608,7 +32608,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32634,7 +32634,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1125" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32660,7 +32660,7 @@
         <v>17.5</v>
       </c>
       <c r="G1126" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32686,7 +32686,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1127" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32712,7 +32712,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1128" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32738,7 +32738,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32764,7 +32764,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1130" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32790,7 +32790,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1131" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32816,7 +32816,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1132" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32842,7 +32842,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1133" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32868,7 +32868,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1134" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32894,7 +32894,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1135" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32920,7 +32920,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1136" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32946,7 +32946,7 @@
         <v>18</v>
       </c>
       <c r="G1137" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32972,7 +32972,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32998,7 +32998,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -33024,7 +33024,7 @@
         <v>17.5</v>
       </c>
       <c r="G1140" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -33050,7 +33050,7 @@
         <v>17</v>
       </c>
       <c r="G1141" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -33076,7 +33076,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1142" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -33102,7 +33102,7 @@
         <v>16.5</v>
       </c>
       <c r="G1143" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -33128,7 +33128,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1144" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -33154,7 +33154,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1145" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -33180,7 +33180,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G1146" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -33206,7 +33206,7 @@
         <v>17.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -33232,7 +33232,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -33258,7 +33258,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33284,7 +33284,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1150" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33310,7 +33310,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1151" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33336,7 +33336,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1152" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33362,7 +33362,7 @@
         <v>17.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33388,7 +33388,7 @@
         <v>17</v>
       </c>
       <c r="G1154" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33414,7 +33414,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1155" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33440,7 +33440,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1156" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33466,7 +33466,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1157" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33492,7 +33492,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33518,7 +33518,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1159" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33544,7 +33544,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1160" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33570,7 +33570,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1161" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33596,7 +33596,7 @@
         <v>16.5</v>
       </c>
       <c r="G1162" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33622,7 +33622,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1163" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33648,7 +33648,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1164" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33674,7 +33674,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1165" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33700,7 +33700,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1166" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33726,7 +33726,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1167" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33752,7 +33752,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1168" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33778,7 +33778,7 @@
         <v>17.25</v>
       </c>
       <c r="G1169" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33804,7 +33804,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1170" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33830,7 +33830,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1171" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33856,7 +33856,7 @@
         <v>17</v>
       </c>
       <c r="G1172" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33882,7 +33882,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1173" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33908,7 +33908,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1174" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33934,7 +33934,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1175" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33960,7 +33960,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -33986,7 +33986,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1177" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -34012,7 +34012,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1178" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -34038,7 +34038,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1179" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -34064,7 +34064,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1180" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -34090,7 +34090,7 @@
         <v>17</v>
       </c>
       <c r="G1181" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -34116,7 +34116,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1182" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -34142,7 +34142,7 @@
         <v>17</v>
       </c>
       <c r="G1183" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -34168,7 +34168,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1184" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -34194,7 +34194,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1185" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -34220,7 +34220,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1186" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -34246,7 +34246,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1187" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34272,7 +34272,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1188" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34298,7 +34298,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34324,7 +34324,7 @@
         <v>17.25</v>
       </c>
       <c r="G1190" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34350,7 +34350,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1191" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34376,7 +34376,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1192" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34402,7 +34402,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1193" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34428,7 +34428,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1194" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34454,7 +34454,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1195" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34480,7 +34480,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1196" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34506,7 +34506,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1197" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34532,7 +34532,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1198" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34558,7 +34558,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1199" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34584,7 +34584,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1200" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34610,7 +34610,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34636,7 +34636,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1202" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34662,7 +34662,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1203" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34688,7 +34688,7 @@
         <v>16</v>
       </c>
       <c r="G1204" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34714,7 +34714,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1205" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34740,7 +34740,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1206" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34766,7 +34766,7 @@
         <v>16</v>
       </c>
       <c r="G1207" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34792,7 +34792,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1208" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34818,7 +34818,7 @@
         <v>16.25</v>
       </c>
       <c r="G1209" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34844,7 +34844,7 @@
         <v>16.5</v>
       </c>
       <c r="G1210" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34870,7 +34870,7 @@
         <v>16.5</v>
       </c>
       <c r="G1211" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34896,7 +34896,7 @@
         <v>17.25</v>
       </c>
       <c r="G1212" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34922,7 +34922,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1213" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34948,7 +34948,7 @@
         <v>17</v>
       </c>
       <c r="G1214" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34974,7 +34974,7 @@
         <v>17.25</v>
       </c>
       <c r="G1215" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -35000,7 +35000,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1216" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -35026,7 +35026,7 @@
         <v>17</v>
       </c>
       <c r="G1217" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -35052,7 +35052,7 @@
         <v>17</v>
       </c>
       <c r="G1218" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -35078,7 +35078,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1219" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -35104,7 +35104,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -35130,7 +35130,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1221" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -35156,7 +35156,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1222" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -35182,7 +35182,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1223" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -35208,7 +35208,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1224" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -35234,7 +35234,7 @@
         <v>16</v>
       </c>
       <c r="G1225" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -35260,7 +35260,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1226" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35286,7 +35286,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1227" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35312,7 +35312,7 @@
         <v>15.75</v>
       </c>
       <c r="G1228" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35338,7 +35338,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1229" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35364,7 +35364,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1230" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35390,7 +35390,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1231" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35416,7 +35416,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1232" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35442,7 +35442,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35468,7 +35468,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G1234" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35494,7 +35494,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1235" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35520,7 +35520,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35546,7 +35546,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1237" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35572,7 +35572,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1238" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35598,7 +35598,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1239" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35624,7 +35624,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1240" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35650,7 +35650,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1241" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35676,7 +35676,7 @@
         <v>19.5</v>
       </c>
       <c r="G1242" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35702,7 +35702,7 @@
         <v>19</v>
       </c>
       <c r="G1243" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35728,7 +35728,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1244" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35754,7 +35754,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1245" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35780,7 +35780,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1246" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35806,7 +35806,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1247" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35832,7 +35832,7 @@
         <v>18.75</v>
       </c>
       <c r="G1248" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35858,7 +35858,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1249" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35884,7 +35884,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1250" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35910,7 +35910,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1251" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35936,7 +35936,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35962,7 +35962,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1253" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -35988,7 +35988,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -36014,7 +36014,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1255" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -36040,7 +36040,7 @@
         <v>19</v>
       </c>
       <c r="G1256" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -36066,7 +36066,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1257" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -36092,7 +36092,7 @@
         <v>19</v>
       </c>
       <c r="G1258" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -36118,7 +36118,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1259" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -36144,7 +36144,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1260" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -36170,7 +36170,7 @@
         <v>19</v>
       </c>
       <c r="G1261" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -36196,7 +36196,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1262" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -36222,7 +36222,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -36248,7 +36248,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1264" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -36274,7 +36274,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1265" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36300,7 +36300,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1266" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36326,7 +36326,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1267" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36352,7 +36352,7 @@
         <v>18.75</v>
       </c>
       <c r="G1268" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36378,7 +36378,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1269" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36404,7 +36404,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1270" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36430,7 +36430,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G1271" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36456,7 +36456,7 @@
         <v>19</v>
       </c>
       <c r="G1272" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36482,7 +36482,7 @@
         <v>20</v>
       </c>
       <c r="G1273" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36508,7 +36508,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1274" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36534,7 +36534,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1275" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36560,7 +36560,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1276" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36586,7 +36586,7 @@
         <v>21</v>
       </c>
       <c r="G1277" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36612,7 +36612,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1278" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36638,7 +36638,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1279" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36664,7 +36664,7 @@
         <v>20</v>
       </c>
       <c r="G1280" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36690,7 +36690,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1281" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36716,7 +36716,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1282" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36742,7 +36742,7 @@
         <v>20</v>
       </c>
       <c r="G1283" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36768,7 +36768,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1284" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36794,7 +36794,7 @@
         <v>20</v>
       </c>
       <c r="G1285" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36820,7 +36820,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1286" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36846,7 +36846,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1287" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36872,7 +36872,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1288" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36898,7 +36898,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1289" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36924,7 +36924,7 @@
         <v>20</v>
       </c>
       <c r="G1290" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36950,7 +36950,7 @@
         <v>20</v>
       </c>
       <c r="G1291" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36976,7 +36976,7 @@
         <v>20.5</v>
       </c>
       <c r="G1292" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -37002,7 +37002,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1293" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -37028,7 +37028,7 @@
         <v>21</v>
       </c>
       <c r="G1294" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -37054,7 +37054,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1295" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -37080,7 +37080,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1296" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -37106,7 +37106,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1297" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -37132,7 +37132,7 @@
         <v>21.5</v>
       </c>
       <c r="G1298" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -37158,7 +37158,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1299" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -37184,7 +37184,7 @@
         <v>22</v>
       </c>
       <c r="G1300" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -37210,7 +37210,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1301" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -37236,7 +37236,7 @@
         <v>22</v>
       </c>
       <c r="G1302" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -37262,7 +37262,7 @@
         <v>21.5</v>
       </c>
       <c r="G1303" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37288,7 +37288,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1304" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37314,7 +37314,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1305" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37340,7 +37340,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1306" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37366,7 +37366,7 @@
         <v>21</v>
       </c>
       <c r="G1307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37392,7 +37392,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1308" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37418,7 +37418,7 @@
         <v>21</v>
       </c>
       <c r="G1309" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37444,7 +37444,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1310" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37470,7 +37470,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1311" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37496,7 +37496,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1312" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37522,7 +37522,7 @@
         <v>21.5</v>
       </c>
       <c r="G1313" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37548,7 +37548,7 @@
         <v>21.5</v>
       </c>
       <c r="G1314" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37574,7 +37574,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1315" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37600,7 +37600,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1316" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37626,7 +37626,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1317" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37652,7 +37652,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1318" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37678,7 +37678,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1319" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37704,7 +37704,7 @@
         <v>22.5</v>
       </c>
       <c r="G1320" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37730,7 +37730,7 @@
         <v>23.5</v>
       </c>
       <c r="G1321" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37756,7 +37756,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1322" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37782,7 +37782,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1323" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37808,7 +37808,7 @@
         <v>23.5</v>
       </c>
       <c r="G1324" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37834,7 +37834,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1325" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37860,7 +37860,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1326" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37886,7 +37886,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1327" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37912,7 +37912,7 @@
         <v>23</v>
       </c>
       <c r="G1328" t="s">
-        <v>548</v>
+        <v>696</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37938,7 +37938,7 @@
         <v>23.5</v>
       </c>
       <c r="G1329" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37964,7 +37964,7 @@
         <v>23.5</v>
       </c>
       <c r="G1330" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -37990,7 +37990,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1331" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -38016,7 +38016,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1332" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -38042,7 +38042,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1333" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -38068,7 +38068,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1334" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -38094,7 +38094,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1335" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -38120,7 +38120,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1336" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -38146,7 +38146,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1337" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -38172,7 +38172,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1338" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -38198,7 +38198,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1339" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -38224,7 +38224,7 @@
         <v>23.5</v>
       </c>
       <c r="G1340" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -38354,7 +38354,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1345" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38458,7 +38458,7 @@
         <v>23.5</v>
       </c>
       <c r="G1349" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38588,7 +38588,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1354" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38614,7 +38614,7 @@
         <v>23</v>
       </c>
       <c r="G1355" t="s">
-        <v>548</v>
+        <v>696</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38640,7 +38640,7 @@
         <v>23</v>
       </c>
       <c r="G1356" t="s">
-        <v>548</v>
+        <v>696</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38666,7 +38666,7 @@
         <v>23</v>
       </c>
       <c r="G1357" t="s">
-        <v>548</v>
+        <v>696</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38692,7 +38692,7 @@
         <v>23</v>
       </c>
       <c r="G1358" t="s">
-        <v>548</v>
+        <v>696</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38744,7 +38744,7 @@
         <v>23</v>
       </c>
       <c r="G1360" t="s">
-        <v>548</v>
+        <v>696</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -59552,7 +59552,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.649375</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>4990</v>
@@ -59573,6 +59573,32 @@
         <v>1009</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6495486111</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>6542</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>38.2999992370605</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>38.9000015258789</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>38.5499992370605</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CMB.MI.xlsx
+++ b/data/CMB.MI.xlsx
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58274078369141</t>
+    <t xml:space="preserve">9.58274173736572</t>
   </si>
   <si>
     <t xml:space="preserve">CMB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91149139404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65968227386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75061321258545</t>
+    <t xml:space="preserve">9.91149425506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65968418121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75061416625977</t>
   </si>
   <si>
     <t xml:space="preserve">9.75760841369629</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79258155822754</t>
+    <t xml:space="preserve">9.79258251190186</t>
   </si>
   <si>
     <t xml:space="preserve">9.70864582061768</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">9.61771488189697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53377819061279</t>
+    <t xml:space="preserve">9.53377914428711</t>
   </si>
   <si>
     <t xml:space="preserve">9.54077339172363</t>
@@ -95,22 +95,22 @@
     <t xml:space="preserve">9.1770486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67342948913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63845729827881</t>
+    <t xml:space="preserve">8.67343044281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63845825195312</t>
   </si>
   <si>
     <t xml:space="preserve">8.93922805786133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76436042785645</t>
+    <t xml:space="preserve">8.76436328887939</t>
   </si>
   <si>
     <t xml:space="preserve">8.74337768554688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95321750640869</t>
+    <t xml:space="preserve">8.95321941375732</t>
   </si>
   <si>
     <t xml:space="preserve">9.12808609008789</t>
@@ -119,70 +119,70 @@
     <t xml:space="preserve">9.56875228881836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60372543334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40787315368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20502758026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30295276641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03715515136719</t>
+    <t xml:space="preserve">9.60372638702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40787410736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20502948760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30295467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03715419769287</t>
   </si>
   <si>
     <t xml:space="preserve">8.98819255828857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22601127624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14207363128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3309326171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34492111206055</t>
+    <t xml:space="preserve">9.22601222991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14207553863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33093166351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34492206573486</t>
   </si>
   <si>
     <t xml:space="preserve">9.23300552368164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3099479675293</t>
+    <t xml:space="preserve">9.30994892120361</t>
   </si>
   <si>
     <t xml:space="preserve">9.52678298950195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51279354095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47082614898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69465637207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5967321395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49880409240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42186260223389</t>
+    <t xml:space="preserve">9.51279544830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47082710266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69465732574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59673118591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49880599975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4218635559082</t>
   </si>
   <si>
     <t xml:space="preserve">9.50579929351807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31694316864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11409568786621</t>
+    <t xml:space="preserve">9.31694221496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11409664154053</t>
   </si>
   <si>
     <t xml:space="preserve">9.107102394104</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">9.46383094787598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37289905548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55476379394531</t>
+    <t xml:space="preserve">9.37290096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.554762840271</t>
   </si>
   <si>
     <t xml:space="preserve">9.3798942565918</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">9.54776763916016</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72963047027588</t>
+    <t xml:space="preserve">9.72962951660156</t>
   </si>
   <si>
     <t xml:space="preserve">9.63170433044434</t>
@@ -218,31 +218,31 @@
     <t xml:space="preserve">9.57071304321289</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53451251983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70102214813232</t>
+    <t xml:space="preserve">9.53451442718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70102310180664</t>
   </si>
   <si>
     <t xml:space="preserve">9.75893974304199</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8747730255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8458137512207</t>
+    <t xml:space="preserve">9.87477207183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84581565856934</t>
   </si>
   <si>
     <t xml:space="preserve">9.73722076416016</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3163862228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1281576156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1353969573975</t>
+    <t xml:space="preserve">10.316388130188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1281566619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1353979110718</t>
   </si>
   <si>
     <t xml:space="preserve">10.0268039703369</t>
@@ -251,28 +251,28 @@
     <t xml:space="preserve">10.1933145523071</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1136789321899</t>
+    <t xml:space="preserve">10.1136779785156</t>
   </si>
   <si>
     <t xml:space="preserve">9.92544937133789</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93269062042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91097164154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83133506774902</t>
+    <t xml:space="preserve">9.93268966674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91097068786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83133602142334</t>
   </si>
   <si>
     <t xml:space="preserve">9.77341938018799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.744460105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76618003845215</t>
+    <t xml:space="preserve">9.74446105957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76618099212646</t>
   </si>
   <si>
     <t xml:space="preserve">9.69378471374512</t>
@@ -281,37 +281,37 @@
     <t xml:space="preserve">9.93992900848389</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98336791992188</t>
+    <t xml:space="preserve">9.98336696624756</t>
   </si>
   <si>
     <t xml:space="preserve">9.9906063079834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81685543060303</t>
+    <t xml:space="preserve">9.81685733795166</t>
   </si>
   <si>
     <t xml:space="preserve">9.83857440948486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94716835021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91821002960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88925361633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46211624145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65034675598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62862682342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54899215698242</t>
+    <t xml:space="preserve">9.94716930389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91821098327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88925170898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46211814880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65034580230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62862777709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54899120330811</t>
   </si>
   <si>
     <t xml:space="preserve">9.62138843536377</t>
@@ -320,19 +320,19 @@
     <t xml:space="preserve">9.70826244354248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63586711883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64310741424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66482734680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71550178527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82409477233887</t>
+    <t xml:space="preserve">9.63586807250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64310550689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66482543945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.715500831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82409572601318</t>
   </si>
   <si>
     <t xml:space="preserve">9.88201236724854</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">9.79513740539551</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85305309295654</t>
+    <t xml:space="preserve">9.85305404663086</t>
   </si>
   <si>
     <t xml:space="preserve">9.6793041229248</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">9.67206478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47659492492676</t>
+    <t xml:space="preserve">9.47659683227539</t>
   </si>
   <si>
     <t xml:space="preserve">9.48383617401123</t>
@@ -362,13 +362,13 @@
     <t xml:space="preserve">9.49107551574707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44763851165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37524318695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25940895080566</t>
+    <t xml:space="preserve">9.4476375579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.375244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25940990447998</t>
   </si>
   <si>
     <t xml:space="preserve">9.34628486633301</t>
@@ -380,19 +380,19 @@
     <t xml:space="preserve">9.31008625030518</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19425201416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17977333068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2666482925415</t>
+    <t xml:space="preserve">9.19425392150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17977428436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26664924621582</t>
   </si>
   <si>
     <t xml:space="preserve">9.25216960906982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28836822509766</t>
+    <t xml:space="preserve">9.28836917877197</t>
   </si>
   <si>
     <t xml:space="preserve">9.30284786224365</t>
@@ -407,10 +407,10 @@
     <t xml:space="preserve">9.20873260498047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13633632659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91914844512939</t>
+    <t xml:space="preserve">9.13633728027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91914939880371</t>
   </si>
   <si>
     <t xml:space="preserve">8.8829517364502</t>
@@ -419,34 +419,34 @@
     <t xml:space="preserve">9.14357662200928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1652946472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23045253753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33180618286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15805530548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29560661315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4259204864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38248157501221</t>
+    <t xml:space="preserve">9.16529560089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23045063018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3318042755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15805435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2956075668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42591953277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38248252868652</t>
   </si>
   <si>
     <t xml:space="preserve">9.43315887451172</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0195636749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0050849914551</t>
+    <t xml:space="preserve">10.0195646286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0050859451294</t>
   </si>
   <si>
     <t xml:space="preserve">10.0630006790161</t>
@@ -455,10 +455,10 @@
     <t xml:space="preserve">10.1571159362793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2946681976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3525857925415</t>
+    <t xml:space="preserve">10.2946691513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3525848388672</t>
   </si>
   <si>
     <t xml:space="preserve">10.4249792098999</t>
@@ -470,22 +470,22 @@
     <t xml:space="preserve">10.5697727203369</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6276884078979</t>
+    <t xml:space="preserve">10.6276874542236</t>
   </si>
   <si>
     <t xml:space="preserve">10.5263347625732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5118560791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6494064331055</t>
+    <t xml:space="preserve">10.5118551254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6494073867798</t>
   </si>
   <si>
     <t xml:space="preserve">10.7797193527222</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9317502975464</t>
+    <t xml:space="preserve">10.9317493438721</t>
   </si>
   <si>
     <t xml:space="preserve">10.9824275970459</t>
@@ -497,19 +497,19 @@
     <t xml:space="preserve">11.0258646011353</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7435207366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.359824180603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3236284255981</t>
+    <t xml:space="preserve">10.7435216903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3598232269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3236265182495</t>
   </si>
   <si>
     <t xml:space="preserve">10.4756574630737</t>
   </si>
   <si>
-    <t xml:space="preserve">10.859354019165</t>
+    <t xml:space="preserve">10.8593549728394</t>
   </si>
   <si>
     <t xml:space="preserve">10.7724800109863</t>
@@ -518,37 +518,37 @@
     <t xml:space="preserve">10.9389896392822</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7290410995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8665933609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.786958694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8231554031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7580003738403</t>
+    <t xml:space="preserve">10.729043006897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8665943145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7869596481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8231563568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.757999420166</t>
   </si>
   <si>
     <t xml:space="preserve">10.7507610321045</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7218017578125</t>
+    <t xml:space="preserve">10.7218036651611</t>
   </si>
   <si>
     <t xml:space="preserve">10.6638860702515</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7652397155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0041456222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9462280273438</t>
+    <t xml:space="preserve">10.7652406692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0041446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9462289810181</t>
   </si>
   <si>
     <t xml:space="preserve">11.0910205841064</t>
@@ -557,13 +557,13 @@
     <t xml:space="preserve">11.5036764144897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4530000686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4457607269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4747190475464</t>
+    <t xml:space="preserve">11.4529981613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4457597732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4747180938721</t>
   </si>
   <si>
     <t xml:space="preserve">11.4964370727539</t>
@@ -572,97 +572,97 @@
     <t xml:space="preserve">11.7787799835205</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9452877044678</t>
+    <t xml:space="preserve">11.9452905654907</t>
   </si>
   <si>
     <t xml:space="preserve">12.5389356613159</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4448223114014</t>
+    <t xml:space="preserve">12.4448213577271</t>
   </si>
   <si>
     <t xml:space="preserve">12.5172176361084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5534152984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7416439056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.299090385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4583587646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4728403091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7407035827637</t>
+    <t xml:space="preserve">12.5534143447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7416410446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2990894317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4583606719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4728384017944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7407026290894</t>
   </si>
   <si>
     <t xml:space="preserve">13.5959129333496</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6103916168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3714847564697</t>
+    <t xml:space="preserve">13.6103897094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.371485710144</t>
   </si>
   <si>
     <t xml:space="preserve">13.3932037353516</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3208065032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4438810348511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6827850341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8927335739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4139833450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5008592605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4501800537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5442981719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5515336990356</t>
+    <t xml:space="preserve">13.3208084106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4438800811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6827869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8927354812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4139842987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5008573532104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4501810073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5442962646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5515356063843</t>
   </si>
   <si>
     <t xml:space="preserve">14.6601276397705</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5949726104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5225763320923</t>
+    <t xml:space="preserve">14.5949716567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.522575378418</t>
   </si>
   <si>
     <t xml:space="preserve">14.7390556335449</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8515682220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6715469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6040391921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5140323638916</t>
+    <t xml:space="preserve">14.8515644073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6715478897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6040382385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5140314102173</t>
   </si>
   <si>
     <t xml:space="preserve">14.176495552063</t>
@@ -671,22 +671,22 @@
     <t xml:space="preserve">14.8890705108643</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1914987564087</t>
+    <t xml:space="preserve">14.1914978027344</t>
   </si>
   <si>
     <t xml:space="preserve">14.5215320587158</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5065288543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7990617752075</t>
+    <t xml:space="preserve">14.5065307617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7990608215332</t>
   </si>
   <si>
     <t xml:space="preserve">14.8815698623657</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8740711212158</t>
+    <t xml:space="preserve">14.8740682601929</t>
   </si>
   <si>
     <t xml:space="preserve">14.8065614700317</t>
@@ -695,229 +695,229 @@
     <t xml:space="preserve">14.9640798568726</t>
   </si>
   <si>
-    <t xml:space="preserve">15.106593132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9016780853271</t>
+    <t xml:space="preserve">15.1065912246704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9016761779785</t>
   </si>
   <si>
     <t xml:space="preserve">16.434232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442249298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.931679725647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7516622543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4741306304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1741008758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1417007446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8791742324829</t>
+    <t xml:space="preserve">16.3442230224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9316806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7516593933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4741334915161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1740980148315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1417026519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8791770935059</t>
   </si>
   <si>
     <t xml:space="preserve">15.481632232666</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6316499710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1267013549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0291919708252</t>
+    <t xml:space="preserve">15.6316471099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1267032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0291900634766</t>
   </si>
   <si>
     <t xml:space="preserve">15.8341703414917</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7366580963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3841238021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6991577148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6766519546509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.54163646698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7141561508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5866441726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7741641998291</t>
+    <t xml:space="preserve">15.7366600036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3841199874878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6991548538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6766538619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5416402816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7141580581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5866432189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7741622924805</t>
   </si>
   <si>
     <t xml:space="preserve">16.2467136383057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2767181396484</t>
+    <t xml:space="preserve">16.2767162322998</t>
   </si>
   <si>
     <t xml:space="preserve">16.3517227172852</t>
   </si>
   <si>
-    <t xml:space="preserve">16.524242401123</t>
+    <t xml:space="preserve">16.5242443084717</t>
   </si>
   <si>
     <t xml:space="preserve">16.636754989624</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5392456054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2242088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8491697311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8566703796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8266716003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8941783905029</t>
+    <t xml:space="preserve">16.5392436981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2242107391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8491716384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.856671333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8266668319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8941764831543</t>
   </si>
   <si>
     <t xml:space="preserve">15.8041658401489</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7216577529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6166458129883</t>
+    <t xml:space="preserve">15.721658706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6166477203369</t>
   </si>
   <si>
     <t xml:space="preserve">15.7441596984863</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8116683959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4516305923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4216260910034</t>
+    <t xml:space="preserve">15.8116674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4516296386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4216270446777</t>
   </si>
   <si>
     <t xml:space="preserve">15.3766222000122</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5191383361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5266380310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2266044616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3016138076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.241605758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.444128036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0315847396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.406623840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1966047286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1515979766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3991241455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7591638565063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9091739654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0066890716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8692779541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6268577575684</t>
+    <t xml:space="preserve">15.5191373825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5266389846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2266054153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3016128540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2416067123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4441299438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.031587600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4066276550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1966037750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1516008377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3991260528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7591648101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9091777801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0066871643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8692760467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.626859664917</t>
   </si>
   <si>
     <t xml:space="preserve">18.2269229888916</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3820457458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0820140838623</t>
+    <t xml:space="preserve">19.3820419311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0820121765137</t>
   </si>
   <si>
     <t xml:space="preserve">19.1270179748535</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8944931030273</t>
+    <t xml:space="preserve">18.8944911956787</t>
   </si>
   <si>
     <t xml:space="preserve">18.7519779205322</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8644905090332</t>
+    <t xml:space="preserve">18.8644886016846</t>
   </si>
   <si>
     <t xml:space="preserve">18.6394672393799</t>
   </si>
   <si>
-    <t xml:space="preserve">18.676965713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5194530487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6319675445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2944297790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4219417572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2569274902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2419242858887</t>
+    <t xml:space="preserve">18.6769695281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5194549560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.631965637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2944278717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4219436645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2569255828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.24192237854</t>
   </si>
   <si>
     <t xml:space="preserve">18.1894187927246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1519165039062</t>
+    <t xml:space="preserve">18.1519145965576</t>
   </si>
   <si>
     <t xml:space="preserve">18.0319023132324</t>
@@ -929,7 +929,7 @@
     <t xml:space="preserve">17.9268894195557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6793670654297</t>
+    <t xml:space="preserve">17.6793651580811</t>
   </si>
   <si>
     <t xml:space="preserve">17.904390335083</t>
@@ -938,28 +938,28 @@
     <t xml:space="preserve">17.7318706512451</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9718952178955</t>
+    <t xml:space="preserve">17.9718933105469</t>
   </si>
   <si>
     <t xml:space="preserve">18.0018978118896</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0469036102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0244026184082</t>
+    <t xml:space="preserve">18.0469017028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0244045257568</t>
   </si>
   <si>
     <t xml:space="preserve">17.9343910217285</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9868984222412</t>
+    <t xml:space="preserve">17.9868965148926</t>
   </si>
   <si>
     <t xml:space="preserve">17.8068790435791</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2068157196045</t>
+    <t xml:space="preserve">17.2068138122559</t>
   </si>
   <si>
     <t xml:space="preserve">17.2443180084229</t>
@@ -977,13 +977,13 @@
     <t xml:space="preserve">16.711763381958</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5092430114746</t>
+    <t xml:space="preserve">16.509241104126</t>
   </si>
   <si>
     <t xml:space="preserve">16.23171043396</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0868015289307</t>
+    <t xml:space="preserve">17.0868053436279</t>
   </si>
   <si>
     <t xml:space="preserve">16.9067840576172</t>
@@ -998,10 +998,10 @@
     <t xml:space="preserve">17.1768112182617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6667594909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1393089294434</t>
+    <t xml:space="preserve">16.6667556762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1393070220947</t>
   </si>
   <si>
     <t xml:space="preserve">17.0192966461182</t>
@@ -1010,10 +1010,10 @@
     <t xml:space="preserve">16.8092727661133</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4642391204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8467769622803</t>
+    <t xml:space="preserve">16.4642372131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8467788696289</t>
   </si>
   <si>
     <t xml:space="preserve">17.0567989349365</t>
@@ -1022,16 +1022,16 @@
     <t xml:space="preserve">16.8017711639404</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4192295074463</t>
+    <t xml:space="preserve">16.4192314147949</t>
   </si>
   <si>
     <t xml:space="preserve">16.4492359161377</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4417343139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2092113494873</t>
+    <t xml:space="preserve">16.4417381286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2092094421387</t>
   </si>
   <si>
     <t xml:space="preserve">16.0441913604736</t>
@@ -1046,40 +1046,40 @@
     <t xml:space="preserve">16.5917510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8392791748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7642688751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.876781463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4018363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2518177032471</t>
+    <t xml:space="preserve">16.8392753601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7642707824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8767795562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.401834487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2518196105957</t>
   </si>
   <si>
     <t xml:space="preserve">17.0642986297607</t>
   </si>
   <si>
-    <t xml:space="preserve">17.364330291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2143173217773</t>
+    <t xml:space="preserve">17.3643321990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.214319229126</t>
   </si>
   <si>
     <t xml:space="preserve">17.3268260955811</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4768447875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6643619537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8518848419189</t>
+    <t xml:space="preserve">17.476842880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.664363861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8518829345703</t>
   </si>
   <si>
     <t xml:space="preserve">18.0769062042236</t>
@@ -1100,13 +1100,13 @@
     <t xml:space="preserve">16.3142204284668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9391803741455</t>
+    <t xml:space="preserve">15.9391822814941</t>
   </si>
   <si>
     <t xml:space="preserve">15.9766855239868</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0516910552979</t>
+    <t xml:space="preserve">16.0516948699951</t>
   </si>
   <si>
     <t xml:space="preserve">16.3892288208008</t>
@@ -1118,31 +1118,31 @@
     <t xml:space="preserve">17.776876449585</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7393703460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.439338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7018642425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5143489837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4894504547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3394336700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.039400100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8893871307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4144420623779</t>
+    <t xml:space="preserve">17.739372253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4393367767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7018699645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5143451690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4894485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3394355773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0394039154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8893890380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4144401550293</t>
   </si>
   <si>
     <t xml:space="preserve">18.5644569396973</t>
@@ -1154,16 +1154,16 @@
     <t xml:space="preserve">19.3520393371582</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7270793914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2686100006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9591655731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6554164886475</t>
+    <t xml:space="preserve">19.7270774841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2686080932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9591636657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6554145812988</t>
   </si>
   <si>
     <t xml:space="preserve">21.1969413757324</t>
@@ -1172,16 +1172,16 @@
     <t xml:space="preserve">20.3846530914307</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1912479400635</t>
+    <t xml:space="preserve">20.1912460327148</t>
   </si>
   <si>
     <t xml:space="preserve">20.34596824646</t>
   </si>
   <si>
-    <t xml:space="preserve">19.804443359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.572359085083</t>
+    <t xml:space="preserve">19.8044414520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5723571777344</t>
   </si>
   <si>
     <t xml:space="preserve">19.6497192382812</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">18.5666637420654</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9477767944336</t>
+    <t xml:space="preserve">17.947774887085</t>
   </si>
   <si>
     <t xml:space="preserve">18.4506244659424</t>
@@ -1202,34 +1202,37 @@
     <t xml:space="preserve">19.5336780548096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8818054199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1138877868652</t>
+    <t xml:space="preserve">19.8818035125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1138858795166</t>
   </si>
   <si>
     <t xml:space="preserve">20.2299270629883</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5393733978271</t>
+    <t xml:space="preserve">20.5393714904785</t>
   </si>
   <si>
     <t xml:space="preserve">20.6167335510254</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4233303070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0365257263184</t>
+    <t xml:space="preserve">20.4233322143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.036527633667</t>
   </si>
   <si>
     <t xml:space="preserve">19.1081943511963</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8431205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0752086639404</t>
+    <t xml:space="preserve">19.8431224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0752067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7270812988281</t>
   </si>
   <si>
     <t xml:space="preserve">20.4620132446289</t>
@@ -1244,10 +1247,10 @@
     <t xml:space="preserve">19.3402767181396</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2629108428955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2242336273193</t>
+    <t xml:space="preserve">19.2629146575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.224235534668</t>
   </si>
   <si>
     <t xml:space="preserve">18.6440258026123</t>
@@ -1256,64 +1259,64 @@
     <t xml:space="preserve">18.7987480163574</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1468715667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4563159942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3015937805176</t>
+    <t xml:space="preserve">19.1468734741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4563179016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3015975952148</t>
   </si>
   <si>
     <t xml:space="preserve">19.0308322906494</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3789558410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.992151260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1855525970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9978466033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7657623291016</t>
+    <t xml:space="preserve">19.3789577484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9921493530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1855545043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9978446960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7657604217529</t>
   </si>
   <si>
     <t xml:space="preserve">18.8374290466309</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6827030181885</t>
+    <t xml:space="preserve">18.6827049255371</t>
   </si>
   <si>
     <t xml:space="preserve">19.0695114135742</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7930507659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7873611450195</t>
+    <t xml:space="preserve">17.7930526733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7873592376709</t>
   </si>
   <si>
     <t xml:space="preserve">16.1684703826904</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7043018341064</t>
+    <t xml:space="preserve">15.7043037414551</t>
   </si>
   <si>
     <t xml:space="preserve">15.5109014511108</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6326351165771</t>
+    <t xml:space="preserve">16.6326389312744</t>
   </si>
   <si>
     <t xml:space="preserve">17.1354827880859</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2458343505859</t>
+    <t xml:space="preserve">16.24582862854</t>
   </si>
   <si>
     <t xml:space="preserve">15.6656227111816</t>
@@ -1325,25 +1328,25 @@
     <t xml:space="preserve">15.5882616043091</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3174991607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8997488021851</t>
+    <t xml:space="preserve">15.3174962997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8997478485107</t>
   </si>
   <si>
     <t xml:space="preserve">15.0544700622559</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1627750396729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.441276550293</t>
+    <t xml:space="preserve">15.1627769470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4412755966187</t>
   </si>
   <si>
     <t xml:space="preserve">15.8203468322754</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8647212982178</t>
+    <t xml:space="preserve">16.8647193908691</t>
   </si>
   <si>
     <t xml:space="preserve">16.5165958404541</t>
@@ -1352,16 +1355,16 @@
     <t xml:space="preserve">16.361873626709</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2845134735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1297912597656</t>
+    <t xml:space="preserve">16.2845096588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.129789352417</t>
   </si>
   <si>
     <t xml:space="preserve">16.2071514129639</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0911102294922</t>
+    <t xml:space="preserve">16.0911083221436</t>
   </si>
   <si>
     <t xml:space="preserve">15.8590259552002</t>
@@ -1373,70 +1376,70 @@
     <t xml:space="preserve">15.7429847717285</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4392356872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4005565643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6713161468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4779167175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9750680923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.456748008728</t>
+    <t xml:space="preserve">16.4392337799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4005527496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6713180541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4779148101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9750671386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4567470550537</t>
   </si>
   <si>
     <t xml:space="preserve">15.2556085586548</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0137481689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7099990844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5552749633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.174165725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9807643890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0968017578125</t>
+    <t xml:space="preserve">16.0137500762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7100009918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5552768707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1741638183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9807624816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0968036651611</t>
   </si>
   <si>
     <t xml:space="preserve">17.4062480926514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.522289276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3231945037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9363851547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948602676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4103307723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6269416809082</t>
+    <t xml:space="preserve">17.5222873687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3231906890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9363861083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948564529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4103317260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6269445419312</t>
   </si>
   <si>
     <t xml:space="preserve">15.4258041381836</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4722185134888</t>
+    <t xml:space="preserve">15.472222328186</t>
   </si>
   <si>
     <t xml:space="preserve">17.0194435119629</t>
@@ -1448,19 +1451,19 @@
     <t xml:space="preserve">16.9034023284912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2902069091797</t>
+    <t xml:space="preserve">17.2902088165283</t>
   </si>
   <si>
     <t xml:space="preserve">17.3288860321045</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3675689697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2515239715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5609703063965</t>
+    <t xml:space="preserve">17.3675670623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2515277862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5609722137451</t>
   </si>
   <si>
     <t xml:space="preserve">17.4836101531982</t>
@@ -1469,31 +1472,31 @@
     <t xml:space="preserve">17.6383304595947</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0251388549805</t>
+    <t xml:space="preserve">18.0251369476318</t>
   </si>
   <si>
     <t xml:space="preserve">17.8704147338867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.179859161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0244979858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3809623718262</t>
+    <t xml:space="preserve">18.1798610687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0244998931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3809642791748</t>
   </si>
   <si>
     <t xml:space="preserve">17.2949981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3754405975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9732341766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6916847229004</t>
+    <t xml:space="preserve">17.3754425048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9732322692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.691686630249</t>
   </si>
   <si>
     <t xml:space="preserve">16.2492542266846</t>
@@ -1502,34 +1505,34 @@
     <t xml:space="preserve">16.2090339660645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6057195663452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8309564590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2894744873047</t>
+    <t xml:space="preserve">15.6057205200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8309593200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.289478302002</t>
   </si>
   <si>
     <t xml:space="preserve">16.1688137054443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0883693695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3296947479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.863133430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5735454559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7505168914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9918413162231</t>
+    <t xml:space="preserve">16.0883712768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3296966552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8631343841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5735425949097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7505149841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9918403625488</t>
   </si>
   <si>
     <t xml:space="preserve">16.0722827911377</t>
@@ -1538,10 +1541,10 @@
     <t xml:space="preserve">16.1285915374756</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8953113555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8470468521118</t>
+    <t xml:space="preserve">15.8953123092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8470478057861</t>
   </si>
   <si>
     <t xml:space="preserve">16.4503593444824</t>
@@ -1559,10 +1562,10 @@
     <t xml:space="preserve">16.3699188232422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4101390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.933012008667</t>
+    <t xml:space="preserve">16.4101409912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9330101013184</t>
   </si>
   <si>
     <t xml:space="preserve">17.4156608581543</t>
@@ -1574,7 +1577,7 @@
     <t xml:space="preserve">17.5363254547119</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0938949584961</t>
+    <t xml:space="preserve">17.0938968658447</t>
   </si>
   <si>
     <t xml:space="preserve">17.174337387085</t>
@@ -1586,10 +1589,10 @@
     <t xml:space="preserve">17.0134525299072</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7319068908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8927917480469</t>
+    <t xml:space="preserve">16.7319049835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8927898406982</t>
   </si>
   <si>
     <t xml:space="preserve">16.7721290588379</t>
@@ -1604,55 +1607,55 @@
     <t xml:space="preserve">16.0079307556152</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8123474121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.053674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2145557403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1341171264648</t>
+    <t xml:space="preserve">16.812349319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0536727905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2145595550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1341152191162</t>
   </si>
   <si>
     <t xml:space="preserve">17.2547798156738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8525695800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4558849334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6167659759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5016250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2200794219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6625118255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3060436248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9440574645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5473709106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2256031036377</t>
+    <t xml:space="preserve">16.8525676727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.455883026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6167678833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5016288757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2200813293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6625099182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3060455322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.944055557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5473690032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2256050109863</t>
   </si>
   <si>
     <t xml:space="preserve">18.7429523468018</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1451625823975</t>
+    <t xml:space="preserve">19.1451606750488</t>
   </si>
   <si>
     <t xml:space="preserve">19.4669303894043</t>
@@ -1664,19 +1667,19 @@
     <t xml:space="preserve">19.8691387176514</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7082538604736</t>
+    <t xml:space="preserve">19.7082557678223</t>
   </si>
   <si>
     <t xml:space="preserve">19.7484760284424</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9842777252197</t>
+    <t xml:space="preserve">18.9842796325684</t>
   </si>
   <si>
     <t xml:space="preserve">18.8233947753906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7027320861816</t>
+    <t xml:space="preserve">18.702730178833</t>
   </si>
   <si>
     <t xml:space="preserve">18.9038372039795</t>
@@ -1688,7 +1691,7 @@
     <t xml:space="preserve">19.1853828430176</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7831745147705</t>
+    <t xml:space="preserve">18.7831764221191</t>
   </si>
   <si>
     <t xml:space="preserve">18.3407421112061</t>
@@ -1697,52 +1700,52 @@
     <t xml:space="preserve">19.5071487426758</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0647220611572</t>
+    <t xml:space="preserve">19.0647201538086</t>
   </si>
   <si>
     <t xml:space="preserve">18.8636169433594</t>
   </si>
   <si>
-    <t xml:space="preserve">18.582067489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6222896575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2603015899658</t>
+    <t xml:space="preserve">18.5820693969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6222915649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2602996826172</t>
   </si>
   <si>
     <t xml:space="preserve">18.3005218505859</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7776489257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7374305725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.938533782959</t>
+    <t xml:space="preserve">17.7776508331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7374286651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9385356903076</t>
   </si>
   <si>
     <t xml:space="preserve">15.6861619949341</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3161287307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0612373352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4795351028442</t>
+    <t xml:space="preserve">15.3161296844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0612354278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4795331954956</t>
   </si>
   <si>
     <t xml:space="preserve">13.5142307281494</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6751165390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6268510818481</t>
+    <t xml:space="preserve">13.6751146316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6268501281738</t>
   </si>
   <si>
     <t xml:space="preserve">14.0773239135742</t>
@@ -1751,22 +1754,22 @@
     <t xml:space="preserve">13.755558013916</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6590270996094</t>
+    <t xml:space="preserve">13.6590261459351</t>
   </si>
   <si>
     <t xml:space="preserve">13.4337911605835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0315809249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1949863433838</t>
+    <t xml:space="preserve">13.0315818786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1949853897095</t>
   </si>
   <si>
     <t xml:space="preserve">11.9858360290527</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2618608474731</t>
+    <t xml:space="preserve">11.2618598937988</t>
   </si>
   <si>
     <t xml:space="preserve">11.18141746521</t>
@@ -1784,49 +1787,49 @@
     <t xml:space="preserve">12.227162361145</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7098140716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3478260040283</t>
+    <t xml:space="preserve">12.709813117981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.347825050354</t>
   </si>
   <si>
     <t xml:space="preserve">12.0662775039673</t>
   </si>
   <si>
-    <t xml:space="preserve">12.468487739563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5087099075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2673835754395</t>
+    <t xml:space="preserve">12.4684867858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5087089538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2673826217651</t>
   </si>
   <si>
     <t xml:space="preserve">11.9053945541382</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1467199325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.106499671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0260572433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7042903900146</t>
+    <t xml:space="preserve">12.1467208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1064987182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0260581970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7042894363403</t>
   </si>
   <si>
     <t xml:space="preserve">11.8249521255493</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1869401931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3825216293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8998718261719</t>
+    <t xml:space="preserve">12.1869411468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3825225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8998727798462</t>
   </si>
   <si>
     <t xml:space="preserve">10.9803133010864</t>
@@ -1844,25 +1847,25 @@
     <t xml:space="preserve">12.8304758071899</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6001977920532</t>
+    <t xml:space="preserve">14.6001958847046</t>
   </si>
   <si>
     <t xml:space="preserve">14.6425161361694</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5578784942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3886013031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3462800979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7271547317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1503486633301</t>
+    <t xml:space="preserve">14.557879447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3885984420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3462810516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7271537780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1503496170044</t>
   </si>
   <si>
     <t xml:space="preserve">14.8117933273315</t>
@@ -1871,37 +1874,37 @@
     <t xml:space="preserve">13.9230871200562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0500450134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077257156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2616415023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4732389450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0657110214233</t>
+    <t xml:space="preserve">14.0500440597534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077247619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2616405487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4732398986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.065710067749</t>
   </si>
   <si>
     <t xml:space="preserve">15.3196268081665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2349891662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8541126251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9387512207031</t>
+    <t xml:space="preserve">15.2349872589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8541116714478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9387521743774</t>
   </si>
   <si>
     <t xml:space="preserve">14.0923633575439</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9654064178467</t>
+    <t xml:space="preserve">13.9654054641724</t>
   </si>
   <si>
     <t xml:space="preserve">14.1346845626831</t>
@@ -1910,7 +1913,7 @@
     <t xml:space="preserve">14.4309196472168</t>
   </si>
   <si>
-    <t xml:space="preserve">14.769474029541</t>
+    <t xml:space="preserve">14.7694749832153</t>
   </si>
   <si>
     <t xml:space="preserve">14.5155582427979</t>
@@ -1925,7 +1928,7 @@
     <t xml:space="preserve">13.8807668685913</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7114896774292</t>
+    <t xml:space="preserve">13.7114906311035</t>
   </si>
   <si>
     <t xml:space="preserve">14.6001968383789</t>
@@ -1934,7 +1937,7 @@
     <t xml:space="preserve">13.8384475708008</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2193212509155</t>
+    <t xml:space="preserve">14.2193222045898</t>
   </si>
   <si>
     <t xml:space="preserve">13.5422115325928</t>
@@ -1952,10 +1955,10 @@
     <t xml:space="preserve">13.3306140899658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2036571502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.161337852478</t>
+    <t xml:space="preserve">13.2036561965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1613368988037</t>
   </si>
   <si>
     <t xml:space="preserve">13.4575719833374</t>
@@ -1964,7 +1967,7 @@
     <t xml:space="preserve">13.2459754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4042654037476</t>
+    <t xml:space="preserve">15.4042663574219</t>
   </si>
   <si>
     <t xml:space="preserve">15.8274602890015</t>
@@ -1976,7 +1979,7 @@
     <t xml:space="preserve">16.673849105835</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5045700073242</t>
+    <t xml:space="preserve">16.5045680999756</t>
   </si>
   <si>
     <t xml:space="preserve">16.0813751220703</t>
@@ -1991,7 +1994,7 @@
     <t xml:space="preserve">15.8697786331177</t>
   </si>
   <si>
-    <t xml:space="preserve">15.954418182373</t>
+    <t xml:space="preserve">15.9544191360474</t>
   </si>
   <si>
     <t xml:space="preserve">15.9120979309082</t>
@@ -2000,7 +2003,7 @@
     <t xml:space="preserve">16.3352928161621</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7851400375366</t>
+    <t xml:space="preserve">15.7851409912109</t>
   </si>
   <si>
     <t xml:space="preserve">15.7428216934204</t>
@@ -2009,28 +2012,28 @@
     <t xml:space="preserve">16.0390567779541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9277629852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.758487701416</t>
+    <t xml:space="preserve">16.9277648925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7584857940674</t>
   </si>
   <si>
     <t xml:space="preserve">17.4355964660645</t>
   </si>
   <si>
-    <t xml:space="preserve">18.366626739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7741546630859</t>
+    <t xml:space="preserve">18.3666229248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7741527557373</t>
   </si>
   <si>
     <t xml:space="preserve">18.0280704498291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5202369689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8008060455322</t>
+    <t xml:space="preserve">17.5202350616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8008079528809</t>
   </si>
   <si>
     <t xml:space="preserve">17.0970420837402</t>
@@ -2039,7 +2042,7 @@
     <t xml:space="preserve">17.2663192749023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1816787719727</t>
+    <t xml:space="preserve">17.1816825866699</t>
   </si>
   <si>
     <t xml:space="preserve">16.8431262969971</t>
@@ -2063,13 +2066,13 @@
     <t xml:space="preserve">18.6205406188965</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7051792144775</t>
+    <t xml:space="preserve">18.7051811218262</t>
   </si>
   <si>
     <t xml:space="preserve">17.6048755645752</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5359020233154</t>
+    <t xml:space="preserve">18.5359039306641</t>
   </si>
   <si>
     <t xml:space="preserve">18.7898197174072</t>
@@ -2078,40 +2081,37 @@
     <t xml:space="preserve">18.8744564056396</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0437355041504</t>
+    <t xml:space="preserve">19.0437335968018</t>
   </si>
   <si>
     <t xml:space="preserve">19.8901233673096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5515670776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.382287979126</t>
+    <t xml:space="preserve">19.5515689849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3822917938232</t>
   </si>
   <si>
     <t xml:space="preserve">19.8054847717285</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2976512908936</t>
+    <t xml:space="preserve">19.2976493835449</t>
   </si>
   <si>
     <t xml:space="preserve">19.6362075805664</t>
   </si>
   <si>
-    <t xml:space="preserve">19.466926574707</t>
-  </si>
-  <si>
     <t xml:space="preserve">19.9747619628906</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0594024658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1440410614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7208461761475</t>
+    <t xml:space="preserve">20.0594005584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1440391540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7208442687988</t>
   </si>
   <si>
     <t xml:space="preserve">20.6518726348877</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">20.2124710083008</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3882331848145</t>
+    <t xml:space="preserve">20.3882312774658</t>
   </si>
   <si>
     <t xml:space="preserve">20.3003520965576</t>
@@ -2153,19 +2153,19 @@
     <t xml:space="preserve">20.476110458374</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8276348114014</t>
+    <t xml:space="preserve">20.8276329040527</t>
   </si>
   <si>
     <t xml:space="preserve">21.1791553497314</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2670364379883</t>
+    <t xml:space="preserve">21.2670345306396</t>
   </si>
   <si>
     <t xml:space="preserve">21.4427967071533</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7064380645752</t>
+    <t xml:space="preserve">21.7064361572266</t>
   </si>
   <si>
     <t xml:space="preserve">21.9700775146484</t>
@@ -2180,22 +2180,22 @@
     <t xml:space="preserve">23.5519218444824</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8488826751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2882843017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0246429443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4640445709229</t>
+    <t xml:space="preserve">22.8488807678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2882823944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0246410369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4640426635742</t>
   </si>
   <si>
     <t xml:space="preserve">23.6398029327393</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9034461975098</t>
+    <t xml:space="preserve">23.9034442901611</t>
   </si>
   <si>
     <t xml:space="preserve">24.5186061859131</t>
@@ -2204,16 +2204,16 @@
     <t xml:space="preserve">24.4307250976562</t>
   </si>
   <si>
-    <t xml:space="preserve">24.167085647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3428478240967</t>
+    <t xml:space="preserve">24.1670837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.342845916748</t>
   </si>
   <si>
     <t xml:space="preserve">24.2549667358398</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6064872741699</t>
+    <t xml:space="preserve">24.6064853668213</t>
   </si>
   <si>
     <t xml:space="preserve">23.9913234710693</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">22.7609996795654</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7276840209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0458889007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1004543304443</t>
+    <t xml:space="preserve">23.7276821136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0458869934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1004524230957</t>
   </si>
   <si>
     <t xml:space="preserve">25.8368110656738</t>
@@ -2240,16 +2240,16 @@
     <t xml:space="preserve">25.1337699890137</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1883335113525</t>
+    <t xml:space="preserve">26.1883316040039</t>
   </si>
   <si>
     <t xml:space="preserve">24.6943683624268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4852905273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3095302581787</t>
+    <t xml:space="preserve">25.4852886199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3095283508301</t>
   </si>
   <si>
     <t xml:space="preserve">25.3974094390869</t>
@@ -2264,70 +2264,70 @@
     <t xml:space="preserve">26.2762126922607</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3640937805176</t>
+    <t xml:space="preserve">26.3640918731689</t>
   </si>
   <si>
     <t xml:space="preserve">26.7156143188477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2428970336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4186573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5065383911133</t>
+    <t xml:space="preserve">27.2428951263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4186553955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5065364837646</t>
   </si>
   <si>
     <t xml:space="preserve">28.9126243591309</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6702308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.406587600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0550689697266</t>
+    <t xml:space="preserve">30.6702289581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4065856933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0550670623779</t>
   </si>
   <si>
     <t xml:space="preserve">30.2308292388916</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3187084197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0005035400391</t>
+    <t xml:space="preserve">30.3187065124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0005016326904</t>
   </si>
   <si>
     <t xml:space="preserve">28.0338191986084</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5277843475342</t>
+    <t xml:space="preserve">29.5277824401855</t>
   </si>
   <si>
     <t xml:space="preserve">28.4732227325439</t>
   </si>
   <si>
-    <t xml:space="preserve">29.439905166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7368621826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1762638092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2974605560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6277351379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9792575836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8034954071045</t>
+    <t xml:space="preserve">29.4399032592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7368602752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1762619018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2974586486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6277332305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9792556762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8034934997559</t>
   </si>
   <si>
     <t xml:space="preserve">27.3307762145996</t>
@@ -2336,19 +2336,19 @@
     <t xml:space="preserve">27.5944175720215</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7489318847656</t>
+    <t xml:space="preserve">25.748929977417</t>
   </si>
   <si>
     <t xml:space="preserve">27.1550159454346</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0671367645264</t>
+    <t xml:space="preserve">27.0671348571777</t>
   </si>
   <si>
     <t xml:space="preserve">26.8913745880127</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6822986602783</t>
+    <t xml:space="preserve">27.6822967529297</t>
   </si>
   <si>
     <t xml:space="preserve">23.376163482666</t>
@@ -2360,10 +2360,10 @@
     <t xml:space="preserve">23.8155651092529</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2216510772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7822494506836</t>
+    <t xml:space="preserve">25.2216491699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.782247543335</t>
   </si>
   <si>
     <t xml:space="preserve">24.8701267242432</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">24.3999366760254</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5743732452393</t>
+    <t xml:space="preserve">23.5743751525879</t>
   </si>
   <si>
     <t xml:space="preserve">24.1247482299805</t>
@@ -2408,7 +2408,7 @@
     <t xml:space="preserve">26.1427879333496</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5006828308105</t>
+    <t xml:space="preserve">25.5006847381592</t>
   </si>
   <si>
     <t xml:space="preserve">25.2254981994629</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">24.2164764404297</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1157302856445</t>
+    <t xml:space="preserve">23.1157283782959</t>
   </si>
   <si>
     <t xml:space="preserve">23.299186706543</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">22.6570835113525</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5653553009033</t>
+    <t xml:space="preserve">22.5653533935547</t>
   </si>
   <si>
     <t xml:space="preserve">22.1984386444092</t>
@@ -2447,28 +2447,28 @@
     <t xml:space="preserve">21.9232501983643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9322700500488</t>
+    <t xml:space="preserve">22.9322719573975</t>
   </si>
   <si>
     <t xml:space="preserve">24.6751232147217</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0510578155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.592414855957</t>
+    <t xml:space="preserve">26.0510597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5924129486084</t>
   </si>
   <si>
     <t xml:space="preserve">23.8495616912842</t>
   </si>
   <si>
-    <t xml:space="preserve">23.757833480835</t>
+    <t xml:space="preserve">23.7578315734863</t>
   </si>
   <si>
     <t xml:space="preserve">25.0420398712158</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3082084655762</t>
+    <t xml:space="preserve">24.3082065582275</t>
   </si>
   <si>
     <t xml:space="preserve">24.4916667938232</t>
@@ -2489,13 +2489,13 @@
     <t xml:space="preserve">23.0240001678467</t>
   </si>
   <si>
-    <t xml:space="preserve">22.840539932251</t>
+    <t xml:space="preserve">22.8405418395996</t>
   </si>
   <si>
     <t xml:space="preserve">21.831521987915</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2901649475098</t>
+    <t xml:space="preserve">22.2901668548584</t>
   </si>
   <si>
     <t xml:space="preserve">21.4646053314209</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">26.5097045898438</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4179763793945</t>
+    <t xml:space="preserve">26.4179744720459</t>
   </si>
   <si>
     <t xml:space="preserve">26.6014347076416</t>
@@ -2531,13 +2531,13 @@
     <t xml:space="preserve">28.0690994262695</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2525577545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1608276367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5277442932129</t>
+    <t xml:space="preserve">28.252555847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1608295440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5277462005615</t>
   </si>
   <si>
     <t xml:space="preserve">28.6194744110107</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">28.3442859649658</t>
   </si>
   <si>
-    <t xml:space="preserve">27.702184677124</t>
+    <t xml:space="preserve">27.7021827697754</t>
   </si>
   <si>
     <t xml:space="preserve">27.7939109802246</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">27.8856410980225</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9773693084717</t>
+    <t xml:space="preserve">27.9773712158203</t>
   </si>
   <si>
     <t xml:space="preserve">28.4360160827637</t>
@@ -2567,7 +2567,7 @@
     <t xml:space="preserve">27.060079574585</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4269943237305</t>
+    <t xml:space="preserve">27.4269962310791</t>
   </si>
   <si>
     <t xml:space="preserve">27.3352661132812</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">26.7848930358887</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9683513641357</t>
+    <t xml:space="preserve">26.9683494567871</t>
   </si>
   <si>
     <t xml:space="preserve">27.1518096923828</t>
@@ -19909,7 +19909,7 @@
         <v>25.5</v>
       </c>
       <c r="G635" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19935,7 +19935,7 @@
         <v>25.5</v>
       </c>
       <c r="G636" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19961,7 +19961,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G637" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19987,7 +19987,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G638" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20013,7 +20013,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G639" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20039,7 +20039,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G640" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20117,7 +20117,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G643" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20143,7 +20143,7 @@
         <v>25</v>
       </c>
       <c r="G644" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20169,7 +20169,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G645" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20195,7 +20195,7 @@
         <v>25</v>
       </c>
       <c r="G646" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20221,7 +20221,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G647" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20247,7 +20247,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G648" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20273,7 +20273,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G649" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20299,7 +20299,7 @@
         <v>24.75</v>
       </c>
       <c r="G650" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20325,7 +20325,7 @@
         <v>24.75</v>
       </c>
       <c r="G651" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20351,7 +20351,7 @@
         <v>24.75</v>
       </c>
       <c r="G652" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20429,7 +20429,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20455,7 +20455,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G656" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20507,7 +20507,7 @@
         <v>25</v>
       </c>
       <c r="G658" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20533,7 +20533,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G659" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20585,7 +20585,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G661" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20611,7 +20611,7 @@
         <v>25</v>
       </c>
       <c r="G662" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20637,7 +20637,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G663" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20663,7 +20663,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G664" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20689,7 +20689,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G665" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20715,7 +20715,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G666" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20767,7 +20767,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G668" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20793,7 +20793,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20845,7 +20845,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G671" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20871,7 +20871,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G672" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20897,7 +20897,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G673" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20949,7 +20949,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20975,7 +20975,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G676" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21027,7 +21027,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G678" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21079,7 +21079,7 @@
         <v>25</v>
       </c>
       <c r="G680" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21105,7 +21105,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21131,7 +21131,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G682" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21157,7 +21157,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G683" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21183,7 +21183,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G684" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21209,7 +21209,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21339,7 +21339,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G690" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21365,7 +21365,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G691" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21391,7 +21391,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21417,7 +21417,7 @@
         <v>25</v>
       </c>
       <c r="G693" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21443,7 +21443,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G694" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21495,7 +21495,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G696" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21521,7 +21521,7 @@
         <v>24.75</v>
       </c>
       <c r="G697" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21547,7 +21547,7 @@
         <v>24.75</v>
       </c>
       <c r="G698" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21573,7 +21573,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G699" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21599,7 +21599,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21625,7 +21625,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G701" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21651,7 +21651,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G702" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21677,7 +21677,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G703" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21703,7 +21703,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G704" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21729,7 +21729,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G705" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21781,7 +21781,7 @@
         <v>23</v>
       </c>
       <c r="G707" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21807,7 +21807,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G708" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21833,7 +21833,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G709" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21859,7 +21859,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G710" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21885,7 +21885,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G711" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21911,7 +21911,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G712" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21937,7 +21937,7 @@
         <v>21.5</v>
       </c>
       <c r="G713" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21963,7 +21963,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21989,7 +21989,7 @@
         <v>21</v>
       </c>
       <c r="G715" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22015,7 +22015,7 @@
         <v>20.25</v>
       </c>
       <c r="G716" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22041,7 +22041,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G717" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22067,7 +22067,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G718" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22093,7 +22093,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G719" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22119,7 +22119,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G720" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22145,7 +22145,7 @@
         <v>19.2600002288818</v>
       </c>
       <c r="G721" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -22171,7 +22171,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G722" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -22197,7 +22197,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G723" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22223,7 +22223,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G724" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22249,7 +22249,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G725" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -22275,7 +22275,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G726" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22301,7 +22301,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G727" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22327,7 +22327,7 @@
         <v>21</v>
       </c>
       <c r="G728" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22353,7 +22353,7 @@
         <v>21.5</v>
       </c>
       <c r="G729" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22379,7 +22379,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G730" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22405,7 +22405,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G731" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22431,7 +22431,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G732" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22457,7 +22457,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G733" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22483,7 +22483,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G734" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22509,7 +22509,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G735" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22535,7 +22535,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G736" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22561,7 +22561,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G737" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22587,7 +22587,7 @@
         <v>20.5</v>
       </c>
       <c r="G738" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22613,7 +22613,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G739" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22639,7 +22639,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G740" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22665,7 +22665,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G741" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22691,7 +22691,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G742" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22717,7 +22717,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22743,7 +22743,7 @@
         <v>21.25</v>
       </c>
       <c r="G744" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22769,7 +22769,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G745" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22795,7 +22795,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G746" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22821,7 +22821,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22847,7 +22847,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G748" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22873,7 +22873,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G749" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22899,7 +22899,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G750" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22925,7 +22925,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22951,7 +22951,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G752" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22977,7 +22977,7 @@
         <v>21</v>
       </c>
       <c r="G753" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23003,7 +23003,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G754" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23029,7 +23029,7 @@
         <v>21</v>
       </c>
       <c r="G755" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23055,7 +23055,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G756" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23081,7 +23081,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G757" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -23107,7 +23107,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G758" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23133,7 +23133,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G759" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23159,7 +23159,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G760" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -23185,7 +23185,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G761" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23211,7 +23211,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G762" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -23237,7 +23237,7 @@
         <v>20.25</v>
       </c>
       <c r="G763" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23263,7 +23263,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G764" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23289,7 +23289,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G765" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23315,7 +23315,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G766" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23341,7 +23341,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G767" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23367,7 +23367,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23393,7 +23393,7 @@
         <v>21</v>
       </c>
       <c r="G769" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23419,7 +23419,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G770" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23445,7 +23445,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G771" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23471,7 +23471,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G772" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23497,7 +23497,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23523,7 +23523,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G774" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23549,7 +23549,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G775" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23575,7 +23575,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G776" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23601,7 +23601,7 @@
         <v>22.5</v>
       </c>
       <c r="G777" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23627,7 +23627,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G778" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23653,7 +23653,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G779" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23679,7 +23679,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G780" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23705,7 +23705,7 @@
         <v>21.5</v>
       </c>
       <c r="G781" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23731,7 +23731,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G782" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23757,7 +23757,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G783" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23783,7 +23783,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G784" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23809,7 +23809,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G785" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23835,7 +23835,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G786" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23861,7 +23861,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G787" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23887,7 +23887,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23913,7 +23913,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G789" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23939,7 +23939,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G790" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23965,7 +23965,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G791" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23991,7 +23991,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G792" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24017,7 +24017,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G793" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24043,7 +24043,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G794" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24069,7 +24069,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G795" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24095,7 +24095,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G796" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24121,7 +24121,7 @@
         <v>20.25</v>
       </c>
       <c r="G797" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -24147,7 +24147,7 @@
         <v>20</v>
       </c>
       <c r="G798" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -24173,7 +24173,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G799" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -24199,7 +24199,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G800" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -24225,7 +24225,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G801" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -24251,7 +24251,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G802" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -24277,7 +24277,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G803" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -24303,7 +24303,7 @@
         <v>20.25</v>
       </c>
       <c r="G804" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24329,7 +24329,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24355,7 +24355,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G806" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24381,7 +24381,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G807" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24407,7 +24407,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G808" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24433,7 +24433,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G809" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24459,7 +24459,7 @@
         <v>20.5</v>
       </c>
       <c r="G810" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24485,7 +24485,7 @@
         <v>20</v>
       </c>
       <c r="G811" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24511,7 +24511,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G812" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24537,7 +24537,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G813" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24563,7 +24563,7 @@
         <v>20.25</v>
       </c>
       <c r="G814" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24589,7 +24589,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G815" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24615,7 +24615,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G816" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24641,7 +24641,7 @@
         <v>20.25</v>
       </c>
       <c r="G817" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24667,7 +24667,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G818" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24693,7 +24693,7 @@
         <v>21</v>
       </c>
       <c r="G819" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24719,7 +24719,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G820" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24745,7 +24745,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G821" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24771,7 +24771,7 @@
         <v>21.5</v>
       </c>
       <c r="G822" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24797,7 +24797,7 @@
         <v>22</v>
       </c>
       <c r="G823" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24823,7 +24823,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G824" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24849,7 +24849,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G825" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24875,7 +24875,7 @@
         <v>21.75</v>
       </c>
       <c r="G826" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24901,7 +24901,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G827" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24927,7 +24927,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G828" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24953,7 +24953,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G829" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24979,7 +24979,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -25005,7 +25005,7 @@
         <v>21.75</v>
       </c>
       <c r="G831" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25031,7 +25031,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G832" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25057,7 +25057,7 @@
         <v>22</v>
       </c>
       <c r="G833" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25083,7 +25083,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -25109,7 +25109,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G835" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -25135,7 +25135,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G836" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -25161,7 +25161,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G837" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -25187,7 +25187,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G838" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -25213,7 +25213,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G839" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -25239,7 +25239,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -25265,7 +25265,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G841" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -25291,7 +25291,7 @@
         <v>22.5</v>
       </c>
       <c r="G842" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25317,7 +25317,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G843" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25343,7 +25343,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G844" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25369,7 +25369,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G845" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25395,7 +25395,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G846" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25421,7 +25421,7 @@
         <v>23.5</v>
       </c>
       <c r="G847" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25447,7 +25447,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G848" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25473,7 +25473,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G849" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25499,7 +25499,7 @@
         <v>21.5</v>
       </c>
       <c r="G850" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25525,7 +25525,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25551,7 +25551,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G852" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25577,7 +25577,7 @@
         <v>20.75</v>
       </c>
       <c r="G853" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25603,7 +25603,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G854" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25629,7 +25629,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G855" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25655,7 +25655,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G856" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25681,7 +25681,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G857" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25707,7 +25707,7 @@
         <v>20.25</v>
       </c>
       <c r="G858" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25733,7 +25733,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G859" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25759,7 +25759,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G860" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25785,7 +25785,7 @@
         <v>20</v>
       </c>
       <c r="G861" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25811,7 +25811,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G862" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25837,7 +25837,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G863" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25863,7 +25863,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G864" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25889,7 +25889,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G865" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25915,7 +25915,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G866" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25941,7 +25941,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G867" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25967,7 +25967,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G868" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25993,7 +25993,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G869" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26019,7 +26019,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G870" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26045,7 +26045,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G871" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26071,7 +26071,7 @@
         <v>19.8799991607666</v>
       </c>
       <c r="G872" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26097,7 +26097,7 @@
         <v>20</v>
       </c>
       <c r="G873" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -26123,7 +26123,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G874" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -26149,7 +26149,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -26175,7 +26175,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G876" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -26201,7 +26201,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G877" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -26227,7 +26227,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G878" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -26253,7 +26253,7 @@
         <v>20.25</v>
       </c>
       <c r="G879" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -26279,7 +26279,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -26305,7 +26305,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G881" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26331,7 +26331,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G882" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26357,7 +26357,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26383,7 +26383,7 @@
         <v>19.7600002288818</v>
       </c>
       <c r="G884" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26409,7 +26409,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G885" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26435,7 +26435,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26461,7 +26461,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G887" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26487,7 +26487,7 @@
         <v>20.25</v>
       </c>
       <c r="G888" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26513,7 +26513,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G889" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26539,7 +26539,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G890" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26565,7 +26565,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G891" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26591,7 +26591,7 @@
         <v>20.5</v>
       </c>
       <c r="G892" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26617,7 +26617,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G893" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26643,7 +26643,7 @@
         <v>20.25</v>
       </c>
       <c r="G894" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26669,7 +26669,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26695,7 +26695,7 @@
         <v>20.25</v>
       </c>
       <c r="G896" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26721,7 +26721,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G897" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26747,7 +26747,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G898" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26773,7 +26773,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G899" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26799,7 +26799,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G900" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26825,7 +26825,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G901" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26851,7 +26851,7 @@
         <v>20.25</v>
       </c>
       <c r="G902" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26877,7 +26877,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G903" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26903,7 +26903,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26929,7 +26929,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G905" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26955,7 +26955,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G906" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26981,7 +26981,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G907" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -27007,7 +27007,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G908" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -27033,7 +27033,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G909" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -27059,7 +27059,7 @@
         <v>21.25</v>
       </c>
       <c r="G910" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -27085,7 +27085,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -27111,7 +27111,7 @@
         <v>21.5</v>
       </c>
       <c r="G912" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -27137,7 +27137,7 @@
         <v>21.5</v>
       </c>
       <c r="G913" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -27163,7 +27163,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -27189,7 +27189,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G915" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -27215,7 +27215,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G916" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -27241,7 +27241,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G917" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -27267,7 +27267,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G918" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -27293,7 +27293,7 @@
         <v>21</v>
       </c>
       <c r="G919" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27319,7 +27319,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G920" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27345,7 +27345,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G921" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27371,7 +27371,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G922" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27397,7 +27397,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G923" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27423,7 +27423,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G924" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27449,7 +27449,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G925" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27475,7 +27475,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G926" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27501,7 +27501,7 @@
         <v>20</v>
       </c>
       <c r="G927" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27527,7 +27527,7 @@
         <v>19.8400001525879</v>
       </c>
       <c r="G928" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27553,7 +27553,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G929" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27579,7 +27579,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G930" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27605,7 +27605,7 @@
         <v>20</v>
       </c>
       <c r="G931" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27631,7 +27631,7 @@
         <v>20</v>
       </c>
       <c r="G932" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27657,7 +27657,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G933" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27683,7 +27683,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G934" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27709,7 +27709,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G935" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27735,7 +27735,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G936" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27761,7 +27761,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G937" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27787,7 +27787,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G938" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27813,7 +27813,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G939" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27839,7 +27839,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G940" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27865,7 +27865,7 @@
         <v>21.25</v>
       </c>
       <c r="G941" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27891,7 +27891,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G942" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27917,7 +27917,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G943" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27943,7 +27943,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G944" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27969,7 +27969,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -27995,7 +27995,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G946" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -28021,7 +28021,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G947" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -28047,7 +28047,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G948" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -28073,7 +28073,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G949" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -28099,7 +28099,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G950" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -28125,7 +28125,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G951" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -28151,7 +28151,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G952" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -28177,7 +28177,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G953" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -28203,7 +28203,7 @@
         <v>21.25</v>
       </c>
       <c r="G954" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -28229,7 +28229,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -28255,7 +28255,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G956" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -28281,7 +28281,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -28307,7 +28307,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G958" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28333,7 +28333,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G959" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28359,7 +28359,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G960" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28385,7 +28385,7 @@
         <v>21.25</v>
       </c>
       <c r="G961" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28411,7 +28411,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G962" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28437,7 +28437,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G963" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28463,7 +28463,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G964" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28489,7 +28489,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G965" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28515,7 +28515,7 @@
         <v>21.5</v>
       </c>
       <c r="G966" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28541,7 +28541,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G967" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28567,7 +28567,7 @@
         <v>21.25</v>
       </c>
       <c r="G968" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28593,7 +28593,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G969" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28619,7 +28619,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G970" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28645,7 +28645,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G971" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28671,7 +28671,7 @@
         <v>21.5</v>
       </c>
       <c r="G972" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28697,7 +28697,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28723,7 +28723,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G974" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28749,7 +28749,7 @@
         <v>21</v>
       </c>
       <c r="G975" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28775,7 +28775,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G976" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28801,7 +28801,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G977" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28827,7 +28827,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G978" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28853,7 +28853,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G979" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28879,7 +28879,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G980" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28905,7 +28905,7 @@
         <v>23</v>
       </c>
       <c r="G981" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28931,7 +28931,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G982" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28957,7 +28957,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G983" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28983,7 +28983,7 @@
         <v>24</v>
       </c>
       <c r="G984" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -29009,7 +29009,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G985" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -29035,7 +29035,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G986" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29061,7 +29061,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -29087,7 +29087,7 @@
         <v>24</v>
       </c>
       <c r="G988" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -29113,7 +29113,7 @@
         <v>24</v>
       </c>
       <c r="G989" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -29139,7 +29139,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G990" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -29165,7 +29165,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G991" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -29191,7 +29191,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -29217,7 +29217,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G993" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -29243,7 +29243,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -29269,7 +29269,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G995" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -29295,7 +29295,7 @@
         <v>24.5</v>
       </c>
       <c r="G996" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29321,7 +29321,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G997" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29347,7 +29347,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G998" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29373,7 +29373,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29399,7 +29399,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29425,7 +29425,7 @@
         <v>23.25</v>
       </c>
       <c r="G1001" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29451,7 +29451,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1002" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29477,7 +29477,7 @@
         <v>23.5</v>
       </c>
       <c r="G1003" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29503,7 +29503,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1004" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29529,7 +29529,7 @@
         <v>23.75</v>
       </c>
       <c r="G1005" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29555,7 +29555,7 @@
         <v>23.75</v>
       </c>
       <c r="G1006" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29581,7 +29581,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1007" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29607,7 +29607,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29633,7 +29633,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1009" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29659,7 +29659,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29685,7 +29685,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1011" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29711,7 +29711,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1012" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29737,7 +29737,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1013" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29763,7 +29763,7 @@
         <v>24.25</v>
       </c>
       <c r="G1014" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29789,7 +29789,7 @@
         <v>24</v>
       </c>
       <c r="G1015" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29815,7 +29815,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1016" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29841,7 +29841,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1017" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29867,7 +29867,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1018" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29893,7 +29893,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1019" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29919,7 +29919,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29945,7 +29945,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1021" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29971,7 +29971,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1022" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -29997,7 +29997,7 @@
         <v>23.5</v>
       </c>
       <c r="G1023" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30023,7 +30023,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1024" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -30049,7 +30049,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30075,7 +30075,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1026" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -30101,7 +30101,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1027" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -30127,7 +30127,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1028" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -30153,7 +30153,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1029" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -30179,7 +30179,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1030" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -30205,7 +30205,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1031" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -30231,7 +30231,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1032" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -30257,7 +30257,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1033" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -30283,7 +30283,7 @@
         <v>22.75</v>
       </c>
       <c r="G1034" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30309,7 +30309,7 @@
         <v>23.25</v>
       </c>
       <c r="G1035" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30335,7 +30335,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1036" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30361,7 +30361,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1037" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30387,7 +30387,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30413,7 +30413,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1039" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30439,7 +30439,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1040" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30465,7 +30465,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30491,7 +30491,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1042" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30517,7 +30517,7 @@
         <v>23.75</v>
       </c>
       <c r="G1043" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30543,7 +30543,7 @@
         <v>23.75</v>
       </c>
       <c r="G1044" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30569,7 +30569,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1045" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30595,7 +30595,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1046" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30621,7 +30621,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1047" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30647,7 +30647,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30673,7 +30673,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30699,7 +30699,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30725,7 +30725,7 @@
         <v>23.25</v>
       </c>
       <c r="G1051" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30751,7 +30751,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1052" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30777,7 +30777,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1053" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30803,7 +30803,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1054" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30829,7 +30829,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30855,7 +30855,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1056" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30881,7 +30881,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1057" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30907,7 +30907,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30933,7 +30933,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1059" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30959,7 +30959,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1060" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30985,7 +30985,7 @@
         <v>20.75</v>
       </c>
       <c r="G1061" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -31011,7 +31011,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1062" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -31037,7 +31037,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1063" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -31063,7 +31063,7 @@
         <v>19.5</v>
       </c>
       <c r="G1064" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31089,7 +31089,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1065" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -31115,7 +31115,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1066" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -31141,7 +31141,7 @@
         <v>18</v>
       </c>
       <c r="G1067" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -31167,7 +31167,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1068" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -31193,7 +31193,7 @@
         <v>17</v>
       </c>
       <c r="G1069" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -31219,7 +31219,7 @@
         <v>17</v>
       </c>
       <c r="G1070" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31245,7 +31245,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1071" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -31271,7 +31271,7 @@
         <v>17.5</v>
       </c>
       <c r="G1072" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31297,7 +31297,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1073" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31323,7 +31323,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1074" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31349,7 +31349,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1075" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31375,7 +31375,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31401,7 +31401,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1077" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31427,7 +31427,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1078" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31453,7 +31453,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1079" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31479,7 +31479,7 @@
         <v>14</v>
       </c>
       <c r="G1080" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31505,7 +31505,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1081" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31531,7 +31531,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1082" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31557,7 +31557,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1083" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31583,7 +31583,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1084" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31609,7 +31609,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1085" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31635,7 +31635,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1086" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31661,7 +31661,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1087" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31687,7 +31687,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1088" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31713,7 +31713,7 @@
         <v>15</v>
       </c>
       <c r="G1089" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31739,7 +31739,7 @@
         <v>15.5</v>
       </c>
       <c r="G1090" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31765,7 +31765,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1091" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31791,7 +31791,7 @@
         <v>15.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31817,7 +31817,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1093" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31843,7 +31843,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1094" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31869,7 +31869,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1095" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31895,7 +31895,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1096" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31921,7 +31921,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1097" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31947,7 +31947,7 @@
         <v>15</v>
       </c>
       <c r="G1098" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31973,7 +31973,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1099" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -31999,7 +31999,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1100" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -32025,7 +32025,7 @@
         <v>15</v>
       </c>
       <c r="G1101" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -32051,7 +32051,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1102" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -32077,7 +32077,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1103" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -32103,7 +32103,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1104" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32129,7 +32129,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1105" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -32155,7 +32155,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -32181,7 +32181,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1107" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -32207,7 +32207,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1108" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -32233,7 +32233,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1109" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -32259,7 +32259,7 @@
         <v>13.75</v>
       </c>
       <c r="G1110" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -32285,7 +32285,7 @@
         <v>14</v>
       </c>
       <c r="G1111" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32311,7 +32311,7 @@
         <v>14</v>
       </c>
       <c r="G1112" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32337,7 +32337,7 @@
         <v>14.5</v>
       </c>
       <c r="G1113" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32363,7 +32363,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1114" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32389,7 +32389,7 @@
         <v>15</v>
       </c>
       <c r="G1115" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32415,7 +32415,7 @@
         <v>15.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32441,7 +32441,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1117" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32467,7 +32467,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1118" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32493,7 +32493,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32519,7 +32519,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1120" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32545,7 +32545,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1121" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32571,7 +32571,7 @@
         <v>17</v>
       </c>
       <c r="G1122" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32597,7 +32597,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1123" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32623,7 +32623,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32649,7 +32649,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1125" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32675,7 +32675,7 @@
         <v>17.5</v>
       </c>
       <c r="G1126" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32701,7 +32701,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1127" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32727,7 +32727,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1128" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32753,7 +32753,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32779,7 +32779,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1130" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32805,7 +32805,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1131" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32831,7 +32831,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1132" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32857,7 +32857,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1133" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32883,7 +32883,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1134" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32909,7 +32909,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1135" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32935,7 +32935,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1136" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32961,7 +32961,7 @@
         <v>18</v>
       </c>
       <c r="G1137" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32987,7 +32987,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -33013,7 +33013,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -33039,7 +33039,7 @@
         <v>17.5</v>
       </c>
       <c r="G1140" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -33065,7 +33065,7 @@
         <v>17</v>
       </c>
       <c r="G1141" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -33091,7 +33091,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1142" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -33117,7 +33117,7 @@
         <v>16.5</v>
       </c>
       <c r="G1143" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -33143,7 +33143,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1144" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -33169,7 +33169,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1145" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -33195,7 +33195,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G1146" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -33221,7 +33221,7 @@
         <v>17.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -33247,7 +33247,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -33273,7 +33273,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33299,7 +33299,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1150" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33325,7 +33325,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1151" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33351,7 +33351,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1152" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33377,7 +33377,7 @@
         <v>17.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33403,7 +33403,7 @@
         <v>17</v>
       </c>
       <c r="G1154" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33429,7 +33429,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1155" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33455,7 +33455,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1156" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33481,7 +33481,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1157" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33507,7 +33507,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33533,7 +33533,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1159" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33559,7 +33559,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1160" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33585,7 +33585,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1161" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33611,7 +33611,7 @@
         <v>16.5</v>
       </c>
       <c r="G1162" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33637,7 +33637,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1163" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33663,7 +33663,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1164" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33689,7 +33689,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1165" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33715,7 +33715,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1166" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33741,7 +33741,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1167" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33767,7 +33767,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1168" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33793,7 +33793,7 @@
         <v>17.25</v>
       </c>
       <c r="G1169" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33819,7 +33819,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1170" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33845,7 +33845,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1171" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33871,7 +33871,7 @@
         <v>17</v>
       </c>
       <c r="G1172" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33897,7 +33897,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1173" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33923,7 +33923,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1174" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33949,7 +33949,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1175" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33975,7 +33975,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -34001,7 +34001,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1177" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -34027,7 +34027,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1178" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -34053,7 +34053,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1179" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -34079,7 +34079,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1180" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -34105,7 +34105,7 @@
         <v>17</v>
       </c>
       <c r="G1181" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -34131,7 +34131,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1182" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -34157,7 +34157,7 @@
         <v>17</v>
       </c>
       <c r="G1183" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -34183,7 +34183,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1184" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -34209,7 +34209,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1185" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -34235,7 +34235,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1186" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -34261,7 +34261,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1187" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34287,7 +34287,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1188" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34313,7 +34313,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34339,7 +34339,7 @@
         <v>17.25</v>
       </c>
       <c r="G1190" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34365,7 +34365,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1191" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34391,7 +34391,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1192" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34417,7 +34417,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1193" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34443,7 +34443,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1194" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34469,7 +34469,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1195" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34495,7 +34495,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1196" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34521,7 +34521,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1197" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34547,7 +34547,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1198" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34573,7 +34573,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1199" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34599,7 +34599,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1200" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34625,7 +34625,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34651,7 +34651,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1202" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34677,7 +34677,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1203" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34703,7 +34703,7 @@
         <v>16</v>
       </c>
       <c r="G1204" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34729,7 +34729,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1205" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34755,7 +34755,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1206" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34781,7 +34781,7 @@
         <v>16</v>
       </c>
       <c r="G1207" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34807,7 +34807,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1208" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34833,7 +34833,7 @@
         <v>16.25</v>
       </c>
       <c r="G1209" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34859,7 +34859,7 @@
         <v>16.5</v>
       </c>
       <c r="G1210" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34885,7 +34885,7 @@
         <v>16.5</v>
       </c>
       <c r="G1211" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34911,7 +34911,7 @@
         <v>17.25</v>
       </c>
       <c r="G1212" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34937,7 +34937,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1213" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34963,7 +34963,7 @@
         <v>17</v>
       </c>
       <c r="G1214" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -34989,7 +34989,7 @@
         <v>17.25</v>
       </c>
       <c r="G1215" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -35015,7 +35015,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1216" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -35041,7 +35041,7 @@
         <v>17</v>
       </c>
       <c r="G1217" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -35067,7 +35067,7 @@
         <v>17</v>
       </c>
       <c r="G1218" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -35093,7 +35093,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1219" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -35119,7 +35119,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -35145,7 +35145,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1221" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -35171,7 +35171,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1222" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -35197,7 +35197,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1223" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -35223,7 +35223,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1224" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -35249,7 +35249,7 @@
         <v>16</v>
       </c>
       <c r="G1225" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -35275,7 +35275,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1226" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35301,7 +35301,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1227" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35327,7 +35327,7 @@
         <v>15.75</v>
       </c>
       <c r="G1228" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35353,7 +35353,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1229" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35379,7 +35379,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1230" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35405,7 +35405,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1231" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35431,7 +35431,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1232" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35457,7 +35457,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35483,7 +35483,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G1234" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35509,7 +35509,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1235" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35535,7 +35535,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35561,7 +35561,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1237" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35587,7 +35587,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1238" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35613,7 +35613,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1239" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35639,7 +35639,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1240" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35665,7 +35665,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1241" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35691,7 +35691,7 @@
         <v>19.5</v>
       </c>
       <c r="G1242" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35717,7 +35717,7 @@
         <v>19</v>
       </c>
       <c r="G1243" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35743,7 +35743,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1244" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35769,7 +35769,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1245" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35795,7 +35795,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1246" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35821,7 +35821,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1247" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35847,7 +35847,7 @@
         <v>18.75</v>
       </c>
       <c r="G1248" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35873,7 +35873,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1249" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35899,7 +35899,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1250" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -35925,7 +35925,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1251" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -35951,7 +35951,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -35977,7 +35977,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1253" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -36003,7 +36003,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -36029,7 +36029,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1255" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -36055,7 +36055,7 @@
         <v>19</v>
       </c>
       <c r="G1256" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -36081,7 +36081,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1257" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -36107,7 +36107,7 @@
         <v>19</v>
       </c>
       <c r="G1258" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -36133,7 +36133,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1259" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -36159,7 +36159,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1260" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -36185,7 +36185,7 @@
         <v>19</v>
       </c>
       <c r="G1261" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -36211,7 +36211,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1262" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -36237,7 +36237,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -36263,7 +36263,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1264" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -36289,7 +36289,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1265" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36315,7 +36315,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1266" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36341,7 +36341,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1267" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36367,7 +36367,7 @@
         <v>18.75</v>
       </c>
       <c r="G1268" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36393,7 +36393,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1269" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36419,7 +36419,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1270" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36445,7 +36445,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G1271" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36471,7 +36471,7 @@
         <v>19</v>
       </c>
       <c r="G1272" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36497,7 +36497,7 @@
         <v>20</v>
       </c>
       <c r="G1273" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36523,7 +36523,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1274" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36549,7 +36549,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1275" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36575,7 +36575,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1276" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36601,7 +36601,7 @@
         <v>21</v>
       </c>
       <c r="G1277" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36627,7 +36627,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1278" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36653,7 +36653,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1279" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36679,7 +36679,7 @@
         <v>20</v>
       </c>
       <c r="G1280" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36705,7 +36705,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1281" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36731,7 +36731,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1282" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36757,7 +36757,7 @@
         <v>20</v>
       </c>
       <c r="G1283" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36783,7 +36783,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1284" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36809,7 +36809,7 @@
         <v>20</v>
       </c>
       <c r="G1285" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36835,7 +36835,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1286" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36861,7 +36861,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1287" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36887,7 +36887,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1288" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36913,7 +36913,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1289" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -36939,7 +36939,7 @@
         <v>20</v>
       </c>
       <c r="G1290" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -36965,7 +36965,7 @@
         <v>20</v>
       </c>
       <c r="G1291" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -36991,7 +36991,7 @@
         <v>20.5</v>
       </c>
       <c r="G1292" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -37017,7 +37017,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1293" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -37043,7 +37043,7 @@
         <v>21</v>
       </c>
       <c r="G1294" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -37069,7 +37069,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1295" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -37095,7 +37095,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1296" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -37121,7 +37121,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1297" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -37147,7 +37147,7 @@
         <v>21.5</v>
       </c>
       <c r="G1298" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -37173,7 +37173,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1299" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -37199,7 +37199,7 @@
         <v>22</v>
       </c>
       <c r="G1300" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -37225,7 +37225,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1301" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -37251,7 +37251,7 @@
         <v>22</v>
       </c>
       <c r="G1302" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -37277,7 +37277,7 @@
         <v>21.5</v>
       </c>
       <c r="G1303" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37303,7 +37303,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1304" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37329,7 +37329,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1305" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37355,7 +37355,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1306" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37381,7 +37381,7 @@
         <v>21</v>
       </c>
       <c r="G1307" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37407,7 +37407,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1308" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37433,7 +37433,7 @@
         <v>21</v>
       </c>
       <c r="G1309" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37459,7 +37459,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1310" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37485,7 +37485,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1311" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37511,7 +37511,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1312" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37537,7 +37537,7 @@
         <v>21.5</v>
       </c>
       <c r="G1313" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37563,7 +37563,7 @@
         <v>21.5</v>
       </c>
       <c r="G1314" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37589,7 +37589,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1315" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37615,7 +37615,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1316" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37641,7 +37641,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1317" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37667,7 +37667,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1318" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37693,7 +37693,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1319" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37719,7 +37719,7 @@
         <v>22.5</v>
       </c>
       <c r="G1320" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37745,7 +37745,7 @@
         <v>23.5</v>
       </c>
       <c r="G1321" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37771,7 +37771,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1322" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37797,7 +37797,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1323" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37823,7 +37823,7 @@
         <v>23.5</v>
       </c>
       <c r="G1324" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37849,7 +37849,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1325" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37875,7 +37875,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1326" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37901,7 +37901,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1327" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -37927,7 +37927,7 @@
         <v>23</v>
       </c>
       <c r="G1328" t="s">
-        <v>695</v>
+        <v>548</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -37953,7 +37953,7 @@
         <v>23.5</v>
       </c>
       <c r="G1329" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -37979,7 +37979,7 @@
         <v>23.5</v>
       </c>
       <c r="G1330" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -38005,7 +38005,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1331" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -38031,7 +38031,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1332" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -38057,7 +38057,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1333" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -38083,7 +38083,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1334" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -38109,7 +38109,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1335" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -38135,7 +38135,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1336" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -38161,7 +38161,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1337" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -38187,7 +38187,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1338" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -38213,7 +38213,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1339" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -38239,7 +38239,7 @@
         <v>23.5</v>
       </c>
       <c r="G1340" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -38369,7 +38369,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1345" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38473,7 +38473,7 @@
         <v>23.5</v>
       </c>
       <c r="G1349" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38603,7 +38603,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1354" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38629,7 +38629,7 @@
         <v>23</v>
       </c>
       <c r="G1355" t="s">
-        <v>695</v>
+        <v>548</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38655,7 +38655,7 @@
         <v>23</v>
       </c>
       <c r="G1356" t="s">
-        <v>695</v>
+        <v>548</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38681,7 +38681,7 @@
         <v>23</v>
       </c>
       <c r="G1357" t="s">
-        <v>695</v>
+        <v>548</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38707,7 +38707,7 @@
         <v>23</v>
       </c>
       <c r="G1358" t="s">
-        <v>695</v>
+        <v>548</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38759,7 +38759,7 @@
         <v>23</v>
       </c>
       <c r="G1360" t="s">
-        <v>695</v>
+        <v>548</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -59905,7 +59905,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6494097222</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>5680</v>
@@ -59926,6 +59926,32 @@
         <v>1014</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.6494097222</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>3524</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>38.9500007629395</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>38.2000007629395</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>38.5999984741211</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>38.2999992370605</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CMB.MI.xlsx
+++ b/data/CMB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="1023">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58274078369141</t>
+    <t xml:space="preserve">9.58274173736572</t>
   </si>
   <si>
     <t xml:space="preserve">CMB.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">9.91149234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65968322753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75061321258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75760936737061</t>
+    <t xml:space="preserve">9.65968418121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75061416625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75760841369629</t>
   </si>
   <si>
     <t xml:space="preserve">9.79258155822754</t>
@@ -62,25 +62,25 @@
     <t xml:space="preserve">9.70864486694336</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47782039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66667652130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61072063446045</t>
+    <t xml:space="preserve">9.47782135009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66667747497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61072158813477</t>
   </si>
   <si>
     <t xml:space="preserve">9.68766212463379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61771488189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53377914428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54077243804932</t>
+    <t xml:space="preserve">9.61771583557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53377723693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.540771484375</t>
   </si>
   <si>
     <t xml:space="preserve">9.44284725189209</t>
@@ -89,31 +89,31 @@
     <t xml:space="preserve">9.17005443572998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10010719299316</t>
+    <t xml:space="preserve">9.10010623931885</t>
   </si>
   <si>
     <t xml:space="preserve">9.1770486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67342853546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63845729827881</t>
+    <t xml:space="preserve">8.67343044281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63845634460449</t>
   </si>
   <si>
     <t xml:space="preserve">8.93922901153564</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76436138153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74337673187256</t>
+    <t xml:space="preserve">8.76436233520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74337768554688</t>
   </si>
   <si>
     <t xml:space="preserve">8.95321846008301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12808513641357</t>
+    <t xml:space="preserve">9.12808609008789</t>
   </si>
   <si>
     <t xml:space="preserve">9.56875228881836</t>
@@ -122,22 +122,22 @@
     <t xml:space="preserve">9.60372543334961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40787410736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20502662658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30295372009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03715515136719</t>
+    <t xml:space="preserve">9.40787315368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20502758026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30295467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03715324401855</t>
   </si>
   <si>
     <t xml:space="preserve">8.98819160461426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2260103225708</t>
+    <t xml:space="preserve">9.22601127624512</t>
   </si>
   <si>
     <t xml:space="preserve">9.14207458496094</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">9.33093166351318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34492015838623</t>
+    <t xml:space="preserve">9.34492111206055</t>
   </si>
   <si>
     <t xml:space="preserve">9.23300552368164</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">9.51279449462891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47082614898682</t>
+    <t xml:space="preserve">9.47082710266113</t>
   </si>
   <si>
     <t xml:space="preserve">9.69465637207031</t>
@@ -170,25 +170,25 @@
     <t xml:space="preserve">9.59673118591309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49880504608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42186450958252</t>
+    <t xml:space="preserve">9.49880409240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4218635559082</t>
   </si>
   <si>
     <t xml:space="preserve">9.50579929351807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31694221496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11409664154053</t>
+    <t xml:space="preserve">9.31694316864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11409568786621</t>
   </si>
   <si>
     <t xml:space="preserve">9.10710144042969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46383094787598</t>
+    <t xml:space="preserve">9.46383285522461</t>
   </si>
   <si>
     <t xml:space="preserve">9.37290000915527</t>
@@ -197,28 +197,28 @@
     <t xml:space="preserve">9.55476188659668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37989521026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43585300445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54776763916016</t>
+    <t xml:space="preserve">9.3798942565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43585205078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54776668548584</t>
   </si>
   <si>
     <t xml:space="preserve">9.72962951660156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63170337677002</t>
+    <t xml:space="preserve">9.63170433044434</t>
   </si>
   <si>
     <t xml:space="preserve">9.56347179412842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57071113586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53451442718506</t>
+    <t xml:space="preserve">9.57071208953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53451347351074</t>
   </si>
   <si>
     <t xml:space="preserve">9.70102310180664</t>
@@ -227,19 +227,19 @@
     <t xml:space="preserve">9.75893878936768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8747730255127</t>
+    <t xml:space="preserve">9.87477397918701</t>
   </si>
   <si>
     <t xml:space="preserve">9.84581470489502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73721981048584</t>
+    <t xml:space="preserve">9.73722076416016</t>
   </si>
   <si>
     <t xml:space="preserve">10.3163871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1281566619873</t>
+    <t xml:space="preserve">10.1281585693359</t>
   </si>
   <si>
     <t xml:space="preserve">10.1353979110718</t>
@@ -248,16 +248,16 @@
     <t xml:space="preserve">10.0268039703369</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1933145523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1136798858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92545032501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93268966674805</t>
+    <t xml:space="preserve">10.1933135986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1136789321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92545127868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93269062042236</t>
   </si>
   <si>
     <t xml:space="preserve">9.91097068786621</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">9.74446105957031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76617908477783</t>
+    <t xml:space="preserve">9.76618003845215</t>
   </si>
   <si>
     <t xml:space="preserve">9.69378471374512</t>
@@ -284,25 +284,25 @@
     <t xml:space="preserve">9.98336601257324</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9906063079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81685733795166</t>
+    <t xml:space="preserve">9.99060535430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81685638427734</t>
   </si>
   <si>
     <t xml:space="preserve">9.83857440948486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94716930389404</t>
+    <t xml:space="preserve">9.94716835021973</t>
   </si>
   <si>
     <t xml:space="preserve">9.91821002960205</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88925170898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46211624145508</t>
+    <t xml:space="preserve">9.88925266265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46211719512939</t>
   </si>
   <si>
     <t xml:space="preserve">9.65034580230713</t>
@@ -326,61 +326,61 @@
     <t xml:space="preserve">9.64310550689697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66482639312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71550178527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8240966796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88201236724854</t>
+    <t xml:space="preserve">9.66482543945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71550273895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82409477233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88201141357422</t>
   </si>
   <si>
     <t xml:space="preserve">9.8602933883667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79513740539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85305500030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67930507659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67206382751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47659683227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48383712768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49107646942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4476375579834</t>
+    <t xml:space="preserve">9.79513931274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85305404663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6793041229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67206573486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47659587860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48383617401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49107551574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44763851165771</t>
   </si>
   <si>
     <t xml:space="preserve">9.37524223327637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25940895080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34628486633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4114408493042</t>
+    <t xml:space="preserve">9.2594108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34628295898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41143989562988</t>
   </si>
   <si>
     <t xml:space="preserve">9.31008529663086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19425392150879</t>
+    <t xml:space="preserve">9.19425296783447</t>
   </si>
   <si>
     <t xml:space="preserve">9.17977333068848</t>
@@ -389,28 +389,28 @@
     <t xml:space="preserve">9.26664924621582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25217056274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28836822509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30284595489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33904457092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24493217468262</t>
+    <t xml:space="preserve">9.25216960906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28836727142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30284690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33904552459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2449312210083</t>
   </si>
   <si>
     <t xml:space="preserve">9.20873260498047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13633632659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91914844512939</t>
+    <t xml:space="preserve">9.13633728027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91914939880371</t>
   </si>
   <si>
     <t xml:space="preserve">8.8829517364502</t>
@@ -419,25 +419,25 @@
     <t xml:space="preserve">9.14357662200928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16529560089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23045063018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33180618286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15805530548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29560852050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4259204864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38248157501221</t>
+    <t xml:space="preserve">9.16529655456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2304515838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33180522918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15805625915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29560661315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42591953277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38248252868652</t>
   </si>
   <si>
     <t xml:space="preserve">9.43315982818604</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">10.0050849914551</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0630016326904</t>
+    <t xml:space="preserve">10.0630006790161</t>
   </si>
   <si>
     <t xml:space="preserve">10.1571159362793</t>
@@ -464,31 +464,31 @@
     <t xml:space="preserve">10.4249801635742</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8014373779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5697727203369</t>
+    <t xml:space="preserve">10.801438331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5697708129883</t>
   </si>
   <si>
     <t xml:space="preserve">10.6276874542236</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5263347625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5118560791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6494073867798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7797203063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9317512512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9824285507202</t>
+    <t xml:space="preserve">10.5263338088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5118551254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6494064331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7797212600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9317493438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9824266433716</t>
   </si>
   <si>
     <t xml:space="preserve">10.8738346099854</t>
@@ -497,10 +497,10 @@
     <t xml:space="preserve">11.0258646011353</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7435216903687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3598232269287</t>
+    <t xml:space="preserve">10.7435207366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.359824180603</t>
   </si>
   <si>
     <t xml:space="preserve">10.3236274719238</t>
@@ -518,10 +518,10 @@
     <t xml:space="preserve">10.9389896392822</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7290420532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8665933609009</t>
+    <t xml:space="preserve">10.729040145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8665943145752</t>
   </si>
   <si>
     <t xml:space="preserve">10.786958694458</t>
@@ -530,10 +530,10 @@
     <t xml:space="preserve">10.8231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">10.757999420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7507610321045</t>
+    <t xml:space="preserve">10.7580003738403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7507600784302</t>
   </si>
   <si>
     <t xml:space="preserve">10.7218027114868</t>
@@ -542,7 +542,7 @@
     <t xml:space="preserve">10.6638860702515</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7652406692505</t>
+    <t xml:space="preserve">10.7652397155762</t>
   </si>
   <si>
     <t xml:space="preserve">11.0041456222534</t>
@@ -551,7 +551,7 @@
     <t xml:space="preserve">10.9462289810181</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0910215377808</t>
+    <t xml:space="preserve">11.0910205841064</t>
   </si>
   <si>
     <t xml:space="preserve">11.5036764144897</t>
@@ -560,31 +560,31 @@
     <t xml:space="preserve">11.4529991149902</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4457578659058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4747190475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4964370727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7787790298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9452905654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5389356613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4448223114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5172176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5534143447876</t>
+    <t xml:space="preserve">11.4457607269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4747180938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4964380264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7787799835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9452896118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5389347076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4448204040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5172157287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5534133911133</t>
   </si>
   <si>
     <t xml:space="preserve">12.7416429519653</t>
@@ -602,151 +602,151 @@
     <t xml:space="preserve">13.7407035827637</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5959119796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.610390663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3714847564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3932037353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3208074569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4438800811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6827850341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8927345275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4139823913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5008583068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4501800537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5442953109741</t>
+    <t xml:space="preserve">13.595911026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6103897094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.371485710144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3932027816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3208093643188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4438819885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6827869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8927335739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4139842987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5008602142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4501810073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5442962646484</t>
   </si>
   <si>
     <t xml:space="preserve">14.5515356063843</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6601276397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5949716567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5225782394409</t>
+    <t xml:space="preserve">14.6601295471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5949726104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.522575378418</t>
   </si>
   <si>
     <t xml:space="preserve">14.7390537261963</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8515644073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6715469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.604040145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5140314102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1764936447144</t>
+    <t xml:space="preserve">14.8515663146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6715459823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6040391921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5140295028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.176495552063</t>
   </si>
   <si>
     <t xml:space="preserve">14.8890705108643</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1914978027344</t>
+    <t xml:space="preserve">14.1914968490601</t>
   </si>
   <si>
     <t xml:space="preserve">14.5215330123901</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5065307617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7990598678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8815689086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8740663528442</t>
+    <t xml:space="preserve">14.5065288543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7990617752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8815717697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8740682601929</t>
   </si>
   <si>
     <t xml:space="preserve">14.8065624237061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9640779495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1065921783447</t>
+    <t xml:space="preserve">14.9640798568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.106595993042</t>
   </si>
   <si>
     <t xml:space="preserve">15.9016780853271</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4342308044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3442249298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9316825866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7516613006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4741325378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1740970611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1417045593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8791742324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.481632232666</t>
+    <t xml:space="preserve">16.4342346191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3442230224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9316787719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7516593933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4741306304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1740999221802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1417026519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8791761398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4816341400146</t>
   </si>
   <si>
     <t xml:space="preserve">15.6316480636597</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1267032623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0291919708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.834171295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7366580963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3841218948364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6991567611694</t>
+    <t xml:space="preserve">16.1267013549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0291938781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8341693878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7366600036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3841238021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6991548538208</t>
   </si>
   <si>
     <t xml:space="preserve">15.6766529083252</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">15.5416383743286</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7141561508179</t>
+    <t xml:space="preserve">15.7141580581665</t>
   </si>
   <si>
     <t xml:space="preserve">15.5866432189941</t>
@@ -764,34 +764,34 @@
     <t xml:space="preserve">15.7741632461548</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2467155456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2767181396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3517246246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.524242401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.636754989624</t>
+    <t xml:space="preserve">16.2467136383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2767162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3517227172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5242443084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6367568969727</t>
   </si>
   <si>
     <t xml:space="preserve">16.5392436981201</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2242107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8491706848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8566732406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8266696929932</t>
+    <t xml:space="preserve">16.2242126464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8491697311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.856671333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8266716003418</t>
   </si>
   <si>
     <t xml:space="preserve">15.8941764831543</t>
@@ -800,25 +800,25 @@
     <t xml:space="preserve">15.8041658401489</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7216577529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.616644859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7441596984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116693496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4516305923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4216270446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3766241073608</t>
+    <t xml:space="preserve">15.7216567993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6166467666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.744161605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116664886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4516286849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4216251373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3766222000122</t>
   </si>
   <si>
     <t xml:space="preserve">15.5191373825073</t>
@@ -827,22 +827,22 @@
     <t xml:space="preserve">15.5266370773315</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2266073226929</t>
+    <t xml:space="preserve">15.2266063690186</t>
   </si>
   <si>
     <t xml:space="preserve">15.3016138076782</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2416076660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4441289901733</t>
+    <t xml:space="preserve">15.2416086196899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4441270828247</t>
   </si>
   <si>
     <t xml:space="preserve">15.0315856933594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4066276550293</t>
+    <t xml:space="preserve">15.4066257476807</t>
   </si>
   <si>
     <t xml:space="preserve">15.1966018676758</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">15.3991260528564</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7591609954834</t>
+    <t xml:space="preserve">15.759162902832</t>
   </si>
   <si>
     <t xml:space="preserve">15.9091777801514</t>
@@ -869,16 +869,16 @@
     <t xml:space="preserve">17.6268577575684</t>
   </si>
   <si>
-    <t xml:space="preserve">18.226921081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.382043838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0820121765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1270160675049</t>
+    <t xml:space="preserve">18.2269229888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3820419311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0820140838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1270179748535</t>
   </si>
   <si>
     <t xml:space="preserve">18.8944931030273</t>
@@ -893,25 +893,25 @@
     <t xml:space="preserve">18.6394672393799</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6769695281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5194549560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6319637298584</t>
+    <t xml:space="preserve">18.6769676208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5194530487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.631965637207</t>
   </si>
   <si>
     <t xml:space="preserve">18.2944278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4219436645508</t>
+    <t xml:space="preserve">18.4219417572021</t>
   </si>
   <si>
     <t xml:space="preserve">18.2569236755371</t>
   </si>
   <si>
-    <t xml:space="preserve">18.24192237854</t>
+    <t xml:space="preserve">18.2419242858887</t>
   </si>
   <si>
     <t xml:space="preserve">18.1894187927246</t>
@@ -920,25 +920,25 @@
     <t xml:space="preserve">18.1519165039062</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0319023132324</t>
+    <t xml:space="preserve">18.0319042205811</t>
   </si>
   <si>
     <t xml:space="preserve">17.9643955230713</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9268913269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6793670654297</t>
+    <t xml:space="preserve">17.926887512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6793632507324</t>
   </si>
   <si>
     <t xml:space="preserve">17.904390335083</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7318706512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9718971252441</t>
+    <t xml:space="preserve">17.7318687438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9718952178955</t>
   </si>
   <si>
     <t xml:space="preserve">18.0018997192383</t>
@@ -950,25 +950,25 @@
     <t xml:space="preserve">18.0244007110596</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9343929290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9868984222412</t>
+    <t xml:space="preserve">17.9343910217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9868946075439</t>
   </si>
   <si>
     <t xml:space="preserve">17.8068790435791</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2068119049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2443180084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.551851272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9517860412598</t>
+    <t xml:space="preserve">17.2068157196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2443199157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5518531799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9517879486084</t>
   </si>
   <si>
     <t xml:space="preserve">16.2917194366455</t>
@@ -977,22 +977,22 @@
     <t xml:space="preserve">16.711763381958</t>
   </si>
   <si>
-    <t xml:space="preserve">16.509241104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2317142486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0868034362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9067859649658</t>
+    <t xml:space="preserve">16.5092430114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2317123413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0868015289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9067821502686</t>
   </si>
   <si>
     <t xml:space="preserve">17.1918125152588</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1243076324463</t>
+    <t xml:space="preserve">17.1243057250977</t>
   </si>
   <si>
     <t xml:space="preserve">17.1768112182617</t>
@@ -1004,28 +1004,28 @@
     <t xml:space="preserve">17.1393089294434</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0192947387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8092746734619</t>
+    <t xml:space="preserve">17.0192928314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8092727661133</t>
   </si>
   <si>
     <t xml:space="preserve">16.4642372131348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8467769622803</t>
+    <t xml:space="preserve">16.8467750549316</t>
   </si>
   <si>
     <t xml:space="preserve">17.0568008422852</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8017730712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4192314147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4492340087891</t>
+    <t xml:space="preserve">16.8017711639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4192295074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4492359161377</t>
   </si>
   <si>
     <t xml:space="preserve">16.4417343139648</t>
@@ -1034,28 +1034,28 @@
     <t xml:space="preserve">16.2092113494873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0441913604736</t>
+    <t xml:space="preserve">16.0441951751709</t>
   </si>
   <si>
     <t xml:space="preserve">16.0366897583008</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2017078399658</t>
+    <t xml:space="preserve">16.2017097473145</t>
   </si>
   <si>
     <t xml:space="preserve">16.5917510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8392791748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7642669677734</t>
+    <t xml:space="preserve">16.8392753601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7642688751221</t>
   </si>
   <si>
     <t xml:space="preserve">16.8767795562744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4018363952637</t>
+    <t xml:space="preserve">17.4018383026123</t>
   </si>
   <si>
     <t xml:space="preserve">17.2518196105957</t>
@@ -1064,19 +1064,19 @@
     <t xml:space="preserve">17.0643005371094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3643283843994</t>
+    <t xml:space="preserve">17.3643321990967</t>
   </si>
   <si>
     <t xml:space="preserve">17.2143173217773</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3268280029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.476842880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6643600463867</t>
+    <t xml:space="preserve">17.3268299102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4768447875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6643619537354</t>
   </si>
   <si>
     <t xml:space="preserve">17.8518810272217</t>
@@ -1088,37 +1088,37 @@
     <t xml:space="preserve">17.5893573760986</t>
   </si>
   <si>
-    <t xml:space="preserve">16.989294052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5767478942871</t>
+    <t xml:space="preserve">16.9892921447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5767498016357</t>
   </si>
   <si>
     <t xml:space="preserve">16.5017395019531</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3142223358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9391832351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9766845703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0516948699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3892288208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2893218994141</t>
+    <t xml:space="preserve">16.3142204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9391794204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9766855239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0516929626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3892307281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2893238067627</t>
   </si>
   <si>
     <t xml:space="preserve">17.776876449585</t>
   </si>
   <si>
-    <t xml:space="preserve">17.739372253418</t>
+    <t xml:space="preserve">17.7393703460693</t>
   </si>
   <si>
     <t xml:space="preserve">17.439338684082</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">17.514347076416</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4894504547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3394355773926</t>
+    <t xml:space="preserve">18.4894485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3394336700439</t>
   </si>
   <si>
     <t xml:space="preserve">18.039400100708</t>
@@ -1142,16 +1142,16 @@
     <t xml:space="preserve">17.8893890380859</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4144420623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5644588470459</t>
+    <t xml:space="preserve">18.4144401550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5644607543945</t>
   </si>
   <si>
     <t xml:space="preserve">19.2770328521729</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3520393371582</t>
+    <t xml:space="preserve">19.3520412445068</t>
   </si>
   <si>
     <t xml:space="preserve">19.7270793914795</t>
@@ -1169,10 +1169,10 @@
     <t xml:space="preserve">21.1969413757324</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3846492767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1912517547607</t>
+    <t xml:space="preserve">20.384651184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1912498474121</t>
   </si>
   <si>
     <t xml:space="preserve">20.3459701538086</t>
@@ -1181,10 +1181,10 @@
     <t xml:space="preserve">19.8044414520264</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5723571777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6497192382812</t>
+    <t xml:space="preserve">19.572359085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6497211456299</t>
   </si>
   <si>
     <t xml:space="preserve">19.4949970245361</t>
@@ -1193,28 +1193,28 @@
     <t xml:space="preserve">18.5666656494141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9477767944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.450626373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5336799621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8818035125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1138877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2299289703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5393695831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6167316436768</t>
+    <t xml:space="preserve">17.9477787017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4506244659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5336780548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8818054199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1138858795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2299270629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5393714904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6167335510254</t>
   </si>
   <si>
     <t xml:space="preserve">20.4233303070068</t>
@@ -1226,19 +1226,16 @@
     <t xml:space="preserve">19.1081924438477</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8431243896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0752067565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7270812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4620094299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4176368713379</t>
+    <t xml:space="preserve">19.8431224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0752086639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4620132446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4176349639893</t>
   </si>
   <si>
     <t xml:space="preserve">19.6110401153564</t>
@@ -1256,31 +1253,31 @@
     <t xml:space="preserve">18.6440258026123</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7987461090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1468734741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4563159942627</t>
+    <t xml:space="preserve">18.7987442016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1468753814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4563179016113</t>
   </si>
   <si>
     <t xml:space="preserve">19.3015956878662</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0308322906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3789577484131</t>
+    <t xml:space="preserve">19.0308303833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3789558410645</t>
   </si>
   <si>
     <t xml:space="preserve">18.9921493530273</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1855525970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9978466033936</t>
+    <t xml:space="preserve">19.1855545043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9978446960449</t>
   </si>
   <si>
     <t xml:space="preserve">19.7657604217529</t>
@@ -1289,28 +1286,28 @@
     <t xml:space="preserve">18.8374290466309</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6827049255371</t>
+    <t xml:space="preserve">18.6827068328857</t>
   </si>
   <si>
     <t xml:space="preserve">19.0695114135742</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7930526733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7873611450195</t>
+    <t xml:space="preserve">17.7930564880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7873592376709</t>
   </si>
   <si>
     <t xml:space="preserve">16.1684703826904</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7043056488037</t>
+    <t xml:space="preserve">15.7043037414551</t>
   </si>
   <si>
     <t xml:space="preserve">15.5109004974365</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6326370239258</t>
+    <t xml:space="preserve">16.6326389312744</t>
   </si>
   <si>
     <t xml:space="preserve">17.1354827880859</t>
@@ -1322,22 +1319,22 @@
     <t xml:space="preserve">15.6656227111816</t>
   </si>
   <si>
-    <t xml:space="preserve">15.54958152771</t>
+    <t xml:space="preserve">15.5495834350586</t>
   </si>
   <si>
     <t xml:space="preserve">15.5882616043091</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3174962997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8997478485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0544700622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1627759933472</t>
+    <t xml:space="preserve">15.3174982070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8997488021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0544691085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1627769470215</t>
   </si>
   <si>
     <t xml:space="preserve">15.441276550293</t>
@@ -1352,25 +1349,25 @@
     <t xml:space="preserve">16.5165958404541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.361873626709</t>
+    <t xml:space="preserve">16.3618717193604</t>
   </si>
   <si>
     <t xml:space="preserve">16.2845115661621</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1297874450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2071495056152</t>
+    <t xml:space="preserve">16.1297912597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2071514129639</t>
   </si>
   <si>
     <t xml:space="preserve">16.0911083221436</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590278625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7816667556763</t>
+    <t xml:space="preserve">15.8590259552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.781662940979</t>
   </si>
   <si>
     <t xml:space="preserve">15.7429838180542</t>
@@ -1382,31 +1379,31 @@
     <t xml:space="preserve">16.4005546569824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6713180541992</t>
+    <t xml:space="preserve">16.6713161468506</t>
   </si>
   <si>
     <t xml:space="preserve">16.4779148101807</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9750671386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4567461013794</t>
+    <t xml:space="preserve">15.9750652313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.456748008728</t>
   </si>
   <si>
     <t xml:space="preserve">15.2556095123291</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0137481689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7099990844727</t>
+    <t xml:space="preserve">16.0137500762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.709997177124</t>
   </si>
   <si>
     <t xml:space="preserve">16.5552768707275</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1741676330566</t>
+    <t xml:space="preserve">17.1741638183594</t>
   </si>
   <si>
     <t xml:space="preserve">16.9807624816895</t>
@@ -1424,25 +1421,25 @@
     <t xml:space="preserve">16.3231925964355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9363889694214</t>
+    <t xml:space="preserve">15.9363870620728</t>
   </si>
   <si>
     <t xml:space="preserve">15.3948593139648</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4103326797485</t>
+    <t xml:space="preserve">15.4103307723999</t>
   </si>
   <si>
     <t xml:space="preserve">15.6269445419312</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4258041381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4722204208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0194416046143</t>
+    <t xml:space="preserve">15.4258060455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4722185134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0194435119629</t>
   </si>
   <si>
     <t xml:space="preserve">16.8260402679443</t>
@@ -1454,10 +1451,10 @@
     <t xml:space="preserve">17.2902050018311</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3288879394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3675689697266</t>
+    <t xml:space="preserve">17.3288898468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3675670623779</t>
   </si>
   <si>
     <t xml:space="preserve">17.2515258789062</t>
@@ -1484,16 +1481,16 @@
     <t xml:space="preserve">19.0244979858398</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3809642791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2949981689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3754405975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9732322692871</t>
+    <t xml:space="preserve">18.3809623718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2950000762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3754386901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9732303619385</t>
   </si>
   <si>
     <t xml:space="preserve">16.6916847229004</t>
@@ -1505,10 +1502,10 @@
     <t xml:space="preserve">16.2090339660645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6057205200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8309564590454</t>
+    <t xml:space="preserve">15.6057186126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.830958366394</t>
   </si>
   <si>
     <t xml:space="preserve">16.2894744873047</t>
@@ -1517,7 +1514,7 @@
     <t xml:space="preserve">16.168815612793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0883712768555</t>
+    <t xml:space="preserve">16.0883693695068</t>
   </si>
   <si>
     <t xml:space="preserve">16.3296966552734</t>
@@ -1526,10 +1523,10 @@
     <t xml:space="preserve">15.8631343841553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5735464096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7505149841309</t>
+    <t xml:space="preserve">15.5735445022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7505168914795</t>
   </si>
   <si>
     <t xml:space="preserve">15.9918403625488</t>
@@ -1544,7 +1541,7 @@
     <t xml:space="preserve">15.8953113555908</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8470478057861</t>
+    <t xml:space="preserve">15.8470458984375</t>
   </si>
   <si>
     <t xml:space="preserve">16.4503593444824</t>
@@ -1556,13 +1553,13 @@
     <t xml:space="preserve">16.5307998657227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4905815124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3699169158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4101390838623</t>
+    <t xml:space="preserve">16.4905796051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3699188232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4101371765137</t>
   </si>
   <si>
     <t xml:space="preserve">16.9330101013184</t>
@@ -1571,13 +1568,13 @@
     <t xml:space="preserve">17.4156627655029</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6569900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5363216400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0938930511475</t>
+    <t xml:space="preserve">17.6569881439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5363235473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0938968658447</t>
   </si>
   <si>
     <t xml:space="preserve">17.1743354797363</t>
@@ -1586,7 +1583,7 @@
     <t xml:space="preserve">16.6514663696289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0134525299072</t>
+    <t xml:space="preserve">17.0134506225586</t>
   </si>
   <si>
     <t xml:space="preserve">16.7319049835205</t>
@@ -1601,16 +1598,16 @@
     <t xml:space="preserve">16.57102394104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9596633911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0079307556152</t>
+    <t xml:space="preserve">15.9596652984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0079288482666</t>
   </si>
   <si>
     <t xml:space="preserve">16.8123474121094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0536727905273</t>
+    <t xml:space="preserve">17.053674697876</t>
   </si>
   <si>
     <t xml:space="preserve">17.2145576477051</t>
@@ -1619,13 +1616,13 @@
     <t xml:space="preserve">17.1341152191162</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2547779083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8525676727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4558849334717</t>
+    <t xml:space="preserve">17.2547798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8525695800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.455883026123</t>
   </si>
   <si>
     <t xml:space="preserve">17.6167678833008</t>
@@ -1634,13 +1631,13 @@
     <t xml:space="preserve">18.179859161377</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5016269683838</t>
+    <t xml:space="preserve">18.5016288757324</t>
   </si>
   <si>
     <t xml:space="preserve">18.2200794219971</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6625118255615</t>
+    <t xml:space="preserve">18.6625137329102</t>
   </si>
   <si>
     <t xml:space="preserve">19.3060474395752</t>
@@ -1649,16 +1646,16 @@
     <t xml:space="preserve">18.944055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5473709106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2256031036377</t>
+    <t xml:space="preserve">19.5473690032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2256011962891</t>
   </si>
   <si>
     <t xml:space="preserve">18.7429504394531</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1451625823975</t>
+    <t xml:space="preserve">19.1451606750488</t>
   </si>
   <si>
     <t xml:space="preserve">19.4669303894043</t>
@@ -1676,10 +1673,10 @@
     <t xml:space="preserve">19.7484741210938</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9842777252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8233947753906</t>
+    <t xml:space="preserve">18.9842796325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.823392868042</t>
   </si>
   <si>
     <t xml:space="preserve">18.7027320861816</t>
@@ -1688,7 +1685,7 @@
     <t xml:space="preserve">18.9038352966309</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1049404144287</t>
+    <t xml:space="preserve">19.1049423217773</t>
   </si>
   <si>
     <t xml:space="preserve">19.1853828430176</t>
@@ -1700,7 +1697,7 @@
     <t xml:space="preserve">18.3407440185547</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5071506500244</t>
+    <t xml:space="preserve">19.507152557373</t>
   </si>
   <si>
     <t xml:space="preserve">19.0647201538086</t>
@@ -1715,7 +1712,7 @@
     <t xml:space="preserve">18.6222877502441</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2603015899658</t>
+    <t xml:space="preserve">18.2603034973145</t>
   </si>
   <si>
     <t xml:space="preserve">18.3005218505859</t>
@@ -1724,28 +1721,28 @@
     <t xml:space="preserve">17.7776489257812</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7374286651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9385318756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6861619949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3161287307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0612354278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4795351028442</t>
+    <t xml:space="preserve">17.7374305725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.938533782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6861639022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3161306381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0612373352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4795341491699</t>
   </si>
   <si>
     <t xml:space="preserve">13.5142316818237</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6751165390015</t>
+    <t xml:space="preserve">13.6751155853271</t>
   </si>
   <si>
     <t xml:space="preserve">13.6268501281738</t>
@@ -1754,61 +1751,61 @@
     <t xml:space="preserve">14.0773239135742</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7555570602417</t>
+    <t xml:space="preserve">13.755558013916</t>
   </si>
   <si>
     <t xml:space="preserve">13.6590270996094</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4337911605835</t>
+    <t xml:space="preserve">13.4337902069092</t>
   </si>
   <si>
     <t xml:space="preserve">13.0315809249878</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1949844360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9858369827271</t>
+    <t xml:space="preserve">12.1949853897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9858360290527</t>
   </si>
   <si>
     <t xml:space="preserve">11.2618589401245</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1814165115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.698766708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2216386795044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5434074401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.227162361145</t>
+    <t xml:space="preserve">11.18141746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6987676620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2216396331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5434064865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2271614074707</t>
   </si>
   <si>
     <t xml:space="preserve">12.709813117981</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3478260040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0662784576416</t>
+    <t xml:space="preserve">12.347825050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0662794113159</t>
   </si>
   <si>
     <t xml:space="preserve">12.468487739563</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5087080001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2673826217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9053945541382</t>
+    <t xml:space="preserve">12.5087089538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2673835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9053955078125</t>
   </si>
   <si>
     <t xml:space="preserve">12.1467208862305</t>
@@ -1832,16 +1829,16 @@
     <t xml:space="preserve">11.3825225830078</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8998718261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9803133010864</t>
+    <t xml:space="preserve">10.8998727798462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9803123474121</t>
   </si>
   <si>
     <t xml:space="preserve">11.060754776001</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6640701293945</t>
+    <t xml:space="preserve">11.6640691757202</t>
   </si>
   <si>
     <t xml:space="preserve">12.6695919036865</t>
@@ -1850,90 +1847,93 @@
     <t xml:space="preserve">12.8304748535156</t>
   </si>
   <si>
+    <t xml:space="preserve">14.6001977920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6425151824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5578784942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3886003494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3462800979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7271556854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1503496170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8117923736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9230871200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0500450134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077247619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2616424560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4732389450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.065710067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3196268081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2349882125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8541126251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9387521743774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0923633575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9654064178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346836090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4309186935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.769474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5155563354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.68483543396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3039598464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8807668685913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7114896774292</t>
+  </si>
+  <si>
     <t xml:space="preserve">14.6001968383789</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6425151824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5578784942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3886003494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3462800979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7271556854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1503496170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8117923736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9230871200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0500450134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077247619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2616424560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4732389450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.065710067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3196268081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2349882125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8541126251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9387521743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0923633575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9654064178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346836090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4309186935425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.769474029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5155563354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.68483543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3039598464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8807668685913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7114896774292</t>
-  </si>
-  <si>
     <t xml:space="preserve">13.8384475708008</t>
   </si>
   <si>
@@ -3078,6 +3078,9 @@
   </si>
   <si>
     <t xml:space="preserve">36.7999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5</t>
   </si>
 </sst>
 </file>
@@ -19921,7 +19924,7 @@
         <v>25.5</v>
       </c>
       <c r="G635" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19947,7 +19950,7 @@
         <v>25.5</v>
       </c>
       <c r="G636" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19973,7 +19976,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G637" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19999,7 +20002,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G638" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20025,7 +20028,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G639" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20051,7 +20054,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G640" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20129,7 +20132,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G643" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20155,7 +20158,7 @@
         <v>25</v>
       </c>
       <c r="G644" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20181,7 +20184,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G645" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20207,7 +20210,7 @@
         <v>25</v>
       </c>
       <c r="G646" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20233,7 +20236,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G647" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20259,7 +20262,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G648" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20285,7 +20288,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G649" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20311,7 +20314,7 @@
         <v>24.75</v>
       </c>
       <c r="G650" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20337,7 +20340,7 @@
         <v>24.75</v>
       </c>
       <c r="G651" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20363,7 +20366,7 @@
         <v>24.75</v>
       </c>
       <c r="G652" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20441,7 +20444,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20467,7 +20470,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G656" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20519,7 +20522,7 @@
         <v>25</v>
       </c>
       <c r="G658" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20545,7 +20548,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G659" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20597,7 +20600,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G661" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20623,7 +20626,7 @@
         <v>25</v>
       </c>
       <c r="G662" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20649,7 +20652,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G663" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20675,7 +20678,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G664" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20701,7 +20704,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G665" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20727,7 +20730,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G666" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20779,7 +20782,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G668" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20805,7 +20808,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20857,7 +20860,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G671" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20883,7 +20886,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G672" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20909,7 +20912,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G673" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20961,7 +20964,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20987,7 +20990,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G676" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21039,7 +21042,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G678" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21091,7 +21094,7 @@
         <v>25</v>
       </c>
       <c r="G680" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21117,7 +21120,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21143,7 +21146,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G682" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21169,7 +21172,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G683" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21195,7 +21198,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G684" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21221,7 +21224,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21351,7 +21354,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G690" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21377,7 +21380,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G691" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21403,7 +21406,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21429,7 +21432,7 @@
         <v>25</v>
       </c>
       <c r="G693" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21455,7 +21458,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G694" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21507,7 +21510,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G696" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21533,7 +21536,7 @@
         <v>24.75</v>
       </c>
       <c r="G697" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21559,7 +21562,7 @@
         <v>24.75</v>
       </c>
       <c r="G698" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21585,7 +21588,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G699" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21611,7 +21614,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21637,7 +21640,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G701" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21663,7 +21666,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G702" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21689,7 +21692,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G703" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21715,7 +21718,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G704" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21741,7 +21744,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G705" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21793,7 +21796,7 @@
         <v>23</v>
       </c>
       <c r="G707" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21819,7 +21822,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G708" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21845,7 +21848,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G709" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21871,7 +21874,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G710" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21897,7 +21900,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G711" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21923,7 +21926,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G712" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21949,7 +21952,7 @@
         <v>21.5</v>
       </c>
       <c r="G713" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21975,7 +21978,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22001,7 +22004,7 @@
         <v>21</v>
       </c>
       <c r="G715" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22027,7 +22030,7 @@
         <v>20.25</v>
       </c>
       <c r="G716" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22053,7 +22056,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G717" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22079,7 +22082,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G718" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22105,7 +22108,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G719" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22131,7 +22134,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G720" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22157,7 +22160,7 @@
         <v>19.2600002288818</v>
       </c>
       <c r="G721" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -22183,7 +22186,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G722" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -22209,7 +22212,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G723" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22235,7 +22238,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G724" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22261,7 +22264,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G725" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -22287,7 +22290,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G726" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22313,7 +22316,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G727" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22339,7 +22342,7 @@
         <v>21</v>
       </c>
       <c r="G728" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22365,7 +22368,7 @@
         <v>21.5</v>
       </c>
       <c r="G729" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22391,7 +22394,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G730" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22417,7 +22420,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G731" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22443,7 +22446,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G732" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22469,7 +22472,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G733" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22495,7 +22498,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G734" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22521,7 +22524,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G735" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22547,7 +22550,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G736" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22573,7 +22576,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G737" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22599,7 +22602,7 @@
         <v>20.5</v>
       </c>
       <c r="G738" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22625,7 +22628,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G739" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22651,7 +22654,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G740" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22677,7 +22680,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G741" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22703,7 +22706,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G742" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22729,7 +22732,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22755,7 +22758,7 @@
         <v>21.25</v>
       </c>
       <c r="G744" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22781,7 +22784,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G745" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22807,7 +22810,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G746" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22833,7 +22836,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22859,7 +22862,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G748" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22885,7 +22888,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G749" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22911,7 +22914,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G750" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22937,7 +22940,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22963,7 +22966,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G752" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22989,7 +22992,7 @@
         <v>21</v>
       </c>
       <c r="G753" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23015,7 +23018,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G754" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23041,7 +23044,7 @@
         <v>21</v>
       </c>
       <c r="G755" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23067,7 +23070,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G756" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23093,7 +23096,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G757" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -23119,7 +23122,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G758" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23145,7 +23148,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G759" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23171,7 +23174,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G760" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -23197,7 +23200,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G761" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23223,7 +23226,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G762" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -23249,7 +23252,7 @@
         <v>20.25</v>
       </c>
       <c r="G763" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23275,7 +23278,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G764" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23301,7 +23304,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G765" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23327,7 +23330,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G766" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23353,7 +23356,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G767" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23379,7 +23382,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23405,7 +23408,7 @@
         <v>21</v>
       </c>
       <c r="G769" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23431,7 +23434,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G770" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23457,7 +23460,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G771" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23483,7 +23486,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G772" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23509,7 +23512,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23535,7 +23538,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G774" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23561,7 +23564,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G775" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23587,7 +23590,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G776" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23613,7 +23616,7 @@
         <v>22.5</v>
       </c>
       <c r="G777" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23639,7 +23642,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G778" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23665,7 +23668,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G779" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23691,7 +23694,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G780" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23717,7 +23720,7 @@
         <v>21.5</v>
       </c>
       <c r="G781" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23743,7 +23746,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G782" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23769,7 +23772,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G783" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23795,7 +23798,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G784" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23821,7 +23824,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G785" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23847,7 +23850,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G786" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23873,7 +23876,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G787" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23899,7 +23902,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23925,7 +23928,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G789" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23951,7 +23954,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G790" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23977,7 +23980,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G791" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24003,7 +24006,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G792" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24029,7 +24032,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G793" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24055,7 +24058,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G794" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24081,7 +24084,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G795" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24107,7 +24110,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G796" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24133,7 +24136,7 @@
         <v>20.25</v>
       </c>
       <c r="G797" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -24159,7 +24162,7 @@
         <v>20</v>
       </c>
       <c r="G798" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -24185,7 +24188,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G799" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -24211,7 +24214,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G800" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -24237,7 +24240,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G801" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -24263,7 +24266,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G802" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -24289,7 +24292,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G803" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -24315,7 +24318,7 @@
         <v>20.25</v>
       </c>
       <c r="G804" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24341,7 +24344,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24367,7 +24370,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G806" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24393,7 +24396,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G807" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24419,7 +24422,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G808" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24445,7 +24448,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G809" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24471,7 +24474,7 @@
         <v>20.5</v>
       </c>
       <c r="G810" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24497,7 +24500,7 @@
         <v>20</v>
       </c>
       <c r="G811" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24523,7 +24526,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G812" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24549,7 +24552,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G813" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24575,7 +24578,7 @@
         <v>20.25</v>
       </c>
       <c r="G814" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24601,7 +24604,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G815" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24627,7 +24630,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G816" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24653,7 +24656,7 @@
         <v>20.25</v>
       </c>
       <c r="G817" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24679,7 +24682,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G818" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24705,7 +24708,7 @@
         <v>21</v>
       </c>
       <c r="G819" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24731,7 +24734,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G820" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24757,7 +24760,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G821" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24783,7 +24786,7 @@
         <v>21.5</v>
       </c>
       <c r="G822" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24809,7 +24812,7 @@
         <v>22</v>
       </c>
       <c r="G823" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24835,7 +24838,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G824" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24861,7 +24864,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G825" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24887,7 +24890,7 @@
         <v>21.75</v>
       </c>
       <c r="G826" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24913,7 +24916,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G827" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24939,7 +24942,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G828" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24965,7 +24968,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G829" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24991,7 +24994,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -25017,7 +25020,7 @@
         <v>21.75</v>
       </c>
       <c r="G831" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25043,7 +25046,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G832" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25069,7 +25072,7 @@
         <v>22</v>
       </c>
       <c r="G833" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25095,7 +25098,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -25121,7 +25124,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G835" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -25147,7 +25150,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G836" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -25173,7 +25176,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G837" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -25199,7 +25202,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G838" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -25225,7 +25228,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G839" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -25251,7 +25254,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -25277,7 +25280,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G841" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -25303,7 +25306,7 @@
         <v>22.5</v>
       </c>
       <c r="G842" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25329,7 +25332,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G843" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25355,7 +25358,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G844" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25381,7 +25384,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G845" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25407,7 +25410,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G846" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25433,7 +25436,7 @@
         <v>23.5</v>
       </c>
       <c r="G847" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25459,7 +25462,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G848" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25485,7 +25488,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G849" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25511,7 +25514,7 @@
         <v>21.5</v>
       </c>
       <c r="G850" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25537,7 +25540,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25563,7 +25566,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G852" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25589,7 +25592,7 @@
         <v>20.75</v>
       </c>
       <c r="G853" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25615,7 +25618,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G854" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25641,7 +25644,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G855" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25667,7 +25670,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G856" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25693,7 +25696,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G857" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25719,7 +25722,7 @@
         <v>20.25</v>
       </c>
       <c r="G858" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25745,7 +25748,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G859" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25771,7 +25774,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G860" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25797,7 +25800,7 @@
         <v>20</v>
       </c>
       <c r="G861" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25823,7 +25826,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G862" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25849,7 +25852,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G863" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25875,7 +25878,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G864" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25901,7 +25904,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G865" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25927,7 +25930,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G866" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25953,7 +25956,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G867" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25979,7 +25982,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G868" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26005,7 +26008,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G869" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26031,7 +26034,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G870" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26057,7 +26060,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G871" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26083,7 +26086,7 @@
         <v>19.8799991607666</v>
       </c>
       <c r="G872" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26109,7 +26112,7 @@
         <v>20</v>
       </c>
       <c r="G873" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -26135,7 +26138,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G874" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -26161,7 +26164,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -26187,7 +26190,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G876" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -26213,7 +26216,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G877" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -26239,7 +26242,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G878" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -26265,7 +26268,7 @@
         <v>20.25</v>
       </c>
       <c r="G879" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -26291,7 +26294,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -26317,7 +26320,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G881" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26343,7 +26346,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G882" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26369,7 +26372,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26395,7 +26398,7 @@
         <v>19.7600002288818</v>
       </c>
       <c r="G884" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26421,7 +26424,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G885" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26447,7 +26450,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26473,7 +26476,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G887" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26499,7 +26502,7 @@
         <v>20.25</v>
       </c>
       <c r="G888" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26525,7 +26528,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G889" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26551,7 +26554,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G890" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26577,7 +26580,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G891" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26603,7 +26606,7 @@
         <v>20.5</v>
       </c>
       <c r="G892" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26629,7 +26632,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G893" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26655,7 +26658,7 @@
         <v>20.25</v>
       </c>
       <c r="G894" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26681,7 +26684,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26707,7 +26710,7 @@
         <v>20.25</v>
       </c>
       <c r="G896" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26733,7 +26736,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G897" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26759,7 +26762,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G898" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26785,7 +26788,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G899" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26811,7 +26814,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G900" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26837,7 +26840,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G901" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26863,7 +26866,7 @@
         <v>20.25</v>
       </c>
       <c r="G902" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26889,7 +26892,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G903" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26915,7 +26918,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26941,7 +26944,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G905" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26967,7 +26970,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G906" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26993,7 +26996,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G907" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -27019,7 +27022,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G908" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -27045,7 +27048,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G909" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -27071,7 +27074,7 @@
         <v>21.25</v>
       </c>
       <c r="G910" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -27097,7 +27100,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -27123,7 +27126,7 @@
         <v>21.5</v>
       </c>
       <c r="G912" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -27149,7 +27152,7 @@
         <v>21.5</v>
       </c>
       <c r="G913" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -27175,7 +27178,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -27201,7 +27204,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G915" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -27227,7 +27230,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G916" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -27253,7 +27256,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G917" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -27279,7 +27282,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G918" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -27305,7 +27308,7 @@
         <v>21</v>
       </c>
       <c r="G919" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27331,7 +27334,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G920" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27357,7 +27360,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G921" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27383,7 +27386,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G922" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27409,7 +27412,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G923" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27435,7 +27438,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G924" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27461,7 +27464,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G925" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27487,7 +27490,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G926" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27513,7 +27516,7 @@
         <v>20</v>
       </c>
       <c r="G927" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27539,7 +27542,7 @@
         <v>19.8400001525879</v>
       </c>
       <c r="G928" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27565,7 +27568,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G929" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27591,7 +27594,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G930" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27617,7 +27620,7 @@
         <v>20</v>
       </c>
       <c r="G931" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27643,7 +27646,7 @@
         <v>20</v>
       </c>
       <c r="G932" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27669,7 +27672,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G933" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27695,7 +27698,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G934" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27721,7 +27724,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G935" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27747,7 +27750,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G936" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27773,7 +27776,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G937" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27799,7 +27802,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G938" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27825,7 +27828,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G939" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27851,7 +27854,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G940" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27877,7 +27880,7 @@
         <v>21.25</v>
       </c>
       <c r="G941" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27903,7 +27906,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G942" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27929,7 +27932,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G943" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27955,7 +27958,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G944" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27981,7 +27984,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -28007,7 +28010,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G946" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -28033,7 +28036,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G947" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -28059,7 +28062,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G948" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -28085,7 +28088,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G949" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -28111,7 +28114,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G950" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -28137,7 +28140,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G951" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -28163,7 +28166,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G952" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -28189,7 +28192,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G953" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -28215,7 +28218,7 @@
         <v>21.25</v>
       </c>
       <c r="G954" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -28241,7 +28244,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -28267,7 +28270,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G956" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -28293,7 +28296,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -28319,7 +28322,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G958" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28345,7 +28348,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G959" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28371,7 +28374,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G960" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28397,7 +28400,7 @@
         <v>21.25</v>
       </c>
       <c r="G961" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28423,7 +28426,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G962" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28449,7 +28452,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G963" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28475,7 +28478,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G964" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28501,7 +28504,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G965" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28527,7 +28530,7 @@
         <v>21.5</v>
       </c>
       <c r="G966" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28553,7 +28556,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G967" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28579,7 +28582,7 @@
         <v>21.25</v>
       </c>
       <c r="G968" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28605,7 +28608,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G969" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28631,7 +28634,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G970" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28657,7 +28660,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G971" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28683,7 +28686,7 @@
         <v>21.5</v>
       </c>
       <c r="G972" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28709,7 +28712,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28735,7 +28738,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G974" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28761,7 +28764,7 @@
         <v>21</v>
       </c>
       <c r="G975" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28787,7 +28790,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G976" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28813,7 +28816,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G977" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28839,7 +28842,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G978" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28865,7 +28868,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G979" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28891,7 +28894,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G980" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28917,7 +28920,7 @@
         <v>23</v>
       </c>
       <c r="G981" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28943,7 +28946,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G982" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28969,7 +28972,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G983" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -28995,7 +28998,7 @@
         <v>24</v>
       </c>
       <c r="G984" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -29021,7 +29024,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G985" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -29047,7 +29050,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G986" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29073,7 +29076,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -29099,7 +29102,7 @@
         <v>24</v>
       </c>
       <c r="G988" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -29125,7 +29128,7 @@
         <v>24</v>
       </c>
       <c r="G989" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -29151,7 +29154,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G990" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -29177,7 +29180,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G991" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -29203,7 +29206,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -29229,7 +29232,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G993" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -29255,7 +29258,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -29281,7 +29284,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G995" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -29307,7 +29310,7 @@
         <v>24.5</v>
       </c>
       <c r="G996" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29333,7 +29336,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G997" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29359,7 +29362,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G998" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29385,7 +29388,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29411,7 +29414,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29437,7 +29440,7 @@
         <v>23.25</v>
       </c>
       <c r="G1001" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29463,7 +29466,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1002" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29489,7 +29492,7 @@
         <v>23.5</v>
       </c>
       <c r="G1003" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29515,7 +29518,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1004" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29541,7 +29544,7 @@
         <v>23.75</v>
       </c>
       <c r="G1005" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29567,7 +29570,7 @@
         <v>23.75</v>
       </c>
       <c r="G1006" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29593,7 +29596,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1007" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29619,7 +29622,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29645,7 +29648,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1009" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29671,7 +29674,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29697,7 +29700,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1011" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29723,7 +29726,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1012" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29749,7 +29752,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1013" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29775,7 +29778,7 @@
         <v>24.25</v>
       </c>
       <c r="G1014" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29801,7 +29804,7 @@
         <v>24</v>
       </c>
       <c r="G1015" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29827,7 +29830,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1016" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29853,7 +29856,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1017" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29879,7 +29882,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1018" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29905,7 +29908,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1019" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29931,7 +29934,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29957,7 +29960,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1021" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -29983,7 +29986,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1022" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -30009,7 +30012,7 @@
         <v>23.5</v>
       </c>
       <c r="G1023" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30035,7 +30038,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1024" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -30061,7 +30064,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30087,7 +30090,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1026" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -30113,7 +30116,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1027" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -30139,7 +30142,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1028" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -30165,7 +30168,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1029" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -30191,7 +30194,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1030" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -30217,7 +30220,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1031" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -30243,7 +30246,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1032" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -30269,7 +30272,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1033" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -30295,7 +30298,7 @@
         <v>22.75</v>
       </c>
       <c r="G1034" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30321,7 +30324,7 @@
         <v>23.25</v>
       </c>
       <c r="G1035" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30347,7 +30350,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1036" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30373,7 +30376,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1037" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30399,7 +30402,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30425,7 +30428,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1039" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30451,7 +30454,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1040" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30477,7 +30480,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30503,7 +30506,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1042" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30529,7 +30532,7 @@
         <v>23.75</v>
       </c>
       <c r="G1043" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30555,7 +30558,7 @@
         <v>23.75</v>
       </c>
       <c r="G1044" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30581,7 +30584,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1045" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30607,7 +30610,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1046" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30633,7 +30636,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1047" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30659,7 +30662,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30685,7 +30688,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30711,7 +30714,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30737,7 +30740,7 @@
         <v>23.25</v>
       </c>
       <c r="G1051" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30763,7 +30766,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1052" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30789,7 +30792,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1053" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30815,7 +30818,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1054" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30841,7 +30844,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30867,7 +30870,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1056" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30893,7 +30896,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1057" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30919,7 +30922,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30945,7 +30948,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1059" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30971,7 +30974,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1060" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -30997,7 +31000,7 @@
         <v>20.75</v>
       </c>
       <c r="G1061" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -31023,7 +31026,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1062" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -31049,7 +31052,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1063" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -31075,7 +31078,7 @@
         <v>19.5</v>
       </c>
       <c r="G1064" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31101,7 +31104,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1065" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -31127,7 +31130,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1066" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -31153,7 +31156,7 @@
         <v>18</v>
       </c>
       <c r="G1067" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -31179,7 +31182,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1068" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -31205,7 +31208,7 @@
         <v>17</v>
       </c>
       <c r="G1069" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -31231,7 +31234,7 @@
         <v>17</v>
       </c>
       <c r="G1070" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31257,7 +31260,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1071" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -31283,7 +31286,7 @@
         <v>17.5</v>
       </c>
       <c r="G1072" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31309,7 +31312,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1073" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31335,7 +31338,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1074" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31361,7 +31364,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1075" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31387,7 +31390,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31413,7 +31416,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1077" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31439,7 +31442,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1078" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31465,7 +31468,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1079" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31491,7 +31494,7 @@
         <v>14</v>
       </c>
       <c r="G1080" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31517,7 +31520,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1081" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31543,7 +31546,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1082" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31569,7 +31572,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1083" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31595,7 +31598,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1084" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31621,7 +31624,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1085" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31647,7 +31650,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1086" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31673,7 +31676,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1087" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31699,7 +31702,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1088" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31725,7 +31728,7 @@
         <v>15</v>
       </c>
       <c r="G1089" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31751,7 +31754,7 @@
         <v>15.5</v>
       </c>
       <c r="G1090" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31777,7 +31780,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1091" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31803,7 +31806,7 @@
         <v>15.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31829,7 +31832,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1093" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31855,7 +31858,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1094" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31881,7 +31884,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1095" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31907,7 +31910,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1096" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31933,7 +31936,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1097" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31959,7 +31962,7 @@
         <v>15</v>
       </c>
       <c r="G1098" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -31985,7 +31988,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1099" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -32011,7 +32014,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1100" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -32037,7 +32040,7 @@
         <v>15</v>
       </c>
       <c r="G1101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -32063,7 +32066,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1102" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -32089,7 +32092,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1103" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -32115,7 +32118,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1104" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32141,7 +32144,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1105" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -32167,7 +32170,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -32193,7 +32196,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1107" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -32219,7 +32222,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1108" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -32245,7 +32248,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1109" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -32271,7 +32274,7 @@
         <v>13.75</v>
       </c>
       <c r="G1110" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -32297,7 +32300,7 @@
         <v>14</v>
       </c>
       <c r="G1111" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32323,7 +32326,7 @@
         <v>14</v>
       </c>
       <c r="G1112" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32349,7 +32352,7 @@
         <v>14.5</v>
       </c>
       <c r="G1113" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32375,7 +32378,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1114" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32401,7 +32404,7 @@
         <v>15</v>
       </c>
       <c r="G1115" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32427,7 +32430,7 @@
         <v>15.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32453,7 +32456,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1117" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32479,7 +32482,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1118" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32505,7 +32508,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32531,7 +32534,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1120" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32557,7 +32560,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1121" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32583,7 +32586,7 @@
         <v>17</v>
       </c>
       <c r="G1122" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32609,7 +32612,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1123" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32635,7 +32638,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32661,7 +32664,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1125" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32687,7 +32690,7 @@
         <v>17.5</v>
       </c>
       <c r="G1126" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32713,7 +32716,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1127" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32739,7 +32742,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1128" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32765,7 +32768,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32791,7 +32794,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1130" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32817,7 +32820,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1131" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32843,7 +32846,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1132" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32869,7 +32872,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1133" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32895,7 +32898,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1134" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32921,7 +32924,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1135" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32947,7 +32950,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1136" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -32973,7 +32976,7 @@
         <v>18</v>
       </c>
       <c r="G1137" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -32999,7 +33002,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -33025,7 +33028,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -33051,7 +33054,7 @@
         <v>17.5</v>
       </c>
       <c r="G1140" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -33077,7 +33080,7 @@
         <v>17</v>
       </c>
       <c r="G1141" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -33103,7 +33106,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1142" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -33129,7 +33132,7 @@
         <v>16.5</v>
       </c>
       <c r="G1143" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -33155,7 +33158,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1144" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -33181,7 +33184,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1145" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -33207,7 +33210,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G1146" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -33233,7 +33236,7 @@
         <v>17.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -33259,7 +33262,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -33285,7 +33288,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33311,7 +33314,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1150" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33337,7 +33340,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1151" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33363,7 +33366,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1152" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33389,7 +33392,7 @@
         <v>17.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33415,7 +33418,7 @@
         <v>17</v>
       </c>
       <c r="G1154" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33441,7 +33444,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1155" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33467,7 +33470,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1156" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33493,7 +33496,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1157" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33519,7 +33522,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33545,7 +33548,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1159" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33571,7 +33574,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1160" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33597,7 +33600,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1161" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33623,7 +33626,7 @@
         <v>16.5</v>
       </c>
       <c r="G1162" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33649,7 +33652,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1163" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33675,7 +33678,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1164" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33701,7 +33704,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1165" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33727,7 +33730,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1166" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33753,7 +33756,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1167" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33779,7 +33782,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1168" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33805,7 +33808,7 @@
         <v>17.25</v>
       </c>
       <c r="G1169" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33831,7 +33834,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1170" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33857,7 +33860,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1171" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33883,7 +33886,7 @@
         <v>17</v>
       </c>
       <c r="G1172" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33909,7 +33912,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1173" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33935,7 +33938,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1174" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33961,7 +33964,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1175" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -33987,7 +33990,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -34013,7 +34016,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1177" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -34065,7 +34068,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1179" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -34091,7 +34094,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1180" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -34117,7 +34120,7 @@
         <v>17</v>
       </c>
       <c r="G1181" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -34143,7 +34146,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1182" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -34169,7 +34172,7 @@
         <v>17</v>
       </c>
       <c r="G1183" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -34195,7 +34198,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1184" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -34221,7 +34224,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1185" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -34273,7 +34276,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1187" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34299,7 +34302,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1188" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34325,7 +34328,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34351,7 +34354,7 @@
         <v>17.25</v>
       </c>
       <c r="G1190" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34377,7 +34380,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1191" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34403,7 +34406,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1192" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34429,7 +34432,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1193" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34455,7 +34458,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1194" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34481,7 +34484,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1195" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34507,7 +34510,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1196" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34585,7 +34588,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1199" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34637,7 +34640,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34663,7 +34666,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1202" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34689,7 +34692,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1203" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34741,7 +34744,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1205" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34767,7 +34770,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1206" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34871,7 +34874,7 @@
         <v>16.5</v>
       </c>
       <c r="G1210" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34897,7 +34900,7 @@
         <v>16.5</v>
       </c>
       <c r="G1211" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34923,7 +34926,7 @@
         <v>17.25</v>
       </c>
       <c r="G1212" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34949,7 +34952,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1213" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -34975,7 +34978,7 @@
         <v>17</v>
       </c>
       <c r="G1214" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -35001,7 +35004,7 @@
         <v>17.25</v>
       </c>
       <c r="G1215" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -35027,7 +35030,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1216" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -35053,7 +35056,7 @@
         <v>17</v>
       </c>
       <c r="G1217" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -35079,7 +35082,7 @@
         <v>17</v>
       </c>
       <c r="G1218" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -35105,7 +35108,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1219" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -35131,7 +35134,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -35157,7 +35160,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1221" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -35183,7 +35186,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1222" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -35469,7 +35472,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35547,7 +35550,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35573,7 +35576,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1237" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -37939,7 +37942,7 @@
         <v>23</v>
       </c>
       <c r="G1328" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -38641,7 +38644,7 @@
         <v>23</v>
       </c>
       <c r="G1355" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38667,7 +38670,7 @@
         <v>23</v>
       </c>
       <c r="G1356" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38693,7 +38696,7 @@
         <v>23</v>
       </c>
       <c r="G1357" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38719,7 +38722,7 @@
         <v>23</v>
       </c>
       <c r="G1358" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38771,7 +38774,7 @@
         <v>23</v>
       </c>
       <c r="G1360" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -60073,7 +60076,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n">
-        <v>45497.649375</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B2180" t="n">
         <v>2719</v>
@@ -60094,6 +60097,32 @@
         <v>1021</v>
       </c>
       <c r="H2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>45498.6493402778</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>9832</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>36.7000007629395</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>36.1500015258789</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>37</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H2181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CMB.MI.xlsx
+++ b/data/CMB.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58274078369141</t>
+    <t xml:space="preserve">9.58274173736572</t>
   </si>
   <si>
     <t xml:space="preserve">CMB.MI</t>
@@ -50,16 +50,16 @@
     <t xml:space="preserve">9.65968322753906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75061416625977</t>
+    <t xml:space="preserve">9.75061321258545</t>
   </si>
   <si>
     <t xml:space="preserve">9.75760841369629</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79258155822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70864582061768</t>
+    <t xml:space="preserve">9.79258251190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70864677429199</t>
   </si>
   <si>
     <t xml:space="preserve">9.47782230377197</t>
@@ -74,40 +74,40 @@
     <t xml:space="preserve">9.68766212463379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61771488189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53378009796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54077339172363</t>
+    <t xml:space="preserve">9.61771392822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53377914428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54077434539795</t>
   </si>
   <si>
     <t xml:space="preserve">9.44284725189209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17005348205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10010719299316</t>
+    <t xml:space="preserve">9.17005443572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10010814666748</t>
   </si>
   <si>
     <t xml:space="preserve">9.1770486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67342948913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63845729827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93922901153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76436042785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74337863922119</t>
+    <t xml:space="preserve">8.67343044281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63845634460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93922996520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76436138153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74337768554688</t>
   </si>
   <si>
     <t xml:space="preserve">8.95321846008301</t>
@@ -119,13 +119,13 @@
     <t xml:space="preserve">9.56875228881836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60372543334961</t>
+    <t xml:space="preserve">9.60372638702393</t>
   </si>
   <si>
     <t xml:space="preserve">9.40787410736084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20502662658691</t>
+    <t xml:space="preserve">9.2050256729126</t>
   </si>
   <si>
     <t xml:space="preserve">9.30295276641846</t>
@@ -137,25 +137,25 @@
     <t xml:space="preserve">8.98819255828857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22601127624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14207458496094</t>
+    <t xml:space="preserve">9.2260103225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1420726776123</t>
   </si>
   <si>
     <t xml:space="preserve">9.33093166351318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34492111206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23300647735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30994892120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52678203582764</t>
+    <t xml:space="preserve">9.34492015838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23300552368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3099479675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52678394317627</t>
   </si>
   <si>
     <t xml:space="preserve">9.51279449462891</t>
@@ -167,25 +167,25 @@
     <t xml:space="preserve">9.69465637207031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59673023223877</t>
+    <t xml:space="preserve">9.59673118591309</t>
   </si>
   <si>
     <t xml:space="preserve">9.49880504608154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4218635559082</t>
+    <t xml:space="preserve">9.42186260223389</t>
   </si>
   <si>
     <t xml:space="preserve">9.50580024719238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3169412612915</t>
+    <t xml:space="preserve">9.31694316864014</t>
   </si>
   <si>
     <t xml:space="preserve">9.11409568786621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10710144042969</t>
+    <t xml:space="preserve">9.10710048675537</t>
   </si>
   <si>
     <t xml:space="preserve">9.46383190155029</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">9.37290000915527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55476188659668</t>
+    <t xml:space="preserve">9.554762840271</t>
   </si>
   <si>
     <t xml:space="preserve">9.3798942565918</t>
@@ -206,22 +206,22 @@
     <t xml:space="preserve">9.54776763916016</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72963047027588</t>
+    <t xml:space="preserve">9.72962951660156</t>
   </si>
   <si>
     <t xml:space="preserve">9.63170433044434</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56346988677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57071018218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53451347351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70102310180664</t>
+    <t xml:space="preserve">9.56347179412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57071113586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53451251983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70102405548096</t>
   </si>
   <si>
     <t xml:space="preserve">9.75893878936768</t>
@@ -230,16 +230,16 @@
     <t xml:space="preserve">9.87477397918701</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84581470489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73722076416016</t>
+    <t xml:space="preserve">9.8458137512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73722171783447</t>
   </si>
   <si>
     <t xml:space="preserve">10.3163862228394</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1281566619873</t>
+    <t xml:space="preserve">10.1281576156616</t>
   </si>
   <si>
     <t xml:space="preserve">10.1353979110718</t>
@@ -251,22 +251,22 @@
     <t xml:space="preserve">10.1933135986328</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1136779785156</t>
+    <t xml:space="preserve">10.1136789321899</t>
   </si>
   <si>
     <t xml:space="preserve">9.92545032501221</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93268966674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91096973419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83133411407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77341747283936</t>
+    <t xml:space="preserve">9.93269062042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91097068786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83133602142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77341938018799</t>
   </si>
   <si>
     <t xml:space="preserve">9.74446105957031</t>
@@ -275,13 +275,13 @@
     <t xml:space="preserve">9.76617908477783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69378471374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9399299621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98336601257324</t>
+    <t xml:space="preserve">9.6937837600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93992900848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98336696624756</t>
   </si>
   <si>
     <t xml:space="preserve">9.9906063079834</t>
@@ -296,25 +296,25 @@
     <t xml:space="preserve">9.94716835021973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91821002960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88925170898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46211814880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65034580230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62862682342529</t>
+    <t xml:space="preserve">9.91821098327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88925266265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46211624145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65034675598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62862777709961</t>
   </si>
   <si>
     <t xml:space="preserve">9.54899120330811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62138843536377</t>
+    <t xml:space="preserve">9.62138748168945</t>
   </si>
   <si>
     <t xml:space="preserve">9.70826244354248</t>
@@ -323,13 +323,13 @@
     <t xml:space="preserve">9.63586807250977</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64310550689697</t>
+    <t xml:space="preserve">9.64310646057129</t>
   </si>
   <si>
     <t xml:space="preserve">9.66482639312744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71550178527832</t>
+    <t xml:space="preserve">9.71550273895264</t>
   </si>
   <si>
     <t xml:space="preserve">9.82409572601318</t>
@@ -344,10 +344,10 @@
     <t xml:space="preserve">9.79513835906982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85305309295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67930507659912</t>
+    <t xml:space="preserve">9.85305404663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6793041229248</t>
   </si>
   <si>
     <t xml:space="preserve">9.67206478118896</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">9.48383712768555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49107456207275</t>
+    <t xml:space="preserve">9.49107646942139</t>
   </si>
   <si>
     <t xml:space="preserve">9.44763946533203</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">9.37524223327637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25940990447998</t>
+    <t xml:space="preserve">9.25940895080566</t>
   </si>
   <si>
     <t xml:space="preserve">9.34628391265869</t>
@@ -380,19 +380,19 @@
     <t xml:space="preserve">9.31008625030518</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19425296783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17977523803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2666482925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25216865539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28836822509766</t>
+    <t xml:space="preserve">9.19425392150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17977428436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26664924621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25216960906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28836727142334</t>
   </si>
   <si>
     <t xml:space="preserve">9.30284690856934</t>
@@ -413,13 +413,13 @@
     <t xml:space="preserve">8.91915035247803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88295269012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14357757568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1652946472168</t>
+    <t xml:space="preserve">8.8829517364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14357662200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16529560089111</t>
   </si>
   <si>
     <t xml:space="preserve">9.2304515838623</t>
@@ -431,46 +431,46 @@
     <t xml:space="preserve">9.15805530548096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2956075668335</t>
+    <t xml:space="preserve">9.29560852050781</t>
   </si>
   <si>
     <t xml:space="preserve">9.42591953277588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38248348236084</t>
+    <t xml:space="preserve">9.38248157501221</t>
   </si>
   <si>
     <t xml:space="preserve">9.43315887451172</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0195655822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0050859451294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0630006790161</t>
+    <t xml:space="preserve">10.0195646286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0050849914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0630016326904</t>
   </si>
   <si>
     <t xml:space="preserve">10.1571159362793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2946691513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3525838851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4249811172485</t>
+    <t xml:space="preserve">10.2946672439575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3525848388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4249801635742</t>
   </si>
   <si>
     <t xml:space="preserve">10.801438331604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5697736740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6276884078979</t>
+    <t xml:space="preserve">10.5697727203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6276874542236</t>
   </si>
   <si>
     <t xml:space="preserve">10.5263347625732</t>
@@ -479,19 +479,19 @@
     <t xml:space="preserve">10.5118560791016</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6494054794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7797212600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9317512512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9824275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.873833656311</t>
+    <t xml:space="preserve">10.6494083404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7797193527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9317493438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9824266433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8738346099854</t>
   </si>
   <si>
     <t xml:space="preserve">11.0258646011353</t>
@@ -503,31 +503,31 @@
     <t xml:space="preserve">10.3598251342773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3236265182495</t>
+    <t xml:space="preserve">10.3236274719238</t>
   </si>
   <si>
     <t xml:space="preserve">10.4756574630737</t>
   </si>
   <si>
-    <t xml:space="preserve">10.859354019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.772479057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9389886856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7290410995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8665952682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.786958694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8231554031372</t>
+    <t xml:space="preserve">10.8593549728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7724800109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9389905929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.729043006897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8665943145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7869577407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8231563568115</t>
   </si>
   <si>
     <t xml:space="preserve">10.757999420166</t>
@@ -539,13 +539,13 @@
     <t xml:space="preserve">10.7218036651611</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6638860702515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7652397155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0041456222534</t>
+    <t xml:space="preserve">10.6638851165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7652406692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0041446685791</t>
   </si>
   <si>
     <t xml:space="preserve">10.9462299346924</t>
@@ -560,148 +560,148 @@
     <t xml:space="preserve">11.4529991149902</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4457607269287</t>
+    <t xml:space="preserve">11.4457597732544</t>
   </si>
   <si>
     <t xml:space="preserve">11.4747180938721</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4964380264282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7787809371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9452886581421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5389347076416</t>
+    <t xml:space="preserve">11.4964361190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7787799835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9452896118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.538932800293</t>
   </si>
   <si>
     <t xml:space="preserve">12.4448213577271</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5172157287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5534133911133</t>
+    <t xml:space="preserve">12.5172166824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5534143447876</t>
   </si>
   <si>
     <t xml:space="preserve">12.741641998291</t>
   </si>
   <si>
-    <t xml:space="preserve">13.299090385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4583597183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4728393554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7407026290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5959129333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6103916168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3714847564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3932018280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3208084106445</t>
+    <t xml:space="preserve">13.2990894317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4583587646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4728403091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7407007217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5959119796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6103887557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3714838027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3932046890259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3208065032959</t>
   </si>
   <si>
     <t xml:space="preserve">13.4438800811768</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6827840805054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8927354812622</t>
+    <t xml:space="preserve">13.6827850341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8927345275879</t>
   </si>
   <si>
     <t xml:space="preserve">14.4139823913574</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5008592605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4501819610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5442953109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.55153465271</t>
+    <t xml:space="preserve">14.5008583068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4501829147339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5442972183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5515336990356</t>
   </si>
   <si>
     <t xml:space="preserve">14.6601285934448</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5949726104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5225734710693</t>
+    <t xml:space="preserve">14.5949735641479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5225772857666</t>
   </si>
   <si>
     <t xml:space="preserve">14.7390546798706</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8515672683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6715459823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6040382385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5140314102173</t>
+    <t xml:space="preserve">14.8515653610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6715469360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6040410995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5140295028687</t>
   </si>
   <si>
     <t xml:space="preserve">14.1764936447144</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8890705108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1914978027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5215330123901</t>
+    <t xml:space="preserve">14.8890695571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1914968490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5215320587158</t>
   </si>
   <si>
     <t xml:space="preserve">14.5065298080444</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7990608215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8815679550171</t>
+    <t xml:space="preserve">14.7990589141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8815698623657</t>
   </si>
   <si>
     <t xml:space="preserve">14.8740682601929</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8065595626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9640789031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.106593132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9016790390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4342346191406</t>
+    <t xml:space="preserve">14.8065643310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9640779495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1065940856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9016771316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.434232711792</t>
   </si>
   <si>
     <t xml:space="preserve">16.3442230224609</t>
@@ -710,28 +710,28 @@
     <t xml:space="preserve">15.931679725647</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7516613006592</t>
+    <t xml:space="preserve">15.7516632080078</t>
   </si>
   <si>
     <t xml:space="preserve">15.4741315841675</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1740980148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1417045593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8791751861572</t>
+    <t xml:space="preserve">15.1740999221802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1417007446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8791732788086</t>
   </si>
   <si>
     <t xml:space="preserve">15.4816331863403</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6316480636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1267032623291</t>
+    <t xml:space="preserve">15.6316499710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1266994476318</t>
   </si>
   <si>
     <t xml:space="preserve">16.0291919708252</t>
@@ -740,13 +740,13 @@
     <t xml:space="preserve">15.8341703414917</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7366609573364</t>
+    <t xml:space="preserve">15.7366590499878</t>
   </si>
   <si>
     <t xml:space="preserve">15.3841228485107</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6991567611694</t>
+    <t xml:space="preserve">15.6991548538208</t>
   </si>
   <si>
     <t xml:space="preserve">15.6766538619995</t>
@@ -755,16 +755,16 @@
     <t xml:space="preserve">15.5416383743286</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7141571044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5866432189941</t>
+    <t xml:space="preserve">15.7141590118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5866451263428</t>
   </si>
   <si>
     <t xml:space="preserve">15.7741651535034</t>
   </si>
   <si>
-    <t xml:space="preserve">16.246711730957</t>
+    <t xml:space="preserve">16.2467136383057</t>
   </si>
   <si>
     <t xml:space="preserve">16.2767181396484</t>
@@ -779,19 +779,19 @@
     <t xml:space="preserve">16.636754989624</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5392436981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2242126464844</t>
+    <t xml:space="preserve">16.5392456054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2242107391357</t>
   </si>
   <si>
     <t xml:space="preserve">15.8491706848145</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8566703796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8266687393188</t>
+    <t xml:space="preserve">15.8566741943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8266706466675</t>
   </si>
   <si>
     <t xml:space="preserve">15.89417552948</t>
@@ -800,34 +800,34 @@
     <t xml:space="preserve">15.8041677474976</t>
   </si>
   <si>
-    <t xml:space="preserve">15.721658706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6166439056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.744158744812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116683959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4516277313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4216270446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3766202926636</t>
+    <t xml:space="preserve">15.7216567993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6166477203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7441606521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116664886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4516296386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4216251373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3766222000122</t>
   </si>
   <si>
     <t xml:space="preserve">15.519136428833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5266380310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2266054153442</t>
+    <t xml:space="preserve">15.5266399383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2266044616699</t>
   </si>
   <si>
     <t xml:space="preserve">15.3016128540039</t>
@@ -839,19 +839,19 @@
     <t xml:space="preserve">15.4441289901733</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0315847396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.406626701355</t>
+    <t xml:space="preserve">15.0315856933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4066247940063</t>
   </si>
   <si>
     <t xml:space="preserve">15.1966028213501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1515989303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3991260528564</t>
+    <t xml:space="preserve">15.1515998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3991270065308</t>
   </si>
   <si>
     <t xml:space="preserve">15.7591609954834</t>
@@ -860,10 +860,10 @@
     <t xml:space="preserve">15.9091758728027</t>
   </si>
   <si>
-    <t xml:space="preserve">16.006685256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8692798614502</t>
+    <t xml:space="preserve">16.0066871643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8692817687988</t>
   </si>
   <si>
     <t xml:space="preserve">17.626859664917</t>
@@ -878,19 +878,19 @@
     <t xml:space="preserve">19.0820140838623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1270160675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.894495010376</t>
+    <t xml:space="preserve">19.1270179748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8944931030273</t>
   </si>
   <si>
     <t xml:space="preserve">18.7519779205322</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8644905090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6394672393799</t>
+    <t xml:space="preserve">18.8644886016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6394653320312</t>
   </si>
   <si>
     <t xml:space="preserve">18.6769695281982</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">18.5194511413574</t>
   </si>
   <si>
-    <t xml:space="preserve">18.631965637207</t>
+    <t xml:space="preserve">18.6319637298584</t>
   </si>
   <si>
     <t xml:space="preserve">18.2944278717041</t>
@@ -908,10 +908,10 @@
     <t xml:space="preserve">18.4219417572021</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2569217681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2419204711914</t>
+    <t xml:space="preserve">18.2569255828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2419242858887</t>
   </si>
   <si>
     <t xml:space="preserve">18.189416885376</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">18.1519165039062</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0319004058838</t>
+    <t xml:space="preserve">18.0319042205811</t>
   </si>
   <si>
     <t xml:space="preserve">17.9643936157227</t>
@@ -935,13 +935,13 @@
     <t xml:space="preserve">17.9043884277344</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7318706512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9718971252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0018978118896</t>
+    <t xml:space="preserve">17.7318687438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9718933105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0018997192383</t>
   </si>
   <si>
     <t xml:space="preserve">18.0469036102295</t>
@@ -950,10 +950,10 @@
     <t xml:space="preserve">18.0244007110596</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9343910217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9868984222412</t>
+    <t xml:space="preserve">17.9343929290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9868965148926</t>
   </si>
   <si>
     <t xml:space="preserve">17.8068771362305</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">17.2068138122559</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2443180084229</t>
+    <t xml:space="preserve">17.2443199157715</t>
   </si>
   <si>
     <t xml:space="preserve">17.551851272583</t>
@@ -974,10 +974,10 @@
     <t xml:space="preserve">16.2917175292969</t>
   </si>
   <si>
-    <t xml:space="preserve">16.711763381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.509241104126</t>
+    <t xml:space="preserve">16.7117614746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5092430114746</t>
   </si>
   <si>
     <t xml:space="preserve">16.23171043396</t>
@@ -986,43 +986,43 @@
     <t xml:space="preserve">17.0868034362793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9067821502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1918144226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1243076324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1768112182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6667556762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.139310836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0192947387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8092746734619</t>
+    <t xml:space="preserve">16.9067840576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1918125152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1243057250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1768093109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6667575836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1393089294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0192966461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8092727661133</t>
   </si>
   <si>
     <t xml:space="preserve">16.4642372131348</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8467769622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0567970275879</t>
+    <t xml:space="preserve">16.8467750549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0568008422852</t>
   </si>
   <si>
     <t xml:space="preserve">16.8017711639404</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4192314147949</t>
+    <t xml:space="preserve">16.4192333221436</t>
   </si>
   <si>
     <t xml:space="preserve">16.4492359161377</t>
@@ -1031,10 +1031,10 @@
     <t xml:space="preserve">16.4417343139648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2092094421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0441913604736</t>
+    <t xml:space="preserve">16.2092113494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0441932678223</t>
   </si>
   <si>
     <t xml:space="preserve">16.0366897583008</t>
@@ -1049,19 +1049,19 @@
     <t xml:space="preserve">16.8392772674561</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7642669677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.876781463623</t>
+    <t xml:space="preserve">16.7642688751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8767795562744</t>
   </si>
   <si>
     <t xml:space="preserve">17.4018363952637</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2518215179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0642967224121</t>
+    <t xml:space="preserve">17.2518196105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0642986297607</t>
   </si>
   <si>
     <t xml:space="preserve">17.3643321990967</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">17.6643619537354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8518829345703</t>
+    <t xml:space="preserve">17.8518810272217</t>
   </si>
   <si>
     <t xml:space="preserve">18.0769081115723</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">16.5767478942871</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5017375946045</t>
+    <t xml:space="preserve">16.5017395019531</t>
   </si>
   <si>
     <t xml:space="preserve">16.3142204284668</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">15.9391813278198</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9766864776611</t>
+    <t xml:space="preserve">15.9766826629639</t>
   </si>
   <si>
     <t xml:space="preserve">16.0516929626465</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">17.2893218994141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7768745422363</t>
+    <t xml:space="preserve">17.776876449585</t>
   </si>
   <si>
     <t xml:space="preserve">17.7393703460693</t>
@@ -1124,64 +1124,64 @@
     <t xml:space="preserve">17.439338684082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7018661499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.514347076416</t>
+    <t xml:space="preserve">17.7018699645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5143489837646</t>
   </si>
   <si>
     <t xml:space="preserve">18.4894504547119</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3394336700439</t>
+    <t xml:space="preserve">18.3394355773926</t>
   </si>
   <si>
     <t xml:space="preserve">18.0394020080566</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8893871307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4144439697266</t>
+    <t xml:space="preserve">17.8893890380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4144420623779</t>
   </si>
   <si>
     <t xml:space="preserve">18.5644588470459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2770309448242</t>
+    <t xml:space="preserve">19.2770328521729</t>
   </si>
   <si>
     <t xml:space="preserve">19.3520412445068</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7270812988281</t>
+    <t xml:space="preserve">19.7270793914795</t>
   </si>
   <si>
     <t xml:space="preserve">20.2686100006104</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9591636657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6554164886475</t>
+    <t xml:space="preserve">19.9591655731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6554145812988</t>
   </si>
   <si>
     <t xml:space="preserve">21.1969413757324</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3846530914307</t>
+    <t xml:space="preserve">20.384651184082</t>
   </si>
   <si>
     <t xml:space="preserve">20.1912479400635</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3459720611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8044414520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5723571777344</t>
+    <t xml:space="preserve">20.3459701538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.804443359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.572359085083</t>
   </si>
   <si>
     <t xml:space="preserve">19.6497192382812</t>
@@ -1193,19 +1193,19 @@
     <t xml:space="preserve">18.5666637420654</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9477787017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4506225585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5336780548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8818016052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1138858795166</t>
+    <t xml:space="preserve">17.9477767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4506244659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5336799621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8818035125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1138877868652</t>
   </si>
   <si>
     <t xml:space="preserve">20.2299270629883</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">20.6167335510254</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4233322143555</t>
+    <t xml:space="preserve">20.4233303070068</t>
   </si>
   <si>
     <t xml:space="preserve">20.0365257263184</t>
@@ -1226,28 +1226,25 @@
     <t xml:space="preserve">19.1081943511963</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8431205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0752067565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7270793914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4620132446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4176368713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6110401153564</t>
+    <t xml:space="preserve">19.8431224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0752086639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4620113372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4176387786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6110420227051</t>
   </si>
   <si>
     <t xml:space="preserve">19.3402767181396</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2629146575928</t>
+    <t xml:space="preserve">19.2629127502441</t>
   </si>
   <si>
     <t xml:space="preserve">19.2242336273193</t>
@@ -1256,16 +1253,16 @@
     <t xml:space="preserve">18.6440258026123</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7987461090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1468753814697</t>
+    <t xml:space="preserve">18.7987442016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1468734741211</t>
   </si>
   <si>
     <t xml:space="preserve">19.4563179016113</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3015975952148</t>
+    <t xml:space="preserve">19.3015937805176</t>
   </si>
   <si>
     <t xml:space="preserve">19.0308322906494</t>
@@ -1274,28 +1271,28 @@
     <t xml:space="preserve">19.3789558410645</t>
   </si>
   <si>
-    <t xml:space="preserve">18.992151260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1855545043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9978446960449</t>
+    <t xml:space="preserve">18.9921493530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1855525970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9978466033936</t>
   </si>
   <si>
     <t xml:space="preserve">19.7657604217529</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8374290466309</t>
+    <t xml:space="preserve">18.8374271392822</t>
   </si>
   <si>
     <t xml:space="preserve">18.6827068328857</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0695133209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7930564880371</t>
+    <t xml:space="preserve">19.0695114135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7930545806885</t>
   </si>
   <si>
     <t xml:space="preserve">16.7873611450195</t>
@@ -1304,7 +1301,7 @@
     <t xml:space="preserve">16.1684684753418</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7043027877808</t>
+    <t xml:space="preserve">15.7043046951294</t>
   </si>
   <si>
     <t xml:space="preserve">15.5109004974365</t>
@@ -1313,37 +1310,37 @@
     <t xml:space="preserve">16.6326370239258</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1354808807373</t>
+    <t xml:space="preserve">17.1354827880859</t>
   </si>
   <si>
     <t xml:space="preserve">16.2458305358887</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6656217575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5495834350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5882625579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3174982070923</t>
+    <t xml:space="preserve">15.665623664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.54958152771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.588264465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3174962997437</t>
   </si>
   <si>
     <t xml:space="preserve">14.8997478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0544691085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1627769470215</t>
+    <t xml:space="preserve">15.0544681549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1627759933472</t>
   </si>
   <si>
     <t xml:space="preserve">15.4412746429443</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8203449249268</t>
+    <t xml:space="preserve">15.8203468322754</t>
   </si>
   <si>
     <t xml:space="preserve">16.8647193908691</t>
@@ -1361,19 +1358,19 @@
     <t xml:space="preserve">16.129789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2071495056152</t>
+    <t xml:space="preserve">16.2071514129639</t>
   </si>
   <si>
     <t xml:space="preserve">16.0911083221436</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590259552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7816638946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7429838180542</t>
+    <t xml:space="preserve">15.8590269088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.781665802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7429847717285</t>
   </si>
   <si>
     <t xml:space="preserve">16.4392356872559</t>
@@ -1385,13 +1382,13 @@
     <t xml:space="preserve">16.6713161468506</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4779167175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9750661849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4567461013794</t>
+    <t xml:space="preserve">16.477912902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9750680923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4567499160767</t>
   </si>
   <si>
     <t xml:space="preserve">15.2556085586548</t>
@@ -1400,16 +1397,16 @@
     <t xml:space="preserve">16.0137481689453</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7099990844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5552768707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1741638183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9807624816895</t>
+    <t xml:space="preserve">16.709997177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5552749633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.174165725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9807605743408</t>
   </si>
   <si>
     <t xml:space="preserve">17.0968036651611</t>
@@ -1418,52 +1415,52 @@
     <t xml:space="preserve">17.4062480926514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.522289276123</t>
+    <t xml:space="preserve">17.5222911834717</t>
   </si>
   <si>
     <t xml:space="preserve">16.3231925964355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9363851547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948602676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4103345870972</t>
+    <t xml:space="preserve">15.9363889694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948583602905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4103326797485</t>
   </si>
   <si>
     <t xml:space="preserve">15.6269426345825</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4258041381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4722204208374</t>
+    <t xml:space="preserve">15.425802230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.472222328186</t>
   </si>
   <si>
     <t xml:space="preserve">17.0194416046143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8260402679443</t>
+    <t xml:space="preserve">16.8260383605957</t>
   </si>
   <si>
     <t xml:space="preserve">16.9034004211426</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2902050018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3288860321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3675670623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2515239715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5609703063965</t>
+    <t xml:space="preserve">17.2902088165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3288879394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3675708770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2515277862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5609722137451</t>
   </si>
   <si>
     <t xml:space="preserve">17.4836101531982</t>
@@ -1475,19 +1472,19 @@
     <t xml:space="preserve">18.0251369476318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8704166412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.179859161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0244979858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3809661865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2950000762939</t>
+    <t xml:space="preserve">17.8704147338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1798610687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0244998931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3809623718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2950019836426</t>
   </si>
   <si>
     <t xml:space="preserve">17.3754425048828</t>
@@ -1496,7 +1493,7 @@
     <t xml:space="preserve">16.9732322692871</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6916847229004</t>
+    <t xml:space="preserve">16.691686630249</t>
   </si>
   <si>
     <t xml:space="preserve">16.2492561340332</t>
@@ -1505,13 +1502,13 @@
     <t xml:space="preserve">16.2090339660645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6057205200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8309564590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2894744873047</t>
+    <t xml:space="preserve">15.6057186126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8309574127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2894763946533</t>
   </si>
   <si>
     <t xml:space="preserve">16.168815612793</t>
@@ -1520,13 +1517,13 @@
     <t xml:space="preserve">16.0883712768555</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3296947479248</t>
+    <t xml:space="preserve">16.3296966552734</t>
   </si>
   <si>
     <t xml:space="preserve">15.863133430481</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5735454559326</t>
+    <t xml:space="preserve">15.573543548584</t>
   </si>
   <si>
     <t xml:space="preserve">15.7505159378052</t>
@@ -1541,7 +1538,7 @@
     <t xml:space="preserve">16.1285915374756</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8953104019165</t>
+    <t xml:space="preserve">15.8953123092651</t>
   </si>
   <si>
     <t xml:space="preserve">15.8470478057861</t>
@@ -1559,16 +1556,16 @@
     <t xml:space="preserve">16.4905796051025</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3699169158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4101371765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9330101013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4156627655029</t>
+    <t xml:space="preserve">16.3699207305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4101390838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9330081939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4156608581543</t>
   </si>
   <si>
     <t xml:space="preserve">17.6569881439209</t>
@@ -1586,7 +1583,7 @@
     <t xml:space="preserve">16.6514644622803</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0134525299072</t>
+    <t xml:space="preserve">17.0134506225586</t>
   </si>
   <si>
     <t xml:space="preserve">16.7319049835205</t>
@@ -1595,16 +1592,16 @@
     <t xml:space="preserve">16.8927898406982</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7721271514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5710201263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9596633911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0079307556152</t>
+    <t xml:space="preserve">16.7721290588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5710220336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9596652984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.007926940918</t>
   </si>
   <si>
     <t xml:space="preserve">16.8123474121094</t>
@@ -1616,7 +1613,7 @@
     <t xml:space="preserve">17.2145576477051</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1341171264648</t>
+    <t xml:space="preserve">17.1341152191162</t>
   </si>
   <si>
     <t xml:space="preserve">17.2547798156738</t>
@@ -1631,13 +1628,10 @@
     <t xml:space="preserve">17.6167659759521</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1798610687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5016288757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2200794219971</t>
+    <t xml:space="preserve">18.5016269683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2200813293457</t>
   </si>
   <si>
     <t xml:space="preserve">18.6625118255615</t>
@@ -1646,25 +1640,25 @@
     <t xml:space="preserve">19.3060455322266</t>
   </si>
   <si>
-    <t xml:space="preserve">18.944055557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5473709106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2256011962891</t>
+    <t xml:space="preserve">18.9440574645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5473728179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2256031036377</t>
   </si>
   <si>
     <t xml:space="preserve">18.7429504394531</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1451606750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4669303894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6278133392334</t>
+    <t xml:space="preserve">19.1451625823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4669284820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.627815246582</t>
   </si>
   <si>
     <t xml:space="preserve">19.8691387176514</t>
@@ -1682,34 +1676,34 @@
     <t xml:space="preserve">18.8233947753906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7027320861816</t>
+    <t xml:space="preserve">18.7027339935303</t>
   </si>
   <si>
     <t xml:space="preserve">18.9038352966309</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1049404144287</t>
+    <t xml:space="preserve">19.1049423217773</t>
   </si>
   <si>
     <t xml:space="preserve">19.1853828430176</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7831726074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3407440185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5071487426758</t>
+    <t xml:space="preserve">18.7831745147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3407421112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5071506500244</t>
   </si>
   <si>
     <t xml:space="preserve">19.0647201538086</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8636169433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5820713043213</t>
+    <t xml:space="preserve">18.8636150360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5820693969727</t>
   </si>
   <si>
     <t xml:space="preserve">18.6222896575928</t>
@@ -1718,10 +1712,10 @@
     <t xml:space="preserve">18.2603015899658</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3005199432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7776489257812</t>
+    <t xml:space="preserve">18.3005218505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7776508331299</t>
   </si>
   <si>
     <t xml:space="preserve">17.7374286651611</t>
@@ -1730,220 +1724,226 @@
     <t xml:space="preserve">17.9385318756104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.686164855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3161306381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0612354278564</t>
+    <t xml:space="preserve">15.6861610412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3161296844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0612373352051</t>
   </si>
   <si>
     <t xml:space="preserve">14.4795351028442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5142316818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6751155853271</t>
+    <t xml:space="preserve">13.514232635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6751146316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6268501281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0773248672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7555570602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6590261459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4337911605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0315809249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1949853897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9858360290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2618589401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.18141746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.698766708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2216377258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5434074401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2271633148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7098140716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.347825050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0662784576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.468487739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5087089538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2673845291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9053955078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1467199325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.106499671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0260572433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7042903900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8249521255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1869401931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3825225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8998718261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9803142547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0607557296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6640701293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6695928573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8304767608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6001958847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6425161361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5578775405884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.388599395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3462800979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7271547317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1503496170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8117942810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9230871200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0500440597534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077238082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2616424560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.473237991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.065710067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3196268081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2349891662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8541126251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9387502670288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0923633575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9654054641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346845626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4309186935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.769476890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5155572891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6848373413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3039598464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8807668685913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7114896774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6001977920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8384485244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2193231582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5422115325928</t>
   </si>
   <si>
     <t xml:space="preserve">13.6268510818481</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0773248672485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7555570602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6590280532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4337911605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0315809249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1949844360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9858369827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2618598937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1814165115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.698766708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2216396331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5434064865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.227162361145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7098140716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.347825050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0662784576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.468487739563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5087080001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2673826217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9053955078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1467208862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.106499671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0260572433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.704291343689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8249521255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1869411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3825225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8998718261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9803133010864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0607557296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6640691757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6695919036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8304758071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6001977920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6425151824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5578784942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3886003494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3462800979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7271547317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1503477096558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8117942810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9230880737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0500440597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077247619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2616424560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.473237991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.065710067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3196268081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2349872589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8541126251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9387521743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0923633575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9654054641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346836090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4309186935425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7694749832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5155572891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.68483543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3039608001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.880765914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7114896774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8384485244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2193231582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5422115325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7538089752197</t>
+    <t xml:space="preserve">13.7538080215454</t>
   </si>
   <si>
     <t xml:space="preserve">13.584529876709</t>
@@ -1958,16 +1958,16 @@
     <t xml:space="preserve">13.2036561965942</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1613368988037</t>
+    <t xml:space="preserve">13.161337852478</t>
   </si>
   <si>
     <t xml:space="preserve">13.4575729370117</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2459745407104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4042673110962</t>
+    <t xml:space="preserve">13.2459754943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4042654037476</t>
   </si>
   <si>
     <t xml:space="preserve">15.8274583816528</t>
@@ -1979,34 +1979,34 @@
     <t xml:space="preserve">16.673849105835</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5045719146729</t>
+    <t xml:space="preserve">16.5045700073242</t>
   </si>
   <si>
     <t xml:space="preserve">16.0813751220703</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2506542205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.166015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.869779586792</t>
+    <t xml:space="preserve">16.2506561279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1660175323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8697776794434</t>
   </si>
   <si>
     <t xml:space="preserve">15.9544172286987</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9120979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3352928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7851400375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7428207397461</t>
+    <t xml:space="preserve">15.9120960235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3352909088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7851419448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7428226470947</t>
   </si>
   <si>
     <t xml:space="preserve">16.0390567779541</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">16.9277629852295</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7584857940674</t>
+    <t xml:space="preserve">16.758487701416</t>
   </si>
   <si>
     <t xml:space="preserve">17.4355964660645</t>
@@ -2033,52 +2033,52 @@
     <t xml:space="preserve">17.5202369689941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8008060455322</t>
+    <t xml:space="preserve">16.8008041381836</t>
   </si>
   <si>
     <t xml:space="preserve">17.0970439910889</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2663192749023</t>
+    <t xml:space="preserve">17.266321182251</t>
   </si>
   <si>
     <t xml:space="preserve">17.1816825866699</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8431243896484</t>
+    <t xml:space="preserve">16.8431224822998</t>
   </si>
   <si>
     <t xml:space="preserve">17.0124034881592</t>
   </si>
   <si>
-    <t xml:space="preserve">17.350959777832</t>
+    <t xml:space="preserve">17.3509578704834</t>
   </si>
   <si>
     <t xml:space="preserve">17.8587913513184</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1127071380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1973457336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6205387115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7051792144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6048717498779</t>
+    <t xml:space="preserve">18.1127090454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1973476409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6205406188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7051811218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6048736572266</t>
   </si>
   <si>
     <t xml:space="preserve">18.5359020233154</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7898178100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8744583129883</t>
+    <t xml:space="preserve">18.7898197174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8744564056396</t>
   </si>
   <si>
     <t xml:space="preserve">19.0437355041504</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">20.6518726348877</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2124729156494</t>
+    <t xml:space="preserve">20.2124710083008</t>
   </si>
   <si>
     <t xml:space="preserve">20.3882331848145</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">19.7730693817139</t>
   </si>
   <si>
-    <t xml:space="preserve">19.333667755127</t>
+    <t xml:space="preserve">19.3336696624756</t>
   </si>
   <si>
     <t xml:space="preserve">20.476110458374</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">21.7064361572266</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9700775146484</t>
+    <t xml:space="preserve">21.9700794219971</t>
   </si>
   <si>
     <t xml:space="preserve">21.5306758880615</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">22.8488807678223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2882843017578</t>
+    <t xml:space="preserve">23.2882823944092</t>
   </si>
   <si>
     <t xml:space="preserve">23.0246410369873</t>
@@ -2201,10 +2201,10 @@
     <t xml:space="preserve">23.9034461975098</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5186080932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4307250976562</t>
+    <t xml:space="preserve">24.5186061859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4307270050049</t>
   </si>
   <si>
     <t xml:space="preserve">24.167085647583</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">24.0792045593262</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7610015869141</t>
+    <t xml:space="preserve">22.7609996795654</t>
   </si>
   <si>
     <t xml:space="preserve">23.7276821136475</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">26.1004524230957</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8368129730225</t>
+    <t xml:space="preserve">25.8368110656738</t>
   </si>
   <si>
     <t xml:space="preserve">25.1337699890137</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">25.4852905273438</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3095302581787</t>
+    <t xml:space="preserve">25.3095283508301</t>
   </si>
   <si>
     <t xml:space="preserve">25.3974094390869</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">26.4519748687744</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2762107849121</t>
+    <t xml:space="preserve">26.2762126922607</t>
   </si>
   <si>
     <t xml:space="preserve">26.3640937805176</t>
@@ -2279,22 +2279,22 @@
     <t xml:space="preserve">27.4186573028564</t>
   </si>
   <si>
-    <t xml:space="preserve">27.506534576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9126243591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6702289581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4065856933594</t>
+    <t xml:space="preserve">27.5065364837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9126224517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6702327728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.406587600708</t>
   </si>
   <si>
     <t xml:space="preserve">30.0550651550293</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2308292388916</t>
+    <t xml:space="preserve">30.230827331543</t>
   </si>
   <si>
     <t xml:space="preserve">30.3187084197998</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">29.0005035400391</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0338172912598</t>
+    <t xml:space="preserve">28.0338191986084</t>
   </si>
   <si>
     <t xml:space="preserve">29.5277843475342</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">28.4732227325439</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4399013519287</t>
+    <t xml:space="preserve">29.439905166626</t>
   </si>
   <si>
     <t xml:space="preserve">28.7368621826172</t>
@@ -2327,13 +2327,13 @@
     <t xml:space="preserve">26.6277332305908</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9792537689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8034934997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3307762145996</t>
+    <t xml:space="preserve">26.9792556762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8034954071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3307781219482</t>
   </si>
   <si>
     <t xml:space="preserve">27.5944156646729</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">27.1550159454346</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0671367645264</t>
+    <t xml:space="preserve">27.0671348571777</t>
   </si>
   <si>
     <t xml:space="preserve">26.8913745880127</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">23.376163482666</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9580059051514</t>
+    <t xml:space="preserve">24.9580078125</t>
   </si>
   <si>
     <t xml:space="preserve">23.8155651092529</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">24.3999366760254</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5743732452393</t>
+    <t xml:space="preserve">23.5743751525879</t>
   </si>
   <si>
     <t xml:space="preserve">24.1247482299805</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">26.1427879333496</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5006828308105</t>
+    <t xml:space="preserve">25.5006847381592</t>
   </si>
   <si>
     <t xml:space="preserve">25.2254981994629</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">24.2164764404297</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1157302856445</t>
+    <t xml:space="preserve">23.1157283782959</t>
   </si>
   <si>
     <t xml:space="preserve">23.299186706543</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">22.6570835113525</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5653553009033</t>
+    <t xml:space="preserve">22.5653533935547</t>
   </si>
   <si>
     <t xml:space="preserve">22.1984386444092</t>
@@ -2450,28 +2450,28 @@
     <t xml:space="preserve">21.9232501983643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9322700500488</t>
+    <t xml:space="preserve">22.9322719573975</t>
   </si>
   <si>
     <t xml:space="preserve">24.6751232147217</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0510578155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.592414855957</t>
+    <t xml:space="preserve">26.0510597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5924129486084</t>
   </si>
   <si>
     <t xml:space="preserve">23.8495616912842</t>
   </si>
   <si>
-    <t xml:space="preserve">23.757833480835</t>
+    <t xml:space="preserve">23.7578315734863</t>
   </si>
   <si>
     <t xml:space="preserve">25.0420398712158</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3082084655762</t>
+    <t xml:space="preserve">24.3082065582275</t>
   </si>
   <si>
     <t xml:space="preserve">24.4916667938232</t>
@@ -2492,13 +2492,13 @@
     <t xml:space="preserve">23.0240001678467</t>
   </si>
   <si>
-    <t xml:space="preserve">22.840539932251</t>
+    <t xml:space="preserve">22.8405418395996</t>
   </si>
   <si>
     <t xml:space="preserve">21.831521987915</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2901649475098</t>
+    <t xml:space="preserve">22.2901668548584</t>
   </si>
   <si>
     <t xml:space="preserve">21.4646053314209</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">26.5097045898438</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4179763793945</t>
+    <t xml:space="preserve">26.4179744720459</t>
   </si>
   <si>
     <t xml:space="preserve">26.6014347076416</t>
@@ -2534,13 +2534,13 @@
     <t xml:space="preserve">28.0690994262695</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2525577545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1608276367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5277442932129</t>
+    <t xml:space="preserve">28.252555847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1608295440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5277462005615</t>
   </si>
   <si>
     <t xml:space="preserve">28.6194744110107</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">28.3442859649658</t>
   </si>
   <si>
-    <t xml:space="preserve">27.702184677124</t>
+    <t xml:space="preserve">27.7021827697754</t>
   </si>
   <si>
     <t xml:space="preserve">27.7939109802246</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">27.8856410980225</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9773693084717</t>
+    <t xml:space="preserve">27.9773712158203</t>
   </si>
   <si>
     <t xml:space="preserve">28.4360160827637</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">27.060079574585</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4269943237305</t>
+    <t xml:space="preserve">27.4269962310791</t>
   </si>
   <si>
     <t xml:space="preserve">27.3352661132812</t>
@@ -2579,7 +2579,7 @@
     <t xml:space="preserve">26.7848930358887</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9683513641357</t>
+    <t xml:space="preserve">26.9683494567871</t>
   </si>
   <si>
     <t xml:space="preserve">27.1518096923828</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">35.0999984741211</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5999984741211</t>
+    <t xml:space="preserve">34.5499992370605</t>
   </si>
 </sst>
 </file>
@@ -19948,7 +19948,7 @@
         <v>25.5</v>
       </c>
       <c r="G635" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19974,7 +19974,7 @@
         <v>25.5</v>
       </c>
       <c r="G636" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20000,7 +20000,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G637" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20026,7 +20026,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G638" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20052,7 +20052,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G639" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20078,7 +20078,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G640" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20156,7 +20156,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G643" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20182,7 +20182,7 @@
         <v>25</v>
       </c>
       <c r="G644" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20208,7 +20208,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G645" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20234,7 +20234,7 @@
         <v>25</v>
       </c>
       <c r="G646" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20260,7 +20260,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G647" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20286,7 +20286,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G648" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20312,7 +20312,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G649" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20338,7 +20338,7 @@
         <v>24.75</v>
       </c>
       <c r="G650" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20364,7 +20364,7 @@
         <v>24.75</v>
       </c>
       <c r="G651" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20390,7 +20390,7 @@
         <v>24.75</v>
       </c>
       <c r="G652" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20468,7 +20468,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20494,7 +20494,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G656" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20546,7 +20546,7 @@
         <v>25</v>
       </c>
       <c r="G658" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20572,7 +20572,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G659" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20624,7 +20624,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G661" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20650,7 +20650,7 @@
         <v>25</v>
       </c>
       <c r="G662" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20676,7 +20676,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G663" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20702,7 +20702,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G664" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20728,7 +20728,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G665" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20754,7 +20754,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G666" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20806,7 +20806,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G668" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20832,7 +20832,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20884,7 +20884,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G671" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20910,7 +20910,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G672" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20936,7 +20936,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G673" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20988,7 +20988,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21014,7 +21014,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G676" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21066,7 +21066,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G678" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21118,7 +21118,7 @@
         <v>25</v>
       </c>
       <c r="G680" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21144,7 +21144,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21170,7 +21170,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G682" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21196,7 +21196,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G683" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21222,7 +21222,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G684" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21248,7 +21248,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21378,7 +21378,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G690" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21404,7 +21404,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G691" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21430,7 +21430,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21456,7 +21456,7 @@
         <v>25</v>
       </c>
       <c r="G693" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21482,7 +21482,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G694" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21534,7 +21534,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G696" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21560,7 +21560,7 @@
         <v>24.75</v>
       </c>
       <c r="G697" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21586,7 +21586,7 @@
         <v>24.75</v>
       </c>
       <c r="G698" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21612,7 +21612,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G699" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21638,7 +21638,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21664,7 +21664,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G701" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21690,7 +21690,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G702" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21716,7 +21716,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G703" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21742,7 +21742,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G704" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21768,7 +21768,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G705" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21820,7 +21820,7 @@
         <v>23</v>
       </c>
       <c r="G707" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21846,7 +21846,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G708" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21872,7 +21872,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G709" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21898,7 +21898,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G710" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21924,7 +21924,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G711" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21950,7 +21950,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G712" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21976,7 +21976,7 @@
         <v>21.5</v>
       </c>
       <c r="G713" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -22002,7 +22002,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22028,7 +22028,7 @@
         <v>21</v>
       </c>
       <c r="G715" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22054,7 +22054,7 @@
         <v>20.25</v>
       </c>
       <c r="G716" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22080,7 +22080,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G717" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22106,7 +22106,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G718" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22132,7 +22132,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G719" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22158,7 +22158,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G720" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22184,7 +22184,7 @@
         <v>19.2600002288818</v>
       </c>
       <c r="G721" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -22210,7 +22210,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G722" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -22236,7 +22236,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G723" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22262,7 +22262,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G724" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22288,7 +22288,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G725" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -22314,7 +22314,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G726" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22340,7 +22340,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G727" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22366,7 +22366,7 @@
         <v>21</v>
       </c>
       <c r="G728" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22392,7 +22392,7 @@
         <v>21.5</v>
       </c>
       <c r="G729" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22418,7 +22418,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G730" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22444,7 +22444,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G731" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22470,7 +22470,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G732" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22496,7 +22496,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G733" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22522,7 +22522,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G734" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22548,7 +22548,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G735" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22574,7 +22574,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G736" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22600,7 +22600,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G737" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22626,7 +22626,7 @@
         <v>20.5</v>
       </c>
       <c r="G738" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22652,7 +22652,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G739" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22678,7 +22678,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G740" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22704,7 +22704,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G741" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22730,7 +22730,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G742" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22756,7 +22756,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22782,7 +22782,7 @@
         <v>21.25</v>
       </c>
       <c r="G744" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22808,7 +22808,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G745" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22834,7 +22834,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G746" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22860,7 +22860,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22886,7 +22886,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G748" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22912,7 +22912,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G749" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22938,7 +22938,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G750" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22964,7 +22964,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22990,7 +22990,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G752" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23016,7 +23016,7 @@
         <v>21</v>
       </c>
       <c r="G753" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23042,7 +23042,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G754" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23068,7 +23068,7 @@
         <v>21</v>
       </c>
       <c r="G755" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23094,7 +23094,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G756" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23120,7 +23120,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G757" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -23146,7 +23146,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G758" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23172,7 +23172,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G759" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23198,7 +23198,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G760" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -23224,7 +23224,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G761" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23250,7 +23250,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G762" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -23276,7 +23276,7 @@
         <v>20.25</v>
       </c>
       <c r="G763" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23302,7 +23302,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G764" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23328,7 +23328,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G765" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23354,7 +23354,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G766" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23380,7 +23380,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G767" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23406,7 +23406,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23432,7 +23432,7 @@
         <v>21</v>
       </c>
       <c r="G769" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23458,7 +23458,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G770" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23484,7 +23484,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G771" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23510,7 +23510,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G772" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23536,7 +23536,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23562,7 +23562,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G774" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23588,7 +23588,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G775" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23614,7 +23614,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G776" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23640,7 +23640,7 @@
         <v>22.5</v>
       </c>
       <c r="G777" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23666,7 +23666,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G778" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23692,7 +23692,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G779" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23718,7 +23718,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G780" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23744,7 +23744,7 @@
         <v>21.5</v>
       </c>
       <c r="G781" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23770,7 +23770,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G782" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23796,7 +23796,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G783" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23822,7 +23822,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G784" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23848,7 +23848,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G785" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23874,7 +23874,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G786" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23900,7 +23900,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G787" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23926,7 +23926,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23952,7 +23952,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G789" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23978,7 +23978,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G790" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24004,7 +24004,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G791" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24030,7 +24030,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G792" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24056,7 +24056,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G793" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24082,7 +24082,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G794" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24108,7 +24108,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G795" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24134,7 +24134,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G796" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24160,7 +24160,7 @@
         <v>20.25</v>
       </c>
       <c r="G797" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -24186,7 +24186,7 @@
         <v>20</v>
       </c>
       <c r="G798" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -24212,7 +24212,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G799" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -24238,7 +24238,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G800" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -24264,7 +24264,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G801" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -24290,7 +24290,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G802" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -24316,7 +24316,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G803" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -24342,7 +24342,7 @@
         <v>20.25</v>
       </c>
       <c r="G804" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24368,7 +24368,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24394,7 +24394,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G806" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24420,7 +24420,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G807" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24446,7 +24446,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G808" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24472,7 +24472,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G809" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24498,7 +24498,7 @@
         <v>20.5</v>
       </c>
       <c r="G810" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24524,7 +24524,7 @@
         <v>20</v>
       </c>
       <c r="G811" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24550,7 +24550,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G812" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24576,7 +24576,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G813" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24602,7 +24602,7 @@
         <v>20.25</v>
       </c>
       <c r="G814" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24628,7 +24628,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G815" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24654,7 +24654,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G816" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24680,7 +24680,7 @@
         <v>20.25</v>
       </c>
       <c r="G817" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24706,7 +24706,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G818" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24732,7 +24732,7 @@
         <v>21</v>
       </c>
       <c r="G819" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24758,7 +24758,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G820" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24784,7 +24784,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G821" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24810,7 +24810,7 @@
         <v>21.5</v>
       </c>
       <c r="G822" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24836,7 +24836,7 @@
         <v>22</v>
       </c>
       <c r="G823" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24862,7 +24862,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G824" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24888,7 +24888,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G825" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24914,7 +24914,7 @@
         <v>21.75</v>
       </c>
       <c r="G826" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24940,7 +24940,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G827" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24966,7 +24966,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G828" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24992,7 +24992,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G829" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -25018,7 +25018,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -25044,7 +25044,7 @@
         <v>21.75</v>
       </c>
       <c r="G831" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25070,7 +25070,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G832" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25096,7 +25096,7 @@
         <v>22</v>
       </c>
       <c r="G833" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25122,7 +25122,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -25148,7 +25148,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G835" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -25174,7 +25174,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G836" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -25200,7 +25200,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G837" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -25226,7 +25226,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G838" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -25252,7 +25252,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G839" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -25278,7 +25278,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -25304,7 +25304,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G841" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -25330,7 +25330,7 @@
         <v>22.5</v>
       </c>
       <c r="G842" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25356,7 +25356,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G843" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25382,7 +25382,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G844" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25408,7 +25408,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G845" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25434,7 +25434,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G846" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25460,7 +25460,7 @@
         <v>23.5</v>
       </c>
       <c r="G847" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25486,7 +25486,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G848" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25512,7 +25512,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G849" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25538,7 +25538,7 @@
         <v>21.5</v>
       </c>
       <c r="G850" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25564,7 +25564,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25590,7 +25590,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G852" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25616,7 +25616,7 @@
         <v>20.75</v>
       </c>
       <c r="G853" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25642,7 +25642,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G854" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25668,7 +25668,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G855" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25694,7 +25694,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G856" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25720,7 +25720,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G857" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25746,7 +25746,7 @@
         <v>20.25</v>
       </c>
       <c r="G858" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25772,7 +25772,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G859" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25798,7 +25798,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G860" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25824,7 +25824,7 @@
         <v>20</v>
       </c>
       <c r="G861" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25850,7 +25850,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G862" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25876,7 +25876,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G863" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25902,7 +25902,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G864" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25928,7 +25928,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G865" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25954,7 +25954,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G866" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25980,7 +25980,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G867" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26006,7 +26006,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G868" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26032,7 +26032,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G869" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26058,7 +26058,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G870" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26084,7 +26084,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G871" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26110,7 +26110,7 @@
         <v>19.8799991607666</v>
       </c>
       <c r="G872" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26136,7 +26136,7 @@
         <v>20</v>
       </c>
       <c r="G873" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -26162,7 +26162,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G874" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -26188,7 +26188,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -26214,7 +26214,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G876" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -26240,7 +26240,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G877" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -26266,7 +26266,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G878" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -26292,7 +26292,7 @@
         <v>20.25</v>
       </c>
       <c r="G879" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -26318,7 +26318,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -26344,7 +26344,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G881" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26370,7 +26370,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G882" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26396,7 +26396,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26422,7 +26422,7 @@
         <v>19.7600002288818</v>
       </c>
       <c r="G884" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26448,7 +26448,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G885" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26474,7 +26474,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26500,7 +26500,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G887" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26526,7 +26526,7 @@
         <v>20.25</v>
       </c>
       <c r="G888" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26552,7 +26552,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G889" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26578,7 +26578,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G890" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26604,7 +26604,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G891" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26630,7 +26630,7 @@
         <v>20.5</v>
       </c>
       <c r="G892" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26656,7 +26656,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G893" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26682,7 +26682,7 @@
         <v>20.25</v>
       </c>
       <c r="G894" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26708,7 +26708,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26734,7 +26734,7 @@
         <v>20.25</v>
       </c>
       <c r="G896" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26760,7 +26760,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G897" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26786,7 +26786,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G898" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26812,7 +26812,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G899" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26838,7 +26838,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G900" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26864,7 +26864,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G901" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26890,7 +26890,7 @@
         <v>20.25</v>
       </c>
       <c r="G902" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26916,7 +26916,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G903" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26942,7 +26942,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26968,7 +26968,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G905" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26994,7 +26994,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G906" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27020,7 +27020,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G907" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -27046,7 +27046,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G908" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -27072,7 +27072,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G909" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -27098,7 +27098,7 @@
         <v>21.25</v>
       </c>
       <c r="G910" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -27124,7 +27124,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -27150,7 +27150,7 @@
         <v>21.5</v>
       </c>
       <c r="G912" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -27176,7 +27176,7 @@
         <v>21.5</v>
       </c>
       <c r="G913" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -27202,7 +27202,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -27228,7 +27228,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G915" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -27254,7 +27254,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G916" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -27280,7 +27280,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G917" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -27306,7 +27306,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G918" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -27332,7 +27332,7 @@
         <v>21</v>
       </c>
       <c r="G919" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27358,7 +27358,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G920" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27384,7 +27384,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G921" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27410,7 +27410,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G922" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27436,7 +27436,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G923" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27462,7 +27462,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G924" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27488,7 +27488,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G925" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27514,7 +27514,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G926" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27540,7 +27540,7 @@
         <v>20</v>
       </c>
       <c r="G927" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27566,7 +27566,7 @@
         <v>19.8400001525879</v>
       </c>
       <c r="G928" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27592,7 +27592,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G929" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27618,7 +27618,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G930" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27644,7 +27644,7 @@
         <v>20</v>
       </c>
       <c r="G931" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27670,7 +27670,7 @@
         <v>20</v>
       </c>
       <c r="G932" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27696,7 +27696,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G933" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27722,7 +27722,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G934" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27748,7 +27748,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G935" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27774,7 +27774,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G936" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27800,7 +27800,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G937" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27826,7 +27826,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G938" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27852,7 +27852,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G939" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27878,7 +27878,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G940" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27904,7 +27904,7 @@
         <v>21.25</v>
       </c>
       <c r="G941" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27930,7 +27930,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G942" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27956,7 +27956,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G943" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27982,7 +27982,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G944" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -28008,7 +28008,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -28034,7 +28034,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G946" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -28060,7 +28060,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G947" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -28086,7 +28086,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G948" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -28112,7 +28112,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G949" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -28138,7 +28138,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G950" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -28164,7 +28164,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G951" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -28190,7 +28190,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G952" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -28216,7 +28216,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G953" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -28242,7 +28242,7 @@
         <v>21.25</v>
       </c>
       <c r="G954" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -28268,7 +28268,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -28294,7 +28294,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G956" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -28320,7 +28320,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -28346,7 +28346,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G958" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28372,7 +28372,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G959" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28398,7 +28398,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G960" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28424,7 +28424,7 @@
         <v>21.25</v>
       </c>
       <c r="G961" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28450,7 +28450,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G962" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28476,7 +28476,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G963" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28502,7 +28502,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G964" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28528,7 +28528,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G965" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28554,7 +28554,7 @@
         <v>21.5</v>
       </c>
       <c r="G966" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28580,7 +28580,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G967" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28606,7 +28606,7 @@
         <v>21.25</v>
       </c>
       <c r="G968" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28632,7 +28632,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G969" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28658,7 +28658,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G970" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28684,7 +28684,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G971" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28710,7 +28710,7 @@
         <v>21.5</v>
       </c>
       <c r="G972" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28736,7 +28736,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28762,7 +28762,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G974" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28788,7 +28788,7 @@
         <v>21</v>
       </c>
       <c r="G975" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28814,7 +28814,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G976" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28840,7 +28840,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G977" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28866,7 +28866,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G978" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28892,7 +28892,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G979" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28918,7 +28918,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G980" t="s">
-        <v>539</v>
+        <v>487</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28944,7 +28944,7 @@
         <v>23</v>
       </c>
       <c r="G981" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28970,7 +28970,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G982" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28996,7 +28996,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G983" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -29022,7 +29022,7 @@
         <v>24</v>
       </c>
       <c r="G984" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -29048,7 +29048,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G985" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -29074,7 +29074,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G986" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29100,7 +29100,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -29126,7 +29126,7 @@
         <v>24</v>
       </c>
       <c r="G988" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -29152,7 +29152,7 @@
         <v>24</v>
       </c>
       <c r="G989" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -29178,7 +29178,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G990" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -29204,7 +29204,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G991" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -29230,7 +29230,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -29256,7 +29256,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G993" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -29282,7 +29282,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -29308,7 +29308,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G995" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -29334,7 +29334,7 @@
         <v>24.5</v>
       </c>
       <c r="G996" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29360,7 +29360,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G997" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29386,7 +29386,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G998" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29412,7 +29412,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29438,7 +29438,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29464,7 +29464,7 @@
         <v>23.25</v>
       </c>
       <c r="G1001" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29490,7 +29490,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1002" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29516,7 +29516,7 @@
         <v>23.5</v>
       </c>
       <c r="G1003" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29542,7 +29542,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1004" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29568,7 +29568,7 @@
         <v>23.75</v>
       </c>
       <c r="G1005" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29594,7 +29594,7 @@
         <v>23.75</v>
       </c>
       <c r="G1006" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29620,7 +29620,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1007" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29646,7 +29646,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29672,7 +29672,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1009" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29698,7 +29698,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29724,7 +29724,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1011" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29750,7 +29750,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1012" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29776,7 +29776,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1013" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29802,7 +29802,7 @@
         <v>24.25</v>
       </c>
       <c r="G1014" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29828,7 +29828,7 @@
         <v>24</v>
       </c>
       <c r="G1015" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29854,7 +29854,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1016" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29880,7 +29880,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1017" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29906,7 +29906,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1018" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29932,7 +29932,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1019" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29958,7 +29958,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29984,7 +29984,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1021" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30010,7 +30010,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1022" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -30036,7 +30036,7 @@
         <v>23.5</v>
       </c>
       <c r="G1023" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30062,7 +30062,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1024" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -30088,7 +30088,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30114,7 +30114,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1026" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -30140,7 +30140,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1027" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -30166,7 +30166,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1028" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -30192,7 +30192,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1029" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -30218,7 +30218,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1030" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -30244,7 +30244,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1031" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -30270,7 +30270,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1032" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -30296,7 +30296,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1033" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -30322,7 +30322,7 @@
         <v>22.75</v>
       </c>
       <c r="G1034" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30348,7 +30348,7 @@
         <v>23.25</v>
       </c>
       <c r="G1035" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30374,7 +30374,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1036" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30400,7 +30400,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1037" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30426,7 +30426,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30452,7 +30452,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1039" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30478,7 +30478,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1040" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30504,7 +30504,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30530,7 +30530,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1042" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30556,7 +30556,7 @@
         <v>23.75</v>
       </c>
       <c r="G1043" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30582,7 +30582,7 @@
         <v>23.75</v>
       </c>
       <c r="G1044" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30608,7 +30608,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1045" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30634,7 +30634,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1046" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30660,7 +30660,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1047" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30686,7 +30686,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30712,7 +30712,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30738,7 +30738,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30764,7 +30764,7 @@
         <v>23.25</v>
       </c>
       <c r="G1051" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30790,7 +30790,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1052" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30816,7 +30816,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1053" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30842,7 +30842,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1054" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30868,7 +30868,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30894,7 +30894,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1056" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30920,7 +30920,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1057" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30946,7 +30946,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30972,7 +30972,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1059" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30998,7 +30998,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1060" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -31024,7 +31024,7 @@
         <v>20.75</v>
       </c>
       <c r="G1061" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -31050,7 +31050,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1062" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -31076,7 +31076,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1063" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -31102,7 +31102,7 @@
         <v>19.5</v>
       </c>
       <c r="G1064" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31128,7 +31128,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1065" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -31154,7 +31154,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1066" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -31180,7 +31180,7 @@
         <v>18</v>
       </c>
       <c r="G1067" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -31206,7 +31206,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1068" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -31232,7 +31232,7 @@
         <v>17</v>
       </c>
       <c r="G1069" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -31258,7 +31258,7 @@
         <v>17</v>
       </c>
       <c r="G1070" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31284,7 +31284,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1071" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -31310,7 +31310,7 @@
         <v>17.5</v>
       </c>
       <c r="G1072" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31336,7 +31336,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1073" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31362,7 +31362,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1074" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31388,7 +31388,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1075" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31414,7 +31414,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31440,7 +31440,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1077" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31466,7 +31466,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1078" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31492,7 +31492,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1079" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31518,7 +31518,7 @@
         <v>14</v>
       </c>
       <c r="G1080" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31544,7 +31544,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1081" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31570,7 +31570,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1082" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31596,7 +31596,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1083" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31622,7 +31622,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1084" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31648,7 +31648,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1085" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31674,7 +31674,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1086" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31700,7 +31700,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1087" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31726,7 +31726,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1088" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31752,7 +31752,7 @@
         <v>15</v>
       </c>
       <c r="G1089" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31778,7 +31778,7 @@
         <v>15.5</v>
       </c>
       <c r="G1090" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31804,7 +31804,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1091" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31830,7 +31830,7 @@
         <v>15.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31856,7 +31856,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1093" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31882,7 +31882,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1094" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31908,7 +31908,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1095" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31934,7 +31934,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1096" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31960,7 +31960,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1097" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31986,7 +31986,7 @@
         <v>15</v>
       </c>
       <c r="G1098" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -32012,7 +32012,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1099" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -32038,7 +32038,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1100" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -32064,7 +32064,7 @@
         <v>15</v>
       </c>
       <c r="G1101" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -32090,7 +32090,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1102" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -32116,7 +32116,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1103" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -32142,7 +32142,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1104" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32168,7 +32168,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1105" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -32194,7 +32194,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -32220,7 +32220,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1107" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -32246,7 +32246,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1108" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -32272,7 +32272,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1109" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -32298,7 +32298,7 @@
         <v>13.75</v>
       </c>
       <c r="G1110" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -32324,7 +32324,7 @@
         <v>14</v>
       </c>
       <c r="G1111" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32350,7 +32350,7 @@
         <v>14</v>
       </c>
       <c r="G1112" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32376,7 +32376,7 @@
         <v>14.5</v>
       </c>
       <c r="G1113" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32402,7 +32402,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1114" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32428,7 +32428,7 @@
         <v>15</v>
       </c>
       <c r="G1115" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32454,7 +32454,7 @@
         <v>15.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32480,7 +32480,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1117" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32506,7 +32506,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1118" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32532,7 +32532,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32558,7 +32558,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1120" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32584,7 +32584,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1121" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32610,7 +32610,7 @@
         <v>17</v>
       </c>
       <c r="G1122" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32636,7 +32636,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1123" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32662,7 +32662,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32688,7 +32688,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1125" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32714,7 +32714,7 @@
         <v>17.5</v>
       </c>
       <c r="G1126" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32740,7 +32740,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1127" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32766,7 +32766,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1128" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32792,7 +32792,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32818,7 +32818,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1130" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32844,7 +32844,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1131" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32870,7 +32870,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1132" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32896,7 +32896,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1133" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32922,7 +32922,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1134" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32948,7 +32948,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1135" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32974,7 +32974,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1136" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -33000,7 +33000,7 @@
         <v>18</v>
       </c>
       <c r="G1137" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -33026,7 +33026,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -33052,7 +33052,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -33078,7 +33078,7 @@
         <v>17.5</v>
       </c>
       <c r="G1140" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -33104,7 +33104,7 @@
         <v>17</v>
       </c>
       <c r="G1141" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -33130,7 +33130,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1142" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -33156,7 +33156,7 @@
         <v>16.5</v>
       </c>
       <c r="G1143" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -33182,7 +33182,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1144" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -33208,7 +33208,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1145" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -33234,7 +33234,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G1146" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -33260,7 +33260,7 @@
         <v>17.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -33286,7 +33286,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -33312,7 +33312,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33338,7 +33338,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1150" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33364,7 +33364,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1151" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33390,7 +33390,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1152" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33416,7 +33416,7 @@
         <v>17.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33442,7 +33442,7 @@
         <v>17</v>
       </c>
       <c r="G1154" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33468,7 +33468,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1155" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33494,7 +33494,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1156" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33520,7 +33520,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1157" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33546,7 +33546,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33572,7 +33572,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1159" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33598,7 +33598,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1160" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33624,7 +33624,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1161" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33650,7 +33650,7 @@
         <v>16.5</v>
       </c>
       <c r="G1162" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33676,7 +33676,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1163" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33702,7 +33702,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1164" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33728,7 +33728,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1165" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33754,7 +33754,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1166" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33780,7 +33780,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1167" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33806,7 +33806,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1168" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33832,7 +33832,7 @@
         <v>17.25</v>
       </c>
       <c r="G1169" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33858,7 +33858,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1170" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33884,7 +33884,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1171" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33910,7 +33910,7 @@
         <v>17</v>
       </c>
       <c r="G1172" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33936,7 +33936,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1173" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33962,7 +33962,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1174" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33988,7 +33988,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1175" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -34014,7 +34014,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -34040,7 +34040,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1177" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -34066,7 +34066,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1178" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -34092,7 +34092,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1179" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -34118,7 +34118,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1180" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -34144,7 +34144,7 @@
         <v>17</v>
       </c>
       <c r="G1181" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -34170,7 +34170,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1182" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -34196,7 +34196,7 @@
         <v>17</v>
       </c>
       <c r="G1183" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -34222,7 +34222,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1184" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -34248,7 +34248,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1185" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -34274,7 +34274,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1186" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -34300,7 +34300,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1187" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34326,7 +34326,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1188" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34352,7 +34352,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34378,7 +34378,7 @@
         <v>17.25</v>
       </c>
       <c r="G1190" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34404,7 +34404,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1191" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34430,7 +34430,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1192" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34456,7 +34456,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1193" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34482,7 +34482,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1194" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34508,7 +34508,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1195" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34534,7 +34534,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1196" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34560,7 +34560,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1197" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34586,7 +34586,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1198" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34612,7 +34612,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1199" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34638,7 +34638,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1200" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34664,7 +34664,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34690,7 +34690,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1202" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34716,7 +34716,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1203" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34742,7 +34742,7 @@
         <v>16</v>
       </c>
       <c r="G1204" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34768,7 +34768,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1205" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34794,7 +34794,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1206" t="s">
-        <v>578</v>
+        <v>642</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34820,7 +34820,7 @@
         <v>16</v>
       </c>
       <c r="G1207" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34846,7 +34846,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1208" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34898,7 +34898,7 @@
         <v>16.5</v>
       </c>
       <c r="G1210" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34924,7 +34924,7 @@
         <v>16.5</v>
       </c>
       <c r="G1211" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34950,7 +34950,7 @@
         <v>17.25</v>
       </c>
       <c r="G1212" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34976,7 +34976,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1213" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -35002,7 +35002,7 @@
         <v>17</v>
       </c>
       <c r="G1214" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -35028,7 +35028,7 @@
         <v>17.25</v>
       </c>
       <c r="G1215" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -35054,7 +35054,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1216" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -35080,7 +35080,7 @@
         <v>17</v>
       </c>
       <c r="G1217" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -35106,7 +35106,7 @@
         <v>17</v>
       </c>
       <c r="G1218" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -35132,7 +35132,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1219" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -35158,7 +35158,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -35184,7 +35184,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1221" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -35210,7 +35210,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1222" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -35288,7 +35288,7 @@
         <v>16</v>
       </c>
       <c r="G1225" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -35496,7 +35496,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35548,7 +35548,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1235" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35574,7 +35574,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35600,7 +35600,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1237" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -37966,7 +37966,7 @@
         <v>23</v>
       </c>
       <c r="G1328" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -38668,7 +38668,7 @@
         <v>23</v>
       </c>
       <c r="G1355" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38694,7 +38694,7 @@
         <v>23</v>
       </c>
       <c r="G1356" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38720,7 +38720,7 @@
         <v>23</v>
       </c>
       <c r="G1357" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38746,7 +38746,7 @@
         <v>23</v>
       </c>
       <c r="G1358" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38798,7 +38798,7 @@
         <v>23</v>
       </c>
       <c r="G1360" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -60308,10 +60308,10 @@
     </row>
     <row r="2188">
       <c r="A2188" s="1" t="n">
-        <v>45509.5988194444</v>
+        <v>45509.6494560185</v>
       </c>
       <c r="B2188" t="n">
-        <v>7434</v>
+        <v>9021</v>
       </c>
       <c r="C2188" t="n">
         <v>35.25</v>
@@ -60323,7 +60323,7 @@
         <v>34.7999992370605</v>
       </c>
       <c r="F2188" t="n">
-        <v>34.5999984741211</v>
+        <v>34.5499992370605</v>
       </c>
       <c r="G2188" t="s">
         <v>1030</v>

--- a/data/CMB.MI.xlsx
+++ b/data/CMB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="1033">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58274173736572</t>
+    <t xml:space="preserve">9.58274269104004</t>
   </si>
   <si>
     <t xml:space="preserve">CMB.MI</t>
@@ -50,19 +50,19 @@
     <t xml:space="preserve">9.65968322753906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75061321258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75760841369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79258251190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70864677429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47782230377197</t>
+    <t xml:space="preserve">9.75061416625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75760936737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79258346557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70864486694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47782039642334</t>
   </si>
   <si>
     <t xml:space="preserve">9.66667747497559</t>
@@ -71,19 +71,19 @@
     <t xml:space="preserve">9.61072063446045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68766212463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61771392822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53377914428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54077434539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44284725189209</t>
+    <t xml:space="preserve">9.68766117095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61771488189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53377819061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54077243804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44284820556641</t>
   </si>
   <si>
     <t xml:space="preserve">9.17005443572998</t>
@@ -92,28 +92,28 @@
     <t xml:space="preserve">9.10010814666748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1770486831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67343044281006</t>
+    <t xml:space="preserve">9.17704772949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67342948913574</t>
   </si>
   <si>
     <t xml:space="preserve">8.63845634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93922996520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76436138153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74337768554688</t>
+    <t xml:space="preserve">8.93922805786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76436233520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74337673187256</t>
   </si>
   <si>
     <t xml:space="preserve">8.95321846008301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12808704376221</t>
+    <t xml:space="preserve">9.12808609008789</t>
   </si>
   <si>
     <t xml:space="preserve">9.56875228881836</t>
@@ -122,37 +122,37 @@
     <t xml:space="preserve">9.60372638702393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40787410736084</t>
+    <t xml:space="preserve">9.40787315368652</t>
   </si>
   <si>
     <t xml:space="preserve">9.2050256729126</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30295276641846</t>
+    <t xml:space="preserve">9.30295372009277</t>
   </si>
   <si>
     <t xml:space="preserve">9.03715419769287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98819255828857</t>
+    <t xml:space="preserve">8.98819160461426</t>
   </si>
   <si>
     <t xml:space="preserve">9.2260103225708</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1420726776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33093166351318</t>
+    <t xml:space="preserve">9.14207458496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3309326171875</t>
   </si>
   <si>
     <t xml:space="preserve">9.34492015838623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23300552368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3099479675293</t>
+    <t xml:space="preserve">9.23300457000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30994892120361</t>
   </si>
   <si>
     <t xml:space="preserve">9.52678394317627</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">9.51279449462891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47082614898682</t>
+    <t xml:space="preserve">9.47082710266113</t>
   </si>
   <si>
     <t xml:space="preserve">9.69465637207031</t>
@@ -173,19 +173,19 @@
     <t xml:space="preserve">9.49880504608154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42186260223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50580024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31694316864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11409568786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10710048675537</t>
+    <t xml:space="preserve">9.4218635559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50579833984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31694221496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11409664154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10710334777832</t>
   </si>
   <si>
     <t xml:space="preserve">9.46383190155029</t>
@@ -203,46 +203,46 @@
     <t xml:space="preserve">9.43585205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54776763916016</t>
+    <t xml:space="preserve">9.54776668548584</t>
   </si>
   <si>
     <t xml:space="preserve">9.72962951660156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63170433044434</t>
+    <t xml:space="preserve">9.63170528411865</t>
   </si>
   <si>
     <t xml:space="preserve">9.56347179412842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57071113586426</t>
+    <t xml:space="preserve">9.57071208953857</t>
   </si>
   <si>
     <t xml:space="preserve">9.53451251983643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70102405548096</t>
+    <t xml:space="preserve">9.70102310180664</t>
   </si>
   <si>
     <t xml:space="preserve">9.75893878936768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87477397918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8458137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73722171783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3163862228394</t>
+    <t xml:space="preserve">9.8747730255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84581565856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73721981048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3163871765137</t>
   </si>
   <si>
     <t xml:space="preserve">10.1281576156616</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1353979110718</t>
+    <t xml:space="preserve">10.1353969573975</t>
   </si>
   <si>
     <t xml:space="preserve">10.0268039703369</t>
@@ -257,34 +257,34 @@
     <t xml:space="preserve">9.92545032501221</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93269062042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91097068786621</t>
+    <t xml:space="preserve">9.93268966674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91096973419189</t>
   </si>
   <si>
     <t xml:space="preserve">9.83133602142334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77341938018799</t>
+    <t xml:space="preserve">9.77341842651367</t>
   </si>
   <si>
     <t xml:space="preserve">9.74446105957031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76617908477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6937837600708</t>
+    <t xml:space="preserve">9.76618003845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69378280639648</t>
   </si>
   <si>
     <t xml:space="preserve">9.93992900848389</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98336696624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9906063079834</t>
+    <t xml:space="preserve">9.98336791992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99060726165771</t>
   </si>
   <si>
     <t xml:space="preserve">9.81685638427734</t>
@@ -296,49 +296,49 @@
     <t xml:space="preserve">9.94716835021973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91821098327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88925266265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46211624145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65034675598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62862777709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54899120330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62138748168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70826244354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63586807250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64310646057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66482639312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71550273895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82409572601318</t>
+    <t xml:space="preserve">9.91821193695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88925170898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46211719512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65034580230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62862873077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54899215698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62138938903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7082633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63586902618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64310741424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66482543945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71550178527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82409477233887</t>
   </si>
   <si>
     <t xml:space="preserve">9.88201236724854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8602933883667</t>
+    <t xml:space="preserve">9.86029243469238</t>
   </si>
   <si>
     <t xml:space="preserve">9.79513835906982</t>
@@ -350,19 +350,19 @@
     <t xml:space="preserve">9.6793041229248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67206478118896</t>
+    <t xml:space="preserve">9.67206382751465</t>
   </si>
   <si>
     <t xml:space="preserve">9.47659683227539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48383712768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49107646942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44763946533203</t>
+    <t xml:space="preserve">9.48383808135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49107551574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44763851165771</t>
   </si>
   <si>
     <t xml:space="preserve">9.37524223327637</t>
@@ -371,13 +371,13 @@
     <t xml:space="preserve">9.25940895080566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34628391265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41143989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31008625030518</t>
+    <t xml:space="preserve">9.34628486633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4114408493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31008529663086</t>
   </si>
   <si>
     <t xml:space="preserve">9.19425392150879</t>
@@ -389,25 +389,25 @@
     <t xml:space="preserve">9.26664924621582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25216960906982</t>
+    <t xml:space="preserve">9.25216865539551</t>
   </si>
   <si>
     <t xml:space="preserve">9.28836727142334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30284690856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33904457092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2449312210083</t>
+    <t xml:space="preserve">9.30284786224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33904361724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24493026733398</t>
   </si>
   <si>
     <t xml:space="preserve">9.20873260498047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13633632659912</t>
+    <t xml:space="preserve">9.13633728027344</t>
   </si>
   <si>
     <t xml:space="preserve">8.91915035247803</t>
@@ -419,19 +419,19 @@
     <t xml:space="preserve">9.14357662200928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16529560089111</t>
+    <t xml:space="preserve">9.16529369354248</t>
   </si>
   <si>
     <t xml:space="preserve">9.2304515838623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33180522918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15805530548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29560852050781</t>
+    <t xml:space="preserve">9.3318042755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15805625915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2956075668335</t>
   </si>
   <si>
     <t xml:space="preserve">9.42591953277588</t>
@@ -446,19 +446,19 @@
     <t xml:space="preserve">10.0195646286011</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0050849914551</t>
+    <t xml:space="preserve">10.0050859451294</t>
   </si>
   <si>
     <t xml:space="preserve">10.0630016326904</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1571159362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2946672439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3525848388672</t>
+    <t xml:space="preserve">10.1571168899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2946681976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3525857925415</t>
   </si>
   <si>
     <t xml:space="preserve">10.4249801635742</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">10.5697727203369</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6276874542236</t>
+    <t xml:space="preserve">10.6276884078979</t>
   </si>
   <si>
     <t xml:space="preserve">10.5263347625732</t>
@@ -479,31 +479,31 @@
     <t xml:space="preserve">10.5118560791016</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6494083404541</t>
+    <t xml:space="preserve">10.6494064331055</t>
   </si>
   <si>
     <t xml:space="preserve">10.7797193527222</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9317493438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9824266433716</t>
+    <t xml:space="preserve">10.9317512512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9824275970459</t>
   </si>
   <si>
     <t xml:space="preserve">10.8738346099854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0258646011353</t>
+    <t xml:space="preserve">11.0258636474609</t>
   </si>
   <si>
     <t xml:space="preserve">10.7435207366943</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3598251342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3236274719238</t>
+    <t xml:space="preserve">10.359824180603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3236265182495</t>
   </si>
   <si>
     <t xml:space="preserve">10.4756574630737</t>
@@ -515,10 +515,10 @@
     <t xml:space="preserve">10.7724800109863</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9389905929565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.729043006897</t>
+    <t xml:space="preserve">10.9389896392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7290420532227</t>
   </si>
   <si>
     <t xml:space="preserve">10.8665943145752</t>
@@ -527,34 +527,34 @@
     <t xml:space="preserve">10.7869577407837</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8231563568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.757999420166</t>
+    <t xml:space="preserve">10.8231554031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7580003738403</t>
   </si>
   <si>
     <t xml:space="preserve">10.7507610321045</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7218036651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6638851165771</t>
+    <t xml:space="preserve">10.7218027114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6638860702515</t>
   </si>
   <si>
     <t xml:space="preserve">10.7652406692505</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0041446685791</t>
+    <t xml:space="preserve">11.0041456222534</t>
   </si>
   <si>
     <t xml:space="preserve">10.9462299346924</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0910215377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5036764144897</t>
+    <t xml:space="preserve">11.0910205841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5036754608154</t>
   </si>
   <si>
     <t xml:space="preserve">11.4529991149902</t>
@@ -566,52 +566,52 @@
     <t xml:space="preserve">11.4747180938721</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4964361190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7787799835205</t>
+    <t xml:space="preserve">11.4964380264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7787809371948</t>
   </si>
   <si>
     <t xml:space="preserve">11.9452896118164</t>
   </si>
   <si>
-    <t xml:space="preserve">12.538932800293</t>
+    <t xml:space="preserve">12.5389356613159</t>
   </si>
   <si>
     <t xml:space="preserve">12.4448213577271</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5172166824341</t>
+    <t xml:space="preserve">12.5172157287598</t>
   </si>
   <si>
     <t xml:space="preserve">12.5534143447876</t>
   </si>
   <si>
-    <t xml:space="preserve">12.741641998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2990894317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4583587646484</t>
+    <t xml:space="preserve">12.7416410446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.299090385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4583625793457</t>
   </si>
   <si>
     <t xml:space="preserve">13.4728403091431</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7407007217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5959119796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6103887557983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3714838027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3932046890259</t>
+    <t xml:space="preserve">13.7407026290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5959100723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6103897094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3714847564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3932037353516</t>
   </si>
   <si>
     <t xml:space="preserve">13.3208065032959</t>
@@ -620,25 +620,25 @@
     <t xml:space="preserve">13.4438800811768</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6827850341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8927345275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4139823913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5008583068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4501829147339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5442972183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5515336990356</t>
+    <t xml:space="preserve">13.6827869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8927354812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4139842987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5008592605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4501810073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5442934036255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5515327453613</t>
   </si>
   <si>
     <t xml:space="preserve">14.6601285934448</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">14.5949735641479</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5225772857666</t>
+    <t xml:space="preserve">14.5225763320923</t>
   </si>
   <si>
     <t xml:space="preserve">14.7390546798706</t>
@@ -656,49 +656,49 @@
     <t xml:space="preserve">14.8515653610229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6715469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6040410995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5140295028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1764936447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8890695571899</t>
+    <t xml:space="preserve">14.6715478897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6040391921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.514030456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1764965057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8890705108643</t>
   </si>
   <si>
     <t xml:space="preserve">14.1914968490601</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5215320587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5065298080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7990589141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8815698623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8740682601929</t>
+    <t xml:space="preserve">14.5215330123901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5065307617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7990608215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8815689086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8740673065186</t>
   </si>
   <si>
     <t xml:space="preserve">14.8065643310547</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9640779495239</t>
+    <t xml:space="preserve">14.9640769958496</t>
   </si>
   <si>
     <t xml:space="preserve">15.1065940856934</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9016771316528</t>
+    <t xml:space="preserve">15.9016761779785</t>
   </si>
   <si>
     <t xml:space="preserve">16.434232711792</t>
@@ -707,43 +707,43 @@
     <t xml:space="preserve">16.3442230224609</t>
   </si>
   <si>
-    <t xml:space="preserve">15.931679725647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7516632080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4741315841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1740999221802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1417007446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8791732788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4816331863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6316499710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1266994476318</t>
+    <t xml:space="preserve">15.9316806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7516593933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4741325378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1740980148315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1417026519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8791751861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.481632232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6316471099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1267013549805</t>
   </si>
   <si>
     <t xml:space="preserve">16.0291919708252</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8341703414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7366590499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3841228485107</t>
+    <t xml:space="preserve">15.8341722488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7366600036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3841218948364</t>
   </si>
   <si>
     <t xml:space="preserve">15.6991548538208</t>
@@ -758,103 +758,103 @@
     <t xml:space="preserve">15.7141590118408</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5866451263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7741651535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2467136383057</t>
+    <t xml:space="preserve">15.5866432189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7741661071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2467155456543</t>
   </si>
   <si>
     <t xml:space="preserve">16.2767181396484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3517246246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.524242401123</t>
+    <t xml:space="preserve">16.3517227172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5242443084717</t>
   </si>
   <si>
     <t xml:space="preserve">16.636754989624</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5392456054688</t>
+    <t xml:space="preserve">16.5392436981201</t>
   </si>
   <si>
     <t xml:space="preserve">16.2242107391357</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8491706848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8566741943359</t>
+    <t xml:space="preserve">15.8491697311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8566732406616</t>
   </si>
   <si>
     <t xml:space="preserve">15.8266706466675</t>
   </si>
   <si>
-    <t xml:space="preserve">15.89417552948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041677474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7216567993164</t>
+    <t xml:space="preserve">15.8941783905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041658401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7216558456421</t>
   </si>
   <si>
     <t xml:space="preserve">15.6166477203369</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7441606521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116664886475</t>
+    <t xml:space="preserve">15.7441596984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116674423218</t>
   </si>
   <si>
     <t xml:space="preserve">15.4516296386719</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4216251373291</t>
+    <t xml:space="preserve">15.4216232299805</t>
   </si>
   <si>
     <t xml:space="preserve">15.3766222000122</t>
   </si>
   <si>
-    <t xml:space="preserve">15.519136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5266399383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2266044616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3016128540039</t>
+    <t xml:space="preserve">15.5191373825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5266389846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2266054153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3016119003296</t>
   </si>
   <si>
     <t xml:space="preserve">15.2416076660156</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4441289901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0315856933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4066247940063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1966028213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1515998840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3991270065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7591609954834</t>
+    <t xml:space="preserve">15.444128036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0315837860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4066257476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1966037750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1515989303589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3991250991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.759162902832</t>
   </si>
   <si>
     <t xml:space="preserve">15.9091758728027</t>
@@ -863,19 +863,19 @@
     <t xml:space="preserve">16.0066871643066</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8692817687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.626859664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.226921081543</t>
+    <t xml:space="preserve">16.8692779541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6268577575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2269229888916</t>
   </si>
   <si>
     <t xml:space="preserve">19.382043838501</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0820140838623</t>
+    <t xml:space="preserve">19.0820121765137</t>
   </si>
   <si>
     <t xml:space="preserve">19.1270179748535</t>
@@ -890,67 +890,67 @@
     <t xml:space="preserve">18.8644886016846</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6394653320312</t>
+    <t xml:space="preserve">18.6394672393799</t>
   </si>
   <si>
     <t xml:space="preserve">18.6769695281982</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5194511413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6319637298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2944278717041</t>
+    <t xml:space="preserve">18.5194549560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.631965637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2944297790527</t>
   </si>
   <si>
     <t xml:space="preserve">18.4219417572021</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2569255828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2419242858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.189416885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1519165039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0319042205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9643936157227</t>
+    <t xml:space="preserve">18.2569236755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.24192237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1894207000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1519145965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0319061279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9643974304199</t>
   </si>
   <si>
     <t xml:space="preserve">17.9268894195557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6793651580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9043884277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7318687438965</t>
+    <t xml:space="preserve">17.6793632507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.904390335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7318725585938</t>
   </si>
   <si>
     <t xml:space="preserve">17.9718933105469</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0018997192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0469036102295</t>
+    <t xml:space="preserve">18.0018978118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0469017028809</t>
   </si>
   <si>
     <t xml:space="preserve">18.0244007110596</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9343929290771</t>
+    <t xml:space="preserve">17.9343910217285</t>
   </si>
   <si>
     <t xml:space="preserve">17.9868965148926</t>
@@ -962,76 +962,76 @@
     <t xml:space="preserve">17.2068138122559</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2443199157715</t>
+    <t xml:space="preserve">17.2443180084229</t>
   </si>
   <si>
     <t xml:space="preserve">17.551851272583</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9517879486084</t>
+    <t xml:space="preserve">16.951789855957</t>
   </si>
   <si>
     <t xml:space="preserve">16.2917175292969</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7117614746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5092430114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.23171043396</t>
+    <t xml:space="preserve">16.711763381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.509241104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2317123413086</t>
   </si>
   <si>
     <t xml:space="preserve">17.0868034362793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9067840576172</t>
+    <t xml:space="preserve">16.9067821502686</t>
   </si>
   <si>
     <t xml:space="preserve">17.1918125152588</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1243057250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1768093109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6667575836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1393089294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0192966461182</t>
+    <t xml:space="preserve">17.1243076324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1768112182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6667556762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1393051147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0192947387695</t>
   </si>
   <si>
     <t xml:space="preserve">16.8092727661133</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4642372131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8467750549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0568008422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8017711639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4192333221436</t>
+    <t xml:space="preserve">16.4642391204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8467769622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0567989349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8017730712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4192314147949</t>
   </si>
   <si>
     <t xml:space="preserve">16.4492359161377</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4417343139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2092113494873</t>
+    <t xml:space="preserve">16.4417324066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2092094421387</t>
   </si>
   <si>
     <t xml:space="preserve">16.0441932678223</t>
@@ -1043,124 +1043,124 @@
     <t xml:space="preserve">16.2017097473145</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5917510986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8392772674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7642688751221</t>
+    <t xml:space="preserve">16.5917530059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8392753601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7642707824707</t>
   </si>
   <si>
     <t xml:space="preserve">16.8767795562744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4018363952637</t>
+    <t xml:space="preserve">17.401834487915</t>
   </si>
   <si>
     <t xml:space="preserve">17.2518196105957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0642986297607</t>
+    <t xml:space="preserve">17.0643005371094</t>
   </si>
   <si>
     <t xml:space="preserve">17.3643321990967</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2143154144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3268299102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.476842880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6643619537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8518810272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0769081115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5893573760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9892902374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5767478942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5017395019531</t>
+    <t xml:space="preserve">17.214319229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3268280029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4768409729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.664363861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8518829345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0769062042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.58935546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9892883300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5767498016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5017375946045</t>
   </si>
   <si>
     <t xml:space="preserve">16.3142204284668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9391813278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9766826629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0516929626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3892288208008</t>
+    <t xml:space="preserve">15.9391822814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9766836166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0516910552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3892269134521</t>
   </si>
   <si>
     <t xml:space="preserve">17.2893218994141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.776876449585</t>
+    <t xml:space="preserve">17.7768745422363</t>
   </si>
   <si>
     <t xml:space="preserve">17.7393703460693</t>
   </si>
   <si>
-    <t xml:space="preserve">17.439338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7018699645996</t>
+    <t xml:space="preserve">17.4393367767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.701868057251</t>
   </si>
   <si>
     <t xml:space="preserve">17.5143489837646</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4894504547119</t>
+    <t xml:space="preserve">18.4894485473633</t>
   </si>
   <si>
     <t xml:space="preserve">18.3394355773926</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0394020080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8893890380859</t>
+    <t xml:space="preserve">18.0394039154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8893871307373</t>
   </si>
   <si>
     <t xml:space="preserve">18.4144420623779</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5644588470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2770328521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3520412445068</t>
+    <t xml:space="preserve">18.5644569396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2770347595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3520393371582</t>
   </si>
   <si>
     <t xml:space="preserve">19.7270793914795</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2686100006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9591655731201</t>
+    <t xml:space="preserve">20.2686080932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9591617584229</t>
   </si>
   <si>
     <t xml:space="preserve">20.6554145812988</t>
@@ -1178,28 +1178,28 @@
     <t xml:space="preserve">20.3459701538086</t>
   </si>
   <si>
-    <t xml:space="preserve">19.804443359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.572359085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6497192382812</t>
+    <t xml:space="preserve">19.8044414520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5723571777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6497211456299</t>
   </si>
   <si>
     <t xml:space="preserve">19.4949989318848</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5666637420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9477767944336</t>
+    <t xml:space="preserve">18.5666656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.947774887085</t>
   </si>
   <si>
     <t xml:space="preserve">18.4506244659424</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5336799621582</t>
+    <t xml:space="preserve">19.5336780548096</t>
   </si>
   <si>
     <t xml:space="preserve">19.8818035125732</t>
@@ -1217,100 +1217,103 @@
     <t xml:space="preserve">20.6167335510254</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4233303070068</t>
+    <t xml:space="preserve">20.4233322143555</t>
   </si>
   <si>
     <t xml:space="preserve">20.0365257263184</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1081943511963</t>
+    <t xml:space="preserve">19.1081924438477</t>
   </si>
   <si>
     <t xml:space="preserve">19.8431224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0752086639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4620113372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4176387786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6110420227051</t>
+    <t xml:space="preserve">20.0752048492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7270812988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4620132446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4176368713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6110401153564</t>
   </si>
   <si>
     <t xml:space="preserve">19.3402767181396</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2629127502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2242336273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6440258026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7987442016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1468734741211</t>
+    <t xml:space="preserve">19.2629165649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.224235534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6440277099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7987461090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1468715667725</t>
   </si>
   <si>
     <t xml:space="preserve">19.4563179016113</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3015937805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0308322906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3789558410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9921493530273</t>
+    <t xml:space="preserve">19.3015956878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0308303833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3789577484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.992151260376</t>
   </si>
   <si>
     <t xml:space="preserve">19.1855525970459</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9978466033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7657604217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8374271392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6827068328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0695114135742</t>
+    <t xml:space="preserve">19.9978446960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7657623291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8374290466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6827049255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0695133209229</t>
   </si>
   <si>
     <t xml:space="preserve">17.7930545806885</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7873611450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1684684753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7043046951294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5109004974365</t>
+    <t xml:space="preserve">16.7873592376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1684703826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7043037414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5108995437622</t>
   </si>
   <si>
     <t xml:space="preserve">16.6326370239258</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1354827880859</t>
+    <t xml:space="preserve">17.1354846954346</t>
   </si>
   <si>
     <t xml:space="preserve">16.2458305358887</t>
@@ -1319,37 +1322,37 @@
     <t xml:space="preserve">15.665623664856</t>
   </si>
   <si>
-    <t xml:space="preserve">15.54958152771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.588264465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3174962997437</t>
+    <t xml:space="preserve">15.5495805740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5882616043091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3174982070923</t>
   </si>
   <si>
     <t xml:space="preserve">14.8997478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0544681549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1627759933472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4412746429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8203468322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8647193908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5165977478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.361873626709</t>
+    <t xml:space="preserve">15.0544700622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1627769470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4412755966187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8203449249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8647212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5165958404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3618717193604</t>
   </si>
   <si>
     <t xml:space="preserve">16.2845115661621</t>
@@ -1358,13 +1361,13 @@
     <t xml:space="preserve">16.129789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2071514129639</t>
+    <t xml:space="preserve">16.2071495056152</t>
   </si>
   <si>
     <t xml:space="preserve">16.0911083221436</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590269088745</t>
+    <t xml:space="preserve">15.8590259552002</t>
   </si>
   <si>
     <t xml:space="preserve">15.781665802002</t>
@@ -1376,28 +1379,28 @@
     <t xml:space="preserve">16.4392356872559</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4005546569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6713161468506</t>
+    <t xml:space="preserve">16.4005527496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6713180541992</t>
   </si>
   <si>
     <t xml:space="preserve">16.477912902832</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9750680923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4567499160767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2556085586548</t>
+    <t xml:space="preserve">15.9750671386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4567489624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2556095123291</t>
   </si>
   <si>
     <t xml:space="preserve">16.0137481689453</t>
   </si>
   <si>
-    <t xml:space="preserve">16.709997177124</t>
+    <t xml:space="preserve">16.7100009918213</t>
   </si>
   <si>
     <t xml:space="preserve">16.5552749633789</t>
@@ -1406,73 +1409,73 @@
     <t xml:space="preserve">17.174165725708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9807605743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0968036651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4062480926514</t>
+    <t xml:space="preserve">16.9807624816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0968055725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4062461853027</t>
   </si>
   <si>
     <t xml:space="preserve">17.5222911834717</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3231925964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9363889694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948583602905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4103326797485</t>
+    <t xml:space="preserve">16.3231945037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9363861083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948602676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4103317260742</t>
   </si>
   <si>
     <t xml:space="preserve">15.6269426345825</t>
   </si>
   <si>
-    <t xml:space="preserve">15.425802230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.472222328186</t>
+    <t xml:space="preserve">15.4258050918579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4722204208374</t>
   </si>
   <si>
     <t xml:space="preserve">17.0194416046143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8260383605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9034004211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2902088165283</t>
+    <t xml:space="preserve">16.8260402679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9034023284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2902069091797</t>
   </si>
   <si>
     <t xml:space="preserve">17.3288879394531</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3675708770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2515277862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5609722137451</t>
+    <t xml:space="preserve">17.3675689697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2515258789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5609683990479</t>
   </si>
   <si>
     <t xml:space="preserve">17.4836101531982</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6383304595947</t>
+    <t xml:space="preserve">17.6383285522461</t>
   </si>
   <si>
     <t xml:space="preserve">18.0251369476318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8704147338867</t>
+    <t xml:space="preserve">17.8704166412354</t>
   </si>
   <si>
     <t xml:space="preserve">18.1798610687256</t>
@@ -1481,10 +1484,10 @@
     <t xml:space="preserve">19.0244998931885</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3809623718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2950019836426</t>
+    <t xml:space="preserve">18.3809642791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2949981689453</t>
   </si>
   <si>
     <t xml:space="preserve">17.3754425048828</t>
@@ -1496,22 +1499,22 @@
     <t xml:space="preserve">16.691686630249</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2492561340332</t>
+    <t xml:space="preserve">16.2492542266846</t>
   </si>
   <si>
     <t xml:space="preserve">16.2090339660645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6057186126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8309574127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2894763946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.168815612793</t>
+    <t xml:space="preserve">15.6057205200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8309593200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.289478302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1688137054443</t>
   </si>
   <si>
     <t xml:space="preserve">16.0883712768555</t>
@@ -1520,25 +1523,25 @@
     <t xml:space="preserve">16.3296966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">15.863133430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.573543548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7505159378052</t>
+    <t xml:space="preserve">15.8631343841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5735425949097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7505130767822</t>
   </si>
   <si>
     <t xml:space="preserve">15.9918403625488</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0722808837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1285915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8953123092651</t>
+    <t xml:space="preserve">16.0722846984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.128589630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8953104019165</t>
   </si>
   <si>
     <t xml:space="preserve">15.8470478057861</t>
@@ -1550,31 +1553,31 @@
     <t xml:space="preserve">16.6112422943115</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5307998657227</t>
+    <t xml:space="preserve">16.5308017730713</t>
   </si>
   <si>
     <t xml:space="preserve">16.4905796051025</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3699207305908</t>
+    <t xml:space="preserve">16.3699169158936</t>
   </si>
   <si>
     <t xml:space="preserve">16.4101390838623</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9330081939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4156608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6569881439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5363216400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0938949584961</t>
+    <t xml:space="preserve">16.9330101013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4156627655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6569862365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5363235473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0938968658447</t>
   </si>
   <si>
     <t xml:space="preserve">17.174337387085</t>
@@ -1583,7 +1586,7 @@
     <t xml:space="preserve">16.6514644622803</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0134506225586</t>
+    <t xml:space="preserve">17.0134525299072</t>
   </si>
   <si>
     <t xml:space="preserve">16.7319049835205</t>
@@ -1592,7 +1595,7 @@
     <t xml:space="preserve">16.8927898406982</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7721290588379</t>
+    <t xml:space="preserve">16.7721271514893</t>
   </si>
   <si>
     <t xml:space="preserve">16.5710220336914</t>
@@ -1601,13 +1604,13 @@
     <t xml:space="preserve">15.9596652984619</t>
   </si>
   <si>
-    <t xml:space="preserve">16.007926940918</t>
+    <t xml:space="preserve">16.0079288482666</t>
   </si>
   <si>
     <t xml:space="preserve">16.8123474121094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.053674697876</t>
+    <t xml:space="preserve">17.0536727905273</t>
   </si>
   <si>
     <t xml:space="preserve">17.2145576477051</t>
@@ -1616,25 +1619,25 @@
     <t xml:space="preserve">17.1341152191162</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2547798156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8525695800781</t>
+    <t xml:space="preserve">17.2547779083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8525676727295</t>
   </si>
   <si>
     <t xml:space="preserve">17.455883026123</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6167659759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5016269683838</t>
+    <t xml:space="preserve">17.6167678833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5016288757324</t>
   </si>
   <si>
     <t xml:space="preserve">18.2200813293457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6625118255615</t>
+    <t xml:space="preserve">18.6625099182129</t>
   </si>
   <si>
     <t xml:space="preserve">19.3060455322266</t>
@@ -1643,25 +1646,25 @@
     <t xml:space="preserve">18.9440574645996</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5473728179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2256031036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7429504394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1451625823975</t>
+    <t xml:space="preserve">19.5473690032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2256050109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7429523468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1451606750488</t>
   </si>
   <si>
     <t xml:space="preserve">19.4669284820557</t>
   </si>
   <si>
-    <t xml:space="preserve">19.627815246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8691387176514</t>
+    <t xml:space="preserve">19.6278133392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8691368103027</t>
   </si>
   <si>
     <t xml:space="preserve">19.7082557678223</t>
@@ -1670,19 +1673,19 @@
     <t xml:space="preserve">19.7484760284424</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9842777252197</t>
+    <t xml:space="preserve">18.9842796325684</t>
   </si>
   <si>
     <t xml:space="preserve">18.8233947753906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7027339935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9038352966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1049423217773</t>
+    <t xml:space="preserve">18.702730178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9038372039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1049404144287</t>
   </si>
   <si>
     <t xml:space="preserve">19.1853828430176</t>
@@ -1691,25 +1694,25 @@
     <t xml:space="preserve">18.7831745147705</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3407421112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5071506500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0647201538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8636150360107</t>
+    <t xml:space="preserve">18.3407402038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5071487426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.06471824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8636169433594</t>
   </si>
   <si>
     <t xml:space="preserve">18.5820693969727</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6222896575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2603015899658</t>
+    <t xml:space="preserve">18.6222915649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2602996826172</t>
   </si>
   <si>
     <t xml:space="preserve">18.3005218505859</t>
@@ -1721,22 +1724,22 @@
     <t xml:space="preserve">17.7374286651611</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9385318756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6861610412598</t>
+    <t xml:space="preserve">17.938533782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6861600875854</t>
   </si>
   <si>
     <t xml:space="preserve">15.3161296844482</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0612373352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4795351028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.514232635498</t>
+    <t xml:space="preserve">14.0612363815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4795341491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5142316818237</t>
   </si>
   <si>
     <t xml:space="preserve">13.6751146316528</t>
@@ -1748,7 +1751,7 @@
     <t xml:space="preserve">14.0773248672485</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7555570602417</t>
+    <t xml:space="preserve">13.755558013916</t>
   </si>
   <si>
     <t xml:space="preserve">13.6590261459351</t>
@@ -1757,13 +1760,13 @@
     <t xml:space="preserve">13.4337911605835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0315809249878</t>
+    <t xml:space="preserve">13.0315818786621</t>
   </si>
   <si>
     <t xml:space="preserve">12.1949853897095</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9858360290527</t>
+    <t xml:space="preserve">11.9858369827271</t>
   </si>
   <si>
     <t xml:space="preserve">11.2618589401245</t>
@@ -1775,37 +1778,37 @@
     <t xml:space="preserve">10.698766708374</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2216377258301</t>
+    <t xml:space="preserve">11.2216396331787</t>
   </si>
   <si>
     <t xml:space="preserve">11.5434074401855</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2271633148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7098140716553</t>
+    <t xml:space="preserve">12.2271614074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.709813117981</t>
   </si>
   <si>
     <t xml:space="preserve">12.347825050354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0662784576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.468487739563</t>
+    <t xml:space="preserve">12.0662775039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4684867858887</t>
   </si>
   <si>
     <t xml:space="preserve">12.5087089538574</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2673845291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9053955078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1467199325562</t>
+    <t xml:space="preserve">12.2673826217651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9053945541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1467208862305</t>
   </si>
   <si>
     <t xml:space="preserve">12.106499671936</t>
@@ -1814,34 +1817,34 @@
     <t xml:space="preserve">12.0260572433472</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7042903900146</t>
+    <t xml:space="preserve">11.7042894363403</t>
   </si>
   <si>
     <t xml:space="preserve">11.8249521255493</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1869401931763</t>
+    <t xml:space="preserve">12.1869421005249</t>
   </si>
   <si>
     <t xml:space="preserve">11.3825225830078</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8998718261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9803142547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0607557296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6640701293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6695928573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8304767608643</t>
+    <t xml:space="preserve">10.8998727798462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9803133010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0607538223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6640691757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6695919036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8304758071899</t>
   </si>
   <si>
     <t xml:space="preserve">14.6001958847046</t>
@@ -1850,22 +1853,22 @@
     <t xml:space="preserve">14.6425161361694</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5578775405884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.388599395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3462800979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7271547317505</t>
+    <t xml:space="preserve">14.557879447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3885984420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3462810516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7271537780762</t>
   </si>
   <si>
     <t xml:space="preserve">15.1503496170044</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8117942810059</t>
+    <t xml:space="preserve">14.8117933273315</t>
   </si>
   <si>
     <t xml:space="preserve">13.9230871200562</t>
@@ -1874,13 +1877,13 @@
     <t xml:space="preserve">14.0500440597534</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0077238082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2616424560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.473237991333</t>
+    <t xml:space="preserve">14.0077247619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2616405487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4732398986816</t>
   </si>
   <si>
     <t xml:space="preserve">15.065710067749</t>
@@ -1889,13 +1892,13 @@
     <t xml:space="preserve">15.3196268081665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2349891662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8541126251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9387502670288</t>
+    <t xml:space="preserve">15.2349872589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8541116714478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9387521743774</t>
   </si>
   <si>
     <t xml:space="preserve">14.0923633575439</t>
@@ -1907,16 +1910,16 @@
     <t xml:space="preserve">14.1346845626831</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4309186935425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.769476890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5155572891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6848373413086</t>
+    <t xml:space="preserve">14.4309196472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7694749832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5155582427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.68483543396</t>
   </si>
   <si>
     <t xml:space="preserve">14.3039598464966</t>
@@ -1925,25 +1928,22 @@
     <t xml:space="preserve">13.8807668685913</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7114896774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6001977920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8384485244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2193231582642</t>
+    <t xml:space="preserve">13.7114906311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6001968383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8384475708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2193222045898</t>
   </si>
   <si>
     <t xml:space="preserve">13.5422115325928</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6268510818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7538080215454</t>
+    <t xml:space="preserve">13.7538089752197</t>
   </si>
   <si>
     <t xml:space="preserve">13.584529876709</t>
@@ -1952,34 +1952,34 @@
     <t xml:space="preserve">12.9497404098511</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3306150436401</t>
+    <t xml:space="preserve">13.3306140899658</t>
   </si>
   <si>
     <t xml:space="preserve">13.2036561965942</t>
   </si>
   <si>
-    <t xml:space="preserve">13.161337852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4575729370117</t>
+    <t xml:space="preserve">13.1613368988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4575719833374</t>
   </si>
   <si>
     <t xml:space="preserve">13.2459754943848</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4042654037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8274583816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9967355728149</t>
+    <t xml:space="preserve">15.4042663574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8274602890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9967384338379</t>
   </si>
   <si>
     <t xml:space="preserve">16.673849105835</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5045700073242</t>
+    <t xml:space="preserve">16.5045680999756</t>
   </si>
   <si>
     <t xml:space="preserve">16.0813751220703</t>
@@ -1988,64 +1988,64 @@
     <t xml:space="preserve">16.2506561279297</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1660175323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8697776794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9544172286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9120960235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3352909088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7851419448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7428226470947</t>
+    <t xml:space="preserve">16.166015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8697786331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9544191360474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9120979309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3352928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7851409912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7428216934204</t>
   </si>
   <si>
     <t xml:space="preserve">16.0390567779541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9277629852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.758487701416</t>
+    <t xml:space="preserve">16.9277648925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7584857940674</t>
   </si>
   <si>
     <t xml:space="preserve">17.4355964660645</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3666248321533</t>
+    <t xml:space="preserve">18.3666229248047</t>
   </si>
   <si>
     <t xml:space="preserve">17.7741527557373</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0280685424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5202369689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8008041381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0970439910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.266321182251</t>
+    <t xml:space="preserve">18.0280704498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5202350616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8008079528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0970420837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2663192749023</t>
   </si>
   <si>
     <t xml:space="preserve">17.1816825866699</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8431224822998</t>
+    <t xml:space="preserve">16.8431262969971</t>
   </si>
   <si>
     <t xml:space="preserve">17.0124034881592</t>
@@ -2054,13 +2054,13 @@
     <t xml:space="preserve">17.3509578704834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8587913513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1127090454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1973476409912</t>
+    <t xml:space="preserve">17.858793258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1127071380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1973457336426</t>
   </si>
   <si>
     <t xml:space="preserve">18.6205406188965</t>
@@ -2069,10 +2069,10 @@
     <t xml:space="preserve">18.7051811218262</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6048736572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5359020233154</t>
+    <t xml:space="preserve">17.6048755645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5359039306641</t>
   </si>
   <si>
     <t xml:space="preserve">18.7898197174072</t>
@@ -2081,58 +2081,58 @@
     <t xml:space="preserve">18.8744564056396</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0437355041504</t>
+    <t xml:space="preserve">19.0437335968018</t>
   </si>
   <si>
     <t xml:space="preserve">19.8901233673096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5515670776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.382287979126</t>
+    <t xml:space="preserve">19.5515689849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3822917938232</t>
   </si>
   <si>
     <t xml:space="preserve">19.8054847717285</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2976512908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.636209487915</t>
+    <t xml:space="preserve">19.2976493835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6362075805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4669303894043</t>
   </si>
   <si>
     <t xml:space="preserve">19.9747619628906</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0594024658203</t>
+    <t xml:space="preserve">20.0594005584717</t>
   </si>
   <si>
     <t xml:space="preserve">20.1440391540527</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7208461761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6518745422363</t>
+    <t xml:space="preserve">19.7208442687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6518726348877</t>
   </si>
   <si>
     <t xml:space="preserve">20.5639934539795</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6518726348877</t>
-  </si>
-  <si>
     <t xml:space="preserve">20.2124710083008</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3882331848145</t>
+    <t xml:space="preserve">20.3882312774658</t>
   </si>
   <si>
     <t xml:space="preserve">20.3003520965576</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1245899200439</t>
+    <t xml:space="preserve">20.1245918273926</t>
   </si>
   <si>
     <t xml:space="preserve">20.7397537231445</t>
@@ -2141,28 +2141,28 @@
     <t xml:space="preserve">21.0912742614746</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9155139923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0367107391357</t>
+    <t xml:space="preserve">20.9155120849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0367088317871</t>
   </si>
   <si>
     <t xml:space="preserve">19.7730693817139</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3336696624756</t>
+    <t xml:space="preserve">19.333667755127</t>
   </si>
   <si>
     <t xml:space="preserve">20.476110458374</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8276348114014</t>
+    <t xml:space="preserve">20.8276329040527</t>
   </si>
   <si>
     <t xml:space="preserve">21.1791553497314</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2670364379883</t>
+    <t xml:space="preserve">21.2670345306396</t>
   </si>
   <si>
     <t xml:space="preserve">21.4427967071533</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">21.7064361572266</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9700794219971</t>
+    <t xml:space="preserve">21.9700775146484</t>
   </si>
   <si>
     <t xml:space="preserve">21.5306758880615</t>
@@ -2192,34 +2192,34 @@
     <t xml:space="preserve">23.0246410369873</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4640445709229</t>
+    <t xml:space="preserve">23.4640426635742</t>
   </si>
   <si>
     <t xml:space="preserve">23.6398029327393</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9034461975098</t>
+    <t xml:space="preserve">23.9034442901611</t>
   </si>
   <si>
     <t xml:space="preserve">24.5186061859131</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4307270050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.167085647583</t>
+    <t xml:space="preserve">24.4307250976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1670837402344</t>
   </si>
   <si>
     <t xml:space="preserve">24.342845916748</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2549648284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6064872741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.991325378418</t>
+    <t xml:space="preserve">24.2549667358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6064853668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9913234710693</t>
   </si>
   <si>
     <t xml:space="preserve">24.0792045593262</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">23.7276821136475</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0458889007568</t>
+    <t xml:space="preserve">25.0458869934082</t>
   </si>
   <si>
     <t xml:space="preserve">26.1004524230957</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">24.6943683624268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4852905273438</t>
+    <t xml:space="preserve">25.4852886199951</t>
   </si>
   <si>
     <t xml:space="preserve">25.3095283508301</t>
@@ -2258,70 +2258,70 @@
     <t xml:space="preserve">25.3974094390869</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0125732421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4519748687744</t>
+    <t xml:space="preserve">26.0125713348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4519729614258</t>
   </si>
   <si>
     <t xml:space="preserve">26.2762126922607</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3640937805176</t>
+    <t xml:space="preserve">26.3640918731689</t>
   </si>
   <si>
     <t xml:space="preserve">26.7156143188477</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2428970336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4186573028564</t>
+    <t xml:space="preserve">27.2428951263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4186553955078</t>
   </si>
   <si>
     <t xml:space="preserve">27.5065364837646</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9126224517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6702327728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.406587600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0550651550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.230827331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3187084197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0005035400391</t>
+    <t xml:space="preserve">28.9126243591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6702289581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4065856933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0550670623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2308292388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3187065124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0005016326904</t>
   </si>
   <si>
     <t xml:space="preserve">28.0338191986084</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5277843475342</t>
+    <t xml:space="preserve">29.5277824401855</t>
   </si>
   <si>
     <t xml:space="preserve">28.4732227325439</t>
   </si>
   <si>
-    <t xml:space="preserve">29.439905166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7368621826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1762638092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2974605560303</t>
+    <t xml:space="preserve">29.4399032592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7368602752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1762619018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2974586486816</t>
   </si>
   <si>
     <t xml:space="preserve">26.6277332305908</t>
@@ -2330,16 +2330,16 @@
     <t xml:space="preserve">26.9792556762695</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8034954071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3307781219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5944156646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7489318847656</t>
+    <t xml:space="preserve">26.8034934997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3307762145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5944175720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.748929977417</t>
   </si>
   <si>
     <t xml:space="preserve">27.1550159454346</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">26.8913745880127</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6822986602783</t>
+    <t xml:space="preserve">27.6822967529297</t>
   </si>
   <si>
     <t xml:space="preserve">23.376163482666</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">23.8155651092529</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2216510772705</t>
+    <t xml:space="preserve">25.2216491699219</t>
   </si>
   <si>
     <t xml:space="preserve">24.782247543335</t>
@@ -3105,6 +3105,12 @@
   </si>
   <si>
     <t xml:space="preserve">34.5499992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4000015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7999992370605</t>
   </si>
 </sst>
 </file>
@@ -19948,7 +19954,7 @@
         <v>25.5</v>
       </c>
       <c r="G635" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19974,7 +19980,7 @@
         <v>25.5</v>
       </c>
       <c r="G636" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20000,7 +20006,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G637" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20026,7 +20032,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G638" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20052,7 +20058,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G639" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20078,7 +20084,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G640" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20156,7 +20162,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G643" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20182,7 +20188,7 @@
         <v>25</v>
       </c>
       <c r="G644" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20208,7 +20214,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G645" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20234,7 +20240,7 @@
         <v>25</v>
       </c>
       <c r="G646" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20260,7 +20266,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G647" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20286,7 +20292,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G648" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20312,7 +20318,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G649" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20338,7 +20344,7 @@
         <v>24.75</v>
       </c>
       <c r="G650" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20364,7 +20370,7 @@
         <v>24.75</v>
       </c>
       <c r="G651" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20390,7 +20396,7 @@
         <v>24.75</v>
       </c>
       <c r="G652" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20468,7 +20474,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20494,7 +20500,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G656" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20546,7 +20552,7 @@
         <v>25</v>
       </c>
       <c r="G658" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20572,7 +20578,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G659" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20624,7 +20630,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G661" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20650,7 +20656,7 @@
         <v>25</v>
       </c>
       <c r="G662" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20676,7 +20682,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G663" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20702,7 +20708,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G664" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20728,7 +20734,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G665" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20754,7 +20760,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G666" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20806,7 +20812,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G668" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20832,7 +20838,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20884,7 +20890,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G671" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20910,7 +20916,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G672" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20936,7 +20942,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G673" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20988,7 +20994,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21014,7 +21020,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G676" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21066,7 +21072,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G678" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21118,7 +21124,7 @@
         <v>25</v>
       </c>
       <c r="G680" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21144,7 +21150,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21170,7 +21176,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G682" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21196,7 +21202,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G683" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21222,7 +21228,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G684" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21248,7 +21254,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21378,7 +21384,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G690" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21404,7 +21410,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G691" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21430,7 +21436,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21456,7 +21462,7 @@
         <v>25</v>
       </c>
       <c r="G693" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21482,7 +21488,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G694" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21534,7 +21540,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G696" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21560,7 +21566,7 @@
         <v>24.75</v>
       </c>
       <c r="G697" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21586,7 +21592,7 @@
         <v>24.75</v>
       </c>
       <c r="G698" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21612,7 +21618,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G699" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21638,7 +21644,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21664,7 +21670,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G701" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21690,7 +21696,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G702" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21716,7 +21722,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G703" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21742,7 +21748,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G704" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21768,7 +21774,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G705" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21820,7 +21826,7 @@
         <v>23</v>
       </c>
       <c r="G707" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21846,7 +21852,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G708" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21872,7 +21878,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G709" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21898,7 +21904,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G710" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21924,7 +21930,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G711" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21950,7 +21956,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G712" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21976,7 +21982,7 @@
         <v>21.5</v>
       </c>
       <c r="G713" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -22002,7 +22008,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22028,7 +22034,7 @@
         <v>21</v>
       </c>
       <c r="G715" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22054,7 +22060,7 @@
         <v>20.25</v>
       </c>
       <c r="G716" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22080,7 +22086,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G717" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22106,7 +22112,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G718" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22132,7 +22138,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G719" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22158,7 +22164,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G720" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22184,7 +22190,7 @@
         <v>19.2600002288818</v>
       </c>
       <c r="G721" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -22210,7 +22216,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G722" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -22236,7 +22242,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G723" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22262,7 +22268,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G724" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22288,7 +22294,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G725" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -22314,7 +22320,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G726" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22340,7 +22346,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G727" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22366,7 +22372,7 @@
         <v>21</v>
       </c>
       <c r="G728" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22392,7 +22398,7 @@
         <v>21.5</v>
       </c>
       <c r="G729" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22418,7 +22424,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G730" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22444,7 +22450,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G731" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22470,7 +22476,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G732" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22496,7 +22502,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G733" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22522,7 +22528,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G734" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22548,7 +22554,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G735" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22574,7 +22580,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G736" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22600,7 +22606,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G737" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22626,7 +22632,7 @@
         <v>20.5</v>
       </c>
       <c r="G738" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22652,7 +22658,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G739" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22678,7 +22684,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G740" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22704,7 +22710,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G741" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22730,7 +22736,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G742" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22756,7 +22762,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22782,7 +22788,7 @@
         <v>21.25</v>
       </c>
       <c r="G744" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22808,7 +22814,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G745" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22834,7 +22840,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G746" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22860,7 +22866,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22886,7 +22892,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G748" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22912,7 +22918,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G749" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22938,7 +22944,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G750" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22964,7 +22970,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22990,7 +22996,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G752" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23016,7 +23022,7 @@
         <v>21</v>
       </c>
       <c r="G753" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23042,7 +23048,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G754" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23068,7 +23074,7 @@
         <v>21</v>
       </c>
       <c r="G755" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23094,7 +23100,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G756" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23120,7 +23126,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G757" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -23146,7 +23152,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G758" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23172,7 +23178,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G759" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23198,7 +23204,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G760" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -23224,7 +23230,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G761" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23250,7 +23256,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G762" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -23276,7 +23282,7 @@
         <v>20.25</v>
       </c>
       <c r="G763" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23302,7 +23308,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G764" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23328,7 +23334,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G765" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23354,7 +23360,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G766" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23380,7 +23386,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G767" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23406,7 +23412,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23432,7 +23438,7 @@
         <v>21</v>
       </c>
       <c r="G769" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23458,7 +23464,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G770" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23484,7 +23490,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G771" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23510,7 +23516,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G772" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23536,7 +23542,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23562,7 +23568,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G774" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23588,7 +23594,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G775" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23614,7 +23620,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G776" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23640,7 +23646,7 @@
         <v>22.5</v>
       </c>
       <c r="G777" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23666,7 +23672,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G778" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23692,7 +23698,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G779" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23718,7 +23724,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G780" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23744,7 +23750,7 @@
         <v>21.5</v>
       </c>
       <c r="G781" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23770,7 +23776,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G782" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23796,7 +23802,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G783" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23822,7 +23828,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G784" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23848,7 +23854,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G785" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23874,7 +23880,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G786" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23900,7 +23906,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G787" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23926,7 +23932,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23952,7 +23958,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G789" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23978,7 +23984,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G790" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24004,7 +24010,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G791" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24030,7 +24036,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G792" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24056,7 +24062,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G793" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24082,7 +24088,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G794" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24108,7 +24114,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G795" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24134,7 +24140,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G796" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24160,7 +24166,7 @@
         <v>20.25</v>
       </c>
       <c r="G797" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -24186,7 +24192,7 @@
         <v>20</v>
       </c>
       <c r="G798" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -24212,7 +24218,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G799" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -24238,7 +24244,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G800" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -24264,7 +24270,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G801" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -24290,7 +24296,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G802" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -24316,7 +24322,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G803" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -24342,7 +24348,7 @@
         <v>20.25</v>
       </c>
       <c r="G804" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24368,7 +24374,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24394,7 +24400,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G806" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24420,7 +24426,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G807" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24446,7 +24452,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G808" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24472,7 +24478,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G809" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24498,7 +24504,7 @@
         <v>20.5</v>
       </c>
       <c r="G810" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24524,7 +24530,7 @@
         <v>20</v>
       </c>
       <c r="G811" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24550,7 +24556,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G812" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24576,7 +24582,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G813" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24602,7 +24608,7 @@
         <v>20.25</v>
       </c>
       <c r="G814" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24628,7 +24634,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G815" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24654,7 +24660,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G816" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24680,7 +24686,7 @@
         <v>20.25</v>
       </c>
       <c r="G817" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24706,7 +24712,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G818" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24732,7 +24738,7 @@
         <v>21</v>
       </c>
       <c r="G819" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24758,7 +24764,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G820" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24784,7 +24790,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G821" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24810,7 +24816,7 @@
         <v>21.5</v>
       </c>
       <c r="G822" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24836,7 +24842,7 @@
         <v>22</v>
       </c>
       <c r="G823" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24862,7 +24868,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G824" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24888,7 +24894,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G825" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24914,7 +24920,7 @@
         <v>21.75</v>
       </c>
       <c r="G826" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24940,7 +24946,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G827" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24966,7 +24972,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G828" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24992,7 +24998,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G829" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -25018,7 +25024,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -25044,7 +25050,7 @@
         <v>21.75</v>
       </c>
       <c r="G831" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25070,7 +25076,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G832" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25096,7 +25102,7 @@
         <v>22</v>
       </c>
       <c r="G833" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25122,7 +25128,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -25148,7 +25154,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G835" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -25174,7 +25180,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G836" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -25200,7 +25206,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G837" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -25226,7 +25232,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G838" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -25252,7 +25258,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G839" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -25278,7 +25284,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -25304,7 +25310,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G841" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -25330,7 +25336,7 @@
         <v>22.5</v>
       </c>
       <c r="G842" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25356,7 +25362,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G843" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25382,7 +25388,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G844" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25408,7 +25414,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G845" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25434,7 +25440,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G846" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25460,7 +25466,7 @@
         <v>23.5</v>
       </c>
       <c r="G847" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25486,7 +25492,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G848" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25512,7 +25518,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G849" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25538,7 +25544,7 @@
         <v>21.5</v>
       </c>
       <c r="G850" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25564,7 +25570,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25590,7 +25596,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G852" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25616,7 +25622,7 @@
         <v>20.75</v>
       </c>
       <c r="G853" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25642,7 +25648,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G854" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25668,7 +25674,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G855" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25694,7 +25700,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G856" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25720,7 +25726,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G857" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25746,7 +25752,7 @@
         <v>20.25</v>
       </c>
       <c r="G858" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25772,7 +25778,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G859" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25798,7 +25804,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G860" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25824,7 +25830,7 @@
         <v>20</v>
       </c>
       <c r="G861" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25850,7 +25856,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G862" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25876,7 +25882,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G863" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25902,7 +25908,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G864" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25928,7 +25934,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G865" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25954,7 +25960,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G866" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25980,7 +25986,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G867" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26006,7 +26012,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G868" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26032,7 +26038,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G869" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26058,7 +26064,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G870" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26084,7 +26090,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G871" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26110,7 +26116,7 @@
         <v>19.8799991607666</v>
       </c>
       <c r="G872" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26136,7 +26142,7 @@
         <v>20</v>
       </c>
       <c r="G873" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -26162,7 +26168,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G874" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -26188,7 +26194,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -26214,7 +26220,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G876" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -26240,7 +26246,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G877" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -26266,7 +26272,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G878" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -26292,7 +26298,7 @@
         <v>20.25</v>
       </c>
       <c r="G879" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -26318,7 +26324,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -26344,7 +26350,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G881" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26370,7 +26376,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G882" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26396,7 +26402,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26422,7 +26428,7 @@
         <v>19.7600002288818</v>
       </c>
       <c r="G884" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26448,7 +26454,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G885" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26474,7 +26480,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26500,7 +26506,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G887" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26526,7 +26532,7 @@
         <v>20.25</v>
       </c>
       <c r="G888" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26552,7 +26558,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G889" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26578,7 +26584,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G890" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26604,7 +26610,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G891" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26630,7 +26636,7 @@
         <v>20.5</v>
       </c>
       <c r="G892" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26656,7 +26662,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G893" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26682,7 +26688,7 @@
         <v>20.25</v>
       </c>
       <c r="G894" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26708,7 +26714,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26734,7 +26740,7 @@
         <v>20.25</v>
       </c>
       <c r="G896" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26760,7 +26766,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G897" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26786,7 +26792,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G898" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26812,7 +26818,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G899" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26838,7 +26844,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G900" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26864,7 +26870,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G901" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26890,7 +26896,7 @@
         <v>20.25</v>
       </c>
       <c r="G902" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26916,7 +26922,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G903" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26942,7 +26948,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26968,7 +26974,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G905" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26994,7 +27000,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G906" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27020,7 +27026,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G907" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -27046,7 +27052,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G908" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -27072,7 +27078,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G909" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -27098,7 +27104,7 @@
         <v>21.25</v>
       </c>
       <c r="G910" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -27124,7 +27130,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -27150,7 +27156,7 @@
         <v>21.5</v>
       </c>
       <c r="G912" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -27176,7 +27182,7 @@
         <v>21.5</v>
       </c>
       <c r="G913" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -27202,7 +27208,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -27228,7 +27234,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G915" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -27254,7 +27260,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G916" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -27280,7 +27286,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G917" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -27306,7 +27312,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G918" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -27332,7 +27338,7 @@
         <v>21</v>
       </c>
       <c r="G919" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27358,7 +27364,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G920" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27384,7 +27390,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G921" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27410,7 +27416,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G922" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27436,7 +27442,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G923" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27462,7 +27468,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G924" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27488,7 +27494,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G925" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27514,7 +27520,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G926" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27540,7 +27546,7 @@
         <v>20</v>
       </c>
       <c r="G927" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27566,7 +27572,7 @@
         <v>19.8400001525879</v>
       </c>
       <c r="G928" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27592,7 +27598,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G929" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27618,7 +27624,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G930" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27644,7 +27650,7 @@
         <v>20</v>
       </c>
       <c r="G931" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27670,7 +27676,7 @@
         <v>20</v>
       </c>
       <c r="G932" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27696,7 +27702,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G933" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27722,7 +27728,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G934" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27748,7 +27754,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G935" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27774,7 +27780,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G936" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27800,7 +27806,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G937" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27826,7 +27832,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G938" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27852,7 +27858,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G939" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27878,7 +27884,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G940" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27904,7 +27910,7 @@
         <v>21.25</v>
       </c>
       <c r="G941" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27930,7 +27936,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G942" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27956,7 +27962,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G943" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27982,7 +27988,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G944" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -28008,7 +28014,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -28034,7 +28040,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G946" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -28060,7 +28066,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G947" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -28086,7 +28092,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G948" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -28112,7 +28118,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G949" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -28138,7 +28144,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G950" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -28164,7 +28170,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G951" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -28190,7 +28196,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G952" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -28216,7 +28222,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G953" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -28242,7 +28248,7 @@
         <v>21.25</v>
       </c>
       <c r="G954" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -28268,7 +28274,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -28294,7 +28300,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G956" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -28320,7 +28326,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -28346,7 +28352,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G958" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28372,7 +28378,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G959" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28398,7 +28404,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G960" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28424,7 +28430,7 @@
         <v>21.25</v>
       </c>
       <c r="G961" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28450,7 +28456,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G962" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28476,7 +28482,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G963" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28502,7 +28508,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G964" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28528,7 +28534,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G965" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28554,7 +28560,7 @@
         <v>21.5</v>
       </c>
       <c r="G966" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28580,7 +28586,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G967" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28606,7 +28612,7 @@
         <v>21.25</v>
       </c>
       <c r="G968" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28632,7 +28638,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G969" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28658,7 +28664,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G970" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28684,7 +28690,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G971" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28710,7 +28716,7 @@
         <v>21.5</v>
       </c>
       <c r="G972" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28736,7 +28742,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28762,7 +28768,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G974" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28788,7 +28794,7 @@
         <v>21</v>
       </c>
       <c r="G975" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28814,7 +28820,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G976" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28840,7 +28846,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G977" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28866,7 +28872,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G978" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28892,7 +28898,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G979" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28918,7 +28924,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G980" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28944,7 +28950,7 @@
         <v>23</v>
       </c>
       <c r="G981" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28970,7 +28976,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G982" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -28996,7 +29002,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G983" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -29022,7 +29028,7 @@
         <v>24</v>
       </c>
       <c r="G984" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -29048,7 +29054,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G985" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -29074,7 +29080,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G986" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29100,7 +29106,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -29126,7 +29132,7 @@
         <v>24</v>
       </c>
       <c r="G988" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -29152,7 +29158,7 @@
         <v>24</v>
       </c>
       <c r="G989" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -29178,7 +29184,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G990" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -29204,7 +29210,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G991" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -29230,7 +29236,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -29256,7 +29262,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G993" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -29282,7 +29288,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -29308,7 +29314,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G995" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -29334,7 +29340,7 @@
         <v>24.5</v>
       </c>
       <c r="G996" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29360,7 +29366,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G997" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29386,7 +29392,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G998" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29412,7 +29418,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29438,7 +29444,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29464,7 +29470,7 @@
         <v>23.25</v>
       </c>
       <c r="G1001" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29490,7 +29496,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1002" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29516,7 +29522,7 @@
         <v>23.5</v>
       </c>
       <c r="G1003" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29542,7 +29548,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1004" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29568,7 +29574,7 @@
         <v>23.75</v>
       </c>
       <c r="G1005" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29594,7 +29600,7 @@
         <v>23.75</v>
       </c>
       <c r="G1006" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29620,7 +29626,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1007" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29646,7 +29652,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29672,7 +29678,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1009" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29698,7 +29704,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29724,7 +29730,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1011" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29750,7 +29756,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1012" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29776,7 +29782,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1013" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29802,7 +29808,7 @@
         <v>24.25</v>
       </c>
       <c r="G1014" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29828,7 +29834,7 @@
         <v>24</v>
       </c>
       <c r="G1015" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29854,7 +29860,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1016" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29880,7 +29886,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1017" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29906,7 +29912,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1018" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29932,7 +29938,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1019" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29958,7 +29964,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29984,7 +29990,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1021" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30010,7 +30016,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1022" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -30036,7 +30042,7 @@
         <v>23.5</v>
       </c>
       <c r="G1023" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30062,7 +30068,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1024" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -30088,7 +30094,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30114,7 +30120,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1026" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -30140,7 +30146,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1027" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -30166,7 +30172,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1028" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -30192,7 +30198,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1029" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -30218,7 +30224,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1030" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -30244,7 +30250,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1031" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -30270,7 +30276,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1032" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -30296,7 +30302,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1033" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -30322,7 +30328,7 @@
         <v>22.75</v>
       </c>
       <c r="G1034" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30348,7 +30354,7 @@
         <v>23.25</v>
       </c>
       <c r="G1035" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30374,7 +30380,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1036" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30400,7 +30406,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1037" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30426,7 +30432,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30452,7 +30458,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1039" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30478,7 +30484,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1040" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30504,7 +30510,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30530,7 +30536,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1042" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30556,7 +30562,7 @@
         <v>23.75</v>
       </c>
       <c r="G1043" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30582,7 +30588,7 @@
         <v>23.75</v>
       </c>
       <c r="G1044" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30608,7 +30614,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1045" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30634,7 +30640,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1046" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30660,7 +30666,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1047" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30686,7 +30692,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30712,7 +30718,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30738,7 +30744,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30764,7 +30770,7 @@
         <v>23.25</v>
       </c>
       <c r="G1051" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30790,7 +30796,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1052" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30816,7 +30822,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1053" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30842,7 +30848,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1054" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30868,7 +30874,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30894,7 +30900,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1056" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30920,7 +30926,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1057" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30946,7 +30952,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30972,7 +30978,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1059" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30998,7 +31004,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1060" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -31024,7 +31030,7 @@
         <v>20.75</v>
       </c>
       <c r="G1061" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -31050,7 +31056,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1062" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -31076,7 +31082,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1063" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -31102,7 +31108,7 @@
         <v>19.5</v>
       </c>
       <c r="G1064" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31128,7 +31134,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1065" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -31154,7 +31160,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1066" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -31180,7 +31186,7 @@
         <v>18</v>
       </c>
       <c r="G1067" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -31206,7 +31212,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1068" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -31232,7 +31238,7 @@
         <v>17</v>
       </c>
       <c r="G1069" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -31258,7 +31264,7 @@
         <v>17</v>
       </c>
       <c r="G1070" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31284,7 +31290,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1071" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -31310,7 +31316,7 @@
         <v>17.5</v>
       </c>
       <c r="G1072" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31336,7 +31342,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1073" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31362,7 +31368,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1074" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31388,7 +31394,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1075" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31414,7 +31420,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31440,7 +31446,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1077" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31466,7 +31472,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1078" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31492,7 +31498,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1079" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31518,7 +31524,7 @@
         <v>14</v>
       </c>
       <c r="G1080" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31544,7 +31550,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1081" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31570,7 +31576,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1082" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31596,7 +31602,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1083" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31622,7 +31628,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1084" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31648,7 +31654,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1085" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31674,7 +31680,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1086" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31700,7 +31706,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1087" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31726,7 +31732,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1088" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31752,7 +31758,7 @@
         <v>15</v>
       </c>
       <c r="G1089" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31778,7 +31784,7 @@
         <v>15.5</v>
       </c>
       <c r="G1090" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31804,7 +31810,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1091" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31830,7 +31836,7 @@
         <v>15.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31856,7 +31862,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1093" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31882,7 +31888,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1094" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31908,7 +31914,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1095" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31934,7 +31940,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1096" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31960,7 +31966,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1097" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -31986,7 +31992,7 @@
         <v>15</v>
       </c>
       <c r="G1098" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -32012,7 +32018,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1099" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -32038,7 +32044,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1100" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -32064,7 +32070,7 @@
         <v>15</v>
       </c>
       <c r="G1101" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -32090,7 +32096,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1102" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -32116,7 +32122,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1103" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -32142,7 +32148,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1104" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32168,7 +32174,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1105" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -32194,7 +32200,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -32220,7 +32226,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1107" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -32246,7 +32252,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1108" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -32272,7 +32278,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1109" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -32298,7 +32304,7 @@
         <v>13.75</v>
       </c>
       <c r="G1110" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -32324,7 +32330,7 @@
         <v>14</v>
       </c>
       <c r="G1111" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32350,7 +32356,7 @@
         <v>14</v>
       </c>
       <c r="G1112" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32376,7 +32382,7 @@
         <v>14.5</v>
       </c>
       <c r="G1113" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32402,7 +32408,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1114" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32428,7 +32434,7 @@
         <v>15</v>
       </c>
       <c r="G1115" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32454,7 +32460,7 @@
         <v>15.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32480,7 +32486,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1117" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32506,7 +32512,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1118" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32532,7 +32538,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32558,7 +32564,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1120" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32584,7 +32590,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1121" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32610,7 +32616,7 @@
         <v>17</v>
       </c>
       <c r="G1122" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32636,7 +32642,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1123" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32662,7 +32668,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32688,7 +32694,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1125" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32714,7 +32720,7 @@
         <v>17.5</v>
       </c>
       <c r="G1126" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32740,7 +32746,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1127" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32766,7 +32772,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1128" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32792,7 +32798,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32818,7 +32824,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1130" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32844,7 +32850,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1131" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32870,7 +32876,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1132" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32896,7 +32902,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1133" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32922,7 +32928,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1134" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32948,7 +32954,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1135" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32974,7 +32980,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1136" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -33000,7 +33006,7 @@
         <v>18</v>
       </c>
       <c r="G1137" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -33026,7 +33032,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -33052,7 +33058,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -33078,7 +33084,7 @@
         <v>17.5</v>
       </c>
       <c r="G1140" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -33104,7 +33110,7 @@
         <v>17</v>
       </c>
       <c r="G1141" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -33130,7 +33136,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1142" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -33156,7 +33162,7 @@
         <v>16.5</v>
       </c>
       <c r="G1143" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -33182,7 +33188,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1144" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -33208,7 +33214,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1145" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -33234,7 +33240,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G1146" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -33260,7 +33266,7 @@
         <v>17.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -33286,7 +33292,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -33312,7 +33318,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33338,7 +33344,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1150" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33364,7 +33370,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1151" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33390,7 +33396,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1152" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33416,7 +33422,7 @@
         <v>17.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33442,7 +33448,7 @@
         <v>17</v>
       </c>
       <c r="G1154" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33468,7 +33474,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1155" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33494,7 +33500,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1156" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33520,7 +33526,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1157" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33546,7 +33552,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33572,7 +33578,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1159" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33598,7 +33604,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1160" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33624,7 +33630,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1161" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33650,7 +33656,7 @@
         <v>16.5</v>
       </c>
       <c r="G1162" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33676,7 +33682,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1163" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33702,7 +33708,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1164" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33728,7 +33734,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1165" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33754,7 +33760,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1166" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33780,7 +33786,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1167" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33806,7 +33812,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1168" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33832,7 +33838,7 @@
         <v>17.25</v>
       </c>
       <c r="G1169" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33858,7 +33864,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1170" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33884,7 +33890,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1171" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33910,7 +33916,7 @@
         <v>17</v>
       </c>
       <c r="G1172" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33936,7 +33942,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1173" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33962,7 +33968,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1174" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -33988,7 +33994,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1175" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -34014,7 +34020,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -34040,7 +34046,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1177" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -34066,7 +34072,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1178" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -34092,7 +34098,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1179" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -34118,7 +34124,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1180" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -34144,7 +34150,7 @@
         <v>17</v>
       </c>
       <c r="G1181" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -34170,7 +34176,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1182" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -34196,7 +34202,7 @@
         <v>17</v>
       </c>
       <c r="G1183" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -34222,7 +34228,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1184" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -34248,7 +34254,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1185" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -34274,7 +34280,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1186" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -34300,7 +34306,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1187" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34326,7 +34332,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1188" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34352,7 +34358,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34378,7 +34384,7 @@
         <v>17.25</v>
       </c>
       <c r="G1190" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34404,7 +34410,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1191" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34430,7 +34436,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1192" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34456,7 +34462,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1193" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34482,7 +34488,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1194" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34508,7 +34514,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1195" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34534,7 +34540,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1196" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34560,7 +34566,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1197" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34586,7 +34592,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1198" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34612,7 +34618,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1199" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34638,7 +34644,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1200" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34664,7 +34670,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34690,7 +34696,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1202" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34716,7 +34722,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1203" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34742,7 +34748,7 @@
         <v>16</v>
       </c>
       <c r="G1204" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34768,7 +34774,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1205" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34794,7 +34800,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1206" t="s">
-        <v>642</v>
+        <v>577</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34820,7 +34826,7 @@
         <v>16</v>
       </c>
       <c r="G1207" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34846,7 +34852,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1208" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34898,7 +34904,7 @@
         <v>16.5</v>
       </c>
       <c r="G1210" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34924,7 +34930,7 @@
         <v>16.5</v>
       </c>
       <c r="G1211" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34950,7 +34956,7 @@
         <v>17.25</v>
       </c>
       <c r="G1212" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34976,7 +34982,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1213" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -35002,7 +35008,7 @@
         <v>17</v>
       </c>
       <c r="G1214" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -35028,7 +35034,7 @@
         <v>17.25</v>
       </c>
       <c r="G1215" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -35054,7 +35060,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1216" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -35080,7 +35086,7 @@
         <v>17</v>
       </c>
       <c r="G1217" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -35106,7 +35112,7 @@
         <v>17</v>
       </c>
       <c r="G1218" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -35132,7 +35138,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1219" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -35158,7 +35164,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -35184,7 +35190,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1221" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -35210,7 +35216,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1222" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -35288,7 +35294,7 @@
         <v>16</v>
       </c>
       <c r="G1225" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -35496,7 +35502,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35548,7 +35554,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1235" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35574,7 +35580,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35600,7 +35606,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1237" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -37966,7 +37972,7 @@
         <v>23</v>
       </c>
       <c r="G1328" t="s">
-        <v>547</v>
+        <v>696</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -38304,7 +38310,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1341" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -38330,7 +38336,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1342" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -38356,7 +38362,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1343" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -38382,7 +38388,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1344" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -38434,7 +38440,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1346" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -38460,7 +38466,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1347" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -38486,7 +38492,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1348" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38538,7 +38544,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1350" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38564,7 +38570,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1351" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38590,7 +38596,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1352" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -38616,7 +38622,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1353" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -38668,7 +38674,7 @@
         <v>23</v>
       </c>
       <c r="G1355" t="s">
-        <v>547</v>
+        <v>696</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38694,7 +38700,7 @@
         <v>23</v>
       </c>
       <c r="G1356" t="s">
-        <v>547</v>
+        <v>696</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38720,7 +38726,7 @@
         <v>23</v>
       </c>
       <c r="G1357" t="s">
-        <v>547</v>
+        <v>696</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38746,7 +38752,7 @@
         <v>23</v>
       </c>
       <c r="G1358" t="s">
-        <v>547</v>
+        <v>696</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38772,7 +38778,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1359" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -38798,7 +38804,7 @@
         <v>23</v>
       </c>
       <c r="G1360" t="s">
-        <v>547</v>
+        <v>696</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -38824,7 +38830,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1361" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -38850,7 +38856,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1362" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -38876,7 +38882,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1363" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -38902,7 +38908,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1364" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -38928,7 +38934,7 @@
         <v>23.5</v>
       </c>
       <c r="G1365" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -39058,7 +39064,7 @@
         <v>23.5</v>
       </c>
       <c r="G1370" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -39084,7 +39090,7 @@
         <v>23.5</v>
       </c>
       <c r="G1371" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -39110,7 +39116,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1372" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -39162,7 +39168,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1374" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -39188,7 +39194,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1375" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -39214,7 +39220,7 @@
         <v>23.5</v>
       </c>
       <c r="G1376" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -39240,7 +39246,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1377" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -39292,7 +39298,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1379" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -39318,7 +39324,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1380" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -39344,7 +39350,7 @@
         <v>23.5</v>
       </c>
       <c r="G1381" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39370,7 +39376,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1382" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -39396,7 +39402,7 @@
         <v>23.5</v>
       </c>
       <c r="G1383" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39422,7 +39428,7 @@
         <v>23.5</v>
       </c>
       <c r="G1384" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39552,7 +39558,7 @@
         <v>23.5</v>
       </c>
       <c r="G1389" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39578,7 +39584,7 @@
         <v>23.5</v>
       </c>
       <c r="G1390" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -39682,7 +39688,7 @@
         <v>23.5</v>
       </c>
       <c r="G1394" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -39708,7 +39714,7 @@
         <v>23.5</v>
       </c>
       <c r="G1395" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -40254,7 +40260,7 @@
         <v>23.5</v>
       </c>
       <c r="G1416" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -40280,7 +40286,7 @@
         <v>23.5</v>
       </c>
       <c r="G1417" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -60308,7 +60314,7 @@
     </row>
     <row r="2188">
       <c r="A2188" s="1" t="n">
-        <v>45509.6494560185</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B2188" t="n">
         <v>9021</v>
@@ -60329,6 +60335,58 @@
         <v>1030</v>
       </c>
       <c r="H2188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B2189" t="n">
+        <v>14974</v>
+      </c>
+      <c r="C2189" t="n">
+        <v>35.5999984741211</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>34</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>35.4000015258789</v>
+      </c>
+      <c r="G2189" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H2189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" s="1" t="n">
+        <v>45511.649375</v>
+      </c>
+      <c r="B2190" t="n">
+        <v>14337</v>
+      </c>
+      <c r="C2190" t="n">
+        <v>36.6500015258789</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>35.5499992370605</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>36</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>35.7999992370605</v>
+      </c>
+      <c r="G2190" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H2190" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CMB.MI.xlsx
+++ b/data/CMB.MI.xlsx
@@ -38,46 +38,46 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58274269104004</t>
+    <t xml:space="preserve">9.58274173736572</t>
   </si>
   <si>
     <t xml:space="preserve">CMB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9114933013916</t>
+    <t xml:space="preserve">9.91149234771729</t>
   </si>
   <si>
     <t xml:space="preserve">9.65968418121338</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75061511993408</t>
+    <t xml:space="preserve">9.75061416625977</t>
   </si>
   <si>
     <t xml:space="preserve">9.75760936737061</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79258251190186</t>
+    <t xml:space="preserve">9.79258346557617</t>
   </si>
   <si>
     <t xml:space="preserve">9.70864582061768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47782039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66667747497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61071968078613</t>
+    <t xml:space="preserve">9.47782135009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66667652130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61072063446045</t>
   </si>
   <si>
     <t xml:space="preserve">9.68766117095947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61771583557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53377723693848</t>
+    <t xml:space="preserve">9.61771488189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53377914428711</t>
   </si>
   <si>
     <t xml:space="preserve">9.54077339172363</t>
@@ -86,70 +86,70 @@
     <t xml:space="preserve">9.44284725189209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17005443572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1001091003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1770486831665</t>
+    <t xml:space="preserve">9.17005252838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10010814666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17704772949219</t>
   </si>
   <si>
     <t xml:space="preserve">8.67342948913574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63845634460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93922996520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76436233520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74337673187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95321750640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12808513641357</t>
+    <t xml:space="preserve">8.63845729827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93922710418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76436138153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74337768554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95321846008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12808609008789</t>
   </si>
   <si>
     <t xml:space="preserve">9.56875133514404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60372447967529</t>
+    <t xml:space="preserve">9.60372543334961</t>
   </si>
   <si>
     <t xml:space="preserve">9.40787315368652</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20502662658691</t>
+    <t xml:space="preserve">9.20502853393555</t>
   </si>
   <si>
     <t xml:space="preserve">9.30295276641846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03715419769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98819160461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2260103225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14207363128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33093166351318</t>
+    <t xml:space="preserve">9.03715515136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98819255828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22601222991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14207458496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33093070983887</t>
   </si>
   <si>
     <t xml:space="preserve">9.34492111206055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23300552368164</t>
+    <t xml:space="preserve">9.23300457000732</t>
   </si>
   <si>
     <t xml:space="preserve">9.30994892120361</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">9.52678298950195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51279544830322</t>
+    <t xml:space="preserve">9.51279449462891</t>
   </si>
   <si>
     <t xml:space="preserve">9.47082614898682</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">9.69465637207031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59673118591309</t>
+    <t xml:space="preserve">9.5967321395874</t>
   </si>
   <si>
     <t xml:space="preserve">9.49880504608154</t>
@@ -176,34 +176,34 @@
     <t xml:space="preserve">9.42186450958252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5058012008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31694221496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11409664154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.107102394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46383190155029</t>
+    <t xml:space="preserve">9.50579929351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31694412231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11409473419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10710144042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46382999420166</t>
   </si>
   <si>
     <t xml:space="preserve">9.37289905548096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55476188659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3798942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43585300445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54776668548584</t>
+    <t xml:space="preserve">9.554762840271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37989521026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43585205078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54776859283447</t>
   </si>
   <si>
     <t xml:space="preserve">9.72962951660156</t>
@@ -212,88 +212,88 @@
     <t xml:space="preserve">9.63170433044434</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56347179412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57071018218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53451251983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70102214813232</t>
+    <t xml:space="preserve">9.5634708404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57071208953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53451442718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70102310180664</t>
   </si>
   <si>
     <t xml:space="preserve">9.75893974304199</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87477397918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84581470489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73721885681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3163871765137</t>
+    <t xml:space="preserve">9.8747730255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84581565856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73722076416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.316385269165</t>
   </si>
   <si>
     <t xml:space="preserve">10.1281576156616</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1353969573975</t>
+    <t xml:space="preserve">10.1353979110718</t>
   </si>
   <si>
     <t xml:space="preserve">10.0268039703369</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1933116912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1136789321899</t>
+    <t xml:space="preserve">10.1933126449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1136808395386</t>
   </si>
   <si>
     <t xml:space="preserve">9.92545032501221</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93268966674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91096973419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83133411407471</t>
+    <t xml:space="preserve">9.93269062042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91097068786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83133506774902</t>
   </si>
   <si>
     <t xml:space="preserve">9.77341938018799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74446105957031</t>
+    <t xml:space="preserve">9.744460105896</t>
   </si>
   <si>
     <t xml:space="preserve">9.76617908477783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6937837600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93992805480957</t>
+    <t xml:space="preserve">9.69378471374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93992900848389</t>
   </si>
   <si>
     <t xml:space="preserve">9.98336601257324</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99060440063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81685638427734</t>
+    <t xml:space="preserve">9.99060535430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81685733795166</t>
   </si>
   <si>
     <t xml:space="preserve">9.83857440948486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94716835021973</t>
+    <t xml:space="preserve">9.94716930389404</t>
   </si>
   <si>
     <t xml:space="preserve">9.91821002960205</t>
@@ -305,49 +305,49 @@
     <t xml:space="preserve">9.46211719512939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65034484863281</t>
+    <t xml:space="preserve">9.65034580230713</t>
   </si>
   <si>
     <t xml:space="preserve">9.62862682342529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54899215698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62138843536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70826244354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63586616516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64310550689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66482543945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71550178527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82409572601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8820104598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86029434204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79513740539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85305309295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67930316925049</t>
+    <t xml:space="preserve">9.54899311065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62138748168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7082633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63586807250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64310741424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66482639312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71550369262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82409477233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88201332092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8602933883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79513645172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85305404663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67930507659912</t>
   </si>
   <si>
     <t xml:space="preserve">9.67206382751465</t>
@@ -356,58 +356,58 @@
     <t xml:space="preserve">9.47659683227539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48383617401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49107551574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44763851165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37524127960205</t>
+    <t xml:space="preserve">9.48383712768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49107456207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44763946533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37524223327637</t>
   </si>
   <si>
     <t xml:space="preserve">9.25940895080566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34628486633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41143989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31008529663086</t>
+    <t xml:space="preserve">9.34628391265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4114408493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31008720397949</t>
   </si>
   <si>
     <t xml:space="preserve">9.19425296783447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17977428436279</t>
+    <t xml:space="preserve">9.17977333068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.26664924621582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25217151641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28836727142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30284690856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33904361724854</t>
+    <t xml:space="preserve">9.25216865539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28836822509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30284786224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33904457092285</t>
   </si>
   <si>
     <t xml:space="preserve">9.2449312210083</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20873165130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13633728027344</t>
+    <t xml:space="preserve">9.20873260498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13633632659912</t>
   </si>
   <si>
     <t xml:space="preserve">8.91914939880371</t>
@@ -416,16 +416,16 @@
     <t xml:space="preserve">8.88295364379883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14357662200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16529560089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2304515838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33180522918701</t>
+    <t xml:space="preserve">9.14357566833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1652946472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23045063018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3318042755127</t>
   </si>
   <si>
     <t xml:space="preserve">9.15805435180664</t>
@@ -437,25 +437,25 @@
     <t xml:space="preserve">9.42591953277588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38248157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43315982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0195636749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0050840377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0630006790161</t>
+    <t xml:space="preserve">9.38248252868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43315887451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0195646286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0050849914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0630016326904</t>
   </si>
   <si>
     <t xml:space="preserve">10.1571159362793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2946681976318</t>
+    <t xml:space="preserve">10.2946691513062</t>
   </si>
   <si>
     <t xml:space="preserve">10.3525848388672</t>
@@ -467,22 +467,22 @@
     <t xml:space="preserve">10.801438331604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5697727203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6276893615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5263347625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5118560791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6494083404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7797203063965</t>
+    <t xml:space="preserve">10.5697717666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6276884078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5263338088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5118570327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6494064331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7797183990479</t>
   </si>
   <si>
     <t xml:space="preserve">10.9317502975464</t>
@@ -494,22 +494,22 @@
     <t xml:space="preserve">10.8738346099854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0258655548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7435216903687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3598232269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3236255645752</t>
+    <t xml:space="preserve">11.0258636474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.743522644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3598251342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3236265182495</t>
   </si>
   <si>
     <t xml:space="preserve">10.4756574630737</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8593559265137</t>
+    <t xml:space="preserve">10.859354019165</t>
   </si>
   <si>
     <t xml:space="preserve">10.7724800109863</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">10.7290420532227</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8665952682495</t>
+    <t xml:space="preserve">10.8665943145752</t>
   </si>
   <si>
     <t xml:space="preserve">10.786958694458</t>
@@ -533,55 +533,55 @@
     <t xml:space="preserve">10.7580003738403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7507619857788</t>
+    <t xml:space="preserve">10.7507610321045</t>
   </si>
   <si>
     <t xml:space="preserve">10.7218027114868</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6638860702515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7652416229248</t>
+    <t xml:space="preserve">10.6638841629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7652406692505</t>
   </si>
   <si>
     <t xml:space="preserve">11.0041465759277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9462299346924</t>
+    <t xml:space="preserve">10.9462289810181</t>
   </si>
   <si>
     <t xml:space="preserve">11.0910205841064</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5036764144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4529981613159</t>
+    <t xml:space="preserve">11.5036773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4529991149902</t>
   </si>
   <si>
     <t xml:space="preserve">11.4457597732544</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4747180938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4964370727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7787790298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9452905654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5389347076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4448204040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5172157287598</t>
+    <t xml:space="preserve">11.4747171401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4964361190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7787799835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9452896118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5389356613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4448213577271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5172176361084</t>
   </si>
   <si>
     <t xml:space="preserve">12.5534143447876</t>
@@ -590,85 +590,85 @@
     <t xml:space="preserve">12.7416429519653</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2990884780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4583606719971</t>
+    <t xml:space="preserve">13.299090385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4583597183228</t>
   </si>
   <si>
     <t xml:space="preserve">13.4728393554688</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7407035827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5959129333496</t>
+    <t xml:space="preserve">13.7407026290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5959100723267</t>
   </si>
   <si>
     <t xml:space="preserve">13.6103897094727</t>
   </si>
   <si>
-    <t xml:space="preserve">13.371485710144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3932037353516</t>
+    <t xml:space="preserve">13.3714847564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3932046890259</t>
   </si>
   <si>
     <t xml:space="preserve">13.3208074569702</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4438810348511</t>
+    <t xml:space="preserve">13.4438829421997</t>
   </si>
   <si>
     <t xml:space="preserve">13.6827869415283</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8927345275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4139833450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5008583068848</t>
+    <t xml:space="preserve">13.8927354812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4139823913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5008573532104</t>
   </si>
   <si>
     <t xml:space="preserve">14.4501791000366</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5442953109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5515327453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6601266860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.594970703125</t>
+    <t xml:space="preserve">14.5442943572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5515356063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6601295471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5949726104736</t>
   </si>
   <si>
     <t xml:space="preserve">14.5225744247437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7390546798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8515653610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6715450286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6040410995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5140295028687</t>
+    <t xml:space="preserve">14.7390537261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8515672683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6715469360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.604040145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.514030456543</t>
   </si>
   <si>
     <t xml:space="preserve">14.176495552063</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8890695571899</t>
+    <t xml:space="preserve">14.8890714645386</t>
   </si>
   <si>
     <t xml:space="preserve">14.1914958953857</t>
@@ -677,85 +677,85 @@
     <t xml:space="preserve">14.5215330123901</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5065307617188</t>
+    <t xml:space="preserve">14.5065288543701</t>
   </si>
   <si>
     <t xml:space="preserve">14.7990617752075</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8815670013428</t>
+    <t xml:space="preserve">14.8815679550171</t>
   </si>
   <si>
     <t xml:space="preserve">14.8740682601929</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8065605163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9640779495239</t>
+    <t xml:space="preserve">14.8065624237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9640769958496</t>
   </si>
   <si>
     <t xml:space="preserve">15.106593132019</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9016799926758</t>
+    <t xml:space="preserve">15.9016771316528</t>
   </si>
   <si>
     <t xml:space="preserve">16.434232711792</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442211151123</t>
+    <t xml:space="preserve">16.3442230224609</t>
   </si>
   <si>
     <t xml:space="preserve">15.9316825866699</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7516613006592</t>
+    <t xml:space="preserve">15.7516622543335</t>
   </si>
   <si>
     <t xml:space="preserve">15.4741306304932</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1740989685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1417045593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8791723251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4816341400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6316480636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1266994476318</t>
+    <t xml:space="preserve">15.1741008758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1417026519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8791751861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4816331863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.631649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1267032623291</t>
   </si>
   <si>
     <t xml:space="preserve">16.0291919708252</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8341674804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7366580963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3841238021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6991586685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6766548156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5416383743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7141599655151</t>
+    <t xml:space="preserve">15.8341703414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7366609573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3841218948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6991567611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6766538619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5416402816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7141561508179</t>
   </si>
   <si>
     <t xml:space="preserve">15.5866451263428</t>
@@ -764,19 +764,19 @@
     <t xml:space="preserve">15.7741651535034</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2467136383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2767143249512</t>
+    <t xml:space="preserve">16.246711730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2767162322998</t>
   </si>
   <si>
     <t xml:space="preserve">16.3517246246338</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5242443084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.636754989624</t>
+    <t xml:space="preserve">16.5242462158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6367568969727</t>
   </si>
   <si>
     <t xml:space="preserve">16.5392436981201</t>
@@ -788,82 +788,82 @@
     <t xml:space="preserve">15.8491697311401</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8566732406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8266716003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8941774368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041658401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7216577529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.616644859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.744161605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116664886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4516305923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4216270446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3766222000122</t>
+    <t xml:space="preserve">15.8566722869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8266706466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8941745758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041648864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7216567993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6166486740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7441596984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116655349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4516315460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4216241836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3766212463379</t>
   </si>
   <si>
     <t xml:space="preserve">15.5191373825073</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5266389846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2266054153442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3016119003296</t>
+    <t xml:space="preserve">15.5266370773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2266063690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3016147613525</t>
   </si>
   <si>
     <t xml:space="preserve">15.2416095733643</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4441289901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0315847396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.406623840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1966028213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1515998840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3991241455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7591609954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9091758728027</t>
+    <t xml:space="preserve">15.4441270828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0315866470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4066257476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1966037750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1515979766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3991250991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.759162902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9091768264771</t>
   </si>
   <si>
     <t xml:space="preserve">16.0066890716553</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8692779541016</t>
+    <t xml:space="preserve">16.8692798614502</t>
   </si>
   <si>
     <t xml:space="preserve">17.6268577575684</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">18.226921081543</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3820419311523</t>
+    <t xml:space="preserve">19.3820457458496</t>
   </si>
   <si>
     <t xml:space="preserve">19.0820121765137</t>
@@ -881,16 +881,16 @@
     <t xml:space="preserve">19.1270160675049</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8944931030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7519798278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8644886016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6394672393799</t>
+    <t xml:space="preserve">18.8944911956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7519779205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8644905090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6394653320312</t>
   </si>
   <si>
     <t xml:space="preserve">18.6769695281982</t>
@@ -902,19 +902,19 @@
     <t xml:space="preserve">18.631965637207</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2944278717041</t>
+    <t xml:space="preserve">18.2944297790527</t>
   </si>
   <si>
     <t xml:space="preserve">18.4219436645508</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2569255828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2419242858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1894207000732</t>
+    <t xml:space="preserve">18.2569274902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.24192237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.189416885376</t>
   </si>
   <si>
     <t xml:space="preserve">18.1519145965576</t>
@@ -923,10 +923,10 @@
     <t xml:space="preserve">18.0319023132324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9643936157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.926887512207</t>
+    <t xml:space="preserve">17.9643955230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9268913269043</t>
   </si>
   <si>
     <t xml:space="preserve">17.6793632507324</t>
@@ -944,55 +944,55 @@
     <t xml:space="preserve">18.0018997192383</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0469036102295</t>
+    <t xml:space="preserve">18.0469017028809</t>
   </si>
   <si>
     <t xml:space="preserve">18.0244026184082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9343910217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9868984222412</t>
+    <t xml:space="preserve">17.9343929290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9868965148926</t>
   </si>
   <si>
     <t xml:space="preserve">17.8068771362305</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2068138122559</t>
+    <t xml:space="preserve">17.2068157196045</t>
   </si>
   <si>
     <t xml:space="preserve">17.2443180084229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5518493652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9517879486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2917194366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7117614746094</t>
+    <t xml:space="preserve">17.551851272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.951789855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2917175292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.711763381958</t>
   </si>
   <si>
     <t xml:space="preserve">16.509241104126</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2317142486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0868015289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9067821502686</t>
+    <t xml:space="preserve">16.23171043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0868034362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9067859649658</t>
   </si>
   <si>
     <t xml:space="preserve">17.1918125152588</t>
   </si>
   <si>
-    <t xml:space="preserve">17.124303817749</t>
+    <t xml:space="preserve">17.1243057250977</t>
   </si>
   <si>
     <t xml:space="preserve">17.1768112182617</t>
@@ -1001,13 +1001,13 @@
     <t xml:space="preserve">16.6667594909668</t>
   </si>
   <si>
-    <t xml:space="preserve">17.139310836792</t>
+    <t xml:space="preserve">17.1393070220947</t>
   </si>
   <si>
     <t xml:space="preserve">17.0192928314209</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8092727661133</t>
+    <t xml:space="preserve">16.8092746734619</t>
   </si>
   <si>
     <t xml:space="preserve">16.4642372131348</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">16.8467769622803</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0567989349365</t>
+    <t xml:space="preserve">17.0568008422852</t>
   </si>
   <si>
     <t xml:space="preserve">16.8017711639404</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">16.4192314147949</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4492378234863</t>
+    <t xml:space="preserve">16.4492359161377</t>
   </si>
   <si>
     <t xml:space="preserve">16.4417343139648</t>
@@ -1034,19 +1034,19 @@
     <t xml:space="preserve">16.2092113494873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0441932678223</t>
+    <t xml:space="preserve">16.0441913604736</t>
   </si>
   <si>
     <t xml:space="preserve">16.0366897583008</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2017078399658</t>
+    <t xml:space="preserve">16.2017116546631</t>
   </si>
   <si>
     <t xml:space="preserve">16.5917510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8392772674561</t>
+    <t xml:space="preserve">16.8392753601074</t>
   </si>
   <si>
     <t xml:space="preserve">16.7642688751221</t>
@@ -1055,25 +1055,25 @@
     <t xml:space="preserve">16.8767795562744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4018383026123</t>
+    <t xml:space="preserve">17.4018363952637</t>
   </si>
   <si>
     <t xml:space="preserve">17.2518196105957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0643005371094</t>
+    <t xml:space="preserve">17.0642986297607</t>
   </si>
   <si>
     <t xml:space="preserve">17.364330291748</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2143173217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.326831817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4768447875977</t>
+    <t xml:space="preserve">17.2143154144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3268280029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4768409729004</t>
   </si>
   <si>
     <t xml:space="preserve">17.6643619537354</t>
@@ -1091,22 +1091,22 @@
     <t xml:space="preserve">16.9892921447754</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5767498016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5017375946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3142185211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9391813278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9766855239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0516929626465</t>
+    <t xml:space="preserve">16.5767478942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5017414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3142204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9391803741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9766845703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0516910552979</t>
   </si>
   <si>
     <t xml:space="preserve">16.3892288208008</t>
@@ -1115,13 +1115,13 @@
     <t xml:space="preserve">17.2893238067627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7768726348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7393684387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4393405914307</t>
+    <t xml:space="preserve">17.776876449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7393703460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.439338684082</t>
   </si>
   <si>
     <t xml:space="preserve">17.7018661499023</t>
@@ -1130,34 +1130,34 @@
     <t xml:space="preserve">17.514347076416</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4894504547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3394336700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.039400100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8893871307373</t>
+    <t xml:space="preserve">18.4894485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3394355773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0394020080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8893890380859</t>
   </si>
   <si>
     <t xml:space="preserve">18.4144420623779</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5644607543945</t>
+    <t xml:space="preserve">18.5644569396973</t>
   </si>
   <si>
     <t xml:space="preserve">19.2770347595215</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3520393371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7270793914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2686080932617</t>
+    <t xml:space="preserve">19.3520412445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7270812988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2686100006104</t>
   </si>
   <si>
     <t xml:space="preserve">19.9591636657715</t>
@@ -1169,43 +1169,43 @@
     <t xml:space="preserve">21.1969432830811</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3846492767334</t>
+    <t xml:space="preserve">20.384651184082</t>
   </si>
   <si>
     <t xml:space="preserve">20.1912479400635</t>
   </si>
   <si>
-    <t xml:space="preserve">20.34596824646</t>
+    <t xml:space="preserve">20.3459701538086</t>
   </si>
   <si>
     <t xml:space="preserve">19.804443359375</t>
   </si>
   <si>
-    <t xml:space="preserve">19.572359085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6497211456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4950008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5666637420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.947774887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4506225585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5336780548096</t>
+    <t xml:space="preserve">19.5723571777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6497192382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4949989318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5666656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9477767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.450626373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5336761474609</t>
   </si>
   <si>
     <t xml:space="preserve">19.8818054199219</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1138858795166</t>
+    <t xml:space="preserve">20.1138877868652</t>
   </si>
   <si>
     <t xml:space="preserve">20.2299270629883</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">20.5393714904785</t>
   </si>
   <si>
-    <t xml:space="preserve">20.616735458374</t>
+    <t xml:space="preserve">20.6167335510254</t>
   </si>
   <si>
     <t xml:space="preserve">20.4233283996582</t>
@@ -1229,73 +1229,70 @@
     <t xml:space="preserve">19.8431224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0752048492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7270812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4620094299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4176349639893</t>
+    <t xml:space="preserve">20.0752067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4620132446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4176368713379</t>
   </si>
   <si>
     <t xml:space="preserve">19.6110401153564</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3402767181396</t>
+    <t xml:space="preserve">19.340274810791</t>
   </si>
   <si>
     <t xml:space="preserve">19.2629146575928</t>
   </si>
   <si>
-    <t xml:space="preserve">19.224235534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6440238952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7987461090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1468753814697</t>
+    <t xml:space="preserve">19.2242336273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6440258026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7987480163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1468734741211</t>
   </si>
   <si>
     <t xml:space="preserve">19.4563179016113</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3015956878662</t>
+    <t xml:space="preserve">19.3015975952148</t>
   </si>
   <si>
     <t xml:space="preserve">19.0308322906494</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3789558410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.992151260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1855545043945</t>
+    <t xml:space="preserve">19.3789577484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9921493530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1855525970459</t>
   </si>
   <si>
     <t xml:space="preserve">19.9978446960449</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7657623291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8374309539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6827030181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0695114135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7930545806885</t>
+    <t xml:space="preserve">19.7657604217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8374290466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6827068328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0695095062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7930526733398</t>
   </si>
   <si>
     <t xml:space="preserve">16.7873592376709</t>
@@ -1304,139 +1301,139 @@
     <t xml:space="preserve">16.1684703826904</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7043056488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5109004974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6326351165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1354866027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2458305358887</t>
+    <t xml:space="preserve">15.7043046951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5108995437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6326389312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1354846954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2458324432373</t>
   </si>
   <si>
     <t xml:space="preserve">15.6656246185303</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5495834350586</t>
+    <t xml:space="preserve">15.54958152771</t>
   </si>
   <si>
     <t xml:space="preserve">15.5882616043091</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3175001144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8997497558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0544710159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1627740859985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.441276550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8203468322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8647174835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5165958404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.361873626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2845096588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.129789352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2071533203125</t>
+    <t xml:space="preserve">15.3174991607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8997478485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0544681549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1627759933472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.44127368927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8203458786011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8647193908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5165977478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3618717193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2845115661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1297931671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2071514129639</t>
   </si>
   <si>
     <t xml:space="preserve">16.0911083221436</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590259552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7816648483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7429838180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4392337799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4005546569824</t>
+    <t xml:space="preserve">15.8590250015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.781665802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7429857254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4392356872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4005527496338</t>
   </si>
   <si>
     <t xml:space="preserve">16.6713180541992</t>
   </si>
   <si>
-    <t xml:space="preserve">16.477912902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9750671386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.456748008728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2556076049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0137500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7099990844727</t>
+    <t xml:space="preserve">16.4779148101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9750661849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4567470550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2556085586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0137481689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7100009918213</t>
   </si>
   <si>
     <t xml:space="preserve">16.5552749633789</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1741676330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9807624816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0968055725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.40625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.522289276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3231925964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9363870620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948612213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4103307723999</t>
+    <t xml:space="preserve">17.174165725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9807605743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0968036651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4062480926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5222911834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3231945037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9363889694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948574066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4103317260742</t>
   </si>
   <si>
     <t xml:space="preserve">15.6269426345825</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4258031845093</t>
+    <t xml:space="preserve">15.4258050918579</t>
   </si>
   <si>
     <t xml:space="preserve">15.472222328186</t>
@@ -1448,196 +1445,196 @@
     <t xml:space="preserve">16.8260402679443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9033985137939</t>
+    <t xml:space="preserve">16.9034023284912</t>
   </si>
   <si>
     <t xml:space="preserve">17.2902088165283</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3288879394531</t>
+    <t xml:space="preserve">17.3288860321045</t>
   </si>
   <si>
     <t xml:space="preserve">17.3675670623779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2515258789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5609722137451</t>
+    <t xml:space="preserve">17.2515239715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5609703063965</t>
   </si>
   <si>
     <t xml:space="preserve">17.4836101531982</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6383304595947</t>
+    <t xml:space="preserve">17.6383323669434</t>
   </si>
   <si>
     <t xml:space="preserve">18.0251350402832</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8704147338867</t>
+    <t xml:space="preserve">17.8704166412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1798572540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0244998931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3809623718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2950000762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3754405975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9732303619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.691686630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2492561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2090339660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6057186126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8309574127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2894763946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1688117980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0883712768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3296966552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8631343841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.573543548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7505178451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9918403625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0722827911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1285915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8953113555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8470458984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4503593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6112422943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5307998657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4905815124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3699169158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4101390838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9330101013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4156608581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6569862365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5363235473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0938930511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1743354797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6514644622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0134525299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7319049835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8927917480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7721271514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5710220336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9596633911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0079288482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.812349319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0536727905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2145557403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1341133117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2547779083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8525695800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4558811187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6167659759521</t>
   </si>
   <si>
     <t xml:space="preserve">18.179859161377</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0244979858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3809642791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2949981689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3754405975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9732303619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.691686630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2492561340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2090339660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6057205200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8309564590454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2894763946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1688137054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0883712768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3296966552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8631324768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5735464096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7505149841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9918403625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0722827911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1285915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8953094482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8470478057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4503612518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6112422943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5307998657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4905815124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3699188232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4101390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9330081939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4156608581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6569881439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5363235473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0938949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1743354797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6514663696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0134525299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7319049835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8927898406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7721271514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5710220336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9596652984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0079288482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8123474121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.053674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2145557403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1341133117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2547779083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8525695800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.455883026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6167678833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1798610687256</t>
-  </si>
-  <si>
     <t xml:space="preserve">18.5016269683838</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2200794219971</t>
+    <t xml:space="preserve">18.2200813293457</t>
   </si>
   <si>
     <t xml:space="preserve">18.6625118255615</t>
@@ -1646,10 +1643,10 @@
     <t xml:space="preserve">19.3060455322266</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9440574645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5473728179932</t>
+    <t xml:space="preserve">18.944055557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5473690032959</t>
   </si>
   <si>
     <t xml:space="preserve">19.2256031036377</t>
@@ -1658,16 +1655,16 @@
     <t xml:space="preserve">18.7429523468018</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1451625823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.466926574707</t>
+    <t xml:space="preserve">19.1451606750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4669284820557</t>
   </si>
   <si>
     <t xml:space="preserve">19.6278133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8691387176514</t>
+    <t xml:space="preserve">19.8691368103027</t>
   </si>
   <si>
     <t xml:space="preserve">19.7082557678223</t>
@@ -1679,40 +1676,40 @@
     <t xml:space="preserve">18.9842777252197</t>
   </si>
   <si>
-    <t xml:space="preserve">18.823392868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.702730178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9038352966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1049385070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1853828430176</t>
+    <t xml:space="preserve">18.8233947753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7027320861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9038372039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1049404144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1853809356689</t>
   </si>
   <si>
     <t xml:space="preserve">18.7831745147705</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3407421112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.507152557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0647201538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8636169433594</t>
+    <t xml:space="preserve">18.3407440185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5071506500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.06471824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8636150360107</t>
   </si>
   <si>
     <t xml:space="preserve">18.5820693969727</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6222877502441</t>
+    <t xml:space="preserve">18.6222896575928</t>
   </si>
   <si>
     <t xml:space="preserve">18.2603015899658</t>
@@ -1721,46 +1718,46 @@
     <t xml:space="preserve">18.3005237579346</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7776508331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7374305725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.938533782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6861619949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3161287307739</t>
+    <t xml:space="preserve">17.7776489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7374286651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9385318756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6861600875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3161306381226</t>
   </si>
   <si>
     <t xml:space="preserve">14.0612354278564</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4795331954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.514232635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6751146316528</t>
+    <t xml:space="preserve">14.4795341491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5142316818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6751136779785</t>
   </si>
   <si>
     <t xml:space="preserve">13.6268510818481</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0773248672485</t>
+    <t xml:space="preserve">14.0773229598999</t>
   </si>
   <si>
     <t xml:space="preserve">13.7555570602417</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6590270996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4337902069092</t>
+    <t xml:space="preserve">13.6590251922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4337911605835</t>
   </si>
   <si>
     <t xml:space="preserve">13.0315809249878</t>
@@ -1778,34 +1775,34 @@
     <t xml:space="preserve">11.18141746521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6987676620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2216396331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5434074401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2271604537964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7098140716553</t>
+    <t xml:space="preserve">10.6987657546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2216386795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5434064865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.227162361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.709813117981</t>
   </si>
   <si>
     <t xml:space="preserve">12.347825050354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0662794113159</t>
+    <t xml:space="preserve">12.0662775039673</t>
   </si>
   <si>
     <t xml:space="preserve">12.468487739563</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5087080001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2673835754395</t>
+    <t xml:space="preserve">12.5087089538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2673826217651</t>
   </si>
   <si>
     <t xml:space="preserve">11.9053945541382</t>
@@ -1814,148 +1811,151 @@
     <t xml:space="preserve">12.1467208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">12.106499671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0260572433472</t>
+    <t xml:space="preserve">12.1064987182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0260581970215</t>
   </si>
   <si>
     <t xml:space="preserve">11.7042894363403</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8249530792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1869401931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3825216293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8998718261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9803123474121</t>
+    <t xml:space="preserve">11.8249521255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1869411468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3825225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8998708724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9803133010864</t>
   </si>
   <si>
     <t xml:space="preserve">11.060754776001</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6640691757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6695938110352</t>
+    <t xml:space="preserve">11.6640682220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6695919036865</t>
   </si>
   <si>
     <t xml:space="preserve">12.8304758071899</t>
   </si>
   <si>
+    <t xml:space="preserve">14.6001958847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6425151824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5578775405884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3885984420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3462800979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7271547317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1503496170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8117923736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9230861663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0500450134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077238082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2616415023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.473237991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.065710067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3196268081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2349891662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8541116714478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9387512207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0923633575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9654054641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346845626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4309177398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7694759368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5155572891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6848363876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3039598464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8807668685913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7114896774292</t>
+  </si>
+  <si>
     <t xml:space="preserve">14.6001968383789</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6425161361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5578784942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3886013031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3462800979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7271547317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1503486633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8117933273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9230871200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0500450134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077257156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2616415023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4732389450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0657110214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3196268081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2349891662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8541126251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9387512207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0923633575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9654064178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346845626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4309196472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.769474029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5155582427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.68483543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3039598464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8807668685913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7114896774292</t>
-  </si>
-  <si>
     <t xml:space="preserve">13.8384475708008</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2193212509155</t>
+    <t xml:space="preserve">14.2193222045898</t>
   </si>
   <si>
     <t xml:space="preserve">13.5422115325928</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7538089752197</t>
+    <t xml:space="preserve">13.7538080215454</t>
   </si>
   <si>
     <t xml:space="preserve">13.584529876709</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9497404098511</t>
+    <t xml:space="preserve">12.9497394561768</t>
   </si>
   <si>
     <t xml:space="preserve">13.3306140899658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2036571502686</t>
+    <t xml:space="preserve">13.2036552429199</t>
   </si>
   <si>
     <t xml:space="preserve">13.161337852478</t>
@@ -1964,16 +1964,16 @@
     <t xml:space="preserve">13.4575719833374</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2459754943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4042654037476</t>
+    <t xml:space="preserve">13.2459745407104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4042663574219</t>
   </si>
   <si>
     <t xml:space="preserve">15.8274602890015</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9967384338379</t>
+    <t xml:space="preserve">15.9967355728149</t>
   </si>
   <si>
     <t xml:space="preserve">16.673849105835</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">16.0813751220703</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2506561279297</t>
+    <t xml:space="preserve">16.2506542205811</t>
   </si>
   <si>
     <t xml:space="preserve">16.166015625</t>
@@ -1994,19 +1994,19 @@
     <t xml:space="preserve">15.8697786331177</t>
   </si>
   <si>
-    <t xml:space="preserve">15.954418182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9120979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3352928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7851400375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7428216934204</t>
+    <t xml:space="preserve">15.9544172286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9120960235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3352909088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7851409912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7428226470947</t>
   </si>
   <si>
     <t xml:space="preserve">16.0390567779541</t>
@@ -2015,19 +2015,19 @@
     <t xml:space="preserve">16.9277629852295</t>
   </si>
   <si>
-    <t xml:space="preserve">16.758487701416</t>
+    <t xml:space="preserve">16.7584857940674</t>
   </si>
   <si>
     <t xml:space="preserve">17.4355964660645</t>
   </si>
   <si>
-    <t xml:space="preserve">18.366626739502</t>
+    <t xml:space="preserve">18.3666229248047</t>
   </si>
   <si>
     <t xml:space="preserve">17.7741546630859</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0280704498291</t>
+    <t xml:space="preserve">18.0280666351318</t>
   </si>
   <si>
     <t xml:space="preserve">17.5202369689941</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">17.2663192749023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1816787719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8431262969971</t>
+    <t xml:space="preserve">17.1816806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8431243896484</t>
   </si>
   <si>
     <t xml:space="preserve">17.0124034881592</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">17.3509578704834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.858793258667</t>
+    <t xml:space="preserve">17.8587913513184</t>
   </si>
   <si>
     <t xml:space="preserve">18.1127071380615</t>
@@ -2072,25 +2072,25 @@
     <t xml:space="preserve">17.6048755645752</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5359020233154</t>
+    <t xml:space="preserve">18.5359001159668</t>
   </si>
   <si>
     <t xml:space="preserve">18.7898197174072</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8744564056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0437355041504</t>
+    <t xml:space="preserve">18.874454498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0437335968018</t>
   </si>
   <si>
     <t xml:space="preserve">19.8901233673096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5515670776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.382287979126</t>
+    <t xml:space="preserve">19.5515689849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3822898864746</t>
   </si>
   <si>
     <t xml:space="preserve">19.8054847717285</t>
@@ -2105,10 +2105,10 @@
     <t xml:space="preserve">19.9747619628906</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0594024658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1440410614014</t>
+    <t xml:space="preserve">20.0594005584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1440372467041</t>
   </si>
   <si>
     <t xml:space="preserve">19.7208461761475</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">20.3003520965576</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1245918273926</t>
+    <t xml:space="preserve">20.1245899200439</t>
   </si>
   <si>
     <t xml:space="preserve">20.7397537231445</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">20.9155120849609</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0367088317871</t>
+    <t xml:space="preserve">20.0367107391357</t>
   </si>
   <si>
     <t xml:space="preserve">19.7730693817139</t>
@@ -2150,22 +2150,22 @@
     <t xml:space="preserve">19.333667755127</t>
   </si>
   <si>
-    <t xml:space="preserve">20.476110458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8276348114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1791553497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2670364379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4427967071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7064380645752</t>
+    <t xml:space="preserve">20.4761123657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8276329040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1791534423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2670345306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4427947998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7064361572266</t>
   </si>
   <si>
     <t xml:space="preserve">21.9700775146484</t>
@@ -2180,22 +2180,22 @@
     <t xml:space="preserve">23.5519218444824</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8488826751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2882843017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0246429443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4640445709229</t>
+    <t xml:space="preserve">22.8488807678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2882804870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0246410369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4640426635742</t>
   </si>
   <si>
     <t xml:space="preserve">23.6398029327393</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9034461975098</t>
+    <t xml:space="preserve">23.9034442901611</t>
   </si>
   <si>
     <t xml:space="preserve">24.5186061859131</t>
@@ -2207,10 +2207,10 @@
     <t xml:space="preserve">24.167085647583</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3428478240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2549667358398</t>
+    <t xml:space="preserve">24.342845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2549648284912</t>
   </si>
   <si>
     <t xml:space="preserve">24.6064872741699</t>
@@ -2225,34 +2225,34 @@
     <t xml:space="preserve">22.7609996795654</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7276840209961</t>
+    <t xml:space="preserve">23.7276821136475</t>
   </si>
   <si>
     <t xml:space="preserve">25.0458889007568</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1004543304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8368110656738</t>
+    <t xml:space="preserve">26.1004524230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8368091583252</t>
   </si>
   <si>
     <t xml:space="preserve">25.1337699890137</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1883335113525</t>
+    <t xml:space="preserve">26.1883316040039</t>
   </si>
   <si>
     <t xml:space="preserve">24.6943683624268</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4852905273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3095302581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3974094390869</t>
+    <t xml:space="preserve">25.4852886199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3095264434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3974075317383</t>
   </si>
   <si>
     <t xml:space="preserve">26.0125713348389</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">26.2762126922607</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3640937805176</t>
+    <t xml:space="preserve">26.3640918731689</t>
   </si>
   <si>
     <t xml:space="preserve">26.7156143188477</t>
@@ -2273,40 +2273,40 @@
     <t xml:space="preserve">27.2428970336914</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4186573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5065383911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9126243591309</t>
+    <t xml:space="preserve">27.4186553955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.506534576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9126224517822</t>
   </si>
   <si>
     <t xml:space="preserve">30.6702308654785</t>
   </si>
   <si>
-    <t xml:space="preserve">30.406587600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0550689697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2308292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3187084197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0005035400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0338191986084</t>
+    <t xml:space="preserve">30.4065856933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0550651550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.230827331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3187065124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0005016326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0338172912598</t>
   </si>
   <si>
     <t xml:space="preserve">29.5277843475342</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4732227325439</t>
+    <t xml:space="preserve">28.4732208251953</t>
   </si>
   <si>
     <t xml:space="preserve">29.439905166626</t>
@@ -2321,49 +2321,49 @@
     <t xml:space="preserve">28.2974605560303</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6277351379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9792575836182</t>
+    <t xml:space="preserve">26.6277332305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9792556762695</t>
   </si>
   <si>
     <t xml:space="preserve">26.8034954071045</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3307762145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5944175720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7489318847656</t>
+    <t xml:space="preserve">27.3307781219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5944156646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.748929977417</t>
   </si>
   <si>
     <t xml:space="preserve">27.1550159454346</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0671367645264</t>
+    <t xml:space="preserve">27.0671348571777</t>
   </si>
   <si>
     <t xml:space="preserve">26.8913745880127</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6822986602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.376163482666</t>
+    <t xml:space="preserve">27.6822967529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3761615753174</t>
   </si>
   <si>
     <t xml:space="preserve">24.9580078125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8155651092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2216510772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7822494506836</t>
+    <t xml:space="preserve">23.8155632019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2216491699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.782247543335</t>
   </si>
   <si>
     <t xml:space="preserve">24.8701267242432</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">24.3999366760254</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5743732452393</t>
+    <t xml:space="preserve">23.5743751525879</t>
   </si>
   <si>
     <t xml:space="preserve">24.1247482299805</t>
@@ -2408,7 +2408,7 @@
     <t xml:space="preserve">26.1427879333496</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5006828308105</t>
+    <t xml:space="preserve">25.5006847381592</t>
   </si>
   <si>
     <t xml:space="preserve">25.2254981994629</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">24.2164764404297</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1157302856445</t>
+    <t xml:space="preserve">23.1157283782959</t>
   </si>
   <si>
     <t xml:space="preserve">23.299186706543</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">22.6570835113525</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5653553009033</t>
+    <t xml:space="preserve">22.5653533935547</t>
   </si>
   <si>
     <t xml:space="preserve">22.1984386444092</t>
@@ -2447,28 +2447,28 @@
     <t xml:space="preserve">21.9232501983643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9322700500488</t>
+    <t xml:space="preserve">22.9322719573975</t>
   </si>
   <si>
     <t xml:space="preserve">24.6751232147217</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0510578155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.592414855957</t>
+    <t xml:space="preserve">26.0510597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5924129486084</t>
   </si>
   <si>
     <t xml:space="preserve">23.8495616912842</t>
   </si>
   <si>
-    <t xml:space="preserve">23.757833480835</t>
+    <t xml:space="preserve">23.7578315734863</t>
   </si>
   <si>
     <t xml:space="preserve">25.0420398712158</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3082084655762</t>
+    <t xml:space="preserve">24.3082065582275</t>
   </si>
   <si>
     <t xml:space="preserve">24.4916667938232</t>
@@ -2489,13 +2489,13 @@
     <t xml:space="preserve">23.0240001678467</t>
   </si>
   <si>
-    <t xml:space="preserve">22.840539932251</t>
+    <t xml:space="preserve">22.8405418395996</t>
   </si>
   <si>
     <t xml:space="preserve">21.831521987915</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2901649475098</t>
+    <t xml:space="preserve">22.2901668548584</t>
   </si>
   <si>
     <t xml:space="preserve">21.4646053314209</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">26.5097045898438</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4179763793945</t>
+    <t xml:space="preserve">26.4179744720459</t>
   </si>
   <si>
     <t xml:space="preserve">26.6014347076416</t>
@@ -2531,13 +2531,13 @@
     <t xml:space="preserve">28.0690994262695</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2525577545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1608276367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5277442932129</t>
+    <t xml:space="preserve">28.252555847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1608295440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5277462005615</t>
   </si>
   <si>
     <t xml:space="preserve">28.6194744110107</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">28.3442859649658</t>
   </si>
   <si>
-    <t xml:space="preserve">27.702184677124</t>
+    <t xml:space="preserve">27.7021827697754</t>
   </si>
   <si>
     <t xml:space="preserve">27.7939109802246</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">27.8856410980225</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9773693084717</t>
+    <t xml:space="preserve">27.9773712158203</t>
   </si>
   <si>
     <t xml:space="preserve">28.4360160827637</t>
@@ -2567,7 +2567,7 @@
     <t xml:space="preserve">27.060079574585</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4269943237305</t>
+    <t xml:space="preserve">27.4269962310791</t>
   </si>
   <si>
     <t xml:space="preserve">27.3352661132812</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">26.7848930358887</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9683513641357</t>
+    <t xml:space="preserve">26.9683494567871</t>
   </si>
   <si>
     <t xml:space="preserve">27.1518096923828</t>
@@ -19963,7 +19963,7 @@
         <v>25.5</v>
       </c>
       <c r="G635" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19989,7 +19989,7 @@
         <v>25.5</v>
       </c>
       <c r="G636" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20015,7 +20015,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G637" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20041,7 +20041,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G638" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20067,7 +20067,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G639" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20093,7 +20093,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G640" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20171,7 +20171,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G643" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20197,7 +20197,7 @@
         <v>25</v>
       </c>
       <c r="G644" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20223,7 +20223,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G645" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20249,7 +20249,7 @@
         <v>25</v>
       </c>
       <c r="G646" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20275,7 +20275,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G647" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20301,7 +20301,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G648" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20327,7 +20327,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G649" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20353,7 +20353,7 @@
         <v>24.75</v>
       </c>
       <c r="G650" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20379,7 +20379,7 @@
         <v>24.75</v>
       </c>
       <c r="G651" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20405,7 +20405,7 @@
         <v>24.75</v>
       </c>
       <c r="G652" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20483,7 +20483,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G655" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20509,7 +20509,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G656" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20561,7 +20561,7 @@
         <v>25</v>
       </c>
       <c r="G658" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20587,7 +20587,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G659" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20639,7 +20639,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G661" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20665,7 +20665,7 @@
         <v>25</v>
       </c>
       <c r="G662" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20691,7 +20691,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G663" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20717,7 +20717,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G664" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20743,7 +20743,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G665" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20769,7 +20769,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G666" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20821,7 +20821,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G668" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20847,7 +20847,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20899,7 +20899,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G671" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20925,7 +20925,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G672" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20951,7 +20951,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G673" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21003,7 +21003,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21029,7 +21029,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G676" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21081,7 +21081,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G678" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21133,7 +21133,7 @@
         <v>25</v>
       </c>
       <c r="G680" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21159,7 +21159,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21185,7 +21185,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G682" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21211,7 +21211,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G683" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21237,7 +21237,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G684" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21263,7 +21263,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21393,7 +21393,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G690" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21419,7 +21419,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G691" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21445,7 +21445,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21471,7 +21471,7 @@
         <v>25</v>
       </c>
       <c r="G693" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21497,7 +21497,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G694" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21549,7 +21549,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G696" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21575,7 +21575,7 @@
         <v>24.75</v>
       </c>
       <c r="G697" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21601,7 +21601,7 @@
         <v>24.75</v>
       </c>
       <c r="G698" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21627,7 +21627,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G699" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21653,7 +21653,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G700" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21679,7 +21679,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G701" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21705,7 +21705,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G702" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21731,7 +21731,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G703" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21757,7 +21757,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G704" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21783,7 +21783,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G705" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21835,7 +21835,7 @@
         <v>23</v>
       </c>
       <c r="G707" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21861,7 +21861,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G708" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21887,7 +21887,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G709" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21913,7 +21913,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G710" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21939,7 +21939,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G711" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21965,7 +21965,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G712" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21991,7 +21991,7 @@
         <v>21.5</v>
       </c>
       <c r="G713" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -22017,7 +22017,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22043,7 +22043,7 @@
         <v>21</v>
       </c>
       <c r="G715" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22069,7 +22069,7 @@
         <v>20.25</v>
       </c>
       <c r="G716" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22095,7 +22095,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G717" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22121,7 +22121,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G718" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22147,7 +22147,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G719" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22173,7 +22173,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G720" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22199,7 +22199,7 @@
         <v>19.2600002288818</v>
       </c>
       <c r="G721" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -22225,7 +22225,7 @@
         <v>19.4599990844727</v>
       </c>
       <c r="G722" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -22251,7 +22251,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G723" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22277,7 +22277,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G724" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22303,7 +22303,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G725" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -22329,7 +22329,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G726" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22355,7 +22355,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G727" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22381,7 +22381,7 @@
         <v>21</v>
       </c>
       <c r="G728" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22407,7 +22407,7 @@
         <v>21.5</v>
       </c>
       <c r="G729" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22433,7 +22433,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G730" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22459,7 +22459,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G731" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22485,7 +22485,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G732" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22511,7 +22511,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G733" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22537,7 +22537,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G734" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22563,7 +22563,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G735" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22589,7 +22589,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G736" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22615,7 +22615,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G737" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22641,7 +22641,7 @@
         <v>20.5</v>
       </c>
       <c r="G738" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22667,7 +22667,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G739" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22693,7 +22693,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G740" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22719,7 +22719,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G741" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22745,7 +22745,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G742" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22771,7 +22771,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22797,7 +22797,7 @@
         <v>21.25</v>
       </c>
       <c r="G744" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22823,7 +22823,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G745" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22849,7 +22849,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G746" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22875,7 +22875,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G747" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22901,7 +22901,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G748" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22927,7 +22927,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G749" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22953,7 +22953,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G750" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22979,7 +22979,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G751" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23005,7 +23005,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G752" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23031,7 +23031,7 @@
         <v>21</v>
       </c>
       <c r="G753" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23057,7 +23057,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G754" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23083,7 +23083,7 @@
         <v>21</v>
       </c>
       <c r="G755" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23109,7 +23109,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G756" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23135,7 +23135,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G757" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -23161,7 +23161,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G758" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23187,7 +23187,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G759" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23213,7 +23213,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G760" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -23239,7 +23239,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G761" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23265,7 +23265,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G762" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -23291,7 +23291,7 @@
         <v>20.25</v>
       </c>
       <c r="G763" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23317,7 +23317,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G764" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23343,7 +23343,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G765" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23369,7 +23369,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G766" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23395,7 +23395,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G767" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23421,7 +23421,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23447,7 +23447,7 @@
         <v>21</v>
       </c>
       <c r="G769" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23473,7 +23473,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G770" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23499,7 +23499,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G771" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23525,7 +23525,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G772" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23551,7 +23551,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23577,7 +23577,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G774" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23603,7 +23603,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G775" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23629,7 +23629,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G776" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23655,7 +23655,7 @@
         <v>22.5</v>
       </c>
       <c r="G777" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23681,7 +23681,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G778" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23707,7 +23707,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G779" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23733,7 +23733,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G780" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23759,7 +23759,7 @@
         <v>21.5</v>
       </c>
       <c r="G781" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23785,7 +23785,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G782" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23811,7 +23811,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G783" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23837,7 +23837,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G784" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23863,7 +23863,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G785" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23889,7 +23889,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G786" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23915,7 +23915,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G787" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23941,7 +23941,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G788" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23967,7 +23967,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G789" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23993,7 +23993,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G790" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24019,7 +24019,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G791" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24045,7 +24045,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G792" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24071,7 +24071,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G793" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24097,7 +24097,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G794" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24123,7 +24123,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G795" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24149,7 +24149,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G796" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24175,7 +24175,7 @@
         <v>20.25</v>
       </c>
       <c r="G797" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -24201,7 +24201,7 @@
         <v>20</v>
       </c>
       <c r="G798" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -24227,7 +24227,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G799" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -24253,7 +24253,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G800" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -24279,7 +24279,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G801" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -24305,7 +24305,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G802" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -24331,7 +24331,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G803" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -24357,7 +24357,7 @@
         <v>20.25</v>
       </c>
       <c r="G804" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24383,7 +24383,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24409,7 +24409,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G806" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24435,7 +24435,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G807" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24461,7 +24461,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G808" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24487,7 +24487,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G809" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24513,7 +24513,7 @@
         <v>20.5</v>
       </c>
       <c r="G810" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24539,7 +24539,7 @@
         <v>20</v>
       </c>
       <c r="G811" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24565,7 +24565,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G812" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24591,7 +24591,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G813" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24617,7 +24617,7 @@
         <v>20.25</v>
       </c>
       <c r="G814" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24643,7 +24643,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G815" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24669,7 +24669,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G816" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24695,7 +24695,7 @@
         <v>20.25</v>
       </c>
       <c r="G817" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24721,7 +24721,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G818" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24747,7 +24747,7 @@
         <v>21</v>
       </c>
       <c r="G819" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24773,7 +24773,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G820" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24799,7 +24799,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G821" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24825,7 +24825,7 @@
         <v>21.5</v>
       </c>
       <c r="G822" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24851,7 +24851,7 @@
         <v>22</v>
       </c>
       <c r="G823" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24877,7 +24877,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G824" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24903,7 +24903,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G825" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24929,7 +24929,7 @@
         <v>21.75</v>
       </c>
       <c r="G826" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24955,7 +24955,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G827" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24981,7 +24981,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G828" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -25007,7 +25007,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G829" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -25033,7 +25033,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -25059,7 +25059,7 @@
         <v>21.75</v>
       </c>
       <c r="G831" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25085,7 +25085,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G832" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25111,7 +25111,7 @@
         <v>22</v>
       </c>
       <c r="G833" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25137,7 +25137,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G834" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -25163,7 +25163,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G835" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -25189,7 +25189,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G836" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -25215,7 +25215,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G837" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -25241,7 +25241,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G838" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -25267,7 +25267,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G839" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -25293,7 +25293,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -25319,7 +25319,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G841" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -25345,7 +25345,7 @@
         <v>22.5</v>
       </c>
       <c r="G842" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25371,7 +25371,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G843" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25397,7 +25397,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G844" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25423,7 +25423,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G845" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25449,7 +25449,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G846" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25475,7 +25475,7 @@
         <v>23.5</v>
       </c>
       <c r="G847" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25501,7 +25501,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G848" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25527,7 +25527,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G849" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25553,7 +25553,7 @@
         <v>21.5</v>
       </c>
       <c r="G850" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25579,7 +25579,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25605,7 +25605,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G852" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25631,7 +25631,7 @@
         <v>20.75</v>
       </c>
       <c r="G853" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25657,7 +25657,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G854" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25683,7 +25683,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G855" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25709,7 +25709,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G856" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25735,7 +25735,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G857" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25761,7 +25761,7 @@
         <v>20.25</v>
       </c>
       <c r="G858" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25787,7 +25787,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G859" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25813,7 +25813,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G860" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25839,7 +25839,7 @@
         <v>20</v>
       </c>
       <c r="G861" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25865,7 +25865,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G862" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25891,7 +25891,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G863" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25917,7 +25917,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G864" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25943,7 +25943,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G865" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25969,7 +25969,7 @@
         <v>19.7199993133545</v>
       </c>
       <c r="G866" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25995,7 +25995,7 @@
         <v>19.6800003051758</v>
       </c>
       <c r="G867" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26021,7 +26021,7 @@
         <v>19.3600006103516</v>
       </c>
       <c r="G868" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26047,7 +26047,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G869" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26073,7 +26073,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G870" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26099,7 +26099,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G871" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26125,7 +26125,7 @@
         <v>19.8799991607666</v>
       </c>
       <c r="G872" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26151,7 +26151,7 @@
         <v>20</v>
       </c>
       <c r="G873" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -26177,7 +26177,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G874" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -26203,7 +26203,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G875" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -26229,7 +26229,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G876" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -26255,7 +26255,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G877" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -26281,7 +26281,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G878" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -26307,7 +26307,7 @@
         <v>20.25</v>
       </c>
       <c r="G879" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -26333,7 +26333,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -26359,7 +26359,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G881" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26385,7 +26385,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G882" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26411,7 +26411,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G883" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26437,7 +26437,7 @@
         <v>19.7600002288818</v>
       </c>
       <c r="G884" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26463,7 +26463,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G885" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26489,7 +26489,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G886" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26515,7 +26515,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G887" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26541,7 +26541,7 @@
         <v>20.25</v>
       </c>
       <c r="G888" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26567,7 +26567,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G889" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26593,7 +26593,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G890" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26619,7 +26619,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G891" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26645,7 +26645,7 @@
         <v>20.5</v>
       </c>
       <c r="G892" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26671,7 +26671,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G893" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26697,7 +26697,7 @@
         <v>20.25</v>
       </c>
       <c r="G894" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26723,7 +26723,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G895" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26749,7 +26749,7 @@
         <v>20.25</v>
       </c>
       <c r="G896" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26775,7 +26775,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G897" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26801,7 +26801,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G898" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26827,7 +26827,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G899" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26853,7 +26853,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G900" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26879,7 +26879,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G901" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26905,7 +26905,7 @@
         <v>20.25</v>
       </c>
       <c r="G902" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26931,7 +26931,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G903" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26957,7 +26957,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G904" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26983,7 +26983,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G905" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -27009,7 +27009,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G906" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27035,7 +27035,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G907" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -27061,7 +27061,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G908" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -27087,7 +27087,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G909" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -27113,7 +27113,7 @@
         <v>21.25</v>
       </c>
       <c r="G910" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -27139,7 +27139,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -27165,7 +27165,7 @@
         <v>21.5</v>
       </c>
       <c r="G912" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -27191,7 +27191,7 @@
         <v>21.5</v>
       </c>
       <c r="G913" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -27217,7 +27217,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -27243,7 +27243,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G915" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -27269,7 +27269,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G916" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -27295,7 +27295,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G917" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -27321,7 +27321,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G918" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -27347,7 +27347,7 @@
         <v>21</v>
       </c>
       <c r="G919" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27373,7 +27373,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G920" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27399,7 +27399,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G921" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27425,7 +27425,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G922" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27451,7 +27451,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G923" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27477,7 +27477,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G924" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27503,7 +27503,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G925" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27529,7 +27529,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G926" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27555,7 +27555,7 @@
         <v>20</v>
       </c>
       <c r="G927" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27581,7 +27581,7 @@
         <v>19.8400001525879</v>
       </c>
       <c r="G928" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27607,7 +27607,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G929" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27633,7 +27633,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G930" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27659,7 +27659,7 @@
         <v>20</v>
       </c>
       <c r="G931" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27685,7 +27685,7 @@
         <v>20</v>
       </c>
       <c r="G932" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27711,7 +27711,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G933" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27737,7 +27737,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G934" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27763,7 +27763,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G935" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27789,7 +27789,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G936" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -27815,7 +27815,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G937" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27841,7 +27841,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G938" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -27867,7 +27867,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G939" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -27893,7 +27893,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G940" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27919,7 +27919,7 @@
         <v>21.25</v>
       </c>
       <c r="G941" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -27945,7 +27945,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G942" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -27971,7 +27971,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G943" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27997,7 +27997,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G944" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -28023,7 +28023,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G945" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -28049,7 +28049,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G946" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -28075,7 +28075,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G947" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -28101,7 +28101,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G948" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -28127,7 +28127,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G949" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -28153,7 +28153,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G950" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -28179,7 +28179,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G951" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -28205,7 +28205,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G952" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -28231,7 +28231,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G953" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -28257,7 +28257,7 @@
         <v>21.25</v>
       </c>
       <c r="G954" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -28283,7 +28283,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G955" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -28309,7 +28309,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G956" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -28335,7 +28335,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -28361,7 +28361,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G958" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28387,7 +28387,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G959" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28413,7 +28413,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G960" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28439,7 +28439,7 @@
         <v>21.25</v>
       </c>
       <c r="G961" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28465,7 +28465,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G962" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28491,7 +28491,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G963" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28517,7 +28517,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G964" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28543,7 +28543,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G965" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28569,7 +28569,7 @@
         <v>21.5</v>
       </c>
       <c r="G966" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28595,7 +28595,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G967" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28621,7 +28621,7 @@
         <v>21.25</v>
       </c>
       <c r="G968" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -28647,7 +28647,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G969" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28673,7 +28673,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G970" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -28699,7 +28699,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G971" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28725,7 +28725,7 @@
         <v>21.5</v>
       </c>
       <c r="G972" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28751,7 +28751,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28777,7 +28777,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G974" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28803,7 +28803,7 @@
         <v>21</v>
       </c>
       <c r="G975" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28829,7 +28829,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G976" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28855,7 +28855,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G977" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -28881,7 +28881,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G978" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -28907,7 +28907,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G979" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28933,7 +28933,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G980" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28959,7 +28959,7 @@
         <v>23</v>
       </c>
       <c r="G981" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -28985,7 +28985,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G982" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -29011,7 +29011,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G983" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -29037,7 +29037,7 @@
         <v>24</v>
       </c>
       <c r="G984" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -29063,7 +29063,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G985" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -29089,7 +29089,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G986" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29115,7 +29115,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -29141,7 +29141,7 @@
         <v>24</v>
       </c>
       <c r="G988" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -29167,7 +29167,7 @@
         <v>24</v>
       </c>
       <c r="G989" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -29193,7 +29193,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G990" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -29219,7 +29219,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G991" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -29245,7 +29245,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -29271,7 +29271,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G993" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -29297,7 +29297,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -29323,7 +29323,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G995" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -29349,7 +29349,7 @@
         <v>24.5</v>
       </c>
       <c r="G996" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29375,7 +29375,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G997" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29401,7 +29401,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G998" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29427,7 +29427,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29453,7 +29453,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29479,7 +29479,7 @@
         <v>23.25</v>
       </c>
       <c r="G1001" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29505,7 +29505,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1002" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29531,7 +29531,7 @@
         <v>23.5</v>
       </c>
       <c r="G1003" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29557,7 +29557,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1004" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29583,7 +29583,7 @@
         <v>23.75</v>
       </c>
       <c r="G1005" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29609,7 +29609,7 @@
         <v>23.75</v>
       </c>
       <c r="G1006" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29635,7 +29635,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1007" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29661,7 +29661,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29687,7 +29687,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1009" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29713,7 +29713,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29739,7 +29739,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1011" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29765,7 +29765,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1012" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -29791,7 +29791,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1013" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29817,7 +29817,7 @@
         <v>24.25</v>
       </c>
       <c r="G1014" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29843,7 +29843,7 @@
         <v>24</v>
       </c>
       <c r="G1015" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29869,7 +29869,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1016" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29895,7 +29895,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1017" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29921,7 +29921,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1018" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29947,7 +29947,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1019" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29973,7 +29973,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -29999,7 +29999,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1021" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30025,7 +30025,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1022" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -30051,7 +30051,7 @@
         <v>23.5</v>
       </c>
       <c r="G1023" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30077,7 +30077,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1024" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -30103,7 +30103,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30129,7 +30129,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1026" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -30155,7 +30155,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1027" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -30181,7 +30181,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1028" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -30207,7 +30207,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1029" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -30233,7 +30233,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1030" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -30259,7 +30259,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1031" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -30285,7 +30285,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1032" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -30311,7 +30311,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1033" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -30337,7 +30337,7 @@
         <v>22.75</v>
       </c>
       <c r="G1034" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30363,7 +30363,7 @@
         <v>23.25</v>
       </c>
       <c r="G1035" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30389,7 +30389,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1036" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30415,7 +30415,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1037" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30441,7 +30441,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30467,7 +30467,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1039" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30493,7 +30493,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1040" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30519,7 +30519,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30545,7 +30545,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1042" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30571,7 +30571,7 @@
         <v>23.75</v>
       </c>
       <c r="G1043" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30597,7 +30597,7 @@
         <v>23.75</v>
       </c>
       <c r="G1044" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30623,7 +30623,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1045" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30649,7 +30649,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1046" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30675,7 +30675,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1047" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30701,7 +30701,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30727,7 +30727,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30753,7 +30753,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30779,7 +30779,7 @@
         <v>23.25</v>
       </c>
       <c r="G1051" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30805,7 +30805,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1052" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30831,7 +30831,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1053" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -30857,7 +30857,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1054" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30883,7 +30883,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30909,7 +30909,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1056" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30935,7 +30935,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1057" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30961,7 +30961,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -30987,7 +30987,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1059" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -31013,7 +31013,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1060" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -31039,7 +31039,7 @@
         <v>20.75</v>
       </c>
       <c r="G1061" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -31065,7 +31065,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1062" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -31091,7 +31091,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1063" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -31117,7 +31117,7 @@
         <v>19.5</v>
       </c>
       <c r="G1064" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31143,7 +31143,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1065" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -31169,7 +31169,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1066" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -31195,7 +31195,7 @@
         <v>18</v>
       </c>
       <c r="G1067" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -31221,7 +31221,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1068" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -31247,7 +31247,7 @@
         <v>17</v>
       </c>
       <c r="G1069" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -31273,7 +31273,7 @@
         <v>17</v>
       </c>
       <c r="G1070" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31299,7 +31299,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1071" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -31325,7 +31325,7 @@
         <v>17.5</v>
       </c>
       <c r="G1072" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31351,7 +31351,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1073" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31377,7 +31377,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1074" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31403,7 +31403,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1075" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31429,7 +31429,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31455,7 +31455,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1077" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31481,7 +31481,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1078" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31507,7 +31507,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1079" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31533,7 +31533,7 @@
         <v>14</v>
       </c>
       <c r="G1080" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31559,7 +31559,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1081" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31585,7 +31585,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1082" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31611,7 +31611,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1083" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31637,7 +31637,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1084" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31663,7 +31663,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1085" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31689,7 +31689,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1086" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31715,7 +31715,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1087" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31741,7 +31741,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1088" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31767,7 +31767,7 @@
         <v>15</v>
       </c>
       <c r="G1089" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31793,7 +31793,7 @@
         <v>15.5</v>
       </c>
       <c r="G1090" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31819,7 +31819,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1091" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31845,7 +31845,7 @@
         <v>15.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31871,7 +31871,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1093" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31897,7 +31897,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1094" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31923,7 +31923,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1095" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31949,7 +31949,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1096" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31975,7 +31975,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1097" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -32001,7 +32001,7 @@
         <v>15</v>
       </c>
       <c r="G1098" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -32027,7 +32027,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1099" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -32053,7 +32053,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1100" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -32079,7 +32079,7 @@
         <v>15</v>
       </c>
       <c r="G1101" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -32105,7 +32105,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1102" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -32131,7 +32131,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1103" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -32157,7 +32157,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1104" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32183,7 +32183,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1105" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -32209,7 +32209,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -32235,7 +32235,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1107" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -32261,7 +32261,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1108" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -32287,7 +32287,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1109" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -32313,7 +32313,7 @@
         <v>13.75</v>
       </c>
       <c r="G1110" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -32339,7 +32339,7 @@
         <v>14</v>
       </c>
       <c r="G1111" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32365,7 +32365,7 @@
         <v>14</v>
       </c>
       <c r="G1112" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32391,7 +32391,7 @@
         <v>14.5</v>
       </c>
       <c r="G1113" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32417,7 +32417,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1114" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32443,7 +32443,7 @@
         <v>15</v>
       </c>
       <c r="G1115" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32469,7 +32469,7 @@
         <v>15.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32495,7 +32495,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1117" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32521,7 +32521,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1118" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32547,7 +32547,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32573,7 +32573,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1120" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32599,7 +32599,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1121" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32625,7 +32625,7 @@
         <v>17</v>
       </c>
       <c r="G1122" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32651,7 +32651,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1123" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32677,7 +32677,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32703,7 +32703,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1125" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32729,7 +32729,7 @@
         <v>17.5</v>
       </c>
       <c r="G1126" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32755,7 +32755,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1127" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32781,7 +32781,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1128" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32807,7 +32807,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32833,7 +32833,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1130" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32859,7 +32859,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1131" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32885,7 +32885,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1132" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32911,7 +32911,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1133" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32937,7 +32937,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1134" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32963,7 +32963,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1135" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -32989,7 +32989,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1136" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -33015,7 +33015,7 @@
         <v>18</v>
       </c>
       <c r="G1137" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -33041,7 +33041,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -33067,7 +33067,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -33093,7 +33093,7 @@
         <v>17.5</v>
       </c>
       <c r="G1140" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -33119,7 +33119,7 @@
         <v>17</v>
       </c>
       <c r="G1141" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -33145,7 +33145,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1142" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -33171,7 +33171,7 @@
         <v>16.5</v>
       </c>
       <c r="G1143" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -33197,7 +33197,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1144" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -33223,7 +33223,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1145" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -33249,7 +33249,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G1146" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -33275,7 +33275,7 @@
         <v>17.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -33301,7 +33301,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -33327,7 +33327,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33353,7 +33353,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1150" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33379,7 +33379,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1151" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33405,7 +33405,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1152" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33431,7 +33431,7 @@
         <v>17.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33457,7 +33457,7 @@
         <v>17</v>
       </c>
       <c r="G1154" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33483,7 +33483,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1155" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33509,7 +33509,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1156" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33535,7 +33535,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1157" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33561,7 +33561,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33587,7 +33587,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1159" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33613,7 +33613,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1160" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33639,7 +33639,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1161" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33665,7 +33665,7 @@
         <v>16.5</v>
       </c>
       <c r="G1162" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33691,7 +33691,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1163" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33717,7 +33717,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1164" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33743,7 +33743,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1165" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33769,7 +33769,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1166" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33795,7 +33795,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1167" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33821,7 +33821,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1168" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33847,7 +33847,7 @@
         <v>17.25</v>
       </c>
       <c r="G1169" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33873,7 +33873,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1170" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33899,7 +33899,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1171" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33925,7 +33925,7 @@
         <v>17</v>
       </c>
       <c r="G1172" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33951,7 +33951,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1173" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -33977,7 +33977,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1174" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -34003,7 +34003,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1175" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -34029,7 +34029,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -34055,7 +34055,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1177" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -34107,7 +34107,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1179" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -34133,7 +34133,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1180" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -34159,7 +34159,7 @@
         <v>17</v>
       </c>
       <c r="G1181" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -34185,7 +34185,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1182" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -34211,7 +34211,7 @@
         <v>17</v>
       </c>
       <c r="G1183" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -34237,7 +34237,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1184" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -34263,7 +34263,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1185" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -34315,7 +34315,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1187" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34341,7 +34341,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1188" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34367,7 +34367,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34393,7 +34393,7 @@
         <v>17.25</v>
       </c>
       <c r="G1190" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34419,7 +34419,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1191" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34445,7 +34445,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1192" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34471,7 +34471,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1193" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34497,7 +34497,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1194" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34523,7 +34523,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1195" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34549,7 +34549,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1196" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34627,7 +34627,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1199" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34679,7 +34679,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34705,7 +34705,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1202" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34731,7 +34731,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1203" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34783,7 +34783,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1205" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34809,7 +34809,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1206" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34913,7 +34913,7 @@
         <v>16.5</v>
       </c>
       <c r="G1210" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34939,7 +34939,7 @@
         <v>16.5</v>
       </c>
       <c r="G1211" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34965,7 +34965,7 @@
         <v>17.25</v>
       </c>
       <c r="G1212" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -34991,7 +34991,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1213" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -35017,7 +35017,7 @@
         <v>17</v>
       </c>
       <c r="G1214" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -35043,7 +35043,7 @@
         <v>17.25</v>
       </c>
       <c r="G1215" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -35069,7 +35069,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1216" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -35095,7 +35095,7 @@
         <v>17</v>
       </c>
       <c r="G1217" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -35121,7 +35121,7 @@
         <v>17</v>
       </c>
       <c r="G1218" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -35147,7 +35147,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1219" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -35173,7 +35173,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -35199,7 +35199,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1221" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -35225,7 +35225,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1222" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -35511,7 +35511,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35589,7 +35589,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35615,7 +35615,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1237" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -37981,7 +37981,7 @@
         <v>23</v>
       </c>
       <c r="G1328" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -38683,7 +38683,7 @@
         <v>23</v>
       </c>
       <c r="G1355" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38709,7 +38709,7 @@
         <v>23</v>
       </c>
       <c r="G1356" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38735,7 +38735,7 @@
         <v>23</v>
       </c>
       <c r="G1357" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38761,7 +38761,7 @@
         <v>23</v>
       </c>
       <c r="G1358" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38813,7 +38813,7 @@
         <v>23</v>
       </c>
       <c r="G1360" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -60526,6 +60526,32 @@
         <v>1035</v>
       </c>
       <c r="H2195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" s="1" t="n">
+        <v>45520.6508217593</v>
+      </c>
+      <c r="B2196" t="n">
+        <v>4073</v>
+      </c>
+      <c r="C2196" t="n">
+        <v>37.4500007629395</v>
+      </c>
+      <c r="D2196" t="n">
+        <v>36.5499992370605</v>
+      </c>
+      <c r="E2196" t="n">
+        <v>36.5499992370605</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>36.5499992370605</v>
+      </c>
+      <c r="G2196" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H2196" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CMB.MI.xlsx
+++ b/data/CMB.MI.xlsx
@@ -38,55 +38,55 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58273983001709</t>
+    <t xml:space="preserve">9.58274173736572</t>
   </si>
   <si>
     <t xml:space="preserve">CMB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91149234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6596851348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75061511993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75761032104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79258346557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70864486694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47782039642334</t>
+    <t xml:space="preserve">9.9114933013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65968418121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75061321258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75760936737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79258251190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70864677429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47782135009766</t>
   </si>
   <si>
     <t xml:space="preserve">9.66667747497559</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61072063446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68766307830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61771392822266</t>
+    <t xml:space="preserve">9.61071968078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68766212463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61771488189697</t>
   </si>
   <si>
     <t xml:space="preserve">9.53377819061279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54077339172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44284820556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17005252838135</t>
+    <t xml:space="preserve">9.54077434539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44284725189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17005348205566</t>
   </si>
   <si>
     <t xml:space="preserve">9.10010719299316</t>
@@ -95,28 +95,28 @@
     <t xml:space="preserve">9.17704772949219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67342948913574</t>
+    <t xml:space="preserve">8.67343044281006</t>
   </si>
   <si>
     <t xml:space="preserve">8.63845634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93922901153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76436138153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74337863922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95321750640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12808513641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56875228881836</t>
+    <t xml:space="preserve">8.93922710418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76436042785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74337768554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95321846008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12808609008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56875133514404</t>
   </si>
   <si>
     <t xml:space="preserve">9.60372447967529</t>
@@ -128,70 +128,70 @@
     <t xml:space="preserve">9.20502662658691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30295276641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03715515136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98819160461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22601127624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14207458496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33093166351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34492111206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23300647735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3099479675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52678394317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51279449462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47082614898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69465732574463</t>
+    <t xml:space="preserve">9.30295372009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03715419769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98819065093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22601222991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14207553863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3309326171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34492015838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23300552368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30994892120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52678298950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51279354095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4708251953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.694655418396</t>
   </si>
   <si>
     <t xml:space="preserve">9.59673118591309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49880409240723</t>
+    <t xml:space="preserve">9.49880504608154</t>
   </si>
   <si>
     <t xml:space="preserve">9.4218635559082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5058012008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31694412231445</t>
+    <t xml:space="preserve">9.50579929351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31694221496582</t>
   </si>
   <si>
     <t xml:space="preserve">9.11409568786621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10710048675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46383190155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37290000915527</t>
+    <t xml:space="preserve">9.10710334777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46383094787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37290096282959</t>
   </si>
   <si>
     <t xml:space="preserve">9.55476188659668</t>
@@ -203,25 +203,25 @@
     <t xml:space="preserve">9.43585205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54776668548584</t>
+    <t xml:space="preserve">9.54776763916016</t>
   </si>
   <si>
     <t xml:space="preserve">9.72963047027588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63170623779297</t>
+    <t xml:space="preserve">9.63170337677002</t>
   </si>
   <si>
     <t xml:space="preserve">9.56347179412842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57071113586426</t>
+    <t xml:space="preserve">9.57071018218994</t>
   </si>
   <si>
     <t xml:space="preserve">9.53451347351074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70102214813232</t>
+    <t xml:space="preserve">9.70102405548096</t>
   </si>
   <si>
     <t xml:space="preserve">9.75893974304199</t>
@@ -233,13 +233,13 @@
     <t xml:space="preserve">9.84581565856934</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73722171783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.316385269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1281566619873</t>
+    <t xml:space="preserve">9.73722267150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3163862228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1281576156616</t>
   </si>
   <si>
     <t xml:space="preserve">10.1353969573975</t>
@@ -251,10 +251,10 @@
     <t xml:space="preserve">10.1933145523071</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1136779785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92545032501221</t>
+    <t xml:space="preserve">10.1136789321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92545127868652</t>
   </si>
   <si>
     <t xml:space="preserve">9.93268966674805</t>
@@ -269,19 +269,19 @@
     <t xml:space="preserve">9.77341938018799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74446105957031</t>
+    <t xml:space="preserve">9.744460105896</t>
   </si>
   <si>
     <t xml:space="preserve">9.76617908477783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6937837600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93992805480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98336696624756</t>
+    <t xml:space="preserve">9.69378471374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93992900848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98336601257324</t>
   </si>
   <si>
     <t xml:space="preserve">9.9906063079834</t>
@@ -290,28 +290,28 @@
     <t xml:space="preserve">9.81685733795166</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83857536315918</t>
+    <t xml:space="preserve">9.83857440948486</t>
   </si>
   <si>
     <t xml:space="preserve">9.94716835021973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91821098327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88925266265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46211814880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65034675598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62862873077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54899215698242</t>
+    <t xml:space="preserve">9.91821002960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88925170898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46211719512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65034580230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62862777709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54899311065674</t>
   </si>
   <si>
     <t xml:space="preserve">9.62138748168945</t>
@@ -323,43 +323,43 @@
     <t xml:space="preserve">9.63586711883545</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64310741424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66482639312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71550273895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82409572601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88201332092285</t>
+    <t xml:space="preserve">9.64310646057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66482448577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71550178527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82409477233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88201236724854</t>
   </si>
   <si>
     <t xml:space="preserve">9.8602933883667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79513740539551</t>
+    <t xml:space="preserve">9.79513645172119</t>
   </si>
   <si>
     <t xml:space="preserve">9.85305404663086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67930603027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67206478118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47659587860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48383617401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49107646942139</t>
+    <t xml:space="preserve">9.67930507659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67206382751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47659683227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48383712768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49107551574707</t>
   </si>
   <si>
     <t xml:space="preserve">9.44763851165771</t>
@@ -371,10 +371,10 @@
     <t xml:space="preserve">9.25940895080566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34628486633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4114408493042</t>
+    <t xml:space="preserve">9.34628295898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41143989562988</t>
   </si>
   <si>
     <t xml:space="preserve">9.31008720397949</t>
@@ -383,43 +383,43 @@
     <t xml:space="preserve">9.19425296783447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17977333068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26664924621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25216865539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28836631774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30284786224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33904457092285</t>
+    <t xml:space="preserve">9.17977428436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2666482925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25216960906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28836917877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30284690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33904361724854</t>
   </si>
   <si>
     <t xml:space="preserve">9.24493026733398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20873165130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13633632659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91914939880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8829517364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14357566833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16529560089111</t>
+    <t xml:space="preserve">9.20873355865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13633728027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91914844512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88295269012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14357662200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16529369354248</t>
   </si>
   <si>
     <t xml:space="preserve">9.23045063018799</t>
@@ -428,28 +428,28 @@
     <t xml:space="preserve">9.33180522918701</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15805530548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29560661315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42591953277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38248157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4331579208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0195646286011</t>
+    <t xml:space="preserve">9.15805435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29560947418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4259204864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38248252868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43315887451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0195655822754</t>
   </si>
   <si>
     <t xml:space="preserve">10.0050859451294</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0630006790161</t>
+    <t xml:space="preserve">10.0630016326904</t>
   </si>
   <si>
     <t xml:space="preserve">10.157114982605</t>
@@ -461,22 +461,22 @@
     <t xml:space="preserve">10.3525848388672</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4249792098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.801438331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5697727203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6276893615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5263347625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5118560791016</t>
+    <t xml:space="preserve">10.4249801635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8014373779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5697717666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6276874542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5263338088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5118551254272</t>
   </si>
   <si>
     <t xml:space="preserve">10.6494064331055</t>
@@ -488,13 +488,13 @@
     <t xml:space="preserve">10.9317502975464</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9824275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8738327026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0258646011353</t>
+    <t xml:space="preserve">10.9824285507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.873833656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0258636474609</t>
   </si>
   <si>
     <t xml:space="preserve">10.7435216903687</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">10.3598251342773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3236274719238</t>
+    <t xml:space="preserve">10.3236265182495</t>
   </si>
   <si>
     <t xml:space="preserve">10.4756574630737</t>
@@ -512,34 +512,34 @@
     <t xml:space="preserve">10.859354019165</t>
   </si>
   <si>
-    <t xml:space="preserve">10.772479057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9389896392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.729043006897</t>
+    <t xml:space="preserve">10.7724809646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9389886856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7290420532227</t>
   </si>
   <si>
     <t xml:space="preserve">10.8665933609009</t>
   </si>
   <si>
-    <t xml:space="preserve">10.786958694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8231554031372</t>
+    <t xml:space="preserve">10.7869577407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8231563568115</t>
   </si>
   <si>
     <t xml:space="preserve">10.7580003738403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7507619857788</t>
+    <t xml:space="preserve">10.7507610321045</t>
   </si>
   <si>
     <t xml:space="preserve">10.7218027114868</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6638870239258</t>
+    <t xml:space="preserve">10.6638860702515</t>
   </si>
   <si>
     <t xml:space="preserve">10.7652397155762</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">11.0041465759277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9462280273438</t>
+    <t xml:space="preserve">10.9462289810181</t>
   </si>
   <si>
     <t xml:space="preserve">11.0910196304321</t>
@@ -557,13 +557,13 @@
     <t xml:space="preserve">11.5036773681641</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4529991149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4457607269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4747190475464</t>
+    <t xml:space="preserve">11.4529981613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4457597732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4747180938721</t>
   </si>
   <si>
     <t xml:space="preserve">11.4964361190796</t>
@@ -575,31 +575,31 @@
     <t xml:space="preserve">11.9452896118164</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5389337539673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4448194503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5172157287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.553412437439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7416410446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.299090385437</t>
+    <t xml:space="preserve">12.5389347076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4448213577271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5172176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5534143447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.741641998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2990922927856</t>
   </si>
   <si>
     <t xml:space="preserve">13.4583606719971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4728412628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.740701675415</t>
+    <t xml:space="preserve">13.4728403091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7407035827637</t>
   </si>
   <si>
     <t xml:space="preserve">13.595911026001</t>
@@ -614,10 +614,10 @@
     <t xml:space="preserve">13.3932037353516</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3208084106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4438781738281</t>
+    <t xml:space="preserve">13.3208074569702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4438819885254</t>
   </si>
   <si>
     <t xml:space="preserve">13.6827850341797</t>
@@ -629,19 +629,19 @@
     <t xml:space="preserve">14.4139823913574</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5008592605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4501810073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5442943572998</t>
+    <t xml:space="preserve">14.5008583068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4501781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5442953109741</t>
   </si>
   <si>
     <t xml:space="preserve">14.55153465271</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6601276397705</t>
+    <t xml:space="preserve">14.6601305007935</t>
   </si>
   <si>
     <t xml:space="preserve">14.5949716567993</t>
@@ -650,16 +650,16 @@
     <t xml:space="preserve">14.5225763320923</t>
   </si>
   <si>
-    <t xml:space="preserve">14.739052772522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8515653610229</t>
+    <t xml:space="preserve">14.7390537261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8515682220459</t>
   </si>
   <si>
     <t xml:space="preserve">14.6715478897095</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6040391921997</t>
+    <t xml:space="preserve">14.604040145874</t>
   </si>
   <si>
     <t xml:space="preserve">14.514030456543</t>
@@ -668,10 +668,10 @@
     <t xml:space="preserve">14.1764936447144</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8890714645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1914968490601</t>
+    <t xml:space="preserve">14.8890695571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1914958953857</t>
   </si>
   <si>
     <t xml:space="preserve">14.5215320587158</t>
@@ -680,127 +680,127 @@
     <t xml:space="preserve">14.5065298080444</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7990589141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8815698623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8740682601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8065605163574</t>
+    <t xml:space="preserve">14.7990608215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.88157081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8740701675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8065614700317</t>
   </si>
   <si>
     <t xml:space="preserve">14.9640789031982</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1065921783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9016780853271</t>
+    <t xml:space="preserve">15.106593132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9016771316528</t>
   </si>
   <si>
     <t xml:space="preserve">16.4342308044434</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3442249298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.931679725647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7516641616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4741325378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1740989685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1417007446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8791761398315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.481632232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6316499710083</t>
+    <t xml:space="preserve">16.3442230224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9316816329956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7516613006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4741315841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1741008758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1417026519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8791751861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4816331863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6316480636597</t>
   </si>
   <si>
     <t xml:space="preserve">16.1267013549805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0291919708252</t>
+    <t xml:space="preserve">16.0291938781738</t>
   </si>
   <si>
     <t xml:space="preserve">15.8341703414917</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7366600036621</t>
+    <t xml:space="preserve">15.7366590499878</t>
   </si>
   <si>
     <t xml:space="preserve">15.3841218948364</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6991577148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6766538619995</t>
+    <t xml:space="preserve">15.6991567611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6766557693481</t>
   </si>
   <si>
     <t xml:space="preserve">15.5416402816772</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7141580581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5866441726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7741641998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.246711730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2767181396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3517227172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5242404937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6367530822754</t>
+    <t xml:space="preserve">15.7141609191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5866451263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7741632461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2467136383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2767143249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3517246246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.524242401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6367568969727</t>
   </si>
   <si>
     <t xml:space="preserve">16.5392436981201</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2242088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8491716384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8566722869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8266696929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8941783905029</t>
+    <t xml:space="preserve">16.2242126464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8491706848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8566703796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8266677856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8941774368286</t>
   </si>
   <si>
     <t xml:space="preserve">15.8041677474976</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7216596603394</t>
+    <t xml:space="preserve">15.721658706665</t>
   </si>
   <si>
     <t xml:space="preserve">15.6166477203369</t>
@@ -812,70 +812,70 @@
     <t xml:space="preserve">15.8116664886475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4516305923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4216260910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3766222000122</t>
+    <t xml:space="preserve">15.4516296386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4216270446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3766202926636</t>
   </si>
   <si>
     <t xml:space="preserve">15.519136428833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5266380310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2266025543213</t>
+    <t xml:space="preserve">15.5266361236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2266054153442</t>
   </si>
   <si>
     <t xml:space="preserve">15.3016138076782</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2416086196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.444128036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0315837860107</t>
+    <t xml:space="preserve">15.2416076660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4441289901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0315866470337</t>
   </si>
   <si>
     <t xml:space="preserve">15.406626701355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1966028213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1515998840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3991260528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7591600418091</t>
+    <t xml:space="preserve">15.1966009140015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1515989303589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3991241455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.759162902832</t>
   </si>
   <si>
     <t xml:space="preserve">15.9091758728027</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0066871643066</t>
+    <t xml:space="preserve">16.0066890716553</t>
   </si>
   <si>
     <t xml:space="preserve">16.8692798614502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6268577575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2269229888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.382043838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0820121765137</t>
+    <t xml:space="preserve">17.6268615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.226921081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3820419311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0820140838623</t>
   </si>
   <si>
     <t xml:space="preserve">19.1270160675049</t>
@@ -887,16 +887,16 @@
     <t xml:space="preserve">18.7519779205322</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8644886016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6394672393799</t>
+    <t xml:space="preserve">18.8644905090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6394691467285</t>
   </si>
   <si>
     <t xml:space="preserve">18.6769695281982</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5194530487061</t>
+    <t xml:space="preserve">18.5194511413574</t>
   </si>
   <si>
     <t xml:space="preserve">18.631965637207</t>
@@ -905,64 +905,64 @@
     <t xml:space="preserve">18.2944297790527</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4219417572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2569274902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2419261932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1894207000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1519184112549</t>
+    <t xml:space="preserve">18.4219436645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2569255828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2419242858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1894187927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1519165039062</t>
   </si>
   <si>
     <t xml:space="preserve">18.0319023132324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9643936157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9268894195557</t>
+    <t xml:space="preserve">17.9643955230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9268913269043</t>
   </si>
   <si>
     <t xml:space="preserve">17.6793632507324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.904390335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7318706512451</t>
+    <t xml:space="preserve">17.9043884277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7318687438965</t>
   </si>
   <si>
     <t xml:space="preserve">17.9718952178955</t>
   </si>
   <si>
-    <t xml:space="preserve">18.001895904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0469036102295</t>
+    <t xml:space="preserve">18.0018997192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0469017028809</t>
   </si>
   <si>
     <t xml:space="preserve">18.0244007110596</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9343910217285</t>
+    <t xml:space="preserve">17.9343929290771</t>
   </si>
   <si>
     <t xml:space="preserve">17.9868965148926</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8068771362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2068157196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2443199157715</t>
+    <t xml:space="preserve">17.8068790435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2068138122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2443180084229</t>
   </si>
   <si>
     <t xml:space="preserve">17.551851272583</t>
@@ -974,28 +974,28 @@
     <t xml:space="preserve">16.2917175292969</t>
   </si>
   <si>
-    <t xml:space="preserve">16.711763381958</t>
+    <t xml:space="preserve">16.7117652893066</t>
   </si>
   <si>
     <t xml:space="preserve">16.509241104126</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2317123413086</t>
+    <t xml:space="preserve">16.23171043396</t>
   </si>
   <si>
     <t xml:space="preserve">17.0868034362793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9067821502686</t>
+    <t xml:space="preserve">16.9067840576172</t>
   </si>
   <si>
     <t xml:space="preserve">17.1918125152588</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1243057250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1768131256104</t>
+    <t xml:space="preserve">17.124303817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1768112182617</t>
   </si>
   <si>
     <t xml:space="preserve">16.6667556762695</t>
@@ -1004,10 +1004,10 @@
     <t xml:space="preserve">17.139310836792</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0192966461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8092746734619</t>
+    <t xml:space="preserve">17.0192947387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8092727661133</t>
   </si>
   <si>
     <t xml:space="preserve">16.4642372131348</t>
@@ -1016,13 +1016,13 @@
     <t xml:space="preserve">16.8467769622803</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0567989349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8017730712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4192314147949</t>
+    <t xml:space="preserve">17.0567970275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8017711639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4192333221436</t>
   </si>
   <si>
     <t xml:space="preserve">16.4492359161377</t>
@@ -1031,10 +1031,10 @@
     <t xml:space="preserve">16.4417324066162</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2092113494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.044189453125</t>
+    <t xml:space="preserve">16.2092094421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0441913604736</t>
   </si>
   <si>
     <t xml:space="preserve">16.0366916656494</t>
@@ -1046,10 +1046,10 @@
     <t xml:space="preserve">16.5917510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8392772674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7642707824707</t>
+    <t xml:space="preserve">16.8392753601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7642669677734</t>
   </si>
   <si>
     <t xml:space="preserve">16.876781463623</t>
@@ -1061,16 +1061,16 @@
     <t xml:space="preserve">17.2518196105957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0643005371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.364330291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2143173217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3268260955811</t>
+    <t xml:space="preserve">17.0642986297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3643321990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2143154144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3268280029297</t>
   </si>
   <si>
     <t xml:space="preserve">17.476842880249</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">17.6643619537354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8518810272217</t>
+    <t xml:space="preserve">17.8518829345703</t>
   </si>
   <si>
     <t xml:space="preserve">18.0769062042236</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">16.9892902374268</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5767459869385</t>
+    <t xml:space="preserve">16.5767498016357</t>
   </si>
   <si>
     <t xml:space="preserve">16.5017395019531</t>
@@ -1100,13 +1100,13 @@
     <t xml:space="preserve">16.3142204284668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9391803741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9766836166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0516929626465</t>
+    <t xml:space="preserve">15.9391822814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9766845703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0516910552979</t>
   </si>
   <si>
     <t xml:space="preserve">16.3892288208008</t>
@@ -1115,25 +1115,25 @@
     <t xml:space="preserve">17.2893218994141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.776876449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7393703460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4393405914307</t>
+    <t xml:space="preserve">17.7768745422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7393684387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.439338684082</t>
   </si>
   <si>
     <t xml:space="preserve">17.7018661499023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5143489837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4894504547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3394336700439</t>
+    <t xml:space="preserve">17.514347076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4894485473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3394355773926</t>
   </si>
   <si>
     <t xml:space="preserve">18.0394020080566</t>
@@ -1142,10 +1142,10 @@
     <t xml:space="preserve">17.8893890380859</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4144420623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5644588470459</t>
+    <t xml:space="preserve">18.4144439697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5644569396973</t>
   </si>
   <si>
     <t xml:space="preserve">19.2770328521729</t>
@@ -1154,46 +1154,46 @@
     <t xml:space="preserve">19.3520393371582</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7270793914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2686061859131</t>
+    <t xml:space="preserve">19.7270812988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2686100006104</t>
   </si>
   <si>
     <t xml:space="preserve">19.9591636657715</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6554145812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1969432830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3846530914307</t>
+    <t xml:space="preserve">20.6554126739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1969413757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.384651184082</t>
   </si>
   <si>
     <t xml:space="preserve">20.1912479400635</t>
   </si>
   <si>
-    <t xml:space="preserve">20.34596824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8044414520264</t>
+    <t xml:space="preserve">20.3459701538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.804443359375</t>
   </si>
   <si>
     <t xml:space="preserve">19.572359085083</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6497192382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4949989318848</t>
+    <t xml:space="preserve">19.6497211456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4949970245361</t>
   </si>
   <si>
     <t xml:space="preserve">18.5666656494141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9477767944336</t>
+    <t xml:space="preserve">17.9477787017822</t>
   </si>
   <si>
     <t xml:space="preserve">18.4506244659424</t>
@@ -1202,58 +1202,58 @@
     <t xml:space="preserve">19.5336780548096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8818035125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1138858795166</t>
+    <t xml:space="preserve">19.8818054199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1138877868652</t>
   </si>
   <si>
     <t xml:space="preserve">20.2299270629883</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5393733978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6167335510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4233322143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0365238189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1081943511963</t>
+    <t xml:space="preserve">20.5393695831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6167316436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4233283996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.036527633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.108190536499</t>
   </si>
   <si>
     <t xml:space="preserve">19.8431224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0752067565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4620132446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4176368713379</t>
+    <t xml:space="preserve">20.0752086639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4620094299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4176387786865</t>
   </si>
   <si>
     <t xml:space="preserve">19.6110401153564</t>
   </si>
   <si>
-    <t xml:space="preserve">19.340274810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2629127502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2242317199707</t>
+    <t xml:space="preserve">19.3402767181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2629146575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.224235534668</t>
   </si>
   <si>
     <t xml:space="preserve">18.6440258026123</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7987480163574</t>
+    <t xml:space="preserve">18.7987461090088</t>
   </si>
   <si>
     <t xml:space="preserve">19.1468715667725</t>
@@ -1262,19 +1262,19 @@
     <t xml:space="preserve">19.4563179016113</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3015937805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0308322906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3789558410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.992151260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1855506896973</t>
+    <t xml:space="preserve">19.3015975952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0308284759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3789577484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9921493530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1855525970459</t>
   </si>
   <si>
     <t xml:space="preserve">19.9978466033936</t>
@@ -1286,64 +1286,64 @@
     <t xml:space="preserve">18.8374290466309</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6827049255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0695133209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7930526733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7873611450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1684684753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7043018341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5108995437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6326370239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1354827880859</t>
+    <t xml:space="preserve">18.6827068328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0695095062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7930564880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7873573303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1684703826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7043046951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5109004974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6326351165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1354846954346</t>
   </si>
   <si>
     <t xml:space="preserve">16.2458324432373</t>
   </si>
   <si>
-    <t xml:space="preserve">15.665620803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5495824813843</t>
+    <t xml:space="preserve">15.665623664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5495834350586</t>
   </si>
   <si>
     <t xml:space="preserve">15.5882625579834</t>
   </si>
   <si>
-    <t xml:space="preserve">15.317497253418</t>
+    <t xml:space="preserve">15.3175001144409</t>
   </si>
   <si>
     <t xml:space="preserve">14.8997468948364</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0544700622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1627769470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.441276550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8203468322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8647212982178</t>
+    <t xml:space="preserve">15.0544681549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1627759933472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4412746429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8203449249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8647193908691</t>
   </si>
   <si>
     <t xml:space="preserve">16.5165958404541</t>
@@ -1355,16 +1355,16 @@
     <t xml:space="preserve">16.2845115661621</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1297874450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2071495056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0911064147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590269088745</t>
+    <t xml:space="preserve">16.1297912597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2071514129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0911102294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590259552002</t>
   </si>
   <si>
     <t xml:space="preserve">15.781665802002</t>
@@ -1373,31 +1373,31 @@
     <t xml:space="preserve">15.7429847717285</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4392356872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4005565643311</t>
+    <t xml:space="preserve">16.4392337799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4005527496338</t>
   </si>
   <si>
     <t xml:space="preserve">16.6713161468506</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4779167175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9750680923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.456748008728</t>
+    <t xml:space="preserve">16.477912902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9750661849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4567461013794</t>
   </si>
   <si>
     <t xml:space="preserve">15.2556085586548</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0137481689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7099990844727</t>
+    <t xml:space="preserve">16.0137462615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.709997177124</t>
   </si>
   <si>
     <t xml:space="preserve">16.5552749633789</t>
@@ -1406,37 +1406,37 @@
     <t xml:space="preserve">17.174165725708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9807624816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0968017578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.40625</t>
+    <t xml:space="preserve">16.9807643890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0968036651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4062480926514</t>
   </si>
   <si>
     <t xml:space="preserve">17.522289276123</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3231945037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9363889694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948583602905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4103326797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6269435882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4258041381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4722204208374</t>
+    <t xml:space="preserve">16.3231925964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9363870620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948602676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4103307723999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6269445419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.425802230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.472222328186</t>
   </si>
   <si>
     <t xml:space="preserve">17.0194435119629</t>
@@ -1448,186 +1448,189 @@
     <t xml:space="preserve">16.9034023284912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2902088165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3288898468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3675708770752</t>
+    <t xml:space="preserve">17.2902069091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3288879394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3675670623779</t>
   </si>
   <si>
     <t xml:space="preserve">17.2515258789062</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5609703063965</t>
+    <t xml:space="preserve">17.5609722137451</t>
   </si>
   <si>
     <t xml:space="preserve">17.4836101531982</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6383304595947</t>
+    <t xml:space="preserve">17.6383323669434</t>
   </si>
   <si>
     <t xml:space="preserve">18.0251388549805</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8704147338867</t>
+    <t xml:space="preserve">17.8704166412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1798572540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0244998931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3809642791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2949981689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3754425048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9732322692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.691686630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2492561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2090339660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6057186126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8309574127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2894763946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.168815612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0883712768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3296966552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8631353378296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.573543548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7505159378052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9918403625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0722808837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1285915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8953123092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8470458984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4503593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6112442016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5307998657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4905776977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3699188232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4101371765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9330081939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4156608581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6569900512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5363235473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0938930511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1743354797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6514625549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0134525299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7319068908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8927898406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7721290588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5710220336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9596652984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0079288482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.812349319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.053674697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2145576477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1341152191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2547798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8525695800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.455883026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6167659759521</t>
   </si>
   <si>
     <t xml:space="preserve">18.179859161377</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0244979858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3809642791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2949981689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3754405975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9732341766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6916847229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2492542266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2090358734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6057195663452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.830958366394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2894725799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1688137054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0883712768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3296947479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8631353378296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5735454559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7505149841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9918394088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0722827911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1285915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8953094482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8470468521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4503593444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6112442016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5308017730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4905815124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3699188232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4101390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.933012008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4156589508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6569881439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5363254547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0938949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.174337387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6514644622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0134506225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7319030761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8927917480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7721271514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.57102394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9596633911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0079288482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8123455047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.053674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2145557403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1341152191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2547779083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8525676727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.455883026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6167678833008</t>
-  </si>
-  <si>
     <t xml:space="preserve">18.5016269683838</t>
   </si>
   <si>
@@ -1637,22 +1640,22 @@
     <t xml:space="preserve">18.6625118255615</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3060436248779</t>
+    <t xml:space="preserve">19.3060455322266</t>
   </si>
   <si>
     <t xml:space="preserve">18.944055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5473690032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2256031036377</t>
+    <t xml:space="preserve">19.5473709106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2256050109863</t>
   </si>
   <si>
     <t xml:space="preserve">18.7429523468018</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1451606750488</t>
+    <t xml:space="preserve">19.1451625823975</t>
   </si>
   <si>
     <t xml:space="preserve">19.4669303894043</t>
@@ -1664,10 +1667,10 @@
     <t xml:space="preserve">19.8691387176514</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7082538604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7484760284424</t>
+    <t xml:space="preserve">19.7082557678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7484741210938</t>
   </si>
   <si>
     <t xml:space="preserve">18.9842777252197</t>
@@ -1679,7 +1682,7 @@
     <t xml:space="preserve">18.7027320861816</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9038372039795</t>
+    <t xml:space="preserve">18.9038333892822</t>
   </si>
   <si>
     <t xml:space="preserve">19.1049404144287</t>
@@ -1691,19 +1694,19 @@
     <t xml:space="preserve">18.7831745147705</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3407421112061</t>
+    <t xml:space="preserve">18.3407459259033</t>
   </si>
   <si>
     <t xml:space="preserve">19.5071487426758</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0647220611572</t>
+    <t xml:space="preserve">19.06471824646</t>
   </si>
   <si>
     <t xml:space="preserve">18.8636150360107</t>
   </si>
   <si>
-    <t xml:space="preserve">18.582067489624</t>
+    <t xml:space="preserve">18.5820713043213</t>
   </si>
   <si>
     <t xml:space="preserve">18.6222896575928</t>
@@ -1715,7 +1718,7 @@
     <t xml:space="preserve">18.3005218505859</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7776489257812</t>
+    <t xml:space="preserve">17.7776508331299</t>
   </si>
   <si>
     <t xml:space="preserve">17.7374286651611</t>
@@ -1724,232 +1727,232 @@
     <t xml:space="preserve">17.938533782959</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6861619949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3161315917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0612354278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4795331954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5142307281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6751165390015</t>
+    <t xml:space="preserve">15.6861610412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3161306381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0612373352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4795351028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5142316818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6751155853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6268501281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0773239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7555570602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6590261459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4337911605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0315809249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1949844360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9858360290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2618608474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.18141746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.698766708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2216386795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5434064865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.227162361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7098140716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.347825050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0662784576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4684886932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5087089538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2673845291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9053945541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1467208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.106499671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0260581970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.704291343689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8249521255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1869411468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3825225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8998718261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9803133010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0607566833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6640701293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6695928573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8304758071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6001958847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6425151824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5578784942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.388599395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3462800979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7271547317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1503496170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8117933273315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9230871200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0500450134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077247619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2616424560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4732389450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.065710067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3196258544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2349891662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8541107177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9387502670288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0923633575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9654054641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346845626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4309186935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7694759368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5155582427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6848363876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3039598464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.880765914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7114896774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6001968383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8384485244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2193222045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5422124862671</t>
   </si>
   <si>
     <t xml:space="preserve">13.6268510818481</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0773248672485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7555589675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6590261459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4337911605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0315818786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1949853897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9858360290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2618598937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1814184188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6987676620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2216386795044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5434074401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2271633148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.709813117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3478240966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0662775039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.468487739563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5087099075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2673826217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9053945541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1467199325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.106499671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0260572433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7042903900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8249521255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1869401931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3825216293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8998708724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9803133010864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0607557296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6640691757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6695928573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8304758071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6001958847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6425151824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5578784942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3886003494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3462791442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7271547317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1503496170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8117942810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9230871200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0500450134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077247619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2616415023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4732398986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.065710067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3196258544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2349872589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8541107177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9387502670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0923633575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9654054641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346845626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4309196472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7694759368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5155591964722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6848363876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3039608001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.880765914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7114906311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6001968383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8384485244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2193212509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5422124862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6268501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7538089752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.584529876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9497404098511</t>
+    <t xml:space="preserve">13.7538080215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5845308303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9497394561768</t>
   </si>
   <si>
     <t xml:space="preserve">13.3306150436401</t>
@@ -1961,7 +1964,7 @@
     <t xml:space="preserve">13.161337852478</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4575729370117</t>
+    <t xml:space="preserve">13.4575719833374</t>
   </si>
   <si>
     <t xml:space="preserve">13.2459754943848</t>
@@ -1970,19 +1973,19 @@
     <t xml:space="preserve">15.4042654037476</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8274602890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9967355728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.673849105835</t>
+    <t xml:space="preserve">15.8274583816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9967374801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6738471984863</t>
   </si>
   <si>
     <t xml:space="preserve">16.5045700073242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0813751220703</t>
+    <t xml:space="preserve">16.0813770294189</t>
   </si>
   <si>
     <t xml:space="preserve">16.2506542205811</t>
@@ -2000,7 +2003,7 @@
     <t xml:space="preserve">15.9120979309082</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3352928161621</t>
+    <t xml:space="preserve">16.3352909088135</t>
   </si>
   <si>
     <t xml:space="preserve">15.7851400375366</t>
@@ -2009,16 +2012,16 @@
     <t xml:space="preserve">15.7428207397461</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0390567779541</t>
+    <t xml:space="preserve">16.0390586853027</t>
   </si>
   <si>
     <t xml:space="preserve">16.9277648925781</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7584857940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4355983734131</t>
+    <t xml:space="preserve">16.758487701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4355964660645</t>
   </si>
   <si>
     <t xml:space="preserve">18.3666248321533</t>
@@ -2042,7 +2045,7 @@
     <t xml:space="preserve">17.2663192749023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1816787719727</t>
+    <t xml:space="preserve">17.1816806793213</t>
   </si>
   <si>
     <t xml:space="preserve">16.8431243896484</t>
@@ -2051,10 +2054,10 @@
     <t xml:space="preserve">17.0124034881592</t>
   </si>
   <si>
-    <t xml:space="preserve">17.350959777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.858793258667</t>
+    <t xml:space="preserve">17.3509578704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8587913513184</t>
   </si>
   <si>
     <t xml:space="preserve">18.1127071380615</t>
@@ -2066,22 +2069,22 @@
     <t xml:space="preserve">18.6205406188965</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7051792144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6048717498779</t>
+    <t xml:space="preserve">18.7051811218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6048736572266</t>
   </si>
   <si>
     <t xml:space="preserve">18.5359039306641</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7898178100586</t>
+    <t xml:space="preserve">18.7898197174072</t>
   </si>
   <si>
     <t xml:space="preserve">18.8744564056396</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0437355041504</t>
+    <t xml:space="preserve">19.0437335968018</t>
   </si>
   <si>
     <t xml:space="preserve">19.8901233673096</t>
@@ -2096,19 +2099,16 @@
     <t xml:space="preserve">19.8054847717285</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2976512908936</t>
+    <t xml:space="preserve">19.2976531982422</t>
   </si>
   <si>
     <t xml:space="preserve">19.6362075805664</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4669284820557</t>
-  </si>
-  <si>
     <t xml:space="preserve">19.9747619628906</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0594024658203</t>
+    <t xml:space="preserve">20.0594005584717</t>
   </si>
   <si>
     <t xml:space="preserve">20.1440391540527</t>
@@ -28957,7 +28957,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G980" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28983,7 +28983,7 @@
         <v>23</v>
       </c>
       <c r="G981" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -29009,7 +29009,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G982" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -29035,7 +29035,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G983" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -29061,7 +29061,7 @@
         <v>24</v>
       </c>
       <c r="G984" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -29113,7 +29113,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G986" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29139,7 +29139,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -29165,7 +29165,7 @@
         <v>24</v>
       </c>
       <c r="G988" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -29191,7 +29191,7 @@
         <v>24</v>
       </c>
       <c r="G989" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -29217,7 +29217,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G990" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -29243,7 +29243,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G991" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -29269,7 +29269,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -29295,7 +29295,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G993" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -29321,7 +29321,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -29347,7 +29347,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G995" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -29373,7 +29373,7 @@
         <v>24.5</v>
       </c>
       <c r="G996" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29399,7 +29399,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G997" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29425,7 +29425,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G998" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29451,7 +29451,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29477,7 +29477,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29503,7 +29503,7 @@
         <v>23.25</v>
       </c>
       <c r="G1001" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29529,7 +29529,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1002" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29555,7 +29555,7 @@
         <v>23.5</v>
       </c>
       <c r="G1003" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29607,7 +29607,7 @@
         <v>23.75</v>
       </c>
       <c r="G1005" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29633,7 +29633,7 @@
         <v>23.75</v>
       </c>
       <c r="G1006" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29659,7 +29659,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1007" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29685,7 +29685,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29711,7 +29711,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1009" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29737,7 +29737,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29763,7 +29763,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1011" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29815,7 +29815,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1013" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29841,7 +29841,7 @@
         <v>24.25</v>
       </c>
       <c r="G1014" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29867,7 +29867,7 @@
         <v>24</v>
       </c>
       <c r="G1015" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29893,7 +29893,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1016" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29919,7 +29919,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1017" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29945,7 +29945,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1018" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29971,7 +29971,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1019" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29997,7 +29997,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -30023,7 +30023,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1021" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30049,7 +30049,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1022" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -30075,7 +30075,7 @@
         <v>23.5</v>
       </c>
       <c r="G1023" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30101,7 +30101,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1024" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -30127,7 +30127,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30153,7 +30153,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1026" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -30179,7 +30179,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1027" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -30205,7 +30205,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1028" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -30231,7 +30231,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1029" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -30257,7 +30257,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1030" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -30283,7 +30283,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1031" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -30309,7 +30309,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1032" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -30335,7 +30335,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1033" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -30361,7 +30361,7 @@
         <v>22.75</v>
       </c>
       <c r="G1034" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30387,7 +30387,7 @@
         <v>23.25</v>
       </c>
       <c r="G1035" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30413,7 +30413,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1036" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30439,7 +30439,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1037" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30465,7 +30465,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30491,7 +30491,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1039" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30517,7 +30517,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1040" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30543,7 +30543,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30569,7 +30569,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1042" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30595,7 +30595,7 @@
         <v>23.75</v>
       </c>
       <c r="G1043" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30621,7 +30621,7 @@
         <v>23.75</v>
       </c>
       <c r="G1044" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30647,7 +30647,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1045" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30673,7 +30673,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1046" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30699,7 +30699,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1047" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30725,7 +30725,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30751,7 +30751,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30777,7 +30777,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30803,7 +30803,7 @@
         <v>23.25</v>
       </c>
       <c r="G1051" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30829,7 +30829,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1052" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30881,7 +30881,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1054" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30907,7 +30907,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30933,7 +30933,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1056" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30959,7 +30959,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1057" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -31141,7 +31141,7 @@
         <v>19.5</v>
       </c>
       <c r="G1064" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31167,7 +31167,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1065" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -31193,7 +31193,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1066" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -31219,7 +31219,7 @@
         <v>18</v>
       </c>
       <c r="G1067" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -31245,7 +31245,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1068" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -31271,7 +31271,7 @@
         <v>17</v>
       </c>
       <c r="G1069" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -31297,7 +31297,7 @@
         <v>17</v>
       </c>
       <c r="G1070" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31323,7 +31323,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1071" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -31349,7 +31349,7 @@
         <v>17.5</v>
       </c>
       <c r="G1072" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31375,7 +31375,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1073" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31401,7 +31401,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1074" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31427,7 +31427,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1075" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31453,7 +31453,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31479,7 +31479,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1077" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31505,7 +31505,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1078" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31531,7 +31531,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1079" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31557,7 +31557,7 @@
         <v>14</v>
       </c>
       <c r="G1080" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31583,7 +31583,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1081" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31609,7 +31609,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1082" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31635,7 +31635,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1083" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31661,7 +31661,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1084" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31687,7 +31687,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1085" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31713,7 +31713,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1086" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31739,7 +31739,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1087" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31765,7 +31765,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1088" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31791,7 +31791,7 @@
         <v>15</v>
       </c>
       <c r="G1089" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31817,7 +31817,7 @@
         <v>15.5</v>
       </c>
       <c r="G1090" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31843,7 +31843,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1091" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31869,7 +31869,7 @@
         <v>15.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31895,7 +31895,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1093" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31921,7 +31921,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1094" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31947,7 +31947,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1095" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31973,7 +31973,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1096" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31999,7 +31999,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1097" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -32025,7 +32025,7 @@
         <v>15</v>
       </c>
       <c r="G1098" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -32051,7 +32051,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1099" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -32077,7 +32077,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1100" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -32103,7 +32103,7 @@
         <v>15</v>
       </c>
       <c r="G1101" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -32129,7 +32129,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1102" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -32155,7 +32155,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1103" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -32181,7 +32181,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1104" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32207,7 +32207,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1105" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -32233,7 +32233,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -32259,7 +32259,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1107" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -32285,7 +32285,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1108" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -32311,7 +32311,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1109" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -32337,7 +32337,7 @@
         <v>13.75</v>
       </c>
       <c r="G1110" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -32363,7 +32363,7 @@
         <v>14</v>
       </c>
       <c r="G1111" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32389,7 +32389,7 @@
         <v>14</v>
       </c>
       <c r="G1112" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32415,7 +32415,7 @@
         <v>14.5</v>
       </c>
       <c r="G1113" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32441,7 +32441,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1114" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32467,7 +32467,7 @@
         <v>15</v>
       </c>
       <c r="G1115" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32493,7 +32493,7 @@
         <v>15.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32519,7 +32519,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1117" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32545,7 +32545,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1118" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32571,7 +32571,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32597,7 +32597,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1120" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32623,7 +32623,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1121" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32649,7 +32649,7 @@
         <v>17</v>
       </c>
       <c r="G1122" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32675,7 +32675,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1123" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32701,7 +32701,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32727,7 +32727,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1125" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32753,7 +32753,7 @@
         <v>17.5</v>
       </c>
       <c r="G1126" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32779,7 +32779,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1127" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32805,7 +32805,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1128" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32831,7 +32831,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32857,7 +32857,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1130" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32883,7 +32883,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1131" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32909,7 +32909,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1132" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32935,7 +32935,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1133" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32961,7 +32961,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1134" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32987,7 +32987,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1135" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -33013,7 +33013,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1136" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -33039,7 +33039,7 @@
         <v>18</v>
       </c>
       <c r="G1137" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -33065,7 +33065,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -33091,7 +33091,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -33117,7 +33117,7 @@
         <v>17.5</v>
       </c>
       <c r="G1140" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -33143,7 +33143,7 @@
         <v>17</v>
       </c>
       <c r="G1141" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -33169,7 +33169,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1142" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -33195,7 +33195,7 @@
         <v>16.5</v>
       </c>
       <c r="G1143" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -33221,7 +33221,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1144" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -33247,7 +33247,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1145" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -33273,7 +33273,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G1146" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -33299,7 +33299,7 @@
         <v>17.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -33325,7 +33325,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -33351,7 +33351,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33377,7 +33377,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1150" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33403,7 +33403,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1151" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33429,7 +33429,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1152" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33455,7 +33455,7 @@
         <v>17.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33481,7 +33481,7 @@
         <v>17</v>
       </c>
       <c r="G1154" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33507,7 +33507,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1155" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33533,7 +33533,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1156" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33559,7 +33559,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1157" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33585,7 +33585,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33611,7 +33611,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1159" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33637,7 +33637,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1160" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33663,7 +33663,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1161" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33689,7 +33689,7 @@
         <v>16.5</v>
       </c>
       <c r="G1162" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33715,7 +33715,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1163" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33741,7 +33741,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1164" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33767,7 +33767,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1165" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33793,7 +33793,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1166" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33819,7 +33819,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1167" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33845,7 +33845,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1168" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33871,7 +33871,7 @@
         <v>17.25</v>
       </c>
       <c r="G1169" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33897,7 +33897,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1170" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33923,7 +33923,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1171" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33949,7 +33949,7 @@
         <v>17</v>
       </c>
       <c r="G1172" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33975,7 +33975,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1173" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -34001,7 +34001,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1174" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -34027,7 +34027,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1175" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -34053,7 +34053,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -34079,7 +34079,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1177" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -34105,7 +34105,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1178" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -34131,7 +34131,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1179" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -34157,7 +34157,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1180" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -34183,7 +34183,7 @@
         <v>17</v>
       </c>
       <c r="G1181" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -34209,7 +34209,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1182" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -34235,7 +34235,7 @@
         <v>17</v>
       </c>
       <c r="G1183" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -34261,7 +34261,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1184" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -34287,7 +34287,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1185" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -34313,7 +34313,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1186" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -34339,7 +34339,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1187" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34365,7 +34365,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1188" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34391,7 +34391,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34417,7 +34417,7 @@
         <v>17.25</v>
       </c>
       <c r="G1190" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34443,7 +34443,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1191" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34469,7 +34469,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1192" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34495,7 +34495,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1193" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34521,7 +34521,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1194" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34547,7 +34547,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1195" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34573,7 +34573,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1196" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34599,7 +34599,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1197" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34625,7 +34625,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1198" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34651,7 +34651,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1199" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34677,7 +34677,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1200" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34703,7 +34703,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34729,7 +34729,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1202" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34755,7 +34755,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1203" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34781,7 +34781,7 @@
         <v>16</v>
       </c>
       <c r="G1204" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34807,7 +34807,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1205" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34833,7 +34833,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1206" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34859,7 +34859,7 @@
         <v>16</v>
       </c>
       <c r="G1207" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34885,7 +34885,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1208" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34911,7 +34911,7 @@
         <v>16.25</v>
       </c>
       <c r="G1209" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34937,7 +34937,7 @@
         <v>16.5</v>
       </c>
       <c r="G1210" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34963,7 +34963,7 @@
         <v>16.5</v>
       </c>
       <c r="G1211" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34989,7 +34989,7 @@
         <v>17.25</v>
       </c>
       <c r="G1212" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -35015,7 +35015,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1213" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -35041,7 +35041,7 @@
         <v>17</v>
       </c>
       <c r="G1214" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -35067,7 +35067,7 @@
         <v>17.25</v>
       </c>
       <c r="G1215" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -35093,7 +35093,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1216" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -35119,7 +35119,7 @@
         <v>17</v>
       </c>
       <c r="G1217" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -35145,7 +35145,7 @@
         <v>17</v>
       </c>
       <c r="G1218" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -35171,7 +35171,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1219" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -35197,7 +35197,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -35223,7 +35223,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1221" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -35249,7 +35249,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1222" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -35275,7 +35275,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1223" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -35301,7 +35301,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1224" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -35327,7 +35327,7 @@
         <v>16</v>
       </c>
       <c r="G1225" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -35353,7 +35353,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1226" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35379,7 +35379,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1227" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35405,7 +35405,7 @@
         <v>15.75</v>
       </c>
       <c r="G1228" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35431,7 +35431,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1229" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35457,7 +35457,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1230" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35483,7 +35483,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1231" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35509,7 +35509,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1232" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35535,7 +35535,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35561,7 +35561,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G1234" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35587,7 +35587,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1235" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35613,7 +35613,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35639,7 +35639,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1237" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35665,7 +35665,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1238" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35691,7 +35691,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1239" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35717,7 +35717,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1240" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35743,7 +35743,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1241" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35769,7 +35769,7 @@
         <v>19.5</v>
       </c>
       <c r="G1242" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35795,7 +35795,7 @@
         <v>19</v>
       </c>
       <c r="G1243" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35821,7 +35821,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1244" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35847,7 +35847,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1245" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35873,7 +35873,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1246" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35899,7 +35899,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1247" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35925,7 +35925,7 @@
         <v>18.75</v>
       </c>
       <c r="G1248" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35951,7 +35951,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1249" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35977,7 +35977,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1250" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -36003,7 +36003,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1251" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -36029,7 +36029,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -36055,7 +36055,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1253" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -36081,7 +36081,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -36107,7 +36107,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1255" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -36133,7 +36133,7 @@
         <v>19</v>
       </c>
       <c r="G1256" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -36159,7 +36159,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1257" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -36185,7 +36185,7 @@
         <v>19</v>
       </c>
       <c r="G1258" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -36211,7 +36211,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1259" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -36237,7 +36237,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1260" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -36263,7 +36263,7 @@
         <v>19</v>
       </c>
       <c r="G1261" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -36289,7 +36289,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1262" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -36315,7 +36315,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -36341,7 +36341,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1264" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -36367,7 +36367,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1265" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36393,7 +36393,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1266" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36419,7 +36419,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1267" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36445,7 +36445,7 @@
         <v>18.75</v>
       </c>
       <c r="G1268" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36471,7 +36471,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1269" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36497,7 +36497,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1270" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36523,7 +36523,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G1271" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36549,7 +36549,7 @@
         <v>19</v>
       </c>
       <c r="G1272" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36575,7 +36575,7 @@
         <v>20</v>
       </c>
       <c r="G1273" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36601,7 +36601,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1274" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36627,7 +36627,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1275" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36653,7 +36653,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1276" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36679,7 +36679,7 @@
         <v>21</v>
       </c>
       <c r="G1277" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36705,7 +36705,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1278" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36731,7 +36731,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1279" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36757,7 +36757,7 @@
         <v>20</v>
       </c>
       <c r="G1280" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36783,7 +36783,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1281" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36809,7 +36809,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1282" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36835,7 +36835,7 @@
         <v>20</v>
       </c>
       <c r="G1283" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36861,7 +36861,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1284" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36887,7 +36887,7 @@
         <v>20</v>
       </c>
       <c r="G1285" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36913,7 +36913,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1286" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36939,7 +36939,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1287" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36965,7 +36965,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1288" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36991,7 +36991,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1289" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -37017,7 +37017,7 @@
         <v>20</v>
       </c>
       <c r="G1290" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -37043,7 +37043,7 @@
         <v>20</v>
       </c>
       <c r="G1291" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -37069,7 +37069,7 @@
         <v>20.5</v>
       </c>
       <c r="G1292" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -37095,7 +37095,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1293" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -37121,7 +37121,7 @@
         <v>21</v>
       </c>
       <c r="G1294" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -37147,7 +37147,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1295" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -37173,7 +37173,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1296" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -37199,7 +37199,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1297" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -37225,7 +37225,7 @@
         <v>21.5</v>
       </c>
       <c r="G1298" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -37251,7 +37251,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1299" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -37277,7 +37277,7 @@
         <v>22</v>
       </c>
       <c r="G1300" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -37303,7 +37303,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1301" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -37329,7 +37329,7 @@
         <v>22</v>
       </c>
       <c r="G1302" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -37355,7 +37355,7 @@
         <v>21.5</v>
       </c>
       <c r="G1303" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37381,7 +37381,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1304" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37407,7 +37407,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1305" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37433,7 +37433,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1306" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37459,7 +37459,7 @@
         <v>21</v>
       </c>
       <c r="G1307" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37485,7 +37485,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1308" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37511,7 +37511,7 @@
         <v>21</v>
       </c>
       <c r="G1309" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37537,7 +37537,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1310" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37563,7 +37563,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1311" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37589,7 +37589,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1312" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37615,7 +37615,7 @@
         <v>21.5</v>
       </c>
       <c r="G1313" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37641,7 +37641,7 @@
         <v>21.5</v>
       </c>
       <c r="G1314" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37667,7 +37667,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1315" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37693,7 +37693,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1316" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37719,7 +37719,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1317" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37745,7 +37745,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1318" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37771,7 +37771,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1319" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37797,7 +37797,7 @@
         <v>22.5</v>
       </c>
       <c r="G1320" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37823,7 +37823,7 @@
         <v>23.5</v>
       </c>
       <c r="G1321" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37849,7 +37849,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1322" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37875,7 +37875,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1323" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37901,7 +37901,7 @@
         <v>23.5</v>
       </c>
       <c r="G1324" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37927,7 +37927,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1325" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37953,7 +37953,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1326" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37979,7 +37979,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1327" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -38005,7 +38005,7 @@
         <v>23</v>
       </c>
       <c r="G1328" t="s">
-        <v>696</v>
+        <v>548</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -38031,7 +38031,7 @@
         <v>23.5</v>
       </c>
       <c r="G1329" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -38057,7 +38057,7 @@
         <v>23.5</v>
       </c>
       <c r="G1330" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -38083,7 +38083,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1331" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -38109,7 +38109,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1332" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -38135,7 +38135,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1333" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -38161,7 +38161,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1334" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -38187,7 +38187,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1335" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -38213,7 +38213,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1336" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -38239,7 +38239,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1337" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -38265,7 +38265,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1338" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -38291,7 +38291,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1339" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -38317,7 +38317,7 @@
         <v>23.5</v>
       </c>
       <c r="G1340" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -38447,7 +38447,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1345" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38551,7 +38551,7 @@
         <v>23.5</v>
       </c>
       <c r="G1349" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38681,7 +38681,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1354" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38707,7 +38707,7 @@
         <v>23</v>
       </c>
       <c r="G1355" t="s">
-        <v>696</v>
+        <v>548</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38733,7 +38733,7 @@
         <v>23</v>
       </c>
       <c r="G1356" t="s">
-        <v>696</v>
+        <v>548</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38759,7 +38759,7 @@
         <v>23</v>
       </c>
       <c r="G1357" t="s">
-        <v>696</v>
+        <v>548</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38785,7 +38785,7 @@
         <v>23</v>
       </c>
       <c r="G1358" t="s">
-        <v>696</v>
+        <v>548</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38837,7 +38837,7 @@
         <v>23</v>
       </c>
       <c r="G1360" t="s">
-        <v>696</v>
+        <v>548</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -60815,7 +60815,7 @@
     </row>
     <row r="2206">
       <c r="A2206" s="1" t="n">
-        <v>45534.6493865741</v>
+        <v>45534.2916666667</v>
       </c>
       <c r="B2206" t="n">
         <v>22026</v>
@@ -60836,6 +60836,32 @@
         <v>1002</v>
       </c>
       <c r="H2206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" s="1" t="n">
+        <v>45537.6493634259</v>
+      </c>
+      <c r="B2207" t="n">
+        <v>5584</v>
+      </c>
+      <c r="C2207" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="D2207" t="n">
+        <v>38.6500015258789</v>
+      </c>
+      <c r="E2207" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>38.9500007629395</v>
+      </c>
+      <c r="G2207" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H2207" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CMB.MI.xlsx
+++ b/data/CMB.MI.xlsx
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58274173736572</t>
+    <t xml:space="preserve">9.58274078369141</t>
   </si>
   <si>
     <t xml:space="preserve">CMB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9114933013916</t>
+    <t xml:space="preserve">9.91149234771729</t>
   </si>
   <si>
     <t xml:space="preserve">9.65968418121338</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75061321258545</t>
+    <t xml:space="preserve">9.75061225891113</t>
   </si>
   <si>
     <t xml:space="preserve">9.75760936737061</t>
@@ -59,64 +59,64 @@
     <t xml:space="preserve">9.79258251190186</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70864677429199</t>
+    <t xml:space="preserve">9.70864582061768</t>
   </si>
   <si>
     <t xml:space="preserve">9.47782135009766</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66667747497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61071968078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68766212463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61771488189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53377819061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54077434539795</t>
+    <t xml:space="preserve">9.66667652130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61071872711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68766117095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61771297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53377723693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54077339172363</t>
   </si>
   <si>
     <t xml:space="preserve">9.44284725189209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17005348205566</t>
+    <t xml:space="preserve">9.17005443572998</t>
   </si>
   <si>
     <t xml:space="preserve">9.10010719299316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17704772949219</t>
+    <t xml:space="preserve">9.17704963684082</t>
   </si>
   <si>
     <t xml:space="preserve">8.67343044281006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63845634460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93922710418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76436042785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74337768554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95321846008301</t>
+    <t xml:space="preserve">8.63845729827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93922805786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76436138153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74337673187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95321655273438</t>
   </si>
   <si>
     <t xml:space="preserve">9.12808609008789</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56875133514404</t>
+    <t xml:space="preserve">9.56875324249268</t>
   </si>
   <si>
     <t xml:space="preserve">9.60372447967529</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">9.40787410736084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20502662658691</t>
+    <t xml:space="preserve">9.2050256729126</t>
   </si>
   <si>
     <t xml:space="preserve">9.30295372009277</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">9.03715419769287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98819065093994</t>
+    <t xml:space="preserve">8.98819255828857</t>
   </si>
   <si>
     <t xml:space="preserve">9.22601222991943</t>
@@ -143,25 +143,25 @@
     <t xml:space="preserve">9.14207553863525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3309326171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34492015838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23300552368164</t>
+    <t xml:space="preserve">9.33093166351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34492111206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23300647735596</t>
   </si>
   <si>
     <t xml:space="preserve">9.30994892120361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52678298950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51279354095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4708251953125</t>
+    <t xml:space="preserve">9.52678394317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51279544830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47082614898682</t>
   </si>
   <si>
     <t xml:space="preserve">9.694655418396</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">9.4218635559082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50579929351807</t>
+    <t xml:space="preserve">9.50580024719238</t>
   </si>
   <si>
     <t xml:space="preserve">9.31694221496582</t>
@@ -185,13 +185,13 @@
     <t xml:space="preserve">9.11409568786621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10710334777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46383094787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37290096282959</t>
+    <t xml:space="preserve">9.10710144042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46383190155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37290000915527</t>
   </si>
   <si>
     <t xml:space="preserve">9.55476188659668</t>
@@ -200,46 +200,46 @@
     <t xml:space="preserve">9.37989521026611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43585205078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54776763916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72963047027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63170337677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56347179412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57071018218994</t>
+    <t xml:space="preserve">9.43585300445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54776859283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72962951660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63170528411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56347274780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57071208953857</t>
   </si>
   <si>
     <t xml:space="preserve">9.53451347351074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70102405548096</t>
+    <t xml:space="preserve">9.70102310180664</t>
   </si>
   <si>
     <t xml:space="preserve">9.75893974304199</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87477397918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84581565856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73722267150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3163862228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1281576156616</t>
+    <t xml:space="preserve">9.8747730255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84581470489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73722076416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3163871765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1281585693359</t>
   </si>
   <si>
     <t xml:space="preserve">10.1353969573975</t>
@@ -248,19 +248,19 @@
     <t xml:space="preserve">10.0268039703369</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1933145523071</t>
+    <t xml:space="preserve">10.1933126449585</t>
   </si>
   <si>
     <t xml:space="preserve">10.1136789321899</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92545127868652</t>
+    <t xml:space="preserve">9.92544841766357</t>
   </si>
   <si>
     <t xml:space="preserve">9.93268966674805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91097164154053</t>
+    <t xml:space="preserve">9.91097068786621</t>
   </si>
   <si>
     <t xml:space="preserve">9.83133602142334</t>
@@ -269,13 +269,13 @@
     <t xml:space="preserve">9.77341938018799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.744460105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76617908477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69378471374512</t>
+    <t xml:space="preserve">9.74446105957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76617813110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6937837600708</t>
   </si>
   <si>
     <t xml:space="preserve">9.93992900848389</t>
@@ -290,25 +290,25 @@
     <t xml:space="preserve">9.81685733795166</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83857440948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94716835021973</t>
+    <t xml:space="preserve">9.83857536315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94716930389404</t>
   </si>
   <si>
     <t xml:space="preserve">9.91821002960205</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88925170898438</t>
+    <t xml:space="preserve">9.88925266265869</t>
   </si>
   <si>
     <t xml:space="preserve">9.46211719512939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65034580230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62862777709961</t>
+    <t xml:space="preserve">9.65034675598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62862682342529</t>
   </si>
   <si>
     <t xml:space="preserve">9.54899311065674</t>
@@ -320,79 +320,79 @@
     <t xml:space="preserve">9.70826244354248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63586711883545</t>
+    <t xml:space="preserve">9.63586616516113</t>
   </si>
   <si>
     <t xml:space="preserve">9.64310646057129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66482448577881</t>
+    <t xml:space="preserve">9.66482543945312</t>
   </si>
   <si>
     <t xml:space="preserve">9.71550178527832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82409477233887</t>
+    <t xml:space="preserve">9.8240966796875</t>
   </si>
   <si>
     <t xml:space="preserve">9.88201236724854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8602933883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79513645172119</t>
+    <t xml:space="preserve">9.86029434204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79513740539551</t>
   </si>
   <si>
     <t xml:space="preserve">9.85305404663086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67930507659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67206382751465</t>
+    <t xml:space="preserve">9.6793041229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67206478118896</t>
   </si>
   <si>
     <t xml:space="preserve">9.47659683227539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48383712768555</t>
+    <t xml:space="preserve">9.48383617401123</t>
   </si>
   <si>
     <t xml:space="preserve">9.49107551574707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44763851165771</t>
+    <t xml:space="preserve">9.44763946533203</t>
   </si>
   <si>
     <t xml:space="preserve">9.37524318695068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25940895080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34628295898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41143989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31008720397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19425296783447</t>
+    <t xml:space="preserve">9.25940990447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34628486633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4114408493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31008625030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19425392150879</t>
   </si>
   <si>
     <t xml:space="preserve">9.17977428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2666482925415</t>
+    <t xml:space="preserve">9.26665019989014</t>
   </si>
   <si>
     <t xml:space="preserve">9.25216960906982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28836917877197</t>
+    <t xml:space="preserve">9.28836727142334</t>
   </si>
   <si>
     <t xml:space="preserve">9.30284690856934</t>
@@ -401,37 +401,37 @@
     <t xml:space="preserve">9.33904361724854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24493026733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20873355865479</t>
+    <t xml:space="preserve">9.2449312210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20873260498047</t>
   </si>
   <si>
     <t xml:space="preserve">9.13633728027344</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91914844512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88295269012451</t>
+    <t xml:space="preserve">8.91915035247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8829517364502</t>
   </si>
   <si>
     <t xml:space="preserve">9.14357662200928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16529369354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23045063018799</t>
+    <t xml:space="preserve">9.16529560089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2304515838623</t>
   </si>
   <si>
     <t xml:space="preserve">9.33180522918701</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15805435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29560947418213</t>
+    <t xml:space="preserve">9.15805530548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29560852050781</t>
   </si>
   <si>
     <t xml:space="preserve">9.4259204864502</t>
@@ -446,13 +446,13 @@
     <t xml:space="preserve">10.0195655822754</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0050859451294</t>
+    <t xml:space="preserve">10.0050840377808</t>
   </si>
   <si>
     <t xml:space="preserve">10.0630016326904</t>
   </si>
   <si>
-    <t xml:space="preserve">10.157114982605</t>
+    <t xml:space="preserve">10.1571159362793</t>
   </si>
   <si>
     <t xml:space="preserve">10.2946681976318</t>
@@ -470,13 +470,13 @@
     <t xml:space="preserve">10.5697717666626</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6276874542236</t>
+    <t xml:space="preserve">10.6276893615723</t>
   </si>
   <si>
     <t xml:space="preserve">10.5263338088989</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5118551254272</t>
+    <t xml:space="preserve">10.5118541717529</t>
   </si>
   <si>
     <t xml:space="preserve">10.6494064331055</t>
@@ -485,22 +485,22 @@
     <t xml:space="preserve">10.7797193527222</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9317502975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9824285507202</t>
+    <t xml:space="preserve">10.9317493438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9824266433716</t>
   </si>
   <si>
     <t xml:space="preserve">10.873833656311</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0258636474609</t>
+    <t xml:space="preserve">11.0258646011353</t>
   </si>
   <si>
     <t xml:space="preserve">10.7435216903687</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3598251342773</t>
+    <t xml:space="preserve">10.359824180603</t>
   </si>
   <si>
     <t xml:space="preserve">10.3236265182495</t>
@@ -512,25 +512,25 @@
     <t xml:space="preserve">10.859354019165</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7724809646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9389886856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7290420532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8665933609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7869577407837</t>
+    <t xml:space="preserve">10.772479057312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9389896392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.729043006897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8665952682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.786958694458</t>
   </si>
   <si>
     <t xml:space="preserve">10.8231563568115</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7580003738403</t>
+    <t xml:space="preserve">10.757999420166</t>
   </si>
   <si>
     <t xml:space="preserve">10.7507610321045</t>
@@ -551,16 +551,16 @@
     <t xml:space="preserve">10.9462289810181</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0910196304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5036773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4529981613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4457597732544</t>
+    <t xml:space="preserve">11.0910215377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5036764144897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4529991149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4457588195801</t>
   </si>
   <si>
     <t xml:space="preserve">11.4747180938721</t>
@@ -575,73 +575,73 @@
     <t xml:space="preserve">11.9452896118164</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5389347076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4448213577271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5172176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5534143447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.741641998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2990922927856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4583606719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4728403091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7407035827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.595911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.610390663147</t>
+    <t xml:space="preserve">12.5389337539673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4448223114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5172166824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5534133911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7416429519653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.299090385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4583597183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4728384017944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7407026290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5959119796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6103897094727</t>
   </si>
   <si>
     <t xml:space="preserve">13.3714847564697</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3932037353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3208074569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4438819885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6827850341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8927354812622</t>
+    <t xml:space="preserve">13.3932018280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3208084106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4438800811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.682785987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8927345275879</t>
   </si>
   <si>
     <t xml:space="preserve">14.4139823913574</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5008583068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4501781463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5442953109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.55153465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6601305007935</t>
+    <t xml:space="preserve">14.5008573532104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4501819610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5442934036255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5515375137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6601285934448</t>
   </si>
   <si>
     <t xml:space="preserve">14.5949716567993</t>
@@ -650,34 +650,34 @@
     <t xml:space="preserve">14.5225763320923</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7390537261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8515682220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6715478897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.604040145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.514030456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1764936447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8890695571899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1914958953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5215320587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5065298080444</t>
+    <t xml:space="preserve">14.739052772522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8515634536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6715450286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6040372848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5140295028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1764965057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8890705108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1914968490601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5215311050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5065288543701</t>
   </si>
   <si>
     <t xml:space="preserve">14.7990608215332</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">14.88157081604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8740701675415</t>
+    <t xml:space="preserve">14.8740692138672</t>
   </si>
   <si>
     <t xml:space="preserve">14.8065614700317</t>
@@ -695,46 +695,46 @@
     <t xml:space="preserve">14.9640789031982</t>
   </si>
   <si>
-    <t xml:space="preserve">15.106593132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9016771316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4342308044434</t>
+    <t xml:space="preserve">15.1065912246704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9016780853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.434232711792</t>
   </si>
   <si>
     <t xml:space="preserve">16.3442230224609</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9316816329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7516613006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4741315841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1741008758545</t>
+    <t xml:space="preserve">15.9316806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7516603469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4741344451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1740989685059</t>
   </si>
   <si>
     <t xml:space="preserve">16.1417026519775</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8791751861572</t>
+    <t xml:space="preserve">15.8791732788086</t>
   </si>
   <si>
     <t xml:space="preserve">15.4816331863403</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6316480636597</t>
+    <t xml:space="preserve">15.631649017334</t>
   </si>
   <si>
     <t xml:space="preserve">16.1267013549805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0291938781738</t>
+    <t xml:space="preserve">16.0291919708252</t>
   </si>
   <si>
     <t xml:space="preserve">15.8341703414917</t>
@@ -743,163 +743,163 @@
     <t xml:space="preserve">15.7366590499878</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3841218948364</t>
+    <t xml:space="preserve">15.3841238021851</t>
   </si>
   <si>
     <t xml:space="preserve">15.6991567611694</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6766557693481</t>
+    <t xml:space="preserve">15.6766519546509</t>
   </si>
   <si>
     <t xml:space="preserve">15.5416402816772</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7141609191895</t>
+    <t xml:space="preserve">15.7141580581665</t>
   </si>
   <si>
     <t xml:space="preserve">15.5866451263428</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7741632461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2467136383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2767143249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3517246246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.524242401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6367568969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5392436981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2242126464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8491706848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8566703796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8266677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8941774368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041677474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.721658706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6166477203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.744161605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8116664886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4516296386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4216270446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3766202926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.519136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5266361236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2266054153442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3016138076782</t>
+    <t xml:space="preserve">15.7741651535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.246711730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2767181396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3517265319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5242443084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.636754989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5392417907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2242107391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8491716384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8566722869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8266706466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8941783905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041667938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7216567993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6166486740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7441577911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8116655349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4516315460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4216241836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3766231536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5191373825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5266370773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2266063690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3016147613525</t>
   </si>
   <si>
     <t xml:space="preserve">15.2416076660156</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4441289901733</t>
+    <t xml:space="preserve">15.444130897522</t>
   </si>
   <si>
     <t xml:space="preserve">15.0315866470337</t>
   </si>
   <si>
-    <t xml:space="preserve">15.406626701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1966009140015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1515989303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3991241455078</t>
+    <t xml:space="preserve">15.4066257476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1966018676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1515979766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3991231918335</t>
   </si>
   <si>
     <t xml:space="preserve">15.759162902832</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9091758728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0066890716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8692798614502</t>
+    <t xml:space="preserve">15.9091787338257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0066871643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8692779541016</t>
   </si>
   <si>
     <t xml:space="preserve">17.6268615722656</t>
   </si>
   <si>
-    <t xml:space="preserve">18.226921081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3820419311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0820140838623</t>
+    <t xml:space="preserve">18.2269191741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3820457458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0820121765137</t>
   </si>
   <si>
     <t xml:space="preserve">19.1270160675049</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8944911956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7519779205322</t>
+    <t xml:space="preserve">18.8944931030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7519798278809</t>
   </si>
   <si>
     <t xml:space="preserve">18.8644905090332</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6394691467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6769695281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5194511413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.631965637207</t>
+    <t xml:space="preserve">18.6394653320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6769714355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5194549560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6319675445557</t>
   </si>
   <si>
     <t xml:space="preserve">18.2944297790527</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">18.2419242858887</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1894187927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1519165039062</t>
+    <t xml:space="preserve">18.189416885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.151912689209</t>
   </si>
   <si>
     <t xml:space="preserve">18.0319023132324</t>
@@ -935,37 +935,37 @@
     <t xml:space="preserve">17.9043884277344</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7318687438965</t>
+    <t xml:space="preserve">17.7318725585938</t>
   </si>
   <si>
     <t xml:space="preserve">17.9718952178955</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0018997192383</t>
+    <t xml:space="preserve">18.0018978118896</t>
   </si>
   <si>
     <t xml:space="preserve">18.0469017028809</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0244007110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9343929290771</t>
+    <t xml:space="preserve">18.0244026184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9343910217285</t>
   </si>
   <si>
     <t xml:space="preserve">17.9868965148926</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8068790435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2068138122559</t>
+    <t xml:space="preserve">17.8068771362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2068157196045</t>
   </si>
   <si>
     <t xml:space="preserve">17.2443180084229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.551851272583</t>
+    <t xml:space="preserve">17.5518493652344</t>
   </si>
   <si>
     <t xml:space="preserve">16.9517879486084</t>
@@ -974,10 +974,10 @@
     <t xml:space="preserve">16.2917175292969</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7117652893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.509241104126</t>
+    <t xml:space="preserve">16.7117614746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5092430114746</t>
   </si>
   <si>
     <t xml:space="preserve">16.23171043396</t>
@@ -986,28 +986,28 @@
     <t xml:space="preserve">17.0868034362793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9067840576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1918125152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.124303817749</t>
+    <t xml:space="preserve">16.9067859649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1918106079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1243057250977</t>
   </si>
   <si>
     <t xml:space="preserve">17.1768112182617</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6667556762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.139310836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0192947387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8092727661133</t>
+    <t xml:space="preserve">16.6667575836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1393070220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0192928314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8092746734619</t>
   </si>
   <si>
     <t xml:space="preserve">16.4642372131348</t>
@@ -1016,40 +1016,40 @@
     <t xml:space="preserve">16.8467769622803</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0567970275879</t>
+    <t xml:space="preserve">17.0568008422852</t>
   </si>
   <si>
     <t xml:space="preserve">16.8017711639404</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4192333221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4492359161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4417324066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2092094421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0441913604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0366916656494</t>
+    <t xml:space="preserve">16.4192314147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4492340087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4417362213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.20920753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0441932678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0366897583008</t>
   </si>
   <si>
     <t xml:space="preserve">16.2017097473145</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5917510986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8392753601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7642669677734</t>
+    <t xml:space="preserve">16.5917530059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8392772674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7642688751221</t>
   </si>
   <si>
     <t xml:space="preserve">16.876781463623</t>
@@ -1058,22 +1058,22 @@
     <t xml:space="preserve">17.4018363952637</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2518196105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0642986297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3643321990967</t>
+    <t xml:space="preserve">17.2518215179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0643005371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.364330291748</t>
   </si>
   <si>
     <t xml:space="preserve">17.2143154144287</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3268280029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.476842880249</t>
+    <t xml:space="preserve">17.3268260955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4768409729004</t>
   </si>
   <si>
     <t xml:space="preserve">17.6643619537354</t>
@@ -1082,25 +1082,25 @@
     <t xml:space="preserve">17.8518829345703</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0769062042236</t>
+    <t xml:space="preserve">18.0769081115723</t>
   </si>
   <si>
     <t xml:space="preserve">17.5893535614014</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9892902374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5767498016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5017395019531</t>
+    <t xml:space="preserve">16.9892921447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5767459869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5017414093018</t>
   </si>
   <si>
     <t xml:space="preserve">16.3142204284668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9391822814941</t>
+    <t xml:space="preserve">15.9391803741455</t>
   </si>
   <si>
     <t xml:space="preserve">15.9766845703125</t>
@@ -1112,28 +1112,28 @@
     <t xml:space="preserve">16.3892288208008</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2893218994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7768745422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7393684387207</t>
+    <t xml:space="preserve">17.2893238067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.776876449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7393703460693</t>
   </si>
   <si>
     <t xml:space="preserve">17.439338684082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7018661499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.514347076416</t>
+    <t xml:space="preserve">17.701868057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5143451690674</t>
   </si>
   <si>
     <t xml:space="preserve">18.4894485473633</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3394355773926</t>
+    <t xml:space="preserve">18.3394336700439</t>
   </si>
   <si>
     <t xml:space="preserve">18.0394020080566</t>
@@ -1142,67 +1142,67 @@
     <t xml:space="preserve">17.8893890380859</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4144439697266</t>
+    <t xml:space="preserve">18.4144420623779</t>
   </si>
   <si>
     <t xml:space="preserve">18.5644569396973</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2770328521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3520393371582</t>
+    <t xml:space="preserve">19.2770309448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3520431518555</t>
   </si>
   <si>
     <t xml:space="preserve">19.7270812988281</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2686100006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9591636657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6554126739502</t>
+    <t xml:space="preserve">20.2686080932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9591655731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6554145812988</t>
   </si>
   <si>
     <t xml:space="preserve">21.1969413757324</t>
   </si>
   <si>
-    <t xml:space="preserve">20.384651184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1912479400635</t>
+    <t xml:space="preserve">20.3846492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1912498474121</t>
   </si>
   <si>
     <t xml:space="preserve">20.3459701538086</t>
   </si>
   <si>
-    <t xml:space="preserve">19.804443359375</t>
+    <t xml:space="preserve">19.8044414520264</t>
   </si>
   <si>
     <t xml:space="preserve">19.572359085083</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6497211456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4949970245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5666656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9477787017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4506244659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5336780548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8818054199219</t>
+    <t xml:space="preserve">19.6497192382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4949989318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5666637420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9477767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.450626373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5336799621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8818016052246</t>
   </si>
   <si>
     <t xml:space="preserve">20.1138877868652</t>
@@ -1211,31 +1211,31 @@
     <t xml:space="preserve">20.2299270629883</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5393695831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6167316436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4233283996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.036527633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.108190536499</t>
+    <t xml:space="preserve">20.5393714904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6167335510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4233303070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0365257263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1081943511963</t>
   </si>
   <si>
     <t xml:space="preserve">19.8431224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0752086639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4620094299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4176387786865</t>
+    <t xml:space="preserve">20.0752067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4620113372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4176368713379</t>
   </si>
   <si>
     <t xml:space="preserve">19.6110401153564</t>
@@ -1244,10 +1244,10 @@
     <t xml:space="preserve">19.3402767181396</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2629146575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.224235534668</t>
+    <t xml:space="preserve">19.2629165649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2242336273193</t>
   </si>
   <si>
     <t xml:space="preserve">18.6440258026123</t>
@@ -1256,16 +1256,16 @@
     <t xml:space="preserve">18.7987461090088</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1468715667725</t>
+    <t xml:space="preserve">19.1468734741211</t>
   </si>
   <si>
     <t xml:space="preserve">19.4563179016113</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3015975952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0308284759521</t>
+    <t xml:space="preserve">19.3015956878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.030834197998</t>
   </si>
   <si>
     <t xml:space="preserve">19.3789577484131</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">19.9978466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7657604217529</t>
+    <t xml:space="preserve">19.7657623291016</t>
   </si>
   <si>
     <t xml:space="preserve">18.8374290466309</t>
@@ -1289,64 +1289,64 @@
     <t xml:space="preserve">18.6827068328857</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0695095062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7930564880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7873573303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1684703826904</t>
+    <t xml:space="preserve">19.0695114135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7930545806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7873611450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1684684753418</t>
   </si>
   <si>
     <t xml:space="preserve">15.7043046951294</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5109004974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6326351165771</t>
+    <t xml:space="preserve">15.5109014511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6326370239258</t>
   </si>
   <si>
     <t xml:space="preserve">17.1354846954346</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2458324432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.665623664856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5495834350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5882625579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3175001144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8997468948364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0544681549072</t>
+    <t xml:space="preserve">16.2458305358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6656246185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.54958152771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5882635116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3174953460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8997488021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0544691085815</t>
   </si>
   <si>
     <t xml:space="preserve">15.1627759933472</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4412746429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8203449249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8647193908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5165958404541</t>
+    <t xml:space="preserve">15.4412755966187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8203477859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8647212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5165977478027</t>
   </si>
   <si>
     <t xml:space="preserve">16.361873626709</t>
@@ -1355,49 +1355,49 @@
     <t xml:space="preserve">16.2845115661621</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1297912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2071514129639</t>
+    <t xml:space="preserve">16.1297874450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2071533203125</t>
   </si>
   <si>
     <t xml:space="preserve">16.0911102294922</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590259552002</t>
+    <t xml:space="preserve">15.8590269088745</t>
   </si>
   <si>
     <t xml:space="preserve">15.781665802002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7429847717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4392337799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4005527496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6713161468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.477912902832</t>
+    <t xml:space="preserve">15.7429838180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4392356872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4005546569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6713180541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4779148101807</t>
   </si>
   <si>
     <t xml:space="preserve">15.9750661849976</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4567461013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2556085586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0137462615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.709997177124</t>
+    <t xml:space="preserve">15.4567489624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2556095123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0137481689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7099990844727</t>
   </si>
   <si>
     <t xml:space="preserve">16.5552749633789</t>
@@ -1406,94 +1406,94 @@
     <t xml:space="preserve">17.174165725708</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9807643890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0968036651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4062480926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.522289276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3231925964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9363870620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948602676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4103307723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6269445419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.425802230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.472222328186</t>
+    <t xml:space="preserve">16.9807624816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0968017578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.40625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5222911834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3231945037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9363889694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948583602905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4103317260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6269426345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4258031845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4722204208374</t>
   </si>
   <si>
     <t xml:space="preserve">17.0194435119629</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8260402679443</t>
+    <t xml:space="preserve">16.8260383605957</t>
   </si>
   <si>
     <t xml:space="preserve">16.9034023284912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2902069091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3288879394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3675670623779</t>
+    <t xml:space="preserve">17.2902088165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3288860321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3675689697266</t>
   </si>
   <si>
     <t xml:space="preserve">17.2515258789062</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5609722137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4836101531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6383323669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0251388549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8704166412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1798572540283</t>
+    <t xml:space="preserve">17.5609703063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4836082458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6383304595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0251350402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8704147338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1798610687256</t>
   </si>
   <si>
     <t xml:space="preserve">19.0244998931885</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3809642791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2949981689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3754425048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9732322692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.691686630249</t>
+    <t xml:space="preserve">18.3809623718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2950019836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3754405975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9732303619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6916847229004</t>
   </si>
   <si>
     <t xml:space="preserve">16.2492561340332</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">16.2090339660645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6057186126709</t>
+    <t xml:space="preserve">15.6057205200195</t>
   </si>
   <si>
     <t xml:space="preserve">15.8309574127197</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">16.2894763946533</t>
   </si>
   <si>
-    <t xml:space="preserve">16.168815612793</t>
+    <t xml:space="preserve">16.1688117980957</t>
   </si>
   <si>
     <t xml:space="preserve">16.0883712768555</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">16.3296966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8631353378296</t>
+    <t xml:space="preserve">15.8631324768066</t>
   </si>
   <si>
     <t xml:space="preserve">15.573543548584</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">16.1285915374756</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8953123092651</t>
+    <t xml:space="preserve">15.8953113555908</t>
   </si>
   <si>
     <t xml:space="preserve">15.8470458984375</t>
@@ -1547,19 +1547,19 @@
     <t xml:space="preserve">16.4503593444824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6112442016602</t>
+    <t xml:space="preserve">16.6112422943115</t>
   </si>
   <si>
     <t xml:space="preserve">16.5307998657227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4905776977539</t>
+    <t xml:space="preserve">16.4905796051025</t>
   </si>
   <si>
     <t xml:space="preserve">16.3699188232422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4101371765137</t>
+    <t xml:space="preserve">16.4101409912109</t>
   </si>
   <si>
     <t xml:space="preserve">16.9330081939697</t>
@@ -1568,28 +1568,28 @@
     <t xml:space="preserve">17.4156608581543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6569900512695</t>
+    <t xml:space="preserve">17.6569881439209</t>
   </si>
   <si>
     <t xml:space="preserve">17.5363235473633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0938930511475</t>
+    <t xml:space="preserve">17.0938949584961</t>
   </si>
   <si>
     <t xml:space="preserve">17.1743354797363</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6514625549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0134525299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7319068908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8927898406982</t>
+    <t xml:space="preserve">16.6514644622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0134506225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7319049835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8927917480469</t>
   </si>
   <si>
     <t xml:space="preserve">16.7721290588379</t>
@@ -1607,40 +1607,37 @@
     <t xml:space="preserve">16.812349319458</t>
   </si>
   <si>
-    <t xml:space="preserve">17.053674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2145576477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1341152191162</t>
+    <t xml:space="preserve">17.0536727905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2145595550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1341133117676</t>
   </si>
   <si>
     <t xml:space="preserve">17.2547798156738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8525695800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.455883026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6167659759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.179859161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5016269683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2200794219971</t>
+    <t xml:space="preserve">16.8525714874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4558811187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6167678833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5016288757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2200813293457</t>
   </si>
   <si>
     <t xml:space="preserve">18.6625118255615</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3060455322266</t>
+    <t xml:space="preserve">19.3060474395752</t>
   </si>
   <si>
     <t xml:space="preserve">18.944055557251</t>
@@ -1649,10 +1646,10 @@
     <t xml:space="preserve">19.5473709106445</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2256050109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7429523468018</t>
+    <t xml:space="preserve">19.2256031036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7429504394531</t>
   </si>
   <si>
     <t xml:space="preserve">19.1451625823975</t>
@@ -1670,7 +1667,7 @@
     <t xml:space="preserve">19.7082557678223</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7484741210938</t>
+    <t xml:space="preserve">19.7484760284424</t>
   </si>
   <si>
     <t xml:space="preserve">18.9842777252197</t>
@@ -1679,34 +1676,34 @@
     <t xml:space="preserve">18.8233947753906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7027320861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9038333892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1049404144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1853847503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7831745147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3407459259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5071487426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.06471824646</t>
+    <t xml:space="preserve">18.7027339935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9038372039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1049423217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1853809356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7831726074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3407421112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5071506500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0647201538086</t>
   </si>
   <si>
     <t xml:space="preserve">18.8636150360107</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5820713043213</t>
+    <t xml:space="preserve">18.5820693969727</t>
   </si>
   <si>
     <t xml:space="preserve">18.6222896575928</t>
@@ -1721,19 +1718,19 @@
     <t xml:space="preserve">17.7776508331299</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7374286651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.938533782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6861610412598</t>
+    <t xml:space="preserve">17.7374305725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9385318756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6861619949341</t>
   </si>
   <si>
     <t xml:space="preserve">15.3161306381226</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0612373352051</t>
+    <t xml:space="preserve">14.0612363815308</t>
   </si>
   <si>
     <t xml:space="preserve">14.4795351028442</t>
@@ -1742,70 +1739,70 @@
     <t xml:space="preserve">13.5142316818237</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6751155853271</t>
+    <t xml:space="preserve">13.6751146316528</t>
   </si>
   <si>
     <t xml:space="preserve">13.6268501281738</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0773239135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7555570602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6590261459351</t>
+    <t xml:space="preserve">14.0773248672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.755558013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6590251922607</t>
   </si>
   <si>
     <t xml:space="preserve">13.4337911605835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0315809249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1949844360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9858360290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2618608474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.18141746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.698766708374</t>
+    <t xml:space="preserve">13.0315818786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1949853897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9858369827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2618589401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1814184188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6987676620483</t>
   </si>
   <si>
     <t xml:space="preserve">11.2216386795044</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5434064865112</t>
+    <t xml:space="preserve">11.5434074401855</t>
   </si>
   <si>
     <t xml:space="preserve">12.227162361145</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7098140716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.347825050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0662784576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4684886932373</t>
+    <t xml:space="preserve">12.709813117981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3478260040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0662775039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.468487739563</t>
   </si>
   <si>
     <t xml:space="preserve">12.5087089538574</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2673845291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9053945541382</t>
+    <t xml:space="preserve">12.2673826217651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9053955078125</t>
   </si>
   <si>
     <t xml:space="preserve">12.1467208862305</t>
@@ -1817,10 +1814,10 @@
     <t xml:space="preserve">12.0260581970215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.704291343689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8249521255493</t>
+    <t xml:space="preserve">11.7042903900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8249530792236</t>
   </si>
   <si>
     <t xml:space="preserve">12.1869411468506</t>
@@ -1835,31 +1832,31 @@
     <t xml:space="preserve">10.9803133010864</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0607566833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6640701293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6695928573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8304758071899</t>
+    <t xml:space="preserve">11.060754776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6640691757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6695919036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8304767608643</t>
   </si>
   <si>
     <t xml:space="preserve">14.6001958847046</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6425151824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5578784942627</t>
+    <t xml:space="preserve">14.6425161361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5578775405884</t>
   </si>
   <si>
     <t xml:space="preserve">14.388599395752</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3462800979614</t>
+    <t xml:space="preserve">14.3462810516357</t>
   </si>
   <si>
     <t xml:space="preserve">14.7271547317505</t>
@@ -1871,40 +1868,40 @@
     <t xml:space="preserve">14.8117933273315</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9230871200562</t>
+    <t xml:space="preserve">13.9230861663818</t>
   </si>
   <si>
     <t xml:space="preserve">14.0500450134277</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0077247619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2616424560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4732389450073</t>
+    <t xml:space="preserve">14.0077238082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2616415023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.473237991333</t>
   </si>
   <si>
     <t xml:space="preserve">15.065710067749</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3196258544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2349891662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8541107177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9387502670288</t>
+    <t xml:space="preserve">15.3196277618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2349901199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8541126251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9387512207031</t>
   </si>
   <si>
     <t xml:space="preserve">14.0923633575439</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9654054641724</t>
+    <t xml:space="preserve">13.9654064178467</t>
   </si>
   <si>
     <t xml:space="preserve">14.1346845626831</t>
@@ -1913,34 +1910,34 @@
     <t xml:space="preserve">14.4309186935425</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7694759368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5155582427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6848363876343</t>
+    <t xml:space="preserve">14.769476890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5155572891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6848373413086</t>
   </si>
   <si>
     <t xml:space="preserve">14.3039598464966</t>
   </si>
   <si>
-    <t xml:space="preserve">13.880765914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7114896774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6001968383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8384485244751</t>
+    <t xml:space="preserve">13.8807668685913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7114906311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6001977920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8384475708008</t>
   </si>
   <si>
     <t xml:space="preserve">14.2193222045898</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5422124862671</t>
+    <t xml:space="preserve">13.5422115325928</t>
   </si>
   <si>
     <t xml:space="preserve">13.6268510818481</t>
@@ -1949,7 +1946,7 @@
     <t xml:space="preserve">13.7538080215454</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5845308303833</t>
+    <t xml:space="preserve">13.584529876709</t>
   </si>
   <si>
     <t xml:space="preserve">12.9497394561768</t>
@@ -1979,7 +1976,7 @@
     <t xml:space="preserve">15.9967374801636</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6738471984863</t>
+    <t xml:space="preserve">16.6738510131836</t>
   </si>
   <si>
     <t xml:space="preserve">16.5045700073242</t>
@@ -1988,34 +1985,34 @@
     <t xml:space="preserve">16.0813770294189</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2506542205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.166015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.869779586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9544191360474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9120979309082</t>
+    <t xml:space="preserve">16.2506561279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1660175323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8697776794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9544172286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9120960235596</t>
   </si>
   <si>
     <t xml:space="preserve">16.3352909088135</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7851400375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7428207397461</t>
+    <t xml:space="preserve">15.7851409912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7428226470947</t>
   </si>
   <si>
     <t xml:space="preserve">16.0390586853027</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9277648925781</t>
+    <t xml:space="preserve">16.9277629852295</t>
   </si>
   <si>
     <t xml:space="preserve">16.758487701416</t>
@@ -2024,10 +2021,10 @@
     <t xml:space="preserve">17.4355964660645</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3666248321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7741546630859</t>
+    <t xml:space="preserve">18.3666229248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7741527557373</t>
   </si>
   <si>
     <t xml:space="preserve">18.0280685424805</t>
@@ -2042,7 +2039,7 @@
     <t xml:space="preserve">17.0970420837402</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2663192749023</t>
+    <t xml:space="preserve">17.266321182251</t>
   </si>
   <si>
     <t xml:space="preserve">17.1816806793213</t>
@@ -2060,28 +2057,28 @@
     <t xml:space="preserve">17.8587913513184</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1127071380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1973457336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6205406188965</t>
+    <t xml:space="preserve">18.1127090454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1973476409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6205425262451</t>
   </si>
   <si>
     <t xml:space="preserve">18.7051811218262</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6048736572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5359039306641</t>
+    <t xml:space="preserve">17.6048755645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5359020233154</t>
   </si>
   <si>
     <t xml:space="preserve">18.7898197174072</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8744564056396</t>
+    <t xml:space="preserve">18.874454498291</t>
   </si>
   <si>
     <t xml:space="preserve">19.0437335968018</t>
@@ -2090,7 +2087,7 @@
     <t xml:space="preserve">19.8901233673096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5515670776367</t>
+    <t xml:space="preserve">19.5515689849854</t>
   </si>
   <si>
     <t xml:space="preserve">19.3822898864746</t>
@@ -2099,22 +2096,25 @@
     <t xml:space="preserve">19.8054847717285</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2976531982422</t>
+    <t xml:space="preserve">19.2976512908936</t>
   </si>
   <si>
     <t xml:space="preserve">19.6362075805664</t>
   </si>
   <si>
+    <t xml:space="preserve">19.4669284820557</t>
+  </si>
+  <si>
     <t xml:space="preserve">19.9747619628906</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0594005584717</t>
+    <t xml:space="preserve">20.0594024658203</t>
   </si>
   <si>
     <t xml:space="preserve">20.1440391540527</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7208461761475</t>
+    <t xml:space="preserve">19.7208442687988</t>
   </si>
   <si>
     <t xml:space="preserve">20.6518726348877</t>
@@ -28957,7 +28957,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G980" t="s">
-        <v>538</v>
+        <v>487</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28983,7 +28983,7 @@
         <v>23</v>
       </c>
       <c r="G981" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -29009,7 +29009,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G982" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -29035,7 +29035,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G983" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -29061,7 +29061,7 @@
         <v>24</v>
       </c>
       <c r="G984" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -29113,7 +29113,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G986" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29139,7 +29139,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G987" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -29165,7 +29165,7 @@
         <v>24</v>
       </c>
       <c r="G988" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -29191,7 +29191,7 @@
         <v>24</v>
       </c>
       <c r="G989" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -29217,7 +29217,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G990" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -29243,7 +29243,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G991" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -29269,7 +29269,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -29295,7 +29295,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G993" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -29321,7 +29321,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G994" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -29347,7 +29347,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G995" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -29373,7 +29373,7 @@
         <v>24.5</v>
       </c>
       <c r="G996" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29399,7 +29399,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G997" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29425,7 +29425,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G998" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29451,7 +29451,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29477,7 +29477,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29503,7 +29503,7 @@
         <v>23.25</v>
       </c>
       <c r="G1001" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29529,7 +29529,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1002" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29555,7 +29555,7 @@
         <v>23.5</v>
       </c>
       <c r="G1003" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29607,7 +29607,7 @@
         <v>23.75</v>
       </c>
       <c r="G1005" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29633,7 +29633,7 @@
         <v>23.75</v>
       </c>
       <c r="G1006" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -29659,7 +29659,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1007" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -29685,7 +29685,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1008" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -29711,7 +29711,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1009" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -29737,7 +29737,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -29763,7 +29763,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1011" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -29815,7 +29815,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1013" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -29841,7 +29841,7 @@
         <v>24.25</v>
       </c>
       <c r="G1014" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -29867,7 +29867,7 @@
         <v>24</v>
       </c>
       <c r="G1015" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -29893,7 +29893,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1016" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -29919,7 +29919,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1017" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -29945,7 +29945,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1018" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -29971,7 +29971,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1019" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -29997,7 +29997,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1020" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -30023,7 +30023,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1021" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30049,7 +30049,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1022" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -30075,7 +30075,7 @@
         <v>23.5</v>
       </c>
       <c r="G1023" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30101,7 +30101,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1024" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -30127,7 +30127,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30153,7 +30153,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1026" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -30179,7 +30179,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1027" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -30205,7 +30205,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1028" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -30231,7 +30231,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1029" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -30257,7 +30257,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1030" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -30283,7 +30283,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1031" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -30309,7 +30309,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1032" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -30335,7 +30335,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1033" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -30361,7 +30361,7 @@
         <v>22.75</v>
       </c>
       <c r="G1034" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30387,7 +30387,7 @@
         <v>23.25</v>
       </c>
       <c r="G1035" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30413,7 +30413,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1036" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30439,7 +30439,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1037" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30465,7 +30465,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1038" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30491,7 +30491,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1039" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30517,7 +30517,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1040" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30543,7 +30543,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30569,7 +30569,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1042" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30595,7 +30595,7 @@
         <v>23.75</v>
       </c>
       <c r="G1043" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30621,7 +30621,7 @@
         <v>23.75</v>
       </c>
       <c r="G1044" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -30647,7 +30647,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1045" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -30673,7 +30673,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1046" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -30699,7 +30699,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1047" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -30725,7 +30725,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -30751,7 +30751,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -30777,7 +30777,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -30803,7 +30803,7 @@
         <v>23.25</v>
       </c>
       <c r="G1051" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -30829,7 +30829,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1052" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -30881,7 +30881,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1054" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -30907,7 +30907,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1055" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -30933,7 +30933,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1056" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -30959,7 +30959,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1057" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -31141,7 +31141,7 @@
         <v>19.5</v>
       </c>
       <c r="G1064" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31167,7 +31167,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1065" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -31193,7 +31193,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G1066" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -31219,7 +31219,7 @@
         <v>18</v>
       </c>
       <c r="G1067" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -31245,7 +31245,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1068" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -31271,7 +31271,7 @@
         <v>17</v>
       </c>
       <c r="G1069" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -31297,7 +31297,7 @@
         <v>17</v>
       </c>
       <c r="G1070" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31323,7 +31323,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1071" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -31349,7 +31349,7 @@
         <v>17.5</v>
       </c>
       <c r="G1072" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31375,7 +31375,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1073" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31401,7 +31401,7 @@
         <v>16.9799995422363</v>
       </c>
       <c r="G1074" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31427,7 +31427,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1075" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31453,7 +31453,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1076" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31479,7 +31479,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1077" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31505,7 +31505,7 @@
         <v>15.1599998474121</v>
       </c>
       <c r="G1078" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31531,7 +31531,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1079" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31557,7 +31557,7 @@
         <v>14</v>
       </c>
       <c r="G1080" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31583,7 +31583,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1081" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31609,7 +31609,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1082" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31635,7 +31635,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1083" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -31661,7 +31661,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1084" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -31687,7 +31687,7 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G1085" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -31713,7 +31713,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1086" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -31739,7 +31739,7 @@
         <v>15.8000001907349</v>
       </c>
       <c r="G1087" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -31765,7 +31765,7 @@
         <v>15.3500003814697</v>
       </c>
       <c r="G1088" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -31791,7 +31791,7 @@
         <v>15</v>
       </c>
       <c r="G1089" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -31817,7 +31817,7 @@
         <v>15.5</v>
       </c>
       <c r="G1090" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -31843,7 +31843,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1091" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -31869,7 +31869,7 @@
         <v>15.25</v>
       </c>
       <c r="G1092" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -31895,7 +31895,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1093" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -31921,7 +31921,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1094" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -31947,7 +31947,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1095" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -31973,7 +31973,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1096" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -31999,7 +31999,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1097" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -32025,7 +32025,7 @@
         <v>15</v>
       </c>
       <c r="G1098" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -32051,7 +32051,7 @@
         <v>14.9499998092651</v>
       </c>
       <c r="G1099" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -32077,7 +32077,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G1100" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -32103,7 +32103,7 @@
         <v>15</v>
       </c>
       <c r="G1101" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -32129,7 +32129,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1102" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -32155,7 +32155,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1103" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -32181,7 +32181,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1104" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32207,7 +32207,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1105" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -32233,7 +32233,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1106" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -32259,7 +32259,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1107" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -32285,7 +32285,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1108" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -32311,7 +32311,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1109" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -32337,7 +32337,7 @@
         <v>13.75</v>
       </c>
       <c r="G1110" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -32363,7 +32363,7 @@
         <v>14</v>
       </c>
       <c r="G1111" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32389,7 +32389,7 @@
         <v>14</v>
       </c>
       <c r="G1112" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32415,7 +32415,7 @@
         <v>14.5</v>
       </c>
       <c r="G1113" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32441,7 +32441,7 @@
         <v>14.6999998092651</v>
       </c>
       <c r="G1114" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32467,7 +32467,7 @@
         <v>15</v>
       </c>
       <c r="G1115" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32493,7 +32493,7 @@
         <v>15.75</v>
       </c>
       <c r="G1116" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32519,7 +32519,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1117" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32545,7 +32545,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1118" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32571,7 +32571,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G1119" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32597,7 +32597,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1120" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32623,7 +32623,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1121" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -32649,7 +32649,7 @@
         <v>17</v>
       </c>
       <c r="G1122" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -32675,7 +32675,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1123" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -32701,7 +32701,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1124" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -32727,7 +32727,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G1125" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -32753,7 +32753,7 @@
         <v>17.5</v>
       </c>
       <c r="G1126" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -32779,7 +32779,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1127" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -32805,7 +32805,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1128" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -32831,7 +32831,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -32857,7 +32857,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1130" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -32883,7 +32883,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1131" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -32909,7 +32909,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1132" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -32935,7 +32935,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1133" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -32961,7 +32961,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1134" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -32987,7 +32987,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1135" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -33013,7 +33013,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G1136" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -33039,7 +33039,7 @@
         <v>18</v>
       </c>
       <c r="G1137" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -33065,7 +33065,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -33091,7 +33091,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G1139" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -33117,7 +33117,7 @@
         <v>17.5</v>
       </c>
       <c r="G1140" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -33143,7 +33143,7 @@
         <v>17</v>
       </c>
       <c r="G1141" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -33169,7 +33169,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1142" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -33195,7 +33195,7 @@
         <v>16.5</v>
       </c>
       <c r="G1143" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -33221,7 +33221,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1144" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -33247,7 +33247,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1145" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -33273,7 +33273,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G1146" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -33299,7 +33299,7 @@
         <v>17.5</v>
       </c>
       <c r="G1147" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -33325,7 +33325,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G1148" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -33351,7 +33351,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33377,7 +33377,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1150" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33403,7 +33403,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1151" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33429,7 +33429,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1152" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33455,7 +33455,7 @@
         <v>17.5</v>
       </c>
       <c r="G1153" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33481,7 +33481,7 @@
         <v>17</v>
       </c>
       <c r="G1154" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33507,7 +33507,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1155" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33533,7 +33533,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1156" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33559,7 +33559,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1157" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33585,7 +33585,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1158" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33611,7 +33611,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1159" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33637,7 +33637,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1160" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -33663,7 +33663,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1161" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -33689,7 +33689,7 @@
         <v>16.5</v>
       </c>
       <c r="G1162" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -33715,7 +33715,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1163" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -33741,7 +33741,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1164" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -33767,7 +33767,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1165" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -33793,7 +33793,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1166" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -33819,7 +33819,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1167" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -33845,7 +33845,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G1168" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -33871,7 +33871,7 @@
         <v>17.25</v>
       </c>
       <c r="G1169" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -33897,7 +33897,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1170" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -33923,7 +33923,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1171" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -33949,7 +33949,7 @@
         <v>17</v>
       </c>
       <c r="G1172" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -33975,7 +33975,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1173" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -34001,7 +34001,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1174" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -34027,7 +34027,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1175" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -34053,7 +34053,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -34079,7 +34079,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1177" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -34105,7 +34105,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1178" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -34131,7 +34131,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1179" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -34157,7 +34157,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1180" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -34183,7 +34183,7 @@
         <v>17</v>
       </c>
       <c r="G1181" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -34209,7 +34209,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1182" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -34235,7 +34235,7 @@
         <v>17</v>
       </c>
       <c r="G1183" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -34261,7 +34261,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1184" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -34287,7 +34287,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1185" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -34313,7 +34313,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1186" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -34339,7 +34339,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1187" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34365,7 +34365,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1188" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34391,7 +34391,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34417,7 +34417,7 @@
         <v>17.25</v>
       </c>
       <c r="G1190" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34443,7 +34443,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1191" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34469,7 +34469,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1192" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34495,7 +34495,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1193" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34521,7 +34521,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1194" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34547,7 +34547,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G1195" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34573,7 +34573,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G1196" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34599,7 +34599,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1197" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34625,7 +34625,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1198" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -34651,7 +34651,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1199" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34677,7 +34677,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1200" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -34703,7 +34703,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -34729,7 +34729,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G1202" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -34755,7 +34755,7 @@
         <v>16.5499992370605</v>
       </c>
       <c r="G1203" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -34781,7 +34781,7 @@
         <v>16</v>
       </c>
       <c r="G1204" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -34807,7 +34807,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1205" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -34833,7 +34833,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1206" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -34859,7 +34859,7 @@
         <v>16</v>
       </c>
       <c r="G1207" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -34885,7 +34885,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1208" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -34911,7 +34911,7 @@
         <v>16.25</v>
       </c>
       <c r="G1209" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -34937,7 +34937,7 @@
         <v>16.5</v>
       </c>
       <c r="G1210" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -34963,7 +34963,7 @@
         <v>16.5</v>
       </c>
       <c r="G1211" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -34989,7 +34989,7 @@
         <v>17.25</v>
       </c>
       <c r="G1212" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -35015,7 +35015,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G1213" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -35041,7 +35041,7 @@
         <v>17</v>
       </c>
       <c r="G1214" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -35067,7 +35067,7 @@
         <v>17.25</v>
       </c>
       <c r="G1215" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -35093,7 +35093,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1216" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -35119,7 +35119,7 @@
         <v>17</v>
       </c>
       <c r="G1217" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -35145,7 +35145,7 @@
         <v>17</v>
       </c>
       <c r="G1218" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -35171,7 +35171,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1219" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -35197,7 +35197,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -35223,7 +35223,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1221" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -35249,7 +35249,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1222" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -35275,7 +35275,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1223" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -35301,7 +35301,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1224" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -35327,7 +35327,7 @@
         <v>16</v>
       </c>
       <c r="G1225" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -35353,7 +35353,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1226" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35379,7 +35379,7 @@
         <v>15.3000001907349</v>
       </c>
       <c r="G1227" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35405,7 +35405,7 @@
         <v>15.75</v>
       </c>
       <c r="G1228" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35431,7 +35431,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1229" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35457,7 +35457,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G1230" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35483,7 +35483,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1231" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35509,7 +35509,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1232" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35535,7 +35535,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G1233" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35561,7 +35561,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G1234" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35587,7 +35587,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G1235" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35613,7 +35613,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35639,7 +35639,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1237" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -35665,7 +35665,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G1238" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -35691,7 +35691,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1239" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -35717,7 +35717,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1240" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -35743,7 +35743,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1241" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -35769,7 +35769,7 @@
         <v>19.5</v>
       </c>
       <c r="G1242" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -35795,7 +35795,7 @@
         <v>19</v>
       </c>
       <c r="G1243" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -35821,7 +35821,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1244" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -35847,7 +35847,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1245" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -35873,7 +35873,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1246" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -35899,7 +35899,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1247" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -35925,7 +35925,7 @@
         <v>18.75</v>
       </c>
       <c r="G1248" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -35951,7 +35951,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1249" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -35977,7 +35977,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1250" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -36003,7 +36003,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1251" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -36029,7 +36029,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -36055,7 +36055,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1253" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -36081,7 +36081,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -36107,7 +36107,7 @@
         <v>18.7000007629395</v>
       </c>
       <c r="G1255" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -36133,7 +36133,7 @@
         <v>19</v>
       </c>
       <c r="G1256" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -36159,7 +36159,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1257" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -36185,7 +36185,7 @@
         <v>19</v>
       </c>
       <c r="G1258" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -36211,7 +36211,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1259" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -36237,7 +36237,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1260" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -36263,7 +36263,7 @@
         <v>19</v>
       </c>
       <c r="G1261" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -36289,7 +36289,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G1262" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -36315,7 +36315,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1263" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -36341,7 +36341,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G1264" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -36367,7 +36367,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G1265" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36393,7 +36393,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1266" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36419,7 +36419,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G1267" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36445,7 +36445,7 @@
         <v>18.75</v>
       </c>
       <c r="G1268" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36471,7 +36471,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1269" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36497,7 +36497,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1270" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36523,7 +36523,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G1271" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36549,7 +36549,7 @@
         <v>19</v>
       </c>
       <c r="G1272" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36575,7 +36575,7 @@
         <v>20</v>
       </c>
       <c r="G1273" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36601,7 +36601,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G1274" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36627,7 +36627,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1275" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -36653,7 +36653,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1276" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -36679,7 +36679,7 @@
         <v>21</v>
       </c>
       <c r="G1277" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -36705,7 +36705,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1278" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -36731,7 +36731,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1279" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -36757,7 +36757,7 @@
         <v>20</v>
       </c>
       <c r="G1280" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -36783,7 +36783,7 @@
         <v>19.8500003814697</v>
       </c>
       <c r="G1281" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -36809,7 +36809,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1282" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -36835,7 +36835,7 @@
         <v>20</v>
       </c>
       <c r="G1283" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -36861,7 +36861,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1284" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -36887,7 +36887,7 @@
         <v>20</v>
       </c>
       <c r="G1285" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -36913,7 +36913,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1286" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -36939,7 +36939,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1287" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -36965,7 +36965,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1288" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -36991,7 +36991,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1289" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -37017,7 +37017,7 @@
         <v>20</v>
       </c>
       <c r="G1290" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -37043,7 +37043,7 @@
         <v>20</v>
       </c>
       <c r="G1291" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -37069,7 +37069,7 @@
         <v>20.5</v>
       </c>
       <c r="G1292" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -37095,7 +37095,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1293" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -37121,7 +37121,7 @@
         <v>21</v>
       </c>
       <c r="G1294" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -37147,7 +37147,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1295" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -37173,7 +37173,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1296" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -37199,7 +37199,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1297" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -37225,7 +37225,7 @@
         <v>21.5</v>
       </c>
       <c r="G1298" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -37251,7 +37251,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1299" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -37277,7 +37277,7 @@
         <v>22</v>
       </c>
       <c r="G1300" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -37303,7 +37303,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1301" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -37329,7 +37329,7 @@
         <v>22</v>
       </c>
       <c r="G1302" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -37355,7 +37355,7 @@
         <v>21.5</v>
       </c>
       <c r="G1303" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37381,7 +37381,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1304" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37407,7 +37407,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1305" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37433,7 +37433,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1306" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37459,7 +37459,7 @@
         <v>21</v>
       </c>
       <c r="G1307" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37485,7 +37485,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1308" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37511,7 +37511,7 @@
         <v>21</v>
       </c>
       <c r="G1309" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37537,7 +37537,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1310" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37563,7 +37563,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1311" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37589,7 +37589,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1312" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37615,7 +37615,7 @@
         <v>21.5</v>
       </c>
       <c r="G1313" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37641,7 +37641,7 @@
         <v>21.5</v>
       </c>
       <c r="G1314" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -37667,7 +37667,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1315" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -37693,7 +37693,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1316" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -37719,7 +37719,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1317" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -37745,7 +37745,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1318" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -37771,7 +37771,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1319" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -37797,7 +37797,7 @@
         <v>22.5</v>
       </c>
       <c r="G1320" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -37823,7 +37823,7 @@
         <v>23.5</v>
       </c>
       <c r="G1321" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -37849,7 +37849,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1322" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -37875,7 +37875,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1323" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -37901,7 +37901,7 @@
         <v>23.5</v>
       </c>
       <c r="G1324" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -37927,7 +37927,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1325" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -37953,7 +37953,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1326" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -37979,7 +37979,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1327" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -38005,7 +38005,7 @@
         <v>23</v>
       </c>
       <c r="G1328" t="s">
-        <v>548</v>
+        <v>696</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -38031,7 +38031,7 @@
         <v>23.5</v>
       </c>
       <c r="G1329" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -38057,7 +38057,7 @@
         <v>23.5</v>
       </c>
       <c r="G1330" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -38083,7 +38083,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1331" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -38109,7 +38109,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1332" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -38135,7 +38135,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1333" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -38161,7 +38161,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1334" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -38187,7 +38187,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1335" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -38213,7 +38213,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1336" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -38239,7 +38239,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1337" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -38265,7 +38265,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1338" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -38291,7 +38291,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1339" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -38317,7 +38317,7 @@
         <v>23.5</v>
       </c>
       <c r="G1340" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -38447,7 +38447,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1345" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38551,7 +38551,7 @@
         <v>23.5</v>
       </c>
       <c r="G1349" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38681,7 +38681,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1354" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -38707,7 +38707,7 @@
         <v>23</v>
       </c>
       <c r="G1355" t="s">
-        <v>548</v>
+        <v>696</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -38733,7 +38733,7 @@
         <v>23</v>
       </c>
       <c r="G1356" t="s">
-        <v>548</v>
+        <v>696</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -38759,7 +38759,7 @@
         <v>23</v>
       </c>
       <c r="G1357" t="s">
-        <v>548</v>
+        <v>696</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -38785,7 +38785,7 @@
         <v>23</v>
       </c>
       <c r="G1358" t="s">
-        <v>548</v>
+        <v>696</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -38837,7 +38837,7 @@
         <v>23</v>
       </c>
       <c r="G1360" t="s">
-        <v>548</v>
+        <v>696</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -60841,7 +60841,7 @@
     </row>
     <row r="2207">
       <c r="A2207" s="1" t="n">
-        <v>45537.6493634259</v>
+        <v>45537.2916666667</v>
       </c>
       <c r="B2207" t="n">
         <v>5584</v>
@@ -60862,6 +60862,32 @@
         <v>1010</v>
       </c>
       <c r="H2207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" s="1" t="n">
+        <v>45538.649537037</v>
+      </c>
+      <c r="B2208" t="n">
+        <v>5817</v>
+      </c>
+      <c r="C2208" t="n">
+        <v>39.3499984741211</v>
+      </c>
+      <c r="D2208" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E2208" t="n">
+        <v>38.9000015258789</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>38.7000007629395</v>
+      </c>
+      <c r="G2208" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H2208" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CMB.MI.xlsx
+++ b/data/CMB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="1050">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,22 +47,22 @@
     <t xml:space="preserve">9.91149234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65968132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75061416625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75760841369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79258060455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70864486694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47782230377197</t>
+    <t xml:space="preserve">9.65968322753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75061511993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75760936737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79258251190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70864582061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47782039642334</t>
   </si>
   <si>
     <t xml:space="preserve">9.66667747497559</t>
@@ -71,19 +71,19 @@
     <t xml:space="preserve">9.61072063446045</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68766307830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61771583557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53377914428711</t>
+    <t xml:space="preserve">9.68766212463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61771488189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53377819061279</t>
   </si>
   <si>
     <t xml:space="preserve">9.54077243804932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44284725189209</t>
+    <t xml:space="preserve">9.44284629821777</t>
   </si>
   <si>
     <t xml:space="preserve">9.17005348205566</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">9.1770486831665</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67342853546143</t>
+    <t xml:space="preserve">8.67343044281006</t>
   </si>
   <si>
     <t xml:space="preserve">8.63845634460449</t>
@@ -104,19 +104,19 @@
     <t xml:space="preserve">8.93922901153564</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76436233520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74337577819824</t>
+    <t xml:space="preserve">8.76436138153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74337768554688</t>
   </si>
   <si>
     <t xml:space="preserve">8.95321750640869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12808704376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56875228881836</t>
+    <t xml:space="preserve">9.12808609008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56875133514404</t>
   </si>
   <si>
     <t xml:space="preserve">9.60372543334961</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">9.40787410736084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20502758026123</t>
+    <t xml:space="preserve">9.20502853393555</t>
   </si>
   <si>
     <t xml:space="preserve">9.30295276641846</t>
@@ -143,13 +143,13 @@
     <t xml:space="preserve">9.14207458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33093166351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34492206573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23300552368164</t>
+    <t xml:space="preserve">9.33093357086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34492111206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23300457000732</t>
   </si>
   <si>
     <t xml:space="preserve">9.30994892120361</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">9.52678298950195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51279354095459</t>
+    <t xml:space="preserve">9.51279544830322</t>
   </si>
   <si>
     <t xml:space="preserve">9.47082614898682</t>
@@ -170,25 +170,25 @@
     <t xml:space="preserve">9.59673118591309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49880504608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42186450958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50580024719238</t>
+    <t xml:space="preserve">9.49880409240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42186260223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50579929351807</t>
   </si>
   <si>
     <t xml:space="preserve">9.31694221496582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11409568786621</t>
+    <t xml:space="preserve">9.11409473419189</t>
   </si>
   <si>
     <t xml:space="preserve">9.10710144042969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46383094787598</t>
+    <t xml:space="preserve">9.46382999420166</t>
   </si>
   <si>
     <t xml:space="preserve">9.37290000915527</t>
@@ -197,40 +197,40 @@
     <t xml:space="preserve">9.554762840271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3798942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43585205078125</t>
+    <t xml:space="preserve">9.37989521026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43585300445557</t>
   </si>
   <si>
     <t xml:space="preserve">9.54776763916016</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72962951660156</t>
+    <t xml:space="preserve">9.72963047027588</t>
   </si>
   <si>
     <t xml:space="preserve">9.63170433044434</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5634708404541</t>
+    <t xml:space="preserve">9.56347179412842</t>
   </si>
   <si>
     <t xml:space="preserve">9.57071113586426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53451347351074</t>
+    <t xml:space="preserve">9.53451442718506</t>
   </si>
   <si>
     <t xml:space="preserve">9.70102310180664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75893878936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8747730255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8458137512207</t>
+    <t xml:space="preserve">9.75893974304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87477207183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84581565856934</t>
   </si>
   <si>
     <t xml:space="preserve">9.73722076416016</t>
@@ -239,31 +239,31 @@
     <t xml:space="preserve">10.3163871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1281585693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1353969573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0268058776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1933135986328</t>
+    <t xml:space="preserve">10.1281595230103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1353979110718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0268039703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1933145523071</t>
   </si>
   <si>
     <t xml:space="preserve">10.1136798858643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92545127868652</t>
+    <t xml:space="preserve">9.92545032501221</t>
   </si>
   <si>
     <t xml:space="preserve">9.93268966674805</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91097068786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83133602142334</t>
+    <t xml:space="preserve">9.91097164154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83133506774902</t>
   </si>
   <si>
     <t xml:space="preserve">9.77341747283936</t>
@@ -272,16 +272,16 @@
     <t xml:space="preserve">9.74446105957031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76617908477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6937837600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9399299621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98336696624756</t>
+    <t xml:space="preserve">9.76618003845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69378471374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93992900848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98336601257324</t>
   </si>
   <si>
     <t xml:space="preserve">9.9906063079834</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">9.83857536315918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94716739654541</t>
+    <t xml:space="preserve">9.94716930389404</t>
   </si>
   <si>
     <t xml:space="preserve">9.91821002960205</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">9.65034580230713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62862682342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54899215698242</t>
+    <t xml:space="preserve">9.62862777709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54899120330811</t>
   </si>
   <si>
     <t xml:space="preserve">9.62138843536377</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">9.7082633972168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63586711883545</t>
+    <t xml:space="preserve">9.63586807250977</t>
   </si>
   <si>
     <t xml:space="preserve">9.64310646057129</t>
@@ -335,25 +335,25 @@
     <t xml:space="preserve">9.82409477233887</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88201332092285</t>
+    <t xml:space="preserve">9.88201236724854</t>
   </si>
   <si>
     <t xml:space="preserve">9.8602933883667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79513740539551</t>
+    <t xml:space="preserve">9.79513645172119</t>
   </si>
   <si>
     <t xml:space="preserve">9.85305500030518</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67930507659912</t>
+    <t xml:space="preserve">9.67930316925049</t>
   </si>
   <si>
     <t xml:space="preserve">9.67206478118896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47659683227539</t>
+    <t xml:space="preserve">9.47659778594971</t>
   </si>
   <si>
     <t xml:space="preserve">9.48383712768555</t>
@@ -362,28 +362,28 @@
     <t xml:space="preserve">9.49107551574707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44763946533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37524318695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25940990447998</t>
+    <t xml:space="preserve">9.4476375579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37524223327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2594108581543</t>
   </si>
   <si>
     <t xml:space="preserve">9.34628391265869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4114408493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31008720397949</t>
+    <t xml:space="preserve">9.41143989562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31008625030518</t>
   </si>
   <si>
     <t xml:space="preserve">9.19425296783447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17977333068848</t>
+    <t xml:space="preserve">9.17977523803711</t>
   </si>
   <si>
     <t xml:space="preserve">9.2666482925415</t>
@@ -404,154 +404,154 @@
     <t xml:space="preserve">9.24493026733398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20873355865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13633632659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91915035247803</t>
+    <t xml:space="preserve">9.20873260498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1363353729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91914844512939</t>
   </si>
   <si>
     <t xml:space="preserve">8.8829517364502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14357566833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16529560089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2304515838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33180618286133</t>
+    <t xml:space="preserve">9.14357662200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1652946472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23045063018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3318042755127</t>
   </si>
   <si>
     <t xml:space="preserve">9.15805530548096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29560661315918</t>
+    <t xml:space="preserve">9.2956075668335</t>
   </si>
   <si>
     <t xml:space="preserve">9.42591953277588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38248157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43315887451172</t>
+    <t xml:space="preserve">9.38248252868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4331579208374</t>
   </si>
   <si>
     <t xml:space="preserve">10.0195636749268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0050849914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0630016326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1571168899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2946681976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3525848388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4249801635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.801438331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5697717666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6276884078979</t>
+    <t xml:space="preserve">10.0050840377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0630006790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1571159362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2946691513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3525857925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4249792098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8014392852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5697727203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6276874542236</t>
   </si>
   <si>
     <t xml:space="preserve">10.5263347625732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5118551254272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6494064331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7797183990479</t>
+    <t xml:space="preserve">10.5118560791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6494054794312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7797193527222</t>
   </si>
   <si>
     <t xml:space="preserve">10.9317502975464</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9824266433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8738346099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0258646011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7435216903687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3598251342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3236274719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4756565093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.859354019165</t>
+    <t xml:space="preserve">10.9824285507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.873833656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0258636474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7435207366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.359824180603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3236265182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.475658416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8593549728394</t>
   </si>
   <si>
     <t xml:space="preserve">10.7724800109863</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9389905929565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.729043006897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8665933609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7869567871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8231554031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7580013275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7507619857788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7218036651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6638860702515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7652397155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0041456222534</t>
+    <t xml:space="preserve">10.9389896392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7290420532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8665943145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.786958694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8231573104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7580003738403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7507610321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7218027114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6638851165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7652406692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0041465759277</t>
   </si>
   <si>
     <t xml:space="preserve">10.9462299346924</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0910205841064</t>
+    <t xml:space="preserve">11.0910196304321</t>
   </si>
   <si>
     <t xml:space="preserve">11.5036764144897</t>
@@ -560,208 +560,208 @@
     <t xml:space="preserve">11.4529991149902</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4457607269287</t>
+    <t xml:space="preserve">11.4457597732544</t>
   </si>
   <si>
     <t xml:space="preserve">11.4747180938721</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4964370727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7787799835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9452896118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5389347076416</t>
+    <t xml:space="preserve">11.4964361190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7787790298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9452877044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5389356613159</t>
   </si>
   <si>
     <t xml:space="preserve">12.4448213577271</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5172176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5534152984619</t>
+    <t xml:space="preserve">12.5172166824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5534133911133</t>
   </si>
   <si>
     <t xml:space="preserve">12.7416429519653</t>
   </si>
   <si>
-    <t xml:space="preserve">13.299090385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4583587646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4728403091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.740701675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5959119796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.610390663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3714838027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3932037353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3208074569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4438800811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.682785987854</t>
+    <t xml:space="preserve">13.2990894317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4583606719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4728393554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.740704536438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5959129333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6103887557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3714847564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3932056427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3208084106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4438810348511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6827850341797</t>
   </si>
   <si>
     <t xml:space="preserve">13.8927345275879</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4139833450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5008611679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4501810073853</t>
+    <t xml:space="preserve">14.4139842987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5008592605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4501800537109</t>
   </si>
   <si>
     <t xml:space="preserve">14.5442962646484</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5515336990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6601285934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5949726104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5225782394409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7390537261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8515653610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6715488433838</t>
+    <t xml:space="preserve">14.55153465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6601276397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.594970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.522575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7390556335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8515663146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6715469360352</t>
   </si>
   <si>
     <t xml:space="preserve">14.604040145874</t>
   </si>
   <si>
-    <t xml:space="preserve">14.514030456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1764936447144</t>
+    <t xml:space="preserve">14.5140295028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1764945983887</t>
   </si>
   <si>
     <t xml:space="preserve">14.8890705108643</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1914987564087</t>
+    <t xml:space="preserve">14.1914978027344</t>
   </si>
   <si>
     <t xml:space="preserve">14.5215320587158</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5065307617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7990598678589</t>
+    <t xml:space="preserve">14.5065288543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7990589141846</t>
   </si>
   <si>
     <t xml:space="preserve">14.8815698623657</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8740701675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8065614700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9640789031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1065940856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9016780853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4342346191406</t>
+    <t xml:space="preserve">14.8740692138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8065624237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9640779495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1065921783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9016742706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.434232711792</t>
   </si>
   <si>
     <t xml:space="preserve">16.3442230224609</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9316806793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7516632080078</t>
+    <t xml:space="preserve">15.9316816329956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7516622543335</t>
   </si>
   <si>
     <t xml:space="preserve">15.4741325378418</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1741008758545</t>
+    <t xml:space="preserve">15.1740999221802</t>
   </si>
   <si>
     <t xml:space="preserve">16.1417026519775</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8791742324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4816303253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6316509246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1267013549805</t>
+    <t xml:space="preserve">15.8791751861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.481632232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6316480636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1267032623291</t>
   </si>
   <si>
     <t xml:space="preserve">16.0291900634766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8341703414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7366580963135</t>
+    <t xml:space="preserve">15.8341684341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7366600036621</t>
   </si>
   <si>
     <t xml:space="preserve">15.3841218948364</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6991567611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6766519546509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5416402816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7141561508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5866432189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7741641998291</t>
+    <t xml:space="preserve">15.6991558074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6766548156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5416393280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7141580581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5866441726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7741632461548</t>
   </si>
   <si>
     <t xml:space="preserve">16.2467136383057</t>
@@ -770,106 +770,106 @@
     <t xml:space="preserve">16.2767162322998</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3517246246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.524242401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.636754989624</t>
+    <t xml:space="preserve">16.3517227172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5242443084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6367530822754</t>
   </si>
   <si>
     <t xml:space="preserve">16.5392436981201</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2242088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8491697311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.856671333313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8266706466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8941783905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8041677474976</t>
+    <t xml:space="preserve">16.2242107391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8491716384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8566722869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8266677856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8941774368286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8041667938232</t>
   </si>
   <si>
     <t xml:space="preserve">15.721658706665</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6166458129883</t>
+    <t xml:space="preserve">15.6166467666626</t>
   </si>
   <si>
     <t xml:space="preserve">15.7441596984863</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8116636276245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4516296386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4216251373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3766241073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5191373825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5266370773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2266044616699</t>
+    <t xml:space="preserve">15.8116674423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4516286849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4216270446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3766212463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.519136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5266389846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2266054153442</t>
   </si>
   <si>
     <t xml:space="preserve">15.3016147613525</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2416076660156</t>
+    <t xml:space="preserve">15.2416067123413</t>
   </si>
   <si>
     <t xml:space="preserve">15.444128036499</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0315856933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4066257476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1966037750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1515989303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3991260528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7591609954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9091739654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.006685256958</t>
+    <t xml:space="preserve">15.0315866470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4066247940063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1966047286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1515998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3991250991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.759162902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9091768264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0066909790039</t>
   </si>
   <si>
     <t xml:space="preserve">16.8692779541016</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6268577575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2269229888916</t>
+    <t xml:space="preserve">17.626859664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.226921081543</t>
   </si>
   <si>
     <t xml:space="preserve">19.382043838501</t>
@@ -878,19 +878,19 @@
     <t xml:space="preserve">19.0820121765137</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1270160675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8944931030273</t>
+    <t xml:space="preserve">19.1270179748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8944892883301</t>
   </si>
   <si>
     <t xml:space="preserve">18.7519779205322</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8644905090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6394672393799</t>
+    <t xml:space="preserve">18.8644924163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6394653320312</t>
   </si>
   <si>
     <t xml:space="preserve">18.6769695281982</t>
@@ -902,67 +902,67 @@
     <t xml:space="preserve">18.631965637207</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2944297790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4219417572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2569255828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2419242858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.189416885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1519165039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0319042205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9643936157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9268894195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6793651580811</t>
+    <t xml:space="preserve">18.2944278717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4219436645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2569274902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.24192237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1894187927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1519145965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0319023132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9643955230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9268913269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6793632507324</t>
   </si>
   <si>
     <t xml:space="preserve">17.904390335083</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7318687438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9718971252441</t>
+    <t xml:space="preserve">17.7318706512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9718952178955</t>
   </si>
   <si>
     <t xml:space="preserve">18.0018997192383</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0469055175781</t>
+    <t xml:space="preserve">18.0469017028809</t>
   </si>
   <si>
     <t xml:space="preserve">18.0244026184082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9343891143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9868965148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8068771362305</t>
+    <t xml:space="preserve">17.9343929290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9868984222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8068790435791</t>
   </si>
   <si>
     <t xml:space="preserve">17.2068157196045</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2443199157715</t>
+    <t xml:space="preserve">17.2443180084229</t>
   </si>
   <si>
     <t xml:space="preserve">17.5518531799316</t>
@@ -971,16 +971,16 @@
     <t xml:space="preserve">16.9517879486084</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2917194366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.711763381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.509241104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2317123413086</t>
+    <t xml:space="preserve">16.2917175292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7117614746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5092430114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.23171043396</t>
   </si>
   <si>
     <t xml:space="preserve">17.0868053436279</t>
@@ -989,34 +989,34 @@
     <t xml:space="preserve">16.9067840576172</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1918144226074</t>
+    <t xml:space="preserve">17.1918125152588</t>
   </si>
   <si>
     <t xml:space="preserve">17.1243057250977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1768131256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6667556762695</t>
+    <t xml:space="preserve">17.1768093109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6667594909668</t>
   </si>
   <si>
     <t xml:space="preserve">17.1393070220947</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0192947387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8092708587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4642391204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.846773147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0568008422852</t>
+    <t xml:space="preserve">17.0192966461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8092727661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4642372131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8467769622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0567989349365</t>
   </si>
   <si>
     <t xml:space="preserve">16.8017711639404</t>
@@ -1025,106 +1025,106 @@
     <t xml:space="preserve">16.4192295074463</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4492359161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4417343139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2092094421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.044189453125</t>
+    <t xml:space="preserve">16.4492378234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4417362213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2092113494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0441951751709</t>
   </si>
   <si>
     <t xml:space="preserve">16.0366916656494</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2017097473145</t>
+    <t xml:space="preserve">16.2017116546631</t>
   </si>
   <si>
     <t xml:space="preserve">16.5917510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8392772674561</t>
+    <t xml:space="preserve">16.8392753601074</t>
   </si>
   <si>
     <t xml:space="preserve">16.7642688751221</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8767795562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4018383026123</t>
+    <t xml:space="preserve">16.8767776489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4018363952637</t>
   </si>
   <si>
     <t xml:space="preserve">17.2518196105957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0642986297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.364330291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2143173217773</t>
+    <t xml:space="preserve">17.0643005371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3643321990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2143154144287</t>
   </si>
   <si>
     <t xml:space="preserve">17.3268280029297</t>
   </si>
   <si>
-    <t xml:space="preserve">17.476842880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6643600463867</t>
+    <t xml:space="preserve">17.4768447875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.664363861084</t>
   </si>
   <si>
     <t xml:space="preserve">17.8518829345703</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0769062042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.58935546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9892902374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5767478942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5017395019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3142204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9391803741455</t>
+    <t xml:space="preserve">18.076904296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5893573760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9892921447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5767498016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5017414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3142185211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9391784667969</t>
   </si>
   <si>
     <t xml:space="preserve">15.9766836166382</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0516910552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3892307281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2893238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.776876449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7393703460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.439338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7018661499023</t>
+    <t xml:space="preserve">16.0516929626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3892288208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2893257141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7768745422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.739372253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4393405914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.701868057251</t>
   </si>
   <si>
     <t xml:space="preserve">17.5143489837646</t>
@@ -1136,31 +1136,31 @@
     <t xml:space="preserve">18.3394355773926</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0394020080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8893890380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4144420623779</t>
+    <t xml:space="preserve">18.039400100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8893871307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4144401550293</t>
   </si>
   <si>
     <t xml:space="preserve">18.5644569396973</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2770328521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3520374298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7270793914795</t>
+    <t xml:space="preserve">19.2770347595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3520412445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7270812988281</t>
   </si>
   <si>
     <t xml:space="preserve">20.2686080932617</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9591617584229</t>
+    <t xml:space="preserve">19.9591636657715</t>
   </si>
   <si>
     <t xml:space="preserve">20.6554145812988</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">20.3459701538086</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8044414520264</t>
+    <t xml:space="preserve">19.804443359375</t>
   </si>
   <si>
     <t xml:space="preserve">19.5723571777344</t>
@@ -1193,43 +1193,43 @@
     <t xml:space="preserve">18.5666656494141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9477787017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4506244659424</t>
+    <t xml:space="preserve">17.9477767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4506225585938</t>
   </si>
   <si>
     <t xml:space="preserve">19.5336780548096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8818016052246</t>
+    <t xml:space="preserve">19.8818054199219</t>
   </si>
   <si>
     <t xml:space="preserve">20.1138858795166</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2299289703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5393733978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6167316436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4233322143555</t>
+    <t xml:space="preserve">20.2299270629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5393714904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6167335510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4233303070068</t>
   </si>
   <si>
     <t xml:space="preserve">20.0365257263184</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1081943511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8431224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0752067565918</t>
+    <t xml:space="preserve">19.1081924438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8431243896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0752048492432</t>
   </si>
   <si>
     <t xml:space="preserve">20.4620132446289</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">19.4176387786865</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6110401153564</t>
+    <t xml:space="preserve">19.6110382080078</t>
   </si>
   <si>
     <t xml:space="preserve">19.3402767181396</t>
@@ -1247,16 +1247,16 @@
     <t xml:space="preserve">19.2629146575928</t>
   </si>
   <si>
-    <t xml:space="preserve">19.224235534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6440258026123</t>
+    <t xml:space="preserve">19.2242336273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6440238952637</t>
   </si>
   <si>
     <t xml:space="preserve">18.7987461090088</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1468734741211</t>
+    <t xml:space="preserve">19.1468715667725</t>
   </si>
   <si>
     <t xml:space="preserve">19.45631980896</t>
@@ -1280,16 +1280,16 @@
     <t xml:space="preserve">19.9978466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7657604217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8374271392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6827049255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0695133209229</t>
+    <t xml:space="preserve">19.7657623291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8374290466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6827030181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0695114135742</t>
   </si>
   <si>
     <t xml:space="preserve">17.7930526733398</t>
@@ -1298,25 +1298,25 @@
     <t xml:space="preserve">16.7873592376709</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1684703826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7043018341064</t>
+    <t xml:space="preserve">16.1684722900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7043037414551</t>
   </si>
   <si>
     <t xml:space="preserve">15.5108995437622</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6326370239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1354827880859</t>
+    <t xml:space="preserve">16.6326389312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1354846954346</t>
   </si>
   <si>
     <t xml:space="preserve">16.2458324432373</t>
   </si>
   <si>
-    <t xml:space="preserve">15.665620803833</t>
+    <t xml:space="preserve">15.6656227111816</t>
   </si>
   <si>
     <t xml:space="preserve">15.5495824813843</t>
@@ -1325,16 +1325,16 @@
     <t xml:space="preserve">15.5882616043091</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3174991607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8997468948364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0544691085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1627759933472</t>
+    <t xml:space="preserve">15.3174982070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8997478485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0544681549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1627769470215</t>
   </si>
   <si>
     <t xml:space="preserve">15.4412755966187</t>
@@ -1343,25 +1343,25 @@
     <t xml:space="preserve">15.8203468322754</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8647212982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5165958404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.361873626709</t>
+    <t xml:space="preserve">16.8647174835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5165939331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3618717193604</t>
   </si>
   <si>
     <t xml:space="preserve">16.2845115661621</t>
   </si>
   <si>
-    <t xml:space="preserve">16.129789352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2071495056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0911083221436</t>
+    <t xml:space="preserve">16.1297912597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2071514129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0911102294922</t>
   </si>
   <si>
     <t xml:space="preserve">15.8590259552002</t>
@@ -1370,13 +1370,13 @@
     <t xml:space="preserve">15.781665802002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7429847717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4392337799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4005527496338</t>
+    <t xml:space="preserve">15.7429866790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4392318725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4005508422852</t>
   </si>
   <si>
     <t xml:space="preserve">16.6713180541992</t>
@@ -1391,43 +1391,43 @@
     <t xml:space="preserve">15.4567470550537</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2556095123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0137481689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7099990844727</t>
+    <t xml:space="preserve">15.2556085586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0137500762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7100009918213</t>
   </si>
   <si>
     <t xml:space="preserve">16.5552749633789</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1741638183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9807643890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0968036651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4062480926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5222873687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3231945037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9363880157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3948602676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4103298187256</t>
+    <t xml:space="preserve">17.1741676330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9807624816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0968055725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4062461853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.522289276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3231906890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9363861083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3948583602905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4103317260742</t>
   </si>
   <si>
     <t xml:space="preserve">15.6269445419312</t>
@@ -1442,28 +1442,28 @@
     <t xml:space="preserve">17.0194435119629</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8260402679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9034042358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2902088165283</t>
+    <t xml:space="preserve">16.8260383605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9034004211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2902069091797</t>
   </si>
   <si>
     <t xml:space="preserve">17.3288860321045</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3675689697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2515239715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5609683990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4836082458496</t>
+    <t xml:space="preserve">17.3675670623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2515258789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5609722137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4836101531982</t>
   </si>
   <si>
     <t xml:space="preserve">17.6383323669434</t>
@@ -1472,13 +1472,13 @@
     <t xml:space="preserve">18.0251388549805</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8704166412354</t>
+    <t xml:space="preserve">17.8704147338867</t>
   </si>
   <si>
     <t xml:space="preserve">18.179859161377</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0244979858398</t>
+    <t xml:space="preserve">19.0244998931885</t>
   </si>
   <si>
     <t xml:space="preserve">18.3809642791748</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">16.9732322692871</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6916847229004</t>
+    <t xml:space="preserve">16.691686630249</t>
   </si>
   <si>
     <t xml:space="preserve">16.2492561340332</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">15.8309574127197</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2894763946533</t>
+    <t xml:space="preserve">16.289478302002</t>
   </si>
   <si>
     <t xml:space="preserve">16.1688137054443</t>
@@ -1517,37 +1517,37 @@
     <t xml:space="preserve">16.0883712768555</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3296947479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8631324768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5735445022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7505149841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9918403625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0722846984863</t>
+    <t xml:space="preserve">16.3296966552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8631343841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5735425949097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7505168914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9918384552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0722827911377</t>
   </si>
   <si>
     <t xml:space="preserve">16.1285915374756</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8953104019165</t>
+    <t xml:space="preserve">15.8953123092651</t>
   </si>
   <si>
     <t xml:space="preserve">15.8470478057861</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4503612518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6112442016602</t>
+    <t xml:space="preserve">16.4503593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6112422943115</t>
   </si>
   <si>
     <t xml:space="preserve">16.5308017730713</t>
@@ -1556,16 +1556,16 @@
     <t xml:space="preserve">16.4905796051025</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3699169158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4101390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.933012008667</t>
-  </si>
